--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$589</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$588</definedName>
     <definedName name="Appendix_A_11" localSheetId="0">Requirements!$C$279</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4325" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="1384">
   <si>
     <t>Req ID</t>
   </si>
@@ -4150,12 +4150,6 @@
   </si>
   <si>
     <t>[In Polling the Server for Notifications] In cases where neither push notifications nor asynchronous RPC notifications are being used, and the client is not actively calling the Execute request type, &lt;21&gt;, as specified in [MS-OXCMAPIHTTP] section 2.2.4.2, the client MUST poll the server for pending notifications.</t>
-  </si>
-  <si>
-    <t>[In Polling the Server for Notifications] To poll the server for pending notifications, the client MUST make the Execute request type.</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R399001</t>
   </si>
   <si>
     <t>[In Polling the Server for Notifications] If the client is required to respond to notifications at a rate that is more frequent than the polling interval, then the polling method SHOULD NOT be used for retrieving notifications.</t>
@@ -4700,6 +4694,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4724,73 +4736,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <strike/>
@@ -4938,156 +4888,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5586,34 +5386,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I589" tableType="xml" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I589"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I588" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I588"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="88" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="50" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="87" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="49" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="86" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="48" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="85" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="47" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="84" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="46" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="83" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="45" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="82" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="44" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="81" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="43" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="80">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="42">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5622,12 +5422,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="74"/>
-    <tableColumn id="2" name="Test" dataDxfId="73"/>
-    <tableColumn id="3" name="Description" dataDxfId="72"/>
+    <tableColumn id="1" name="Scope" dataDxfId="36"/>
+    <tableColumn id="2" name="Test" dataDxfId="35"/>
+    <tableColumn id="3" name="Description" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5921,10 +5721,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L590"/>
+  <dimension ref="A1:L589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5979,127 +5779,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -6112,12 +5912,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -6130,12 +5930,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -6148,12 +5948,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -6166,60 +5966,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -8411,7 +8211,7 @@
       <c r="A104" s="22" t="s">
         <v>1076</v>
       </c>
-      <c r="B104" s="48"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="32" t="s">
         <v>1074</v>
       </c>
@@ -8427,7 +8227,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -8923,7 +8723,7 @@
       <c r="A124" s="22" t="s">
         <v>1085</v>
       </c>
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C124" s="32" t="s">
@@ -8948,7 +8748,7 @@
       <c r="A125" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C125" s="20" t="s">
@@ -8975,7 +8775,7 @@
       <c r="A126" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C126" s="20" t="s">
@@ -9002,7 +8802,7 @@
       <c r="A127" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C127" s="20" t="s">
@@ -9027,7 +8827,7 @@
       <c r="A128" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C128" s="20" t="s">
@@ -9054,7 +8854,7 @@
       <c r="A129" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C129" s="20" t="s">
@@ -9079,7 +8879,7 @@
       <c r="A130" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C130" s="20" t="s">
@@ -9106,7 +8906,7 @@
       <c r="A131" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="48" t="s">
+      <c r="B131" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C131" s="20" t="s">
@@ -9131,7 +8931,7 @@
       <c r="A132" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C132" s="20" t="s">
@@ -9156,7 +8956,7 @@
       <c r="A133" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="48" t="s">
+      <c r="B133" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C133" s="20" t="s">
@@ -9181,7 +8981,7 @@
       <c r="A134" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="48" t="s">
+      <c r="B134" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C134" s="20" t="s">
@@ -9206,7 +9006,7 @@
       <c r="A135" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C135" s="20" t="s">
@@ -9231,7 +9031,7 @@
       <c r="A136" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="48" t="s">
+      <c r="B136" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C136" s="20" t="s">
@@ -9256,7 +9056,7 @@
       <c r="A137" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C137" s="20" t="s">
@@ -9281,7 +9081,7 @@
       <c r="A138" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="48" t="s">
+      <c r="B138" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C138" s="20" t="s">
@@ -9306,7 +9106,7 @@
       <c r="A139" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C139" s="20" t="s">
@@ -9331,7 +9131,7 @@
       <c r="A140" s="22" t="s">
         <v>1104</v>
       </c>
-      <c r="B140" s="48" t="s">
+      <c r="B140" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C140" s="32" t="s">
@@ -9356,7 +9156,7 @@
       <c r="A141" s="22" t="s">
         <v>1105</v>
       </c>
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C141" s="32" t="s">
@@ -9381,7 +9181,7 @@
       <c r="A142" s="22" t="s">
         <v>1106</v>
       </c>
-      <c r="B142" s="48" t="s">
+      <c r="B142" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C142" s="32" t="s">
@@ -9406,7 +9206,7 @@
       <c r="A143" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C143" s="20" t="s">
@@ -9431,7 +9231,7 @@
       <c r="A144" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B144" s="48" t="s">
+      <c r="B144" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C144" s="20" t="s">
@@ -9456,7 +9256,7 @@
       <c r="A145" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C145" s="20" t="s">
@@ -9481,7 +9281,7 @@
       <c r="A146" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B146" s="48" t="s">
+      <c r="B146" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C146" s="20" t="s">
@@ -9506,7 +9306,7 @@
       <c r="A147" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C147" s="20" t="s">
@@ -9531,7 +9331,7 @@
       <c r="A148" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C148" s="20" t="s">
@@ -9556,7 +9356,7 @@
       <c r="A149" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C149" s="20" t="s">
@@ -9581,7 +9381,7 @@
       <c r="A150" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="48" t="s">
+      <c r="B150" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C150" s="20" t="s">
@@ -9608,7 +9408,7 @@
       <c r="A151" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B151" s="48" t="s">
+      <c r="B151" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C151" s="20" t="s">
@@ -9633,7 +9433,7 @@
       <c r="A152" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C152" s="20" t="s">
@@ -9658,7 +9458,7 @@
       <c r="A153" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C153" s="20" t="s">
@@ -9685,7 +9485,7 @@
       <c r="A154" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B154" s="48" t="s">
+      <c r="B154" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C154" s="20" t="s">
@@ -9712,7 +9512,7 @@
       <c r="A155" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="48" t="s">
+      <c r="B155" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C155" s="20" t="s">
@@ -9737,7 +9537,7 @@
       <c r="A156" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="48" t="s">
+      <c r="B156" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C156" s="20" t="s">
@@ -9764,7 +9564,7 @@
       <c r="A157" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C157" s="20" t="s">
@@ -9791,7 +9591,7 @@
       <c r="A158" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C158" s="20" t="s">
@@ -9818,7 +9618,7 @@
       <c r="A159" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="48" t="s">
+      <c r="B159" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C159" s="20" t="s">
@@ -9845,7 +9645,7 @@
       <c r="A160" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="48" t="s">
+      <c r="B160" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C160" s="20" t="s">
@@ -9870,7 +9670,7 @@
       <c r="A161" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="48" t="s">
+      <c r="B161" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C161" s="20" t="s">
@@ -9897,7 +9697,7 @@
       <c r="A162" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="48" t="s">
+      <c r="B162" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C162" s="20" t="s">
@@ -9922,7 +9722,7 @@
       <c r="A163" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C163" s="20" t="s">
@@ -9947,7 +9747,7 @@
       <c r="A164" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="48" t="s">
+      <c r="B164" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C164" s="20" t="s">
@@ -9972,7 +9772,7 @@
       <c r="A165" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="48" t="s">
+      <c r="B165" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C165" s="20" t="s">
@@ -9999,7 +9799,7 @@
       <c r="A166" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B166" s="48" t="s">
+      <c r="B166" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C166" s="20" t="s">
@@ -10028,7 +9828,7 @@
       <c r="A167" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C167" s="20" t="s">
@@ -10053,7 +9853,7 @@
       <c r="A168" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C168" s="20" t="s">
@@ -10078,7 +9878,7 @@
       <c r="A169" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="48" t="s">
+      <c r="B169" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C169" s="20" t="s">
@@ -10105,7 +9905,7 @@
       <c r="A170" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B170" s="48" t="s">
+      <c r="B170" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C170" s="20" t="s">
@@ -10132,7 +9932,7 @@
       <c r="A171" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B171" s="48" t="s">
+      <c r="B171" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C171" s="20" t="s">
@@ -10159,7 +9959,7 @@
       <c r="A172" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C172" s="20" t="s">
@@ -10186,7 +9986,7 @@
       <c r="A173" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C173" s="20" t="s">
@@ -10213,7 +10013,7 @@
       <c r="A174" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B174" s="48" t="s">
+      <c r="B174" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C174" s="20" t="s">
@@ -10238,7 +10038,7 @@
       <c r="A175" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B175" s="48" t="s">
+      <c r="B175" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C175" s="20" t="s">
@@ -10263,7 +10063,7 @@
       <c r="A176" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C176" s="20" t="s">
@@ -10290,7 +10090,7 @@
       <c r="A177" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="48" t="s">
+      <c r="B177" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C177" s="20" t="s">
@@ -10317,7 +10117,7 @@
       <c r="A178" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="48" t="s">
+      <c r="B178" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C178" s="20" t="s">
@@ -10344,7 +10144,7 @@
       <c r="A179" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B179" s="48" t="s">
+      <c r="B179" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C179" s="20" t="s">
@@ -10371,7 +10171,7 @@
       <c r="A180" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C180" s="20" t="s">
@@ -10398,7 +10198,7 @@
       <c r="A181" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="48" t="s">
+      <c r="B181" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C181" s="20" t="s">
@@ -10423,7 +10223,7 @@
       <c r="A182" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B182" s="48" t="s">
+      <c r="B182" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C182" s="20" t="s">
@@ -10448,7 +10248,7 @@
       <c r="A183" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C183" s="20" t="s">
@@ -10475,7 +10275,7 @@
       <c r="A184" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C184" s="20" t="s">
@@ -10502,7 +10302,7 @@
       <c r="A185" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B185" s="48" t="s">
+      <c r="B185" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C185" s="20" t="s">
@@ -10529,7 +10329,7 @@
       <c r="A186" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C186" s="20" t="s">
@@ -10556,7 +10356,7 @@
       <c r="A187" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C187" s="20" t="s">
@@ -10583,7 +10383,7 @@
       <c r="A188" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B188" s="48" t="s">
+      <c r="B188" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C188" s="20" t="s">
@@ -10608,7 +10408,7 @@
       <c r="A189" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B189" s="48" t="s">
+      <c r="B189" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C189" s="20" t="s">
@@ -10633,7 +10433,7 @@
       <c r="A190" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="48" t="s">
+      <c r="B190" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C190" s="20" t="s">
@@ -10660,7 +10460,7 @@
       <c r="A191" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B191" s="48" t="s">
+      <c r="B191" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C191" s="20" t="s">
@@ -10687,7 +10487,7 @@
       <c r="A192" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B192" s="48" t="s">
+      <c r="B192" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C192" s="20" t="s">
@@ -10714,7 +10514,7 @@
       <c r="A193" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B193" s="48" t="s">
+      <c r="B193" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C193" s="20" t="s">
@@ -10741,7 +10541,7 @@
       <c r="A194" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="B194" s="48" t="s">
+      <c r="B194" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C194" s="20" t="s">
@@ -10766,7 +10566,7 @@
       <c r="A195" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B195" s="48" t="s">
+      <c r="B195" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C195" s="20" t="s">
@@ -10791,7 +10591,7 @@
       <c r="A196" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B196" s="48" t="s">
+      <c r="B196" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C196" s="20" t="s">
@@ -10818,7 +10618,7 @@
       <c r="A197" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C197" s="20" t="s">
@@ -10845,7 +10645,7 @@
       <c r="A198" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="B198" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C198" s="20" t="s">
@@ -10872,7 +10672,7 @@
       <c r="A199" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B199" s="48" t="s">
+      <c r="B199" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C199" s="20" t="s">
@@ -10899,7 +10699,7 @@
       <c r="A200" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B200" s="48" t="s">
+      <c r="B200" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C200" s="20" t="s">
@@ -10924,7 +10724,7 @@
       <c r="A201" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="B201" s="48" t="s">
+      <c r="B201" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C201" s="20" t="s">
@@ -10949,7 +10749,7 @@
       <c r="A202" s="34" t="s">
         <v>1167</v>
       </c>
-      <c r="B202" s="48" t="s">
+      <c r="B202" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C202" s="32" t="s">
@@ -10978,7 +10778,7 @@
       <c r="A203" s="34" t="s">
         <v>1168</v>
       </c>
-      <c r="B203" s="48" t="s">
+      <c r="B203" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C203" s="32" t="s">
@@ -11005,7 +10805,7 @@
       <c r="A204" s="34" t="s">
         <v>1169</v>
       </c>
-      <c r="B204" s="48" t="s">
+      <c r="B204" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C204" s="32" t="s">
@@ -11032,7 +10832,7 @@
       <c r="A205" s="34" t="s">
         <v>1170</v>
       </c>
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C205" s="32" t="s">
@@ -11059,7 +10859,7 @@
       <c r="A206" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B206" s="48" t="s">
+      <c r="B206" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C206" s="20" t="s">
@@ -11084,7 +10884,7 @@
       <c r="A207" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="B207" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C207" s="20" t="s">
@@ -11109,7 +10909,7 @@
       <c r="A208" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B208" s="48" t="s">
+      <c r="B208" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C208" s="20" t="s">
@@ -11136,7 +10936,7 @@
       <c r="A209" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B209" s="48" t="s">
+      <c r="B209" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C209" s="20" t="s">
@@ -11163,7 +10963,7 @@
       <c r="A210" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="B210" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C210" s="20" t="s">
@@ -11190,7 +10990,7 @@
       <c r="A211" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B211" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C211" s="20" t="s">
@@ -11217,7 +11017,7 @@
       <c r="A212" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="B212" s="48" t="s">
+      <c r="B212" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C212" s="20" t="s">
@@ -11242,7 +11042,7 @@
       <c r="A213" s="22" t="s">
         <v>1188</v>
       </c>
-      <c r="B213" s="48" t="s">
+      <c r="B213" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C213" s="32" t="s">
@@ -11256,10 +11056,10 @@
         <v>6</v>
       </c>
       <c r="G213" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H213" s="34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I213" s="32"/>
     </row>
@@ -11267,7 +11067,7 @@
       <c r="A214" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="B214" s="48" t="s">
+      <c r="B214" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C214" s="20" t="s">
@@ -11294,7 +11094,7 @@
       <c r="A215" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C215" s="20" t="s">
@@ -11321,7 +11121,7 @@
       <c r="A216" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B216" s="48" t="s">
+      <c r="B216" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C216" s="20" t="s">
@@ -11348,7 +11148,7 @@
       <c r="A217" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="B217" s="48" t="s">
+      <c r="B217" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C217" s="20" t="s">
@@ -11375,7 +11175,7 @@
       <c r="A218" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B218" s="48" t="s">
+      <c r="B218" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C218" s="20" t="s">
@@ -11400,7 +11200,7 @@
       <c r="A219" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B219" s="48" t="s">
+      <c r="B219" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C219" s="20" t="s">
@@ -11425,7 +11225,7 @@
       <c r="A220" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C220" s="20" t="s">
@@ -11452,7 +11252,7 @@
       <c r="A221" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B221" s="48" t="s">
+      <c r="B221" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C221" s="20" t="s">
@@ -11479,7 +11279,7 @@
       <c r="A222" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B222" s="48" t="s">
+      <c r="B222" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C222" s="20" t="s">
@@ -11506,7 +11306,7 @@
       <c r="A223" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="B223" s="48" t="s">
+      <c r="B223" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C223" s="20" t="s">
@@ -11533,7 +11333,7 @@
       <c r="A224" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B224" s="48" t="s">
+      <c r="B224" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C224" s="20" t="s">
@@ -11558,7 +11358,7 @@
       <c r="A225" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="B225" s="48" t="s">
+      <c r="B225" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C225" s="20" t="s">
@@ -11583,7 +11383,7 @@
       <c r="A226" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="B226" s="48" t="s">
+      <c r="B226" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C226" s="20" t="s">
@@ -11610,7 +11410,7 @@
       <c r="A227" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B227" s="48" t="s">
+      <c r="B227" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C227" s="20" t="s">
@@ -11637,7 +11437,7 @@
       <c r="A228" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B228" s="48" t="s">
+      <c r="B228" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C228" s="20" t="s">
@@ -11664,7 +11464,7 @@
       <c r="A229" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="B229" s="48" t="s">
+      <c r="B229" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C229" s="20" t="s">
@@ -11691,7 +11491,7 @@
       <c r="A230" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C230" s="20" t="s">
@@ -11716,7 +11516,7 @@
       <c r="A231" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C231" s="20" t="s">
@@ -11741,7 +11541,7 @@
       <c r="A232" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B232" s="48" t="s">
+      <c r="B232" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C232" s="20" t="s">
@@ -11768,7 +11568,7 @@
       <c r="A233" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="B233" s="48" t="s">
+      <c r="B233" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C233" s="20" t="s">
@@ -11795,7 +11595,7 @@
       <c r="A234" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="B234" s="48" t="s">
+      <c r="B234" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C234" s="20" t="s">
@@ -11822,7 +11622,7 @@
       <c r="A235" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="B235" s="48" t="s">
+      <c r="B235" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C235" s="20" t="s">
@@ -11849,7 +11649,7 @@
       <c r="A236" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="B236" s="48" t="s">
+      <c r="B236" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C236" s="20" t="s">
@@ -11876,7 +11676,7 @@
       <c r="A237" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="B237" s="48" t="s">
+      <c r="B237" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C237" s="20" t="s">
@@ -11903,7 +11703,7 @@
       <c r="A238" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B238" s="48" t="s">
+      <c r="B238" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C238" s="20" t="s">
@@ -11928,7 +11728,7 @@
       <c r="A239" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B239" s="48" t="s">
+      <c r="B239" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C239" s="20" t="s">
@@ -11953,7 +11753,7 @@
       <c r="A240" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B240" s="48" t="s">
+      <c r="B240" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C240" s="20" t="s">
@@ -11980,7 +11780,7 @@
       <c r="A241" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="B241" s="48" t="s">
+      <c r="B241" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C241" s="20" t="s">
@@ -12007,7 +11807,7 @@
       <c r="A242" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B242" s="48" t="s">
+      <c r="B242" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C242" s="20" t="s">
@@ -12034,7 +11834,7 @@
       <c r="A243" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="B243" s="48" t="s">
+      <c r="B243" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C243" s="20" t="s">
@@ -12061,7 +11861,7 @@
       <c r="A244" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="B244" s="48" t="s">
+      <c r="B244" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C244" s="20" t="s">
@@ -12086,7 +11886,7 @@
       <c r="A245" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="48" t="s">
+      <c r="B245" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C245" s="20" t="s">
@@ -12111,7 +11911,7 @@
       <c r="A246" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="B246" s="48" t="s">
+      <c r="B246" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C246" s="20" t="s">
@@ -12138,7 +11938,7 @@
       <c r="A247" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B247" s="48" t="s">
+      <c r="B247" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C247" s="20" t="s">
@@ -12165,7 +11965,7 @@
       <c r="A248" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B248" s="48" t="s">
+      <c r="B248" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C248" s="20" t="s">
@@ -12192,7 +11992,7 @@
       <c r="A249" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B249" s="48" t="s">
+      <c r="B249" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C249" s="20" t="s">
@@ -12219,7 +12019,7 @@
       <c r="A250" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C250" s="20" t="s">
@@ -12244,7 +12044,7 @@
       <c r="A251" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="B251" s="48" t="s">
+      <c r="B251" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C251" s="20" t="s">
@@ -12269,7 +12069,7 @@
       <c r="A252" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B252" s="48" t="s">
+      <c r="B252" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C252" s="20" t="s">
@@ -12296,7 +12096,7 @@
       <c r="A253" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B253" s="48" t="s">
+      <c r="B253" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C253" s="20" t="s">
@@ -12323,7 +12123,7 @@
       <c r="A254" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B254" s="48" t="s">
+      <c r="B254" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C254" s="20" t="s">
@@ -12350,7 +12150,7 @@
       <c r="A255" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="B255" s="48" t="s">
+      <c r="B255" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C255" s="20" t="s">
@@ -12377,7 +12177,7 @@
       <c r="A256" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="B256" s="48" t="s">
+      <c r="B256" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C256" s="20" t="s">
@@ -12402,7 +12202,7 @@
       <c r="A257" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B257" s="48" t="s">
+      <c r="B257" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C257" s="20" t="s">
@@ -12427,7 +12227,7 @@
       <c r="A258" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B258" s="48" t="s">
+      <c r="B258" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C258" s="20" t="s">
@@ -12454,7 +12254,7 @@
       <c r="A259" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="B259" s="48" t="s">
+      <c r="B259" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C259" s="20" t="s">
@@ -12481,7 +12281,7 @@
       <c r="A260" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="B260" s="48" t="s">
+      <c r="B260" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C260" s="20" t="s">
@@ -12508,7 +12308,7 @@
       <c r="A261" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B261" s="48" t="s">
+      <c r="B261" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C261" s="20" t="s">
@@ -12535,7 +12335,7 @@
       <c r="A262" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C262" s="20" t="s">
@@ -12562,7 +12362,7 @@
       <c r="A263" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B263" s="48" t="s">
+      <c r="B263" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C263" s="20" t="s">
@@ -12587,7 +12387,7 @@
       <c r="A264" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B264" s="48" t="s">
+      <c r="B264" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C264" s="20" t="s">
@@ -12612,7 +12412,7 @@
       <c r="A265" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B265" s="48" t="s">
+      <c r="B265" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C265" s="20" t="s">
@@ -12639,7 +12439,7 @@
       <c r="A266" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B266" s="48" t="s">
+      <c r="B266" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C266" s="20" t="s">
@@ -12666,7 +12466,7 @@
       <c r="A267" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="B267" s="48" t="s">
+      <c r="B267" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C267" s="20" t="s">
@@ -12693,7 +12493,7 @@
       <c r="A268" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="B268" s="48" t="s">
+      <c r="B268" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C268" s="20" t="s">
@@ -12718,7 +12518,7 @@
       <c r="A269" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="B269" s="48" t="s">
+      <c r="B269" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C269" s="20" t="s">
@@ -12743,7 +12543,7 @@
       <c r="A270" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="B270" s="48" t="s">
+      <c r="B270" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C270" s="20" t="s">
@@ -12768,7 +12568,7 @@
       <c r="A271" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B271" s="48" t="s">
+      <c r="B271" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C271" s="20" t="s">
@@ -12795,7 +12595,7 @@
       <c r="A272" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B272" s="48" t="s">
+      <c r="B272" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C272" s="20" t="s">
@@ -12822,7 +12622,7 @@
       <c r="A273" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B273" s="48" t="s">
+      <c r="B273" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C273" s="20" t="s">
@@ -12847,7 +12647,7 @@
       <c r="A274" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="B274" s="48" t="s">
+      <c r="B274" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C274" s="31" t="s">
@@ -12872,7 +12672,7 @@
       <c r="A275" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B275" s="48" t="s">
+      <c r="B275" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C275" s="20" t="s">
@@ -12897,7 +12697,7 @@
       <c r="A276" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="B276" s="48" t="s">
+      <c r="B276" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C276" s="20" t="s">
@@ -12924,7 +12724,7 @@
       <c r="A277" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B277" s="48" t="s">
+      <c r="B277" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C277" s="20" t="s">
@@ -12951,7 +12751,7 @@
       <c r="A278" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B278" s="48" t="s">
+      <c r="B278" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C278" s="20" t="s">
@@ -12976,7 +12776,7 @@
       <c r="A279" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B279" s="48" t="s">
+      <c r="B279" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C279" s="20" t="s">
@@ -12996,14 +12796,14 @@
         <v>17</v>
       </c>
       <c r="I279" s="20" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="60">
       <c r="A280" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B280" s="48" t="s">
+      <c r="B280" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C280" s="20" t="s">
@@ -13030,7 +12830,7 @@
       <c r="A281" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="B281" s="48" t="s">
+      <c r="B281" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C281" s="20" t="s">
@@ -13057,7 +12857,7 @@
       <c r="A282" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B282" s="48" t="s">
+      <c r="B282" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C282" s="20" t="s">
@@ -13084,7 +12884,7 @@
       <c r="A283" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B283" s="48" t="s">
+      <c r="B283" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C283" s="20" t="s">
@@ -13109,7 +12909,7 @@
       <c r="A284" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B284" s="48" t="s">
+      <c r="B284" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C284" s="20" t="s">
@@ -13134,7 +12934,7 @@
       <c r="A285" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B285" s="48" t="s">
+      <c r="B285" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C285" s="20" t="s">
@@ -13159,7 +12959,7 @@
       <c r="A286" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B286" s="48" t="s">
+      <c r="B286" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C286" s="20" t="s">
@@ -13184,7 +12984,7 @@
       <c r="A287" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B287" s="48" t="s">
+      <c r="B287" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C287" s="20" t="s">
@@ -13211,7 +13011,7 @@
       <c r="A288" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="B288" s="48" t="s">
+      <c r="B288" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C288" s="20" t="s">
@@ -13238,7 +13038,7 @@
       <c r="A289" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B289" s="48" t="s">
+      <c r="B289" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C289" s="20" t="s">
@@ -13265,7 +13065,7 @@
       <c r="A290" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="B290" s="48" t="s">
+      <c r="B290" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C290" s="20" t="s">
@@ -13290,7 +13090,7 @@
       <c r="A291" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="B291" s="48" t="s">
+      <c r="B291" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C291" s="20" t="s">
@@ -13315,7 +13115,7 @@
       <c r="A292" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="B292" s="48" t="s">
+      <c r="B292" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C292" s="20" t="s">
@@ -13340,7 +13140,7 @@
       <c r="A293" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="B293" s="48" t="s">
+      <c r="B293" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C293" s="20" t="s">
@@ -13367,7 +13167,7 @@
       <c r="A294" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B294" s="48" t="s">
+      <c r="B294" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C294" s="20" t="s">
@@ -13394,7 +13194,7 @@
       <c r="A295" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="B295" s="48" t="s">
+      <c r="B295" s="35" t="s">
         <v>1080</v>
       </c>
       <c r="C295" s="20" t="s">
@@ -13541,7 +13341,7 @@
         <v>17</v>
       </c>
       <c r="I300" s="20" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="45">
@@ -15695,7 +15495,7 @@
         <v>604</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -15720,7 +15520,7 @@
         <v>604</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D385" s="29"/>
       <c r="E385" s="29" t="s">
@@ -15745,7 +15545,7 @@
         <v>604</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -15770,7 +15570,7 @@
         <v>604</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -15795,7 +15595,7 @@
         <v>604</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -15820,7 +15620,7 @@
         <v>604</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -15845,7 +15645,7 @@
         <v>604</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -15870,7 +15670,7 @@
         <v>604</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D391" s="29"/>
       <c r="E391" s="29" t="s">
@@ -16413,39 +16213,39 @@
       <c r="I412" s="31"/>
     </row>
     <row r="413" spans="1:9" ht="30">
-      <c r="A413" s="22" t="s">
-        <v>1298</v>
+      <c r="A413" s="29" t="s">
+        <v>416</v>
       </c>
       <c r="B413" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="C413" s="32" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D413" s="34"/>
+      <c r="C413" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="D413" s="29"/>
       <c r="E413" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F413" s="34" t="s">
+      <c r="F413" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G413" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H413" s="34" t="s">
+      <c r="G413" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H413" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I413" s="32"/>
+      <c r="I413" s="31"/>
     </row>
     <row r="414" spans="1:9" ht="30">
       <c r="A414" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B414" s="30" t="s">
         <v>607</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -16462,15 +16262,15 @@
       </c>
       <c r="I414" s="31"/>
     </row>
-    <row r="415" spans="1:9" ht="30">
+    <row r="415" spans="1:9" ht="45">
       <c r="A415" s="29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B415" s="30" t="s">
         <v>607</v>
       </c>
       <c r="C415" s="31" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -16489,13 +16289,13 @@
     </row>
     <row r="416" spans="1:9" ht="45">
       <c r="A416" s="29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B416" s="30" t="s">
         <v>607</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -16514,13 +16314,13 @@
     </row>
     <row r="417" spans="1:9" ht="45">
       <c r="A417" s="29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B417" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="C417" s="31" t="s">
-        <v>782</v>
+      <c r="C417" s="20" t="s">
+        <v>1297</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -16530,22 +16330,22 @@
         <v>7</v>
       </c>
       <c r="G417" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H417" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I417" s="31"/>
     </row>
-    <row r="418" spans="1:9" ht="45">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B418" s="30" t="s">
-        <v>607</v>
-      </c>
-      <c r="C418" s="20" t="s">
-        <v>1299</v>
+        <v>608</v>
+      </c>
+      <c r="C418" s="31" t="s">
+        <v>783</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -16562,15 +16362,15 @@
       </c>
       <c r="I418" s="31"/>
     </row>
-    <row r="419" spans="1:9" ht="30">
+    <row r="419" spans="1:9" ht="45">
       <c r="A419" s="29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B419" s="30" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C419" s="31" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -16580,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="G419" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H419" s="29" t="s">
         <v>18</v>
@@ -16589,13 +16389,13 @@
     </row>
     <row r="420" spans="1:9" ht="45">
       <c r="A420" s="29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B420" s="30" t="s">
         <v>609</v>
       </c>
       <c r="C420" s="31" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="29" t="s">
@@ -16614,13 +16414,13 @@
     </row>
     <row r="421" spans="1:9" ht="45">
       <c r="A421" s="29" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B421" s="30" t="s">
         <v>609</v>
       </c>
       <c r="C421" s="31" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -16639,13 +16439,13 @@
     </row>
     <row r="422" spans="1:9" ht="45">
       <c r="A422" s="29" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B422" s="30" t="s">
         <v>609</v>
       </c>
       <c r="C422" s="31" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="29" t="s">
@@ -16662,15 +16462,15 @@
       </c>
       <c r="I422" s="31"/>
     </row>
-    <row r="423" spans="1:9" ht="45">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B423" s="30" t="s">
         <v>609</v>
       </c>
       <c r="C423" s="31" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -16687,15 +16487,15 @@
       </c>
       <c r="I423" s="31"/>
     </row>
-    <row r="424" spans="1:9" ht="30">
+    <row r="424" spans="1:9" ht="45">
       <c r="A424" s="29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B424" s="30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C424" s="31" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="29" t="s">
@@ -16712,15 +16512,15 @@
       </c>
       <c r="I424" s="31"/>
     </row>
-    <row r="425" spans="1:9" ht="45">
+    <row r="425" spans="1:9" ht="60">
       <c r="A425" s="29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B425" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C425" s="31" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -16737,15 +16537,15 @@
       </c>
       <c r="I425" s="31"/>
     </row>
-    <row r="426" spans="1:9" ht="60">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B426" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D426" s="29"/>
       <c r="E426" s="29" t="s">
@@ -16764,13 +16564,13 @@
     </row>
     <row r="427" spans="1:9" ht="30">
       <c r="A427" s="29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B427" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -16789,13 +16589,13 @@
     </row>
     <row r="428" spans="1:9" ht="30">
       <c r="A428" s="29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B428" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C428" s="31" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -16812,15 +16612,15 @@
       </c>
       <c r="I428" s="31"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="29" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B429" s="30" t="s">
         <v>610</v>
       </c>
       <c r="C429" s="31" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -16837,15 +16637,15 @@
       </c>
       <c r="I429" s="31"/>
     </row>
-    <row r="430" spans="1:9" ht="45">
+    <row r="430" spans="1:9" ht="60">
       <c r="A430" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B430" s="30" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C430" s="31" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="29" t="s">
@@ -16862,15 +16662,15 @@
       </c>
       <c r="I430" s="31"/>
     </row>
-    <row r="431" spans="1:9" ht="60">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B431" s="30" t="s">
         <v>611</v>
       </c>
       <c r="C431" s="31" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -16880,22 +16680,22 @@
         <v>7</v>
       </c>
       <c r="G431" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H431" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I431" s="31"/>
     </row>
-    <row r="432" spans="1:9" ht="30">
+    <row r="432" spans="1:9" ht="75">
       <c r="A432" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B432" s="30" t="s">
         <v>611</v>
       </c>
       <c r="C432" s="31" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -16905,22 +16705,22 @@
         <v>7</v>
       </c>
       <c r="G432" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H432" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I432" s="31"/>
     </row>
-    <row r="433" spans="1:9" ht="75">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B433" s="30" t="s">
         <v>611</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D433" s="29"/>
       <c r="E433" s="29" t="s">
@@ -16930,22 +16730,22 @@
         <v>7</v>
       </c>
       <c r="G433" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H433" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I433" s="31"/>
     </row>
-    <row r="434" spans="1:9" ht="30">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B434" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="C434" s="31" t="s">
-        <v>798</v>
+        <v>612</v>
+      </c>
+      <c r="C434" s="20" t="s">
+        <v>1298</v>
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="29" t="s">
@@ -16955,22 +16755,22 @@
         <v>7</v>
       </c>
       <c r="G434" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H434" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I434" s="31"/>
     </row>
-    <row r="435" spans="1:9" ht="45">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B435" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="C435" s="20" t="s">
-        <v>1300</v>
+      <c r="C435" s="31" t="s">
+        <v>799</v>
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="29" t="s">
@@ -16989,13 +16789,13 @@
     </row>
     <row r="436" spans="1:9" ht="30">
       <c r="A436" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B436" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C436" s="31" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="29" t="s">
@@ -17014,13 +16814,13 @@
     </row>
     <row r="437" spans="1:9" ht="30">
       <c r="A437" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B437" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="C437" s="31" t="s">
-        <v>800</v>
+      <c r="C437" s="20" t="s">
+        <v>801</v>
       </c>
       <c r="D437" s="29"/>
       <c r="E437" s="29" t="s">
@@ -17037,15 +16837,15 @@
       </c>
       <c r="I437" s="31"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
+    <row r="438" spans="1:9" ht="45">
       <c r="A438" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B438" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C438" s="20" t="s">
-        <v>801</v>
+        <v>1299</v>
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="29" t="s">
@@ -17055,22 +16855,22 @@
         <v>7</v>
       </c>
       <c r="G438" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H438" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I438" s="31"/>
     </row>
-    <row r="439" spans="1:9" ht="45">
+    <row r="439" spans="1:9" ht="60">
       <c r="A439" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B439" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="C439" s="20" t="s">
-        <v>1301</v>
+      <c r="C439" s="31" t="s">
+        <v>802</v>
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="29" t="s">
@@ -17089,13 +16889,13 @@
     </row>
     <row r="440" spans="1:9" ht="60">
       <c r="A440" s="29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B440" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C440" s="31" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29" t="s">
@@ -17114,13 +16914,13 @@
     </row>
     <row r="441" spans="1:9" ht="60">
       <c r="A441" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B441" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C441" s="31" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -17130,7 +16930,7 @@
         <v>7</v>
       </c>
       <c r="G441" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H441" s="29" t="s">
         <v>18</v>
@@ -17139,13 +16939,13 @@
     </row>
     <row r="442" spans="1:9" ht="60">
       <c r="A442" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B442" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -17164,13 +16964,13 @@
     </row>
     <row r="443" spans="1:9" ht="60">
       <c r="A443" s="29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B443" s="30" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C443" s="31" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29" t="s">
@@ -17180,22 +16980,22 @@
         <v>7</v>
       </c>
       <c r="G443" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H443" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I443" s="31"/>
     </row>
-    <row r="444" spans="1:9" ht="60">
+    <row r="444" spans="1:9" ht="45">
       <c r="A444" s="29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B444" s="30" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C444" s="31" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -17205,22 +17005,22 @@
         <v>7</v>
       </c>
       <c r="G444" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H444" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I444" s="31"/>
     </row>
-    <row r="445" spans="1:9" ht="45">
+    <row r="445" spans="1:9" ht="60">
       <c r="A445" s="29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B445" s="30" t="s">
         <v>614</v>
       </c>
       <c r="C445" s="31" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29" t="s">
@@ -17237,15 +17037,15 @@
       </c>
       <c r="I445" s="31"/>
     </row>
-    <row r="446" spans="1:9" ht="60">
+    <row r="446" spans="1:9" ht="45">
       <c r="A446" s="29" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B446" s="30" t="s">
         <v>614</v>
       </c>
       <c r="C446" s="31" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -17262,65 +17062,65 @@
       </c>
       <c r="I446" s="31"/>
     </row>
-    <row r="447" spans="1:9" ht="45">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="29" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B447" s="30" t="s">
         <v>614</v>
       </c>
       <c r="C447" s="31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F447" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G447" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H447" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I447" s="31"/>
     </row>
-    <row r="448" spans="1:9" ht="30">
+    <row r="448" spans="1:9" ht="60">
       <c r="A448" s="29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B448" s="30" t="s">
         <v>614</v>
       </c>
       <c r="C448" s="31" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F448" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G448" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H448" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I448" s="31"/>
     </row>
-    <row r="449" spans="1:9" ht="60">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="29" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B449" s="30" t="s">
         <v>614</v>
       </c>
       <c r="C449" s="31" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D449" s="29"/>
       <c r="E449" s="29" t="s">
@@ -17337,15 +17137,15 @@
       </c>
       <c r="I449" s="31"/>
     </row>
-    <row r="450" spans="1:9" ht="45">
+    <row r="450" spans="1:9" ht="90">
       <c r="A450" s="29" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B450" s="30" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C450" s="31" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D450" s="29"/>
       <c r="E450" s="29" t="s">
@@ -17362,15 +17162,15 @@
       </c>
       <c r="I450" s="31"/>
     </row>
-    <row r="451" spans="1:9" ht="90">
+    <row r="451" spans="1:9" ht="75">
       <c r="A451" s="29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B451" s="30" t="s">
         <v>615</v>
       </c>
       <c r="C451" s="31" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D451" s="29"/>
       <c r="E451" s="29" t="s">
@@ -17387,15 +17187,15 @@
       </c>
       <c r="I451" s="31"/>
     </row>
-    <row r="452" spans="1:9" ht="75">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B452" s="30" t="s">
         <v>615</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29" t="s">
@@ -17412,15 +17212,15 @@
       </c>
       <c r="I452" s="31"/>
     </row>
-    <row r="453" spans="1:9" ht="30">
+    <row r="453" spans="1:9" ht="60">
       <c r="A453" s="29" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B453" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="C453" s="31" t="s">
-        <v>815</v>
+        <v>616</v>
+      </c>
+      <c r="C453" s="20" t="s">
+        <v>1300</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -17439,13 +17239,13 @@
     </row>
     <row r="454" spans="1:9" ht="60">
       <c r="A454" s="29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B454" s="30" t="s">
         <v>616</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29" t="s">
@@ -17462,15 +17262,15 @@
       </c>
       <c r="I454" s="31"/>
     </row>
-    <row r="455" spans="1:9" ht="60">
+    <row r="455" spans="1:9" ht="75">
       <c r="A455" s="29" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B455" s="30" t="s">
         <v>616</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -17489,13 +17289,13 @@
     </row>
     <row r="456" spans="1:9" ht="75">
       <c r="A456" s="29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B456" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="C456" s="20" t="s">
-        <v>1304</v>
+      <c r="C456" s="31" t="s">
+        <v>816</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29" t="s">
@@ -17512,15 +17312,15 @@
       </c>
       <c r="I456" s="31"/>
     </row>
-    <row r="457" spans="1:9" ht="75">
+    <row r="457" spans="1:9" ht="30">
       <c r="A457" s="29" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B457" s="30" t="s">
         <v>616</v>
       </c>
       <c r="C457" s="31" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -17537,15 +17337,15 @@
       </c>
       <c r="I457" s="31"/>
     </row>
-    <row r="458" spans="1:9" ht="30">
+    <row r="458" spans="1:9" ht="45">
       <c r="A458" s="29" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B458" s="30" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C458" s="31" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="29" t="s">
@@ -17562,15 +17362,15 @@
       </c>
       <c r="I458" s="31"/>
     </row>
-    <row r="459" spans="1:9" ht="45">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B459" s="30" t="s">
         <v>617</v>
       </c>
       <c r="C459" s="31" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29" t="s">
@@ -17587,15 +17387,15 @@
       </c>
       <c r="I459" s="31"/>
     </row>
-    <row r="460" spans="1:9" ht="30">
+    <row r="460" spans="1:9" ht="75">
       <c r="A460" s="29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B460" s="30" t="s">
         <v>617</v>
       </c>
       <c r="C460" s="31" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="29" t="s">
@@ -17614,13 +17414,13 @@
     </row>
     <row r="461" spans="1:9" ht="75">
       <c r="A461" s="29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B461" s="30" t="s">
         <v>617</v>
       </c>
       <c r="C461" s="31" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="29" t="s">
@@ -17637,15 +17437,15 @@
       </c>
       <c r="I461" s="31"/>
     </row>
-    <row r="462" spans="1:9" ht="75">
+    <row r="462" spans="1:9" ht="60">
       <c r="A462" s="29" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B462" s="30" t="s">
         <v>617</v>
       </c>
       <c r="C462" s="31" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -17664,13 +17464,13 @@
     </row>
     <row r="463" spans="1:9" ht="60">
       <c r="A463" s="29" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B463" s="30" t="s">
         <v>617</v>
       </c>
       <c r="C463" s="31" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -17687,15 +17487,15 @@
       </c>
       <c r="I463" s="31"/>
     </row>
-    <row r="464" spans="1:9" ht="60">
+    <row r="464" spans="1:9" ht="75">
       <c r="A464" s="29" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B464" s="30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C464" s="31" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29" t="s">
@@ -17714,13 +17514,13 @@
     </row>
     <row r="465" spans="1:9" ht="75">
       <c r="A465" s="29" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B465" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="C465" s="31" t="s">
-        <v>824</v>
+      <c r="C465" s="20" t="s">
+        <v>1303</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29" t="s">
@@ -17737,15 +17537,15 @@
       </c>
       <c r="I465" s="31"/>
     </row>
-    <row r="466" spans="1:9" ht="75">
+    <row r="466" spans="1:9" ht="30">
       <c r="A466" s="29" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B466" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="C466" s="20" t="s">
-        <v>1305</v>
+      <c r="C466" s="31" t="s">
+        <v>825</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -17764,13 +17564,13 @@
     </row>
     <row r="467" spans="1:9" ht="30">
       <c r="A467" s="29" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B467" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C467" s="31" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -17787,15 +17587,15 @@
       </c>
       <c r="I467" s="31"/>
     </row>
-    <row r="468" spans="1:9" ht="30">
+    <row r="468" spans="1:9" ht="60">
       <c r="A468" s="29" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C468" s="31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -17812,15 +17612,15 @@
       </c>
       <c r="I468" s="31"/>
     </row>
-    <row r="469" spans="1:9" ht="60">
+    <row r="469" spans="1:9" ht="75">
       <c r="A469" s="29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B469" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C469" s="31" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29" t="s">
@@ -17839,13 +17639,13 @@
     </row>
     <row r="470" spans="1:9" ht="75">
       <c r="A470" s="29" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C470" s="31" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -17862,15 +17662,15 @@
       </c>
       <c r="I470" s="31"/>
     </row>
-    <row r="471" spans="1:9" ht="75">
+    <row r="471" spans="1:9" ht="45">
       <c r="A471" s="29" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B471" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C471" s="31" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29" t="s">
@@ -17889,13 +17689,13 @@
     </row>
     <row r="472" spans="1:9" ht="45">
       <c r="A472" s="29" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B472" s="30" t="s">
         <v>618</v>
       </c>
       <c r="C472" s="31" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29" t="s">
@@ -17914,38 +17714,38 @@
     </row>
     <row r="473" spans="1:9" ht="45">
       <c r="A473" s="29" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B473" s="30" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C473" s="31" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F473" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G473" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H473" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I473" s="31"/>
     </row>
-    <row r="474" spans="1:9" ht="45">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B474" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C474" s="31" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29" t="s">
@@ -17962,40 +17762,44 @@
       </c>
       <c r="I474" s="31"/>
     </row>
-    <row r="475" spans="1:9" ht="30">
+    <row r="475" spans="1:9" ht="45">
       <c r="A475" s="29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B475" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C475" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="D475" s="29"/>
+        <v>834</v>
+      </c>
+      <c r="D475" s="29" t="s">
+        <v>915</v>
+      </c>
       <c r="E475" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F475" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G475" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H475" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I475" s="31"/>
-    </row>
-    <row r="476" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I475" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B476" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C476" s="31" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D476" s="29" t="s">
         <v>915</v>
@@ -18010,21 +17814,19 @@
         <v>15</v>
       </c>
       <c r="H476" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I476" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I476" s="31"/>
+    </row>
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="29" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B477" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D477" s="29" t="s">
         <v>915</v>
@@ -18043,24 +17845,22 @@
       </c>
       <c r="I477" s="31"/>
     </row>
-    <row r="478" spans="1:9" ht="45">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="29" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B478" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C478" s="31" t="s">
-        <v>836</v>
-      </c>
-      <c r="D478" s="29" t="s">
-        <v>915</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F478" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G478" s="29" t="s">
         <v>15</v>
@@ -18070,15 +17870,15 @@
       </c>
       <c r="I478" s="31"/>
     </row>
-    <row r="479" spans="1:9" ht="30">
+    <row r="479" spans="1:9" ht="45">
       <c r="A479" s="29" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B479" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C479" s="31" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -18097,13 +17897,13 @@
     </row>
     <row r="480" spans="1:9" ht="45">
       <c r="A480" s="29" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B480" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C480" s="31" t="s">
-        <v>838</v>
+      <c r="C480" s="20" t="s">
+        <v>1305</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29" t="s">
@@ -18122,38 +17922,42 @@
     </row>
     <row r="481" spans="1:9" ht="45">
       <c r="A481" s="29" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B481" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C481" s="20" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D481" s="29"/>
+        <v>1304</v>
+      </c>
+      <c r="D481" s="29" t="s">
+        <v>916</v>
+      </c>
       <c r="E481" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F481" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G481" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H481" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I481" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I481" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="482" spans="1:9" ht="45">
       <c r="A482" s="29" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B482" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C482" s="20" t="s">
-        <v>1306</v>
+      <c r="C482" s="31" t="s">
+        <v>839</v>
       </c>
       <c r="D482" s="29" t="s">
         <v>916</v>
@@ -18168,21 +17972,19 @@
         <v>15</v>
       </c>
       <c r="H482" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I482" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I482" s="31"/>
     </row>
     <row r="483" spans="1:9" ht="45">
       <c r="A483" s="29" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B483" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C483" s="31" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D483" s="29" t="s">
         <v>916</v>
@@ -18203,22 +18005,20 @@
     </row>
     <row r="484" spans="1:9" ht="45">
       <c r="A484" s="29" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B484" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C484" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="D484" s="29" t="s">
-        <v>916</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F484" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G484" s="29" t="s">
         <v>15</v>
@@ -18230,13 +18030,13 @@
     </row>
     <row r="485" spans="1:9" ht="45">
       <c r="A485" s="29" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B485" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C485" s="31" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D485" s="29"/>
       <c r="E485" s="29" t="s">
@@ -18255,13 +18055,13 @@
     </row>
     <row r="486" spans="1:9" ht="45">
       <c r="A486" s="29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B486" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C486" s="31" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="29" t="s">
@@ -18278,22 +18078,24 @@
       </c>
       <c r="I486" s="31"/>
     </row>
-    <row r="487" spans="1:9" ht="45">
+    <row r="487" spans="1:9" ht="60">
       <c r="A487" s="29" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B487" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C487" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="D487" s="29"/>
+      <c r="C487" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D487" s="29" t="s">
+        <v>917</v>
+      </c>
       <c r="E487" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F487" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G487" s="29" t="s">
         <v>15</v>
@@ -18305,13 +18107,13 @@
     </row>
     <row r="488" spans="1:9" ht="60">
       <c r="A488" s="29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B488" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C488" s="20" t="s">
-        <v>1308</v>
+      <c r="C488" s="31" t="s">
+        <v>844</v>
       </c>
       <c r="D488" s="29" t="s">
         <v>917</v>
@@ -18326,22 +18128,24 @@
         <v>15</v>
       </c>
       <c r="H488" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I488" s="31"/>
-    </row>
-    <row r="489" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I488" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="45">
       <c r="A489" s="29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B489" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C489" s="31" t="s">
-        <v>844</v>
+      <c r="C489" s="20" t="s">
+        <v>1307</v>
       </c>
       <c r="D489" s="29" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E489" s="29" t="s">
         <v>22</v>
@@ -18353,21 +18157,19 @@
         <v>15</v>
       </c>
       <c r="H489" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I489" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I489" s="31"/>
     </row>
     <row r="490" spans="1:9" ht="45">
       <c r="A490" s="29" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B490" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C490" s="20" t="s">
-        <v>1309</v>
+      <c r="C490" s="31" t="s">
+        <v>845</v>
       </c>
       <c r="D490" s="29" t="s">
         <v>918</v>
@@ -18382,22 +18184,24 @@
         <v>15</v>
       </c>
       <c r="H490" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I490" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I490" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="491" spans="1:9" ht="45">
       <c r="A491" s="29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B491" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C491" s="31" t="s">
-        <v>845</v>
+      <c r="C491" s="20" t="s">
+        <v>846</v>
       </c>
       <c r="D491" s="29" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E491" s="29" t="s">
         <v>22</v>
@@ -18417,13 +18221,13 @@
     </row>
     <row r="492" spans="1:9" ht="45">
       <c r="A492" s="29" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B492" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C492" s="20" t="s">
-        <v>846</v>
+      <c r="C492" s="31" t="s">
+        <v>847</v>
       </c>
       <c r="D492" s="29" t="s">
         <v>919</v>
@@ -18438,30 +18242,26 @@
         <v>15</v>
       </c>
       <c r="H492" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I492" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I492" s="31"/>
     </row>
     <row r="493" spans="1:9" ht="45">
       <c r="A493" s="29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B493" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C493" s="31" t="s">
-        <v>847</v>
-      </c>
-      <c r="D493" s="29" t="s">
-        <v>919</v>
-      </c>
+      <c r="C493" s="20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F493" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G493" s="29" t="s">
         <v>15</v>
@@ -18471,22 +18271,24 @@
       </c>
       <c r="I493" s="31"/>
     </row>
-    <row r="494" spans="1:9" ht="45">
+    <row r="494" spans="1:9" ht="75">
       <c r="A494" s="29" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B494" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D494" s="29"/>
+        <v>1308</v>
+      </c>
+      <c r="D494" s="29" t="s">
+        <v>919</v>
+      </c>
       <c r="E494" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F494" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G494" s="29" t="s">
         <v>15</v>
@@ -18496,9 +18298,9 @@
       </c>
       <c r="I494" s="31"/>
     </row>
-    <row r="495" spans="1:9" ht="75">
+    <row r="495" spans="1:9" ht="60">
       <c r="A495" s="29" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B495" s="30" t="s">
         <v>619</v>
@@ -18525,13 +18327,13 @@
     </row>
     <row r="496" spans="1:9" ht="60">
       <c r="A496" s="29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B496" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D496" s="29" t="s">
         <v>919</v>
@@ -18550,103 +18352,101 @@
       </c>
       <c r="I496" s="31"/>
     </row>
-    <row r="497" spans="1:9" ht="60">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="29" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B497" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D497" s="29" t="s">
-        <v>919</v>
-      </c>
+        <v>1312</v>
+      </c>
+      <c r="D497" s="29"/>
       <c r="E497" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F497" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G497" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H497" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I497" s="31"/>
     </row>
-    <row r="498" spans="1:9" ht="30">
+    <row r="498" spans="1:9" ht="60">
       <c r="A498" s="29" t="s">
-        <v>500</v>
+        <v>1037</v>
       </c>
       <c r="B498" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D498" s="29"/>
+        <v>1313</v>
+      </c>
+      <c r="D498" s="29" t="s">
+        <v>919</v>
+      </c>
       <c r="E498" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F498" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G498" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H498" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I498" s="31"/>
     </row>
-    <row r="499" spans="1:9" ht="60">
-      <c r="A499" s="29" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B499" s="30" t="s">
+    <row r="499" spans="1:9" ht="45">
+      <c r="A499" s="34" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B499" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C499" s="20" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D499" s="29" t="s">
-        <v>919</v>
+      <c r="C499" s="32" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D499" s="34" t="s">
+        <v>1330</v>
       </c>
       <c r="E499" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F499" s="29" t="s">
+      <c r="F499" s="34" t="s">
         <v>6</v>
       </c>
       <c r="G499" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H499" s="29" t="s">
+      <c r="H499" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I499" s="31"/>
+      <c r="I499" s="32"/>
     </row>
     <row r="500" spans="1:9" ht="45">
       <c r="A500" s="34" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B500" s="48" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B500" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C500" s="32" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D500" s="34" t="s">
         <v>1332</v>
       </c>
+      <c r="D500" s="34"/>
       <c r="E500" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F500" s="34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G500" s="29" t="s">
         <v>15</v>
@@ -18658,9 +18458,9 @@
     </row>
     <row r="501" spans="1:9" ht="45">
       <c r="A501" s="34" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B501" s="48" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B501" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C501" s="32" t="s">
@@ -18683,67 +18483,71 @@
     </row>
     <row r="502" spans="1:9" ht="45">
       <c r="A502" s="34" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B502" s="48" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B502" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C502" s="32" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D502" s="34"/>
+        <v>1333</v>
+      </c>
+      <c r="D502" s="34" t="s">
+        <v>1330</v>
+      </c>
       <c r="E502" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F502" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G502" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H502" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I502" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="I502" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="503" spans="1:9" ht="45">
-      <c r="A503" s="34" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B503" s="48" t="s">
+      <c r="A503" s="22" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B503" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C503" s="32" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D503" s="34" t="s">
-        <v>1332</v>
+      <c r="C503" s="20" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D503" s="22" t="s">
+        <v>1038</v>
       </c>
       <c r="E503" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F503" s="34" t="s">
+      <c r="F503" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G503" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H503" s="34" t="s">
+      <c r="H503" s="29" t="s">
         <v>21</v>
       </c>
       <c r="I503" s="31" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="45">
-      <c r="A504" s="22" t="s">
-        <v>1325</v>
+    <row r="504" spans="1:9" ht="30">
+      <c r="A504" s="29" t="s">
+        <v>501</v>
       </c>
       <c r="B504" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C504" s="20" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="D504" s="22" t="s">
         <v>1038</v>
@@ -18758,21 +18562,19 @@
         <v>15</v>
       </c>
       <c r="H504" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I504" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="505" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I504" s="31"/>
+    </row>
+    <row r="505" spans="1:9" ht="45">
       <c r="A505" s="29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B505" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D505" s="22" t="s">
         <v>1038</v>
@@ -18793,22 +18595,20 @@
     </row>
     <row r="506" spans="1:9" ht="45">
       <c r="A506" s="29" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B506" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C506" s="20" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D506" s="22" t="s">
-        <v>1038</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="D506" s="29"/>
       <c r="E506" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F506" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G506" s="29" t="s">
         <v>15</v>
@@ -18820,13 +18620,13 @@
     </row>
     <row r="507" spans="1:9" ht="45">
       <c r="A507" s="29" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B507" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -18843,15 +18643,15 @@
       </c>
       <c r="I507" s="31"/>
     </row>
-    <row r="508" spans="1:9" ht="45">
+    <row r="508" spans="1:9" ht="30">
       <c r="A508" s="29" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B508" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C508" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="29" t="s">
@@ -18868,9 +18668,9 @@
       </c>
       <c r="I508" s="31"/>
     </row>
-    <row r="509" spans="1:9" ht="30">
-      <c r="A509" s="29" t="s">
-        <v>505</v>
+    <row r="509" spans="1:9" ht="75">
+      <c r="A509" s="22" t="s">
+        <v>506</v>
       </c>
       <c r="B509" s="30" t="s">
         <v>619</v>
@@ -18878,30 +18678,34 @@
       <c r="C509" s="20" t="s">
         <v>1320</v>
       </c>
-      <c r="D509" s="29"/>
+      <c r="D509" s="29" t="s">
+        <v>920</v>
+      </c>
       <c r="E509" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F509" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G509" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H509" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I509" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I509" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="510" spans="1:9" ht="75">
-      <c r="A510" s="22" t="s">
-        <v>506</v>
+      <c r="A510" s="29" t="s">
+        <v>507</v>
       </c>
       <c r="B510" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D510" s="29" t="s">
         <v>920</v>
@@ -18916,21 +18720,19 @@
         <v>15</v>
       </c>
       <c r="H510" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I510" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="511" spans="1:9" ht="75">
-      <c r="A511" s="29" t="s">
-        <v>507</v>
+        <v>18</v>
+      </c>
+      <c r="I510" s="31"/>
+    </row>
+    <row r="511" spans="1:9" ht="45">
+      <c r="A511" s="22" t="s">
+        <v>508</v>
       </c>
       <c r="B511" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C511" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D511" s="29" t="s">
         <v>920</v>
@@ -18945,19 +18747,21 @@
         <v>15</v>
       </c>
       <c r="H511" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I511" s="31"/>
-    </row>
-    <row r="512" spans="1:9" ht="45">
-      <c r="A512" s="22" t="s">
-        <v>508</v>
+        <v>20</v>
+      </c>
+      <c r="I511" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="30">
+      <c r="A512" s="29" t="s">
+        <v>509</v>
       </c>
       <c r="B512" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C512" s="20" t="s">
-        <v>1324</v>
+      <c r="C512" s="31" t="s">
+        <v>848</v>
       </c>
       <c r="D512" s="29" t="s">
         <v>920</v>
@@ -18972,21 +18776,19 @@
         <v>15</v>
       </c>
       <c r="H512" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I512" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="513" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I512" s="31"/>
+    </row>
+    <row r="513" spans="1:9" ht="45">
       <c r="A513" s="29" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B513" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D513" s="29" t="s">
         <v>920</v>
@@ -19007,22 +18809,20 @@
     </row>
     <row r="514" spans="1:9" ht="45">
       <c r="A514" s="29" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B514" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>849</v>
-      </c>
-      <c r="D514" s="29" t="s">
-        <v>920</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F514" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G514" s="29" t="s">
         <v>15</v>
@@ -19034,13 +18834,13 @@
     </row>
     <row r="515" spans="1:9" ht="45">
       <c r="A515" s="29" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B515" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C515" s="31" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="29" t="s">
@@ -19057,15 +18857,15 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" ht="45">
+    <row r="516" spans="1:9" ht="30">
       <c r="A516" s="29" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B516" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C516" s="31" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="29" t="s">
@@ -19082,43 +18882,47 @@
       </c>
       <c r="I516" s="31"/>
     </row>
-    <row r="517" spans="1:9" ht="30">
+    <row r="517" spans="1:9" ht="45">
       <c r="A517" s="29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B517" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C517" s="31" t="s">
-        <v>852</v>
-      </c>
-      <c r="D517" s="29"/>
+        <v>853</v>
+      </c>
+      <c r="D517" s="29" t="s">
+        <v>920</v>
+      </c>
       <c r="E517" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F517" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G517" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H517" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I517" s="31"/>
-    </row>
-    <row r="518" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I517" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="60">
       <c r="A518" s="29" t="s">
-        <v>514</v>
-      </c>
-      <c r="B518" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B518" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="C518" s="31" t="s">
-        <v>853</v>
+      <c r="C518" s="20" t="s">
+        <v>854</v>
       </c>
       <c r="D518" s="29" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E518" s="29" t="s">
         <v>22</v>
@@ -19130,24 +18934,24 @@
         <v>15</v>
       </c>
       <c r="H518" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I518" s="31" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="60">
-      <c r="A519" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="B519" s="24" t="s">
+    <row r="519" spans="1:9" ht="45">
+      <c r="A519" s="34" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B519" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C519" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="D519" s="29" t="s">
-        <v>921</v>
+      <c r="C519" s="32" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D519" s="34" t="s">
+        <v>1339</v>
       </c>
       <c r="E519" s="29" t="s">
         <v>22</v>
@@ -19155,10 +18959,10 @@
       <c r="F519" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G519" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H519" s="29" t="s">
+      <c r="G519" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H519" s="34" t="s">
         <v>20</v>
       </c>
       <c r="I519" s="31" t="s">
@@ -19167,16 +18971,16 @@
     </row>
     <row r="520" spans="1:9" ht="45">
       <c r="A520" s="34" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B520" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="C520" s="32" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D520" s="34" t="s">
         <v>1339</v>
-      </c>
-      <c r="B520" s="48" t="s">
-        <v>619</v>
-      </c>
-      <c r="C520" s="32" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D520" s="34" t="s">
-        <v>1341</v>
       </c>
       <c r="E520" s="29" t="s">
         <v>22</v>
@@ -19188,7 +18992,7 @@
         <v>15</v>
       </c>
       <c r="H520" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I520" s="31" t="s">
         <v>976</v>
@@ -19196,125 +19000,125 @@
     </row>
     <row r="521" spans="1:9" ht="45">
       <c r="A521" s="34" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B521" s="48" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B521" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C521" s="32" t="s">
-        <v>1338</v>
+      <c r="C521" s="20" t="s">
+        <v>1343</v>
       </c>
       <c r="D521" s="34" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="E521" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F521" s="29" t="s">
-        <v>6</v>
+      <c r="F521" s="34" t="s">
+        <v>3</v>
       </c>
       <c r="G521" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H521" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I521" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I521" s="32"/>
     </row>
     <row r="522" spans="1:9" ht="45">
-      <c r="A522" s="34" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B522" s="48" t="s">
+      <c r="A522" s="22" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B522" s="24" t="s">
         <v>619</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D522" s="34" t="s">
-        <v>1351</v>
-      </c>
+        <v>1344</v>
+      </c>
+      <c r="D522" s="22"/>
       <c r="E522" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F522" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G522" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H522" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I522" s="32"/>
-    </row>
-    <row r="523" spans="1:9" ht="45">
-      <c r="A523" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B523" s="24" t="s">
+      <c r="F522" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G522" s="22"/>
+      <c r="H522" s="22"/>
+      <c r="I522" s="20"/>
+    </row>
+    <row r="523" spans="1:9" ht="30">
+      <c r="A523" s="34" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B523" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C523" s="20" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D523" s="22"/>
+        <v>1342</v>
+      </c>
+      <c r="D523" s="34"/>
       <c r="E523" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F523" s="22" t="s">
+      <c r="F523" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="G523" s="22"/>
-      <c r="H523" s="22"/>
-      <c r="I523" s="20"/>
-    </row>
-    <row r="524" spans="1:9" ht="30">
-      <c r="A524" s="34" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B524" s="48" t="s">
+      <c r="G523" s="34"/>
+      <c r="H523" s="34"/>
+      <c r="I523" s="32"/>
+    </row>
+    <row r="524" spans="1:9" ht="45">
+      <c r="A524" s="22" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B524" s="24" t="s">
         <v>619</v>
       </c>
       <c r="C524" s="20" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D524" s="34"/>
+        <v>1341</v>
+      </c>
+      <c r="D524" s="22" t="s">
+        <v>1349</v>
+      </c>
       <c r="E524" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F524" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G524" s="34"/>
-      <c r="H524" s="34"/>
-      <c r="I524" s="32"/>
-    </row>
-    <row r="525" spans="1:9" ht="45">
-      <c r="A525" s="22" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B525" s="24" t="s">
+      <c r="F524" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G524" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H524" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I524" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="75">
+      <c r="A525" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B525" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C525" s="20" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D525" s="22" t="s">
-        <v>1351</v>
+        <v>1354</v>
+      </c>
+      <c r="D525" s="29" t="s">
+        <v>922</v>
       </c>
       <c r="E525" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F525" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G525" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H525" s="22" t="s">
+      <c r="F525" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G525" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H525" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I525" s="31" t="s">
@@ -19323,13 +19127,13 @@
     </row>
     <row r="526" spans="1:9" ht="75">
       <c r="A526" s="29" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B526" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C526" s="20" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D526" s="29" t="s">
         <v>922</v>
@@ -19344,21 +19148,19 @@
         <v>15</v>
       </c>
       <c r="H526" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I526" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I526" s="31"/>
     </row>
     <row r="527" spans="1:9" ht="75">
       <c r="A527" s="29" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B527" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C527" s="20" t="s">
-        <v>1353</v>
+      <c r="C527" s="31" t="s">
+        <v>855</v>
       </c>
       <c r="D527" s="29" t="s">
         <v>922</v>
@@ -19373,22 +19175,24 @@
         <v>15</v>
       </c>
       <c r="H527" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I527" s="31"/>
-    </row>
-    <row r="528" spans="1:9" ht="75">
+        <v>20</v>
+      </c>
+      <c r="I527" s="31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="45">
       <c r="A528" s="29" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B528" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C528" s="31" t="s">
-        <v>855</v>
-      </c>
-      <c r="D528" s="29" t="s">
-        <v>922</v>
+        <v>856</v>
+      </c>
+      <c r="D528" s="22" t="s">
+        <v>923</v>
       </c>
       <c r="E528" s="29" t="s">
         <v>22</v>
@@ -19408,16 +19212,16 @@
     </row>
     <row r="529" spans="1:9" ht="45">
       <c r="A529" s="29" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B529" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C529" s="31" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D529" s="22" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E529" s="29" t="s">
         <v>22</v>
@@ -19437,16 +19241,16 @@
     </row>
     <row r="530" spans="1:9" ht="45">
       <c r="A530" s="29" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B530" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C530" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="D530" s="22" t="s">
-        <v>924</v>
+        <v>858</v>
+      </c>
+      <c r="D530" s="29" t="s">
+        <v>925</v>
       </c>
       <c r="E530" s="29" t="s">
         <v>22</v>
@@ -19466,16 +19270,16 @@
     </row>
     <row r="531" spans="1:9" ht="45">
       <c r="A531" s="29" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B531" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C531" s="31" t="s">
-        <v>858</v>
+      <c r="C531" s="20" t="s">
+        <v>1352</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E531" s="29" t="s">
         <v>22</v>
@@ -19495,13 +19299,13 @@
     </row>
     <row r="532" spans="1:9" ht="45">
       <c r="A532" s="29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B532" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C532" s="20" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D532" s="29" t="s">
         <v>926</v>
@@ -19516,21 +19320,19 @@
         <v>15</v>
       </c>
       <c r="H532" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I532" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I532" s="31"/>
+    </row>
+    <row r="533" spans="1:9" ht="60">
       <c r="A533" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B533" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C533" s="20" t="s">
-        <v>1355</v>
+      <c r="C533" s="31" t="s">
+        <v>859</v>
       </c>
       <c r="D533" s="29" t="s">
         <v>926</v>
@@ -19545,22 +19347,24 @@
         <v>15</v>
       </c>
       <c r="H533" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I533" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I533" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="534" spans="1:9" ht="60">
       <c r="A534" s="29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B534" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C534" s="31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E534" s="29" t="s">
         <v>22</v>
@@ -19580,16 +19384,16 @@
     </row>
     <row r="535" spans="1:9" ht="60">
       <c r="A535" s="29" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B535" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C535" s="31" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E535" s="29" t="s">
         <v>22</v>
@@ -19609,16 +19413,16 @@
     </row>
     <row r="536" spans="1:9" ht="60">
       <c r="A536" s="29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B536" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C536" s="31" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E536" s="29" t="s">
         <v>22</v>
@@ -19638,16 +19442,16 @@
     </row>
     <row r="537" spans="1:9" ht="60">
       <c r="A537" s="29" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B537" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C537" s="31" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E537" s="29" t="s">
         <v>22</v>
@@ -19667,16 +19471,16 @@
     </row>
     <row r="538" spans="1:9" ht="60">
       <c r="A538" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B538" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C538" s="31" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E538" s="29" t="s">
         <v>22</v>
@@ -19696,16 +19500,16 @@
     </row>
     <row r="539" spans="1:9" ht="60">
       <c r="A539" s="29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B539" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C539" s="31" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E539" s="29" t="s">
         <v>22</v>
@@ -19725,16 +19529,16 @@
     </row>
     <row r="540" spans="1:9" ht="60">
       <c r="A540" s="29" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B540" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C540" s="31" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E540" s="29" t="s">
         <v>22</v>
@@ -19752,18 +19556,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="60">
+    <row r="541" spans="1:9" ht="45">
       <c r="A541" s="29" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B541" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C541" s="31" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E541" s="29" t="s">
         <v>22</v>
@@ -19781,18 +19585,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="45">
+    <row r="542" spans="1:9" ht="60">
       <c r="A542" s="29" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B542" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C542" s="31" t="s">
-        <v>867</v>
+      <c r="C542" s="20" t="s">
+        <v>1356</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E542" s="29" t="s">
         <v>22</v>
@@ -19804,21 +19608,19 @@
         <v>15</v>
       </c>
       <c r="H542" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I542" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I542" s="31"/>
+    </row>
+    <row r="543" spans="1:9" ht="45">
       <c r="A543" s="29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B543" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C543" s="20" t="s">
-        <v>1358</v>
+      <c r="C543" s="31" t="s">
+        <v>868</v>
       </c>
       <c r="D543" s="29" t="s">
         <v>935</v>
@@ -19833,22 +19635,24 @@
         <v>15</v>
       </c>
       <c r="H543" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I543" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I543" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="544" spans="1:9" ht="45">
       <c r="A544" s="29" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B544" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C544" s="31" t="s">
-        <v>868</v>
+      <c r="C544" s="20" t="s">
+        <v>1355</v>
       </c>
       <c r="D544" s="29" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E544" s="29" t="s">
         <v>22</v>
@@ -19860,21 +19664,19 @@
         <v>15</v>
       </c>
       <c r="H544" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I544" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I544" s="31"/>
     </row>
     <row r="545" spans="1:9" ht="45">
       <c r="A545" s="29" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B545" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C545" s="20" t="s">
-        <v>1357</v>
+      <c r="C545" s="31" t="s">
+        <v>869</v>
       </c>
       <c r="D545" s="29" t="s">
         <v>936</v>
@@ -19889,22 +19691,24 @@
         <v>15</v>
       </c>
       <c r="H545" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I545" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I545" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="546" spans="1:9" ht="45">
       <c r="A546" s="29" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B546" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C546" s="31" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E546" s="29" t="s">
         <v>22</v>
@@ -19924,16 +19728,16 @@
     </row>
     <row r="547" spans="1:9" ht="45">
       <c r="A547" s="29" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B547" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C547" s="31" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D547" s="29" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E547" s="29" t="s">
         <v>22</v>
@@ -19951,18 +19755,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="45">
+    <row r="548" spans="1:9" ht="60">
       <c r="A548" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B548" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C548" s="31" t="s">
-        <v>871</v>
+      <c r="C548" s="20" t="s">
+        <v>872</v>
       </c>
       <c r="D548" s="29" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E548" s="29" t="s">
         <v>22</v>
@@ -19982,13 +19786,13 @@
     </row>
     <row r="549" spans="1:9" ht="60">
       <c r="A549" s="29" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B549" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C549" s="20" t="s">
-        <v>872</v>
+        <v>1357</v>
       </c>
       <c r="D549" s="29" t="s">
         <v>939</v>
@@ -20003,21 +19807,19 @@
         <v>15</v>
       </c>
       <c r="H549" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I549" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I549" s="31"/>
     </row>
     <row r="550" spans="1:9" ht="60">
       <c r="A550" s="29" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B550" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C550" s="20" t="s">
-        <v>1359</v>
+      <c r="C550" s="31" t="s">
+        <v>873</v>
       </c>
       <c r="D550" s="29" t="s">
         <v>939</v>
@@ -20038,13 +19840,13 @@
     </row>
     <row r="551" spans="1:9" ht="60">
       <c r="A551" s="29" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B551" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C551" s="31" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D551" s="29" t="s">
         <v>939</v>
@@ -20065,13 +19867,13 @@
     </row>
     <row r="552" spans="1:9" ht="60">
       <c r="A552" s="29" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B552" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C552" s="31" t="s">
-        <v>874</v>
+      <c r="C552" s="20" t="s">
+        <v>1358</v>
       </c>
       <c r="D552" s="29" t="s">
         <v>939</v>
@@ -20090,15 +19892,15 @@
       </c>
       <c r="I552" s="31"/>
     </row>
-    <row r="553" spans="1:9" ht="60">
+    <row r="553" spans="1:9" ht="45">
       <c r="A553" s="29" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B553" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C553" s="20" t="s">
-        <v>1360</v>
+      <c r="C553" s="31" t="s">
+        <v>875</v>
       </c>
       <c r="D553" s="29" t="s">
         <v>939</v>
@@ -20119,16 +19921,16 @@
     </row>
     <row r="554" spans="1:9" ht="45">
       <c r="A554" s="29" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B554" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C554" s="31" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D554" s="29" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E554" s="29" t="s">
         <v>22</v>
@@ -20140,22 +19942,24 @@
         <v>15</v>
       </c>
       <c r="H554" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I554" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I554" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="555" spans="1:9" ht="45">
       <c r="A555" s="29" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B555" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C555" s="31" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E555" s="29" t="s">
         <v>22</v>
@@ -20173,18 +19977,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="45">
+    <row r="556" spans="1:9" ht="60">
       <c r="A556" s="29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B556" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C556" s="31" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D556" s="29" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E556" s="29" t="s">
         <v>22</v>
@@ -20202,18 +20006,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="60">
-      <c r="A557" s="29" t="s">
-        <v>547</v>
+    <row r="557" spans="1:9" ht="45">
+      <c r="A557" s="22" t="s">
+        <v>1040</v>
       </c>
       <c r="B557" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C557" s="31" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E557" s="29" t="s">
         <v>22</v>
@@ -20231,18 +20035,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="45">
+    <row r="558" spans="1:9" ht="60">
       <c r="A558" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B558" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C558" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="D558" s="29" t="s">
-        <v>943</v>
+        <v>880</v>
+      </c>
+      <c r="D558" s="22" t="s">
+        <v>1042</v>
       </c>
       <c r="E558" s="29" t="s">
         <v>22</v>
@@ -20260,18 +20064,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60">
-      <c r="A559" s="22" t="s">
-        <v>1039</v>
+    <row r="559" spans="1:9" ht="75">
+      <c r="A559" s="29" t="s">
+        <v>548</v>
       </c>
       <c r="B559" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C559" s="31" t="s">
-        <v>880</v>
-      </c>
-      <c r="D559" s="22" t="s">
-        <v>1042</v>
+        <v>881</v>
+      </c>
+      <c r="D559" s="29" t="s">
+        <v>944</v>
       </c>
       <c r="E559" s="29" t="s">
         <v>22</v>
@@ -20289,18 +20093,18 @@
         <v>976</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="75">
+    <row r="560" spans="1:9" ht="45">
       <c r="A560" s="29" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B560" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C560" s="31" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D560" s="29" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E560" s="29" t="s">
         <v>22</v>
@@ -20312,7 +20116,7 @@
         <v>15</v>
       </c>
       <c r="H560" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I560" s="31" t="s">
         <v>976</v>
@@ -20320,16 +20124,16 @@
     </row>
     <row r="561" spans="1:9" ht="45">
       <c r="A561" s="29" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B561" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C561" s="31" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D561" s="29" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E561" s="29" t="s">
         <v>22</v>
@@ -20341,25 +20145,23 @@
         <v>15</v>
       </c>
       <c r="H561" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I561" s="31" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="45">
+    <row r="562" spans="1:9" ht="60">
       <c r="A562" s="29" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B562" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C562" s="31" t="s">
-        <v>883</v>
-      </c>
-      <c r="D562" s="29" t="s">
-        <v>946</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
         <v>22</v>
       </c>
@@ -20370,21 +20172,21 @@
         <v>15</v>
       </c>
       <c r="H562" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I562" s="31" t="s">
-        <v>976</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="60">
       <c r="A563" s="29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B563" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C563" s="31" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="29" t="s">
@@ -20397,21 +20199,19 @@
         <v>15</v>
       </c>
       <c r="H563" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I563" s="31" t="s">
-        <v>1026</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I563" s="31"/>
     </row>
     <row r="564" spans="1:9" ht="60">
       <c r="A564" s="29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B564" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C564" s="31" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -20424,19 +20224,21 @@
         <v>15</v>
       </c>
       <c r="H564" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I564" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I564" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="565" spans="1:9" ht="60">
       <c r="A565" s="29" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B565" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C565" s="31" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
@@ -20449,21 +20251,19 @@
         <v>15</v>
       </c>
       <c r="H565" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I565" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I565" s="31"/>
     </row>
     <row r="566" spans="1:9" ht="60">
       <c r="A566" s="29" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B566" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C566" s="31" t="s">
-        <v>887</v>
+      <c r="C566" s="20" t="s">
+        <v>1359</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29" t="s">
@@ -20476,19 +20276,21 @@
         <v>15</v>
       </c>
       <c r="H566" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I566" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I566" s="31" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="567" spans="1:9" ht="60">
       <c r="A567" s="29" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B567" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C567" s="20" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D567" s="29"/>
       <c r="E567" s="29" t="s">
@@ -20501,28 +20303,26 @@
         <v>15</v>
       </c>
       <c r="H567" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I567" s="31" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="568" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I567" s="31"/>
+    </row>
+    <row r="568" spans="1:9" ht="45">
       <c r="A568" s="29" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B568" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C568" s="20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D568" s="29"/>
       <c r="E568" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F568" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G568" s="29" t="s">
         <v>15</v>
@@ -20534,13 +20334,13 @@
     </row>
     <row r="569" spans="1:9" ht="45">
       <c r="A569" s="29" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B569" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="29" t="s">
@@ -20559,13 +20359,13 @@
     </row>
     <row r="570" spans="1:9" ht="45">
       <c r="A570" s="29" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B570" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C570" s="20" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -20584,38 +20384,42 @@
     </row>
     <row r="571" spans="1:9" ht="45">
       <c r="A571" s="29" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B571" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C571" s="20" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D571" s="29"/>
+      <c r="C571" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="D571" s="29" t="s">
+        <v>947</v>
+      </c>
       <c r="E571" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F571" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G571" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H571" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I571" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I571" s="31" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="572" spans="1:9" ht="45">
       <c r="A572" s="29" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B572" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C572" s="31" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D572" s="29" t="s">
         <v>947</v>
@@ -20636,19 +20440,17 @@
         <v>976</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="45">
+    <row r="573" spans="1:9" ht="30">
       <c r="A573" s="29" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B573" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C573" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="D573" s="29" t="s">
-        <v>947</v>
-      </c>
+      <c r="C573" s="20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D573" s="29"/>
       <c r="E573" s="29" t="s">
         <v>22</v>
       </c>
@@ -20659,21 +20461,19 @@
         <v>15</v>
       </c>
       <c r="H573" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I573" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I573" s="31"/>
+    </row>
+    <row r="574" spans="1:9" ht="45">
       <c r="A574" s="29" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B574" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -20692,20 +20492,20 @@
     </row>
     <row r="575" spans="1:9" ht="45">
       <c r="A575" s="29" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B575" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C575" s="20" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F575" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G575" s="29" t="s">
         <v>15</v>
@@ -20717,13 +20517,13 @@
     </row>
     <row r="576" spans="1:9" ht="45">
       <c r="A576" s="29" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B576" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C576" s="20" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="29" t="s">
@@ -20740,15 +20540,15 @@
       </c>
       <c r="I576" s="31"/>
     </row>
-    <row r="577" spans="1:10" ht="45">
+    <row r="577" spans="1:10" ht="30">
       <c r="A577" s="29" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B577" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -20767,38 +20567,40 @@
     </row>
     <row r="578" spans="1:10" ht="30">
       <c r="A578" s="29" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B578" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C578" s="20" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F578" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G578" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H578" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I578" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I578" s="20" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="579" spans="1:10" ht="30">
       <c r="A579" s="29" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B579" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C579" s="20" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
@@ -20811,21 +20613,19 @@
         <v>15</v>
       </c>
       <c r="H579" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I579" s="20" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="580" spans="1:10" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I579" s="31"/>
+    </row>
+    <row r="580" spans="1:10" ht="45">
       <c r="A580" s="29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B580" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C580" s="20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -20842,22 +20642,22 @@
       </c>
       <c r="I580" s="31"/>
     </row>
-    <row r="581" spans="1:10" ht="45">
+    <row r="581" spans="1:10" ht="30">
       <c r="A581" s="29" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B581" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C581" s="20" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D581" s="29"/>
       <c r="E581" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F581" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G581" s="29" t="s">
         <v>15</v>
@@ -20867,15 +20667,15 @@
       </c>
       <c r="I581" s="31"/>
     </row>
-    <row r="582" spans="1:10" ht="30">
+    <row r="582" spans="1:10" ht="45">
       <c r="A582" s="29" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B582" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C582" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D582" s="29"/>
       <c r="E582" s="29" t="s">
@@ -20892,15 +20692,15 @@
       </c>
       <c r="I582" s="31"/>
     </row>
-    <row r="583" spans="1:10" ht="45">
+    <row r="583" spans="1:10" ht="30">
       <c r="A583" s="29" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B583" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C583" s="20" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
@@ -20918,39 +20718,41 @@
       <c r="I583" s="31"/>
     </row>
     <row r="584" spans="1:10" ht="30">
-      <c r="A584" s="29" t="s">
-        <v>572</v>
+      <c r="A584" s="22" t="s">
+        <v>1033</v>
       </c>
       <c r="B584" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C584" s="20" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F584" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G584" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H584" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I584" s="31"/>
-    </row>
-    <row r="585" spans="1:10" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I584" s="20" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" ht="45">
       <c r="A585" s="22" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B585" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C585" s="20" t="s">
-        <v>1377</v>
+        <v>1035</v>
       </c>
       <c r="D585" s="29"/>
       <c r="E585" s="29" t="s">
@@ -20963,21 +20765,22 @@
         <v>15</v>
       </c>
       <c r="H585" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I585" s="20" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="586" spans="1:10" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I585" s="30" t="s">
+        <v>976</v>
+      </c>
+      <c r="J585" s="31"/>
+    </row>
+    <row r="586" spans="1:10" ht="90">
       <c r="A586" s="22" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B586" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C586" s="20" t="s">
-        <v>1035</v>
+      <c r="C586" s="31" t="s">
+        <v>890</v>
       </c>
       <c r="D586" s="29"/>
       <c r="E586" s="29" t="s">
@@ -20990,26 +20793,25 @@
         <v>15</v>
       </c>
       <c r="H586" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I586" s="30" t="s">
-        <v>976</v>
-      </c>
-      <c r="J586" s="31"/>
-    </row>
-    <row r="587" spans="1:10" ht="90">
-      <c r="A587" s="22" t="s">
-        <v>1036</v>
+        <v>17</v>
+      </c>
+      <c r="I586" s="31" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" ht="60">
+      <c r="A587" s="29" t="s">
+        <v>573</v>
       </c>
       <c r="B587" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C587" s="31" t="s">
-        <v>890</v>
+        <v>620</v>
+      </c>
+      <c r="C587" s="32" t="s">
+        <v>1043</v>
       </c>
       <c r="D587" s="29"/>
       <c r="E587" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F587" s="29" t="s">
         <v>6</v>
@@ -21021,22 +20823,22 @@
         <v>17</v>
       </c>
       <c r="I587" s="31" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="588" spans="1:10" ht="60">
       <c r="A588" s="29" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B588" s="30" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C588" s="32" t="s">
-        <v>1043</v>
+        <v>778</v>
       </c>
       <c r="D588" s="29"/>
       <c r="E588" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F588" s="29" t="s">
         <v>6</v>
@@ -21051,44 +20853,12 @@
         <v>963</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="60">
-      <c r="A589" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="B589" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="C589" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="D589" s="29"/>
-      <c r="E589" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F589" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G589" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H589" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I589" s="31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="590" spans="1:10">
-      <c r="A590" s="3"/>
-      <c r="B590" s="10"/>
+    <row r="589" spans="1:10">
+      <c r="A589" s="3"/>
+      <c r="B589" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -21096,159 +20866,164 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A588:B589 D588:I589 A20:I587">
-    <cfRule type="expression" dxfId="41" priority="79">
+  <conditionalFormatting sqref="A587:B588 D587:I588 A20:I586">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="80">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="87">
+    <cfRule type="expression" dxfId="31" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A588:B589 D588:I589 A20:I587">
-    <cfRule type="expression" dxfId="38" priority="33">
+  <conditionalFormatting sqref="A587:B588 D587:I588 A20:I586">
+    <cfRule type="expression" dxfId="30" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="29" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F587:F589 F20:F585 G88">
-    <cfRule type="expression" dxfId="35" priority="39">
+  <conditionalFormatting sqref="F586:F588 G88 F20:F584">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I587:I589">
-    <cfRule type="expression" dxfId="33" priority="30">
+  <conditionalFormatting sqref="I586:I588">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I587:I589">
-    <cfRule type="expression" dxfId="30" priority="27">
+  <conditionalFormatting sqref="I586:I588">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F586">
-    <cfRule type="expression" dxfId="27" priority="22">
-      <formula>NOT(VLOOKUP(F586,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F585">
+    <cfRule type="expression" dxfId="19" priority="22">
+      <formula>NOT(VLOOKUP(F585,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>(VLOOKUP(F586,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="18" priority="23">
+      <formula>(VLOOKUP(F585,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I586">
-    <cfRule type="expression" dxfId="25" priority="16">
+  <conditionalFormatting sqref="I585">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I586">
-    <cfRule type="expression" dxfId="22" priority="13">
+  <conditionalFormatting sqref="I585">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C587">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C587">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C588">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C588">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C589">
-    <cfRule type="expression" dxfId="13" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C589">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F589 G88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 G88 F20:F588">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E589">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E588">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G87 G89:G589">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G87 G89:G588">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H587:H589 H20:H585">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H586:H588 H20:H584">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H586">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H585">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B49 B51:B69 B73:B77 B80:B87 B89:B103 B105:B120 B296:B412 B504:B518 B414:B499 B571:B590 B526:B570" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B49 B51:B69 B73:B77 B80:B87 B89:B103 B105:B120 B296:B412 B503:B517 B413:B498 B570:B589 B525:B569" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$588</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$584</definedName>
     <definedName name="Appendix_A_11" localSheetId="0">Requirements!$C$279</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4318" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="1374">
   <si>
     <t>Req ID</t>
   </si>
@@ -2343,9 +2343,6 @@
     <t>[In RopNotify ROP Response Buffer] [NotificationHandle] The target object can be a table.</t>
   </si>
   <si>
-    <t>[In RopNotify ROP Response Buffer] UnreadMessageCount: An unsigned 32-bit integer that specifies the number of unread items in a folder triggering this event.</t>
-  </si>
-  <si>
     <t>[In Abstract Data Model] This section describes a conceptual model of possible data organization that an implementation maintains to participate in this protocol [MS-OXCNOTIF].</t>
   </si>
   <si>
@@ -2794,24 +2791,6 @@
     <t>[In Appendix A: Product Behavior] The EcRRegisterPushNotification RPC method, as specified in [MS-OXCRPC] section 3.1.4.5, is used to register a callback address of a client on the implementation. (Exchange 2003 follows this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;9&gt; Section 3.1.1:  Exchange 2003 does not support the session context cookie.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;9&gt; Section 3.1.1:  Exchange 2007, Exchange 2010, the initial release of Exchange 2013 do not support the session context cookie.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;9&gt; Section 3.1.1:  Office Outlook 2003 does not support the session context cookie.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;9&gt; Section 3.1.1:  Office Outlook 2007, Outlook 2010, and the initial release of Outlook 2013 do not support the session context cookie.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does support the session context cookie. (&lt;9&gt; Section 3.1.1:  The session context cookie was introduced in Outlook 2013 SP1.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does support the session context cookie. (&lt;9&gt; Section 3.1.1:  The session context cookie was introduced in Exchange 2013 SP1.)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does allow for a 60-second interval between UDP datagrams until the client has retrieved all event information for the session, if push notifications are supported by the implementation. (Exchange 2007 follows this behavior.)</t>
   </si>
   <si>
@@ -4284,36 +4263,6 @@
     <t>Verified by derived requirements: MS-OXCNOTIF_R214001, MS-OXCNOTIF_R214002</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support cookies. &lt;11&gt; Section 3.1.1:  The Execute request type was introduced in Exchange 2013 SP1. (Exchange 2013 SP1 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In Appendix A: Product Behavior] Implementation does not support cookies. &lt;11&gt; Section 3.1.1:  The Execute request type was introduced in Outlook 2013 SP1. </t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support cookies. (&lt;11&gt; Section 3.1.1:  Exchange 2003, Exchange 2007, Exchange 2010, the initial release of Exchange 2013 do not support cookies. )</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior]  Implementation does not support cookies.(&lt;11&gt; Section 3.1.1: Office Outlook 2003, Office Outlook 2007, Outlook 2010, and the initial release of Outlook 2013 do not support cookies. )</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R511001</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R511002</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R511003</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R511004</t>
-  </si>
-  <si>
-    <t>MS-OXCNOTIF_R511:i</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXCNOTIF_R511001</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] [If the client has subscribed to TableModified event notifications, by using the RopRegisterNotification ROP] Implementation does not require that a table view is created in order to send tale notifications. (&lt;12&gt; Section 3.1.4.3: Exchange 2003 does not require that a table view is created in order to send table notifications.)</t>
   </si>
   <si>
@@ -4411,6 +4360,27 @@
   </si>
   <si>
     <t>[In Subscribing to TableModified Event Notifications] For a client to receive TableModified event notifications, in addition to sending the RopRegisterNotification ROP request, the client SHOULD&lt;17&gt; also send the one of the following ROPs to the server, which causes a table view to be created: RopSeekRowBookmark ([MS-OXCROPS] section 2.2.5.9).</t>
+  </si>
+  <si>
+    <t>[In NotificationData Structure] UnreadMessageCount: An unsigned 32-bit integer that specifies the number of unread items in a folder triggering this event.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;11&gt; Section 3.1.1:  Exchange 2003 does not support the session context cookie.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;11&gt; Section 3.1.1:  Exchange 2007, Exchange 2010, the initial release of Exchange 2013 do not support the session context cookie.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;11&gt; Section 3.1.1:  Office Outlook 2003 does not support the session context cookie.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the session context cookie. (&lt;11&gt; Section 3.1.1:  Office Outlook 2007, Outlook 2010, and the initial release of Outlook 2013 do not support the session context cookie.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does support the session context cookie. (&lt;11&gt; Section 3.1.1:  The session context cookie was introduced in Outlook 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does support the session context cookie. (&lt;11&gt; Section 3.1.1:  The session context cookie was introduced in Exchange 2013 SP1.)</t>
   </si>
 </sst>
 </file>
@@ -5386,8 +5356,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I588" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I588"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I584" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I584"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="50" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -5721,10 +5691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L589"/>
+  <dimension ref="A1:L585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C410" sqref="C410"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5744,7 +5714,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -5754,7 +5724,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5768,7 +5738,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -6127,7 +6097,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="23" customFormat="1" ht="30">
@@ -6204,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="23" customFormat="1" ht="30">
@@ -6231,7 +6201,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="23" customFormat="1" ht="75">
@@ -6258,7 +6228,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="23" customFormat="1" ht="45">
@@ -6285,7 +6255,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="23" customFormat="1" ht="30">
@@ -6312,7 +6282,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="23" customFormat="1" ht="45">
@@ -6364,7 +6334,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="23" customFormat="1">
@@ -6641,7 +6611,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6821,13 +6791,13 @@
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="22" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>578</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="29" t="s">
@@ -6868,7 +6838,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -6945,7 +6915,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="31" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30">
@@ -6997,7 +6967,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30">
@@ -7049,7 +7019,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
@@ -7126,7 +7096,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7137,7 +7107,7 @@
         <v>581</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29" t="s">
@@ -7162,7 +7132,7 @@
         <v>581</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -7178,7 +7148,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45">
@@ -7189,7 +7159,7 @@
         <v>581</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
@@ -7214,7 +7184,7 @@
         <v>581</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -7239,7 +7209,7 @@
         <v>581</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
@@ -7264,7 +7234,7 @@
         <v>581</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -7289,7 +7259,7 @@
         <v>581</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
@@ -7314,7 +7284,7 @@
         <v>581</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -7339,7 +7309,7 @@
         <v>581</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -7358,13 +7328,13 @@
     </row>
     <row r="71" spans="1:9" ht="45">
       <c r="A71" s="34" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="29" t="s">
@@ -7383,13 +7353,13 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="34" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="29" t="s">
@@ -7533,13 +7503,13 @@
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="22" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="29" t="s">
@@ -7558,13 +7528,13 @@
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="22" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="29" t="s">
@@ -7589,7 +7559,7 @@
         <v>581</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
@@ -7639,7 +7609,7 @@
         <v>581</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29" t="s">
@@ -7655,7 +7625,7 @@
         <v>20</v>
       </c>
       <c r="I82" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="90">
@@ -7666,7 +7636,7 @@
         <v>582</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29" t="s">
@@ -7682,7 +7652,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45">
@@ -7709,7 +7679,7 @@
         <v>17</v>
       </c>
       <c r="I84" s="31" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="45">
@@ -7736,7 +7706,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="45">
@@ -7763,7 +7733,7 @@
         <v>17</v>
       </c>
       <c r="I86" s="31" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="45">
@@ -7790,18 +7760,18 @@
         <v>17</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="34" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>582</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
@@ -7817,7 +7787,7 @@
         <v>17</v>
       </c>
       <c r="I88" s="32" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="60">
@@ -7828,7 +7798,7 @@
         <v>583</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
@@ -7844,7 +7814,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="30">
@@ -7930,7 +7900,7 @@
         <v>584</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -7946,7 +7916,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="31" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
@@ -8032,7 +8002,7 @@
         <v>585</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29" t="s">
@@ -8048,7 +8018,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="31" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
@@ -8150,7 +8120,7 @@
         <v>17</v>
       </c>
       <c r="I101" s="31" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="45">
@@ -8161,7 +8131,7 @@
         <v>586</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -8177,7 +8147,7 @@
         <v>17</v>
       </c>
       <c r="I102" s="31" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="30">
@@ -8191,7 +8161,7 @@
         <v>683</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>19</v>
@@ -8209,11 +8179,11 @@
     </row>
     <row r="104" spans="1:9" ht="60">
       <c r="A104" s="22" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="B104" s="35"/>
       <c r="C104" s="32" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34"/>
@@ -8227,7 +8197,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -8304,7 +8274,7 @@
         <v>17</v>
       </c>
       <c r="I107" s="31" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30">
@@ -8331,7 +8301,7 @@
         <v>17</v>
       </c>
       <c r="I108" s="31" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="45">
@@ -8358,7 +8328,7 @@
         <v>17</v>
       </c>
       <c r="I109" s="31" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="30">
@@ -8372,7 +8342,7 @@
         <v>689</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="E110" s="29" t="s">
         <v>19</v>
@@ -8396,7 +8366,7 @@
         <v>588</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -8412,7 +8382,7 @@
         <v>17</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30">
@@ -8439,7 +8409,7 @@
         <v>17</v>
       </c>
       <c r="I112" s="31" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="30">
@@ -8566,7 +8536,7 @@
         <v>17</v>
       </c>
       <c r="I117" s="31" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -8646,13 +8616,13 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="22" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="29" t="s">
@@ -8671,13 +8641,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="22" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="29" t="s">
@@ -8696,13 +8666,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="29" t="s">
@@ -8721,13 +8691,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="22" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B124" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>1080</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>1087</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="29" t="s">
@@ -8749,10 +8719,10 @@
         <v>137</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="29" t="s">
@@ -8768,7 +8738,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="31" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="195">
@@ -8776,10 +8746,10 @@
         <v>138</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29" t="s">
@@ -8795,7 +8765,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="31" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8803,10 +8773,10 @@
         <v>139</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -8828,10 +8798,10 @@
         <v>140</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29" t="s">
@@ -8847,7 +8817,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="31" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8855,10 +8825,10 @@
         <v>141</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29" t="s">
@@ -8880,10 +8850,10 @@
         <v>142</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29" t="s">
@@ -8899,7 +8869,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="31" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -8907,10 +8877,10 @@
         <v>143</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -8932,10 +8902,10 @@
         <v>144</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29" t="s">
@@ -8957,10 +8927,10 @@
         <v>145</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -8982,10 +8952,10 @@
         <v>146</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29" t="s">
@@ -9007,10 +8977,10 @@
         <v>147</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -9032,10 +9002,10 @@
         <v>148</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29" t="s">
@@ -9057,10 +9027,10 @@
         <v>149</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="29" t="s">
@@ -9082,10 +9052,10 @@
         <v>150</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29" t="s">
@@ -9107,10 +9077,10 @@
         <v>151</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29" t="s">
@@ -9129,13 +9099,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="22" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="D140" s="34"/>
       <c r="E140" s="29" t="s">
@@ -9154,13 +9124,13 @@
     </row>
     <row r="141" spans="1:9" ht="30">
       <c r="A141" s="22" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="D141" s="34"/>
       <c r="E141" s="29" t="s">
@@ -9179,13 +9149,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="22" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D142" s="34"/>
       <c r="E142" s="29" t="s">
@@ -9207,10 +9177,10 @@
         <v>152</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -9232,10 +9202,10 @@
         <v>153</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29" t="s">
@@ -9257,10 +9227,10 @@
         <v>154</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="D145" s="29"/>
       <c r="E145" s="29" t="s">
@@ -9282,10 +9252,10 @@
         <v>155</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29" t="s">
@@ -9307,10 +9277,10 @@
         <v>156</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
@@ -9332,10 +9302,10 @@
         <v>157</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -9357,10 +9327,10 @@
         <v>158</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -9382,10 +9352,10 @@
         <v>159</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -9401,7 +9371,7 @@
         <v>17</v>
       </c>
       <c r="I150" s="31" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -9409,10 +9379,10 @@
         <v>160</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
@@ -9434,10 +9404,10 @@
         <v>161</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -9459,10 +9429,10 @@
         <v>162</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
@@ -9478,7 +9448,7 @@
         <v>17</v>
       </c>
       <c r="I153" s="31" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="90">
@@ -9486,10 +9456,10 @@
         <v>163</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -9505,7 +9475,7 @@
         <v>17</v>
       </c>
       <c r="I154" s="31" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -9513,10 +9483,10 @@
         <v>164</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
@@ -9538,10 +9508,10 @@
         <v>165</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29" t="s">
@@ -9557,7 +9527,7 @@
         <v>17</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30">
@@ -9565,13 +9535,13 @@
         <v>166</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E157" s="29" t="s">
         <v>19</v>
@@ -9592,13 +9562,13 @@
         <v>167</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="D158" s="29" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E158" s="29" t="s">
         <v>19</v>
@@ -9619,10 +9589,10 @@
         <v>168</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
@@ -9638,7 +9608,7 @@
         <v>17</v>
       </c>
       <c r="I159" s="31" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9646,10 +9616,10 @@
         <v>169</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -9671,10 +9641,10 @@
         <v>170</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
@@ -9690,7 +9660,7 @@
         <v>20</v>
       </c>
       <c r="I161" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="30">
@@ -9698,10 +9668,10 @@
         <v>171</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29" t="s">
@@ -9723,10 +9693,10 @@
         <v>172</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29" t="s">
@@ -9748,10 +9718,10 @@
         <v>173</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29" t="s">
@@ -9773,10 +9743,10 @@
         <v>174</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -9792,7 +9762,7 @@
         <v>17</v>
       </c>
       <c r="I165" s="31" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="45">
@@ -9800,13 +9770,13 @@
         <v>175</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="D166" s="29" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E166" s="29" t="s">
         <v>22</v>
@@ -9821,7 +9791,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9829,10 +9799,10 @@
         <v>176</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
@@ -9854,10 +9824,10 @@
         <v>177</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="29" t="s">
@@ -9879,10 +9849,10 @@
         <v>178</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="29" t="s">
@@ -9898,7 +9868,7 @@
         <v>17</v>
       </c>
       <c r="I169" s="31" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="30">
@@ -9906,13 +9876,13 @@
         <v>179</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="D170" s="29" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E170" s="29" t="s">
         <v>19</v>
@@ -9933,13 +9903,13 @@
         <v>180</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E171" s="29" t="s">
         <v>19</v>
@@ -9960,13 +9930,13 @@
         <v>181</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>19</v>
@@ -9987,13 +9957,13 @@
         <v>182</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E173" s="29" t="s">
         <v>19</v>
@@ -10014,10 +9984,10 @@
         <v>183</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="29" t="s">
@@ -10039,10 +10009,10 @@
         <v>184</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -10064,10 +10034,10 @@
         <v>185</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="29" t="s">
@@ -10083,7 +10053,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="31" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="30">
@@ -10091,13 +10061,13 @@
         <v>186</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>19</v>
@@ -10118,13 +10088,13 @@
         <v>187</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E178" s="29" t="s">
         <v>19</v>
@@ -10145,13 +10115,13 @@
         <v>188</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E179" s="29" t="s">
         <v>19</v>
@@ -10172,13 +10142,13 @@
         <v>189</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="D180" s="29" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E180" s="29" t="s">
         <v>19</v>
@@ -10199,10 +10169,10 @@
         <v>190</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -10224,10 +10194,10 @@
         <v>191</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -10249,10 +10219,10 @@
         <v>192</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29" t="s">
@@ -10268,7 +10238,7 @@
         <v>17</v>
       </c>
       <c r="I183" s="31" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30">
@@ -10276,13 +10246,13 @@
         <v>193</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="D184" s="29" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>19</v>
@@ -10303,13 +10273,13 @@
         <v>194</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="D185" s="29" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E185" s="29" t="s">
         <v>19</v>
@@ -10330,13 +10300,13 @@
         <v>195</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E186" s="29" t="s">
         <v>19</v>
@@ -10357,13 +10327,13 @@
         <v>196</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="D187" s="29" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E187" s="29" t="s">
         <v>19</v>
@@ -10384,10 +10354,10 @@
         <v>197</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
@@ -10409,10 +10379,10 @@
         <v>198</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -10434,10 +10404,10 @@
         <v>199</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -10453,7 +10423,7 @@
         <v>17</v>
       </c>
       <c r="I190" s="31" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="30">
@@ -10461,13 +10431,13 @@
         <v>200</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E191" s="29" t="s">
         <v>19</v>
@@ -10488,13 +10458,13 @@
         <v>201</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="D192" s="29" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E192" s="29" t="s">
         <v>19</v>
@@ -10515,13 +10485,13 @@
         <v>202</v>
       </c>
       <c r="B193" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D193" s="29" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E193" s="29" t="s">
         <v>19</v>
@@ -10542,10 +10512,10 @@
         <v>203</v>
       </c>
       <c r="B194" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -10567,10 +10537,10 @@
         <v>204</v>
       </c>
       <c r="B195" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -10592,10 +10562,10 @@
         <v>205</v>
       </c>
       <c r="B196" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -10611,7 +10581,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30">
@@ -10619,13 +10589,13 @@
         <v>206</v>
       </c>
       <c r="B197" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D197" s="29" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E197" s="29" t="s">
         <v>19</v>
@@ -10646,13 +10616,13 @@
         <v>207</v>
       </c>
       <c r="B198" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E198" s="29" t="s">
         <v>19</v>
@@ -10673,13 +10643,13 @@
         <v>208</v>
       </c>
       <c r="B199" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="D199" s="29" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E199" s="29" t="s">
         <v>19</v>
@@ -10700,10 +10670,10 @@
         <v>209</v>
       </c>
       <c r="B200" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -10725,10 +10695,10 @@
         <v>210</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -10747,16 +10717,16 @@
     </row>
     <row r="202" spans="1:9" ht="75">
       <c r="A202" s="34" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="B202" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E202" s="29" t="s">
         <v>19</v>
@@ -10771,21 +10741,21 @@
         <v>17</v>
       </c>
       <c r="I202" s="32" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="45">
       <c r="A203" s="34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B203" s="35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C203" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>1168</v>
-      </c>
-      <c r="B203" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>1175</v>
       </c>
       <c r="E203" s="29" t="s">
         <v>19</v>
@@ -10803,16 +10773,16 @@
     </row>
     <row r="204" spans="1:9" ht="45">
       <c r="A204" s="34" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B204" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E204" s="29" t="s">
         <v>19</v>
@@ -10830,16 +10800,16 @@
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="34" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="B205" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E205" s="29" t="s">
         <v>19</v>
@@ -10860,10 +10830,10 @@
         <v>211</v>
       </c>
       <c r="B206" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -10885,10 +10855,10 @@
         <v>212</v>
       </c>
       <c r="B207" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -10910,10 +10880,10 @@
         <v>213</v>
       </c>
       <c r="B208" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -10929,7 +10899,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="31" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30">
@@ -10937,13 +10907,13 @@
         <v>214</v>
       </c>
       <c r="B209" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E209" s="29" t="s">
         <v>19</v>
@@ -10964,13 +10934,13 @@
         <v>215</v>
       </c>
       <c r="B210" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E210" s="29" t="s">
         <v>19</v>
@@ -10991,13 +10961,13 @@
         <v>216</v>
       </c>
       <c r="B211" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E211" s="29" t="s">
         <v>19</v>
@@ -11018,10 +10988,10 @@
         <v>217</v>
       </c>
       <c r="B212" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -11040,13 +11010,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="22" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="B213" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="D213" s="34"/>
       <c r="E213" s="34" t="s">
@@ -11068,10 +11038,10 @@
         <v>218</v>
       </c>
       <c r="B214" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -11087,7 +11057,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="31" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -11095,13 +11065,13 @@
         <v>219</v>
       </c>
       <c r="B215" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="D215" s="29" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E215" s="29" t="s">
         <v>19</v>
@@ -11122,13 +11092,13 @@
         <v>220</v>
       </c>
       <c r="B216" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E216" s="29" t="s">
         <v>19</v>
@@ -11149,13 +11119,13 @@
         <v>221</v>
       </c>
       <c r="B217" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E217" s="29" t="s">
         <v>19</v>
@@ -11176,10 +11146,10 @@
         <v>222</v>
       </c>
       <c r="B218" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -11201,10 +11171,10 @@
         <v>223</v>
       </c>
       <c r="B219" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29" t="s">
@@ -11226,10 +11196,10 @@
         <v>224</v>
       </c>
       <c r="B220" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29" t="s">
@@ -11245,7 +11215,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="31" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="30">
@@ -11253,13 +11223,13 @@
         <v>225</v>
       </c>
       <c r="B221" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E221" s="29" t="s">
         <v>19</v>
@@ -11280,13 +11250,13 @@
         <v>226</v>
       </c>
       <c r="B222" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="D222" s="29" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E222" s="29" t="s">
         <v>19</v>
@@ -11307,13 +11277,13 @@
         <v>227</v>
       </c>
       <c r="B223" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D223" s="29" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E223" s="29" t="s">
         <v>19</v>
@@ -11334,10 +11304,10 @@
         <v>228</v>
       </c>
       <c r="B224" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29" t="s">
@@ -11359,10 +11329,10 @@
         <v>229</v>
       </c>
       <c r="B225" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -11384,10 +11354,10 @@
         <v>230</v>
       </c>
       <c r="B226" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="29" t="s">
@@ -11403,7 +11373,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="31" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="45">
@@ -11411,13 +11381,13 @@
         <v>231</v>
       </c>
       <c r="B227" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D227" s="29" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E227" s="29" t="s">
         <v>19</v>
@@ -11438,13 +11408,13 @@
         <v>232</v>
       </c>
       <c r="B228" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D228" s="29" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E228" s="29" t="s">
         <v>19</v>
@@ -11465,13 +11435,13 @@
         <v>233</v>
       </c>
       <c r="B229" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="D229" s="29" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E229" s="29" t="s">
         <v>19</v>
@@ -11492,10 +11462,10 @@
         <v>234</v>
       </c>
       <c r="B230" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="D230" s="29"/>
       <c r="E230" s="29" t="s">
@@ -11517,10 +11487,10 @@
         <v>235</v>
       </c>
       <c r="B231" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="29" t="s">
@@ -11542,10 +11512,10 @@
         <v>236</v>
       </c>
       <c r="B232" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="29" t="s">
@@ -11561,7 +11531,7 @@
         <v>17</v>
       </c>
       <c r="I232" s="31" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="45">
@@ -11569,13 +11539,13 @@
         <v>237</v>
       </c>
       <c r="B233" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D233" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E233" s="29" t="s">
         <v>19</v>
@@ -11596,13 +11566,13 @@
         <v>238</v>
       </c>
       <c r="B234" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="D234" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E234" s="29" t="s">
         <v>19</v>
@@ -11623,13 +11593,13 @@
         <v>239</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="D235" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E235" s="29" t="s">
         <v>19</v>
@@ -11650,13 +11620,13 @@
         <v>240</v>
       </c>
       <c r="B236" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D236" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E236" s="29" t="s">
         <v>19</v>
@@ -11677,13 +11647,13 @@
         <v>241</v>
       </c>
       <c r="B237" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D237" s="29" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E237" s="29" t="s">
         <v>19</v>
@@ -11704,10 +11674,10 @@
         <v>242</v>
       </c>
       <c r="B238" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D238" s="29"/>
       <c r="E238" s="29" t="s">
@@ -11729,10 +11699,10 @@
         <v>243</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -11754,10 +11724,10 @@
         <v>244</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -11773,7 +11743,7 @@
         <v>17</v>
       </c>
       <c r="I240" s="31" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="30">
@@ -11781,13 +11751,13 @@
         <v>245</v>
       </c>
       <c r="B241" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E241" s="29" t="s">
         <v>19</v>
@@ -11808,13 +11778,13 @@
         <v>246</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E242" s="29" t="s">
         <v>19</v>
@@ -11835,13 +11805,13 @@
         <v>247</v>
       </c>
       <c r="B243" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E243" s="29" t="s">
         <v>19</v>
@@ -11862,10 +11832,10 @@
         <v>248</v>
       </c>
       <c r="B244" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
@@ -11887,10 +11857,10 @@
         <v>249</v>
       </c>
       <c r="B245" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -11912,10 +11882,10 @@
         <v>250</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -11931,7 +11901,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="31" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="45">
@@ -11939,13 +11909,13 @@
         <v>251</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E247" s="29" t="s">
         <v>19</v>
@@ -11966,13 +11936,13 @@
         <v>252</v>
       </c>
       <c r="B248" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E248" s="29" t="s">
         <v>19</v>
@@ -11993,13 +11963,13 @@
         <v>253</v>
       </c>
       <c r="B249" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E249" s="29" t="s">
         <v>19</v>
@@ -12020,10 +11990,10 @@
         <v>254</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29" t="s">
@@ -12045,10 +12015,10 @@
         <v>255</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
@@ -12070,10 +12040,10 @@
         <v>256</v>
       </c>
       <c r="B252" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29" t="s">
@@ -12089,7 +12059,7 @@
         <v>17</v>
       </c>
       <c r="I252" s="31" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="45">
@@ -12097,13 +12067,13 @@
         <v>257</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E253" s="29" t="s">
         <v>19</v>
@@ -12124,13 +12094,13 @@
         <v>258</v>
       </c>
       <c r="B254" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E254" s="29" t="s">
         <v>19</v>
@@ -12151,13 +12121,13 @@
         <v>259</v>
       </c>
       <c r="B255" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E255" s="29" t="s">
         <v>19</v>
@@ -12178,10 +12148,10 @@
         <v>260</v>
       </c>
       <c r="B256" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -12203,10 +12173,10 @@
         <v>261</v>
       </c>
       <c r="B257" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
@@ -12228,10 +12198,10 @@
         <v>262</v>
       </c>
       <c r="B258" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
@@ -12247,7 +12217,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="31" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="30">
@@ -12255,13 +12225,13 @@
         <v>263</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D259" s="29" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E259" s="29" t="s">
         <v>19</v>
@@ -12282,13 +12252,13 @@
         <v>264</v>
       </c>
       <c r="B260" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="D260" s="29" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E260" s="29" t="s">
         <v>19</v>
@@ -12309,13 +12279,13 @@
         <v>265</v>
       </c>
       <c r="B261" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E261" s="29" t="s">
         <v>19</v>
@@ -12336,10 +12306,10 @@
         <v>266</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
@@ -12355,7 +12325,7 @@
         <v>17</v>
       </c>
       <c r="I262" s="31" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="30">
@@ -12363,10 +12333,10 @@
         <v>267</v>
       </c>
       <c r="B263" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="29" t="s">
@@ -12388,10 +12358,10 @@
         <v>268</v>
       </c>
       <c r="B264" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -12413,13 +12383,13 @@
         <v>269</v>
       </c>
       <c r="B265" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D265" s="29" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E265" s="29" t="s">
         <v>19</v>
@@ -12440,13 +12410,13 @@
         <v>270</v>
       </c>
       <c r="B266" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="D266" s="29" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E266" s="29" t="s">
         <v>19</v>
@@ -12467,13 +12437,13 @@
         <v>271</v>
       </c>
       <c r="B267" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D267" s="29" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E267" s="29" t="s">
         <v>19</v>
@@ -12494,10 +12464,10 @@
         <v>272</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
@@ -12519,10 +12489,10 @@
         <v>273</v>
       </c>
       <c r="B269" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="29" t="s">
@@ -12544,10 +12514,10 @@
         <v>274</v>
       </c>
       <c r="B270" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="29" t="s">
@@ -12569,13 +12539,13 @@
         <v>275</v>
       </c>
       <c r="B271" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="E271" s="29" t="s">
         <v>19</v>
@@ -12596,13 +12566,13 @@
         <v>276</v>
       </c>
       <c r="B272" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="D272" s="29" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="E272" s="29" t="s">
         <v>19</v>
@@ -12623,10 +12593,10 @@
         <v>277</v>
       </c>
       <c r="B273" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="29" t="s">
@@ -12648,10 +12618,10 @@
         <v>278</v>
       </c>
       <c r="B274" s="35" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C274" s="31" t="s">
-        <v>699</v>
+        <v>1073</v>
+      </c>
+      <c r="C274" s="20" t="s">
+        <v>1367</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="29" t="s">
@@ -12673,10 +12643,10 @@
         <v>279</v>
       </c>
       <c r="B275" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -12698,13 +12668,13 @@
         <v>280</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="D276" s="29" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E276" s="29" t="s">
         <v>19</v>
@@ -12725,13 +12695,13 @@
         <v>281</v>
       </c>
       <c r="B277" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="D277" s="29" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E277" s="29" t="s">
         <v>19</v>
@@ -12752,10 +12722,10 @@
         <v>282</v>
       </c>
       <c r="B278" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -12777,10 +12747,10 @@
         <v>283</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -12796,7 +12766,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="20" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="60">
@@ -12804,10 +12774,10 @@
         <v>284</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -12823,7 +12793,7 @@
         <v>17</v>
       </c>
       <c r="I280" s="20" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="45">
@@ -12831,13 +12801,13 @@
         <v>285</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="D281" s="29" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E281" s="29" t="s">
         <v>19</v>
@@ -12858,13 +12828,13 @@
         <v>286</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="D282" s="29" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E282" s="29" t="s">
         <v>19</v>
@@ -12885,10 +12855,10 @@
         <v>287</v>
       </c>
       <c r="B283" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -12910,10 +12880,10 @@
         <v>288</v>
       </c>
       <c r="B284" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -12935,10 +12905,10 @@
         <v>289</v>
       </c>
       <c r="B285" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -12960,10 +12930,10 @@
         <v>290</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -12985,10 +12955,10 @@
         <v>291</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -13004,7 +12974,7 @@
         <v>17</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="30">
@@ -13012,13 +12982,13 @@
         <v>292</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="D288" s="29" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E288" s="29" t="s">
         <v>19</v>
@@ -13039,13 +13009,13 @@
         <v>293</v>
       </c>
       <c r="B289" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="D289" s="29" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E289" s="29" t="s">
         <v>19</v>
@@ -13066,10 +13036,10 @@
         <v>294</v>
       </c>
       <c r="B290" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -13091,10 +13061,10 @@
         <v>295</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="29" t="s">
@@ -13116,10 +13086,10 @@
         <v>296</v>
       </c>
       <c r="B292" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="29" t="s">
@@ -13141,10 +13111,10 @@
         <v>297</v>
       </c>
       <c r="B293" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
@@ -13160,7 +13130,7 @@
         <v>17</v>
       </c>
       <c r="I293" s="31" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="30">
@@ -13168,13 +13138,13 @@
         <v>298</v>
       </c>
       <c r="B294" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="D294" s="29" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E294" s="29" t="s">
         <v>19</v>
@@ -13195,13 +13165,13 @@
         <v>299</v>
       </c>
       <c r="B295" s="35" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="D295" s="29" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E295" s="29" t="s">
         <v>19</v>
@@ -13225,7 +13195,7 @@
         <v>590</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D296" s="29"/>
       <c r="E296" s="29" t="s">
@@ -13250,7 +13220,7 @@
         <v>590</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D297" s="29"/>
       <c r="E297" s="29" t="s">
@@ -13275,7 +13245,7 @@
         <v>590</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D298" s="29"/>
       <c r="E298" s="29" t="s">
@@ -13300,7 +13270,7 @@
         <v>590</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D299" s="29"/>
       <c r="E299" s="29" t="s">
@@ -13317,7 +13287,7 @@
       </c>
       <c r="I299" s="31"/>
     </row>
-    <row r="300" spans="1:9" ht="45">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="22" t="s">
         <v>304</v>
       </c>
@@ -13325,7 +13295,7 @@
         <v>590</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
@@ -13335,14 +13305,12 @@
         <v>3</v>
       </c>
       <c r="G300" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H300" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I300" s="20" t="s">
-        <v>1350</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I300" s="20"/>
     </row>
     <row r="301" spans="1:9" ht="45">
       <c r="A301" s="29" t="s">
@@ -13352,7 +13320,7 @@
         <v>590</v>
       </c>
       <c r="C301" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D301" s="29"/>
       <c r="E301" s="29" t="s">
@@ -13377,7 +13345,7 @@
         <v>591</v>
       </c>
       <c r="C302" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D302" s="29"/>
       <c r="E302" s="29" t="s">
@@ -13393,7 +13361,7 @@
         <v>17</v>
       </c>
       <c r="I302" s="20" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="30">
@@ -13404,7 +13372,7 @@
         <v>591</v>
       </c>
       <c r="C303" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D303" s="29"/>
       <c r="E303" s="29" t="s">
@@ -13429,7 +13397,7 @@
         <v>32</v>
       </c>
       <c r="C304" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D304" s="29"/>
       <c r="E304" s="29" t="s">
@@ -13445,7 +13413,7 @@
         <v>17</v>
       </c>
       <c r="I304" s="31" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="30">
@@ -13456,7 +13424,7 @@
         <v>32</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="D305" s="29"/>
       <c r="E305" s="29" t="s">
@@ -13481,7 +13449,7 @@
         <v>32</v>
       </c>
       <c r="C306" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D306" s="29"/>
       <c r="E306" s="29" t="s">
@@ -13506,7 +13474,7 @@
         <v>32</v>
       </c>
       <c r="C307" s="31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -13531,7 +13499,7 @@
         <v>33</v>
       </c>
       <c r="C308" s="31" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D308" s="29"/>
       <c r="E308" s="29" t="s">
@@ -13556,7 +13524,7 @@
         <v>33</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="29" t="s">
@@ -13581,7 +13549,7 @@
         <v>33</v>
       </c>
       <c r="C310" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D310" s="29"/>
       <c r="E310" s="29" t="s">
@@ -13606,7 +13574,7 @@
         <v>592</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="D311" s="29"/>
       <c r="E311" s="29" t="s">
@@ -13622,7 +13590,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="31" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="60">
@@ -13633,7 +13601,7 @@
         <v>592</v>
       </c>
       <c r="C312" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D312" s="29"/>
       <c r="E312" s="29" t="s">
@@ -13658,7 +13626,7 @@
         <v>592</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D313" s="29"/>
       <c r="E313" s="29" t="s">
@@ -13683,7 +13651,7 @@
         <v>592</v>
       </c>
       <c r="C314" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D314" s="29"/>
       <c r="E314" s="29" t="s">
@@ -13708,7 +13676,7 @@
         <v>592</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="29" t="s">
@@ -13733,7 +13701,7 @@
         <v>592</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D316" s="29"/>
       <c r="E316" s="29" t="s">
@@ -13758,7 +13726,7 @@
         <v>592</v>
       </c>
       <c r="C317" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="29" t="s">
@@ -13783,7 +13751,7 @@
         <v>592</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -13808,7 +13776,7 @@
         <v>592</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="29" t="s">
@@ -13833,7 +13801,7 @@
         <v>592</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D320" s="29"/>
       <c r="E320" s="29" t="s">
@@ -13858,7 +13826,7 @@
         <v>592</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D321" s="29"/>
       <c r="E321" s="29" t="s">
@@ -13874,7 +13842,7 @@
         <v>17</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="45">
@@ -13885,7 +13853,7 @@
         <v>592</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D322" s="29"/>
       <c r="E322" s="29" t="s">
@@ -13910,7 +13878,7 @@
         <v>592</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D323" s="29"/>
       <c r="E323" s="29" t="s">
@@ -13926,7 +13894,7 @@
         <v>17</v>
       </c>
       <c r="I323" s="31" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="90">
@@ -13937,7 +13905,7 @@
         <v>592</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D324" s="29"/>
       <c r="E324" s="29" t="s">
@@ -13953,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="I324" s="31" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="105">
@@ -13964,7 +13932,7 @@
         <v>592</v>
       </c>
       <c r="C325" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D325" s="29"/>
       <c r="E325" s="29" t="s">
@@ -13989,7 +13957,7 @@
         <v>592</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D326" s="29"/>
       <c r="E326" s="29" t="s">
@@ -14014,7 +13982,7 @@
         <v>592</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -14039,7 +14007,7 @@
         <v>592</v>
       </c>
       <c r="C328" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D328" s="29"/>
       <c r="E328" s="29" t="s">
@@ -14064,7 +14032,7 @@
         <v>592</v>
       </c>
       <c r="C329" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D329" s="29"/>
       <c r="E329" s="29" t="s">
@@ -14089,7 +14057,7 @@
         <v>592</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D330" s="29"/>
       <c r="E330" s="29" t="s">
@@ -14114,7 +14082,7 @@
         <v>592</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D331" s="29"/>
       <c r="E331" s="29" t="s">
@@ -14139,7 +14107,7 @@
         <v>592</v>
       </c>
       <c r="C332" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D332" s="29"/>
       <c r="E332" s="29" t="s">
@@ -14155,7 +14123,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="31" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="45">
@@ -14166,7 +14134,7 @@
         <v>592</v>
       </c>
       <c r="C333" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D333" s="29"/>
       <c r="E333" s="29" t="s">
@@ -14182,7 +14150,7 @@
         <v>17</v>
       </c>
       <c r="I333" s="31" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="45">
@@ -14193,7 +14161,7 @@
         <v>592</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -14218,7 +14186,7 @@
         <v>592</v>
       </c>
       <c r="C335" s="20" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -14243,7 +14211,7 @@
         <v>592</v>
       </c>
       <c r="C336" s="20" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -14259,7 +14227,7 @@
         <v>17</v>
       </c>
       <c r="I336" s="31" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="45">
@@ -14270,7 +14238,7 @@
         <v>592</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -14286,7 +14254,7 @@
         <v>17</v>
       </c>
       <c r="I337" s="31" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45">
@@ -14297,7 +14265,7 @@
         <v>592</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -14313,7 +14281,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="31" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="45">
@@ -14324,7 +14292,7 @@
         <v>592</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="D339" s="29"/>
       <c r="E339" s="29" t="s">
@@ -14340,7 +14308,7 @@
         <v>17</v>
       </c>
       <c r="I339" s="31" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="45">
@@ -14351,7 +14319,7 @@
         <v>592</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="29" t="s">
@@ -14367,7 +14335,7 @@
         <v>17</v>
       </c>
       <c r="I340" s="31" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="45">
@@ -14378,7 +14346,7 @@
         <v>592</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="D341" s="29"/>
       <c r="E341" s="29" t="s">
@@ -14403,7 +14371,7 @@
         <v>592</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -14419,7 +14387,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="31" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="45">
@@ -14430,7 +14398,7 @@
         <v>593</v>
       </c>
       <c r="C343" s="31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D343" s="29"/>
       <c r="E343" s="29" t="s">
@@ -14446,7 +14414,7 @@
         <v>17</v>
       </c>
       <c r="I343" s="31" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="45">
@@ -14457,7 +14425,7 @@
         <v>593</v>
       </c>
       <c r="C344" s="31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D344" s="29"/>
       <c r="E344" s="29" t="s">
@@ -14473,7 +14441,7 @@
         <v>17</v>
       </c>
       <c r="I344" s="31" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="45">
@@ -14484,7 +14452,7 @@
         <v>593</v>
       </c>
       <c r="C345" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D345" s="29"/>
       <c r="E345" s="29" t="s">
@@ -14500,7 +14468,7 @@
         <v>17</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30">
@@ -14511,7 +14479,7 @@
         <v>593</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D346" s="29"/>
       <c r="E346" s="29" t="s">
@@ -14536,7 +14504,7 @@
         <v>594</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="D347" s="29"/>
       <c r="E347" s="29" t="s">
@@ -14552,7 +14520,7 @@
         <v>17</v>
       </c>
       <c r="I347" s="31" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="45">
@@ -14563,7 +14531,7 @@
         <v>594</v>
       </c>
       <c r="C348" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D348" s="29"/>
       <c r="E348" s="29" t="s">
@@ -14588,7 +14556,7 @@
         <v>594</v>
       </c>
       <c r="C349" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D349" s="29"/>
       <c r="E349" s="29" t="s">
@@ -14613,7 +14581,7 @@
         <v>595</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="D350" s="29"/>
       <c r="E350" s="29" t="s">
@@ -14629,7 +14597,7 @@
         <v>17</v>
       </c>
       <c r="I350" s="31" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="90">
@@ -14640,7 +14608,7 @@
         <v>595</v>
       </c>
       <c r="C351" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D351" s="29"/>
       <c r="E351" s="29" t="s">
@@ -14665,7 +14633,7 @@
         <v>595</v>
       </c>
       <c r="C352" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D352" s="29"/>
       <c r="E352" s="29" t="s">
@@ -14681,7 +14649,7 @@
         <v>17</v>
       </c>
       <c r="I352" s="31" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="45">
@@ -14692,7 +14660,7 @@
         <v>595</v>
       </c>
       <c r="C353" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D353" s="29"/>
       <c r="E353" s="29" t="s">
@@ -14708,7 +14676,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="31" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="60">
@@ -14719,7 +14687,7 @@
         <v>595</v>
       </c>
       <c r="C354" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D354" s="29"/>
       <c r="E354" s="29" t="s">
@@ -14744,7 +14712,7 @@
         <v>595</v>
       </c>
       <c r="C355" s="31" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D355" s="29"/>
       <c r="E355" s="29" t="s">
@@ -14769,7 +14737,7 @@
         <v>595</v>
       </c>
       <c r="C356" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D356" s="29"/>
       <c r="E356" s="29" t="s">
@@ -14794,7 +14762,7 @@
         <v>596</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="29" t="s">
@@ -14810,7 +14778,7 @@
         <v>17</v>
       </c>
       <c r="I357" s="31" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="60">
@@ -14821,7 +14789,7 @@
         <v>596</v>
       </c>
       <c r="C358" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D358" s="29"/>
       <c r="E358" s="29" t="s">
@@ -14846,7 +14814,7 @@
         <v>596</v>
       </c>
       <c r="C359" s="31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D359" s="29"/>
       <c r="E359" s="29" t="s">
@@ -14871,7 +14839,7 @@
         <v>596</v>
       </c>
       <c r="C360" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D360" s="29"/>
       <c r="E360" s="29" t="s">
@@ -14896,7 +14864,7 @@
         <v>596</v>
       </c>
       <c r="C361" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D361" s="29"/>
       <c r="E361" s="29" t="s">
@@ -14921,7 +14889,7 @@
         <v>596</v>
       </c>
       <c r="C362" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D362" s="29"/>
       <c r="E362" s="29" t="s">
@@ -14937,7 +14905,7 @@
         <v>17</v>
       </c>
       <c r="I362" s="31" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="45">
@@ -14948,7 +14916,7 @@
         <v>596</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D363" s="29"/>
       <c r="E363" s="29" t="s">
@@ -14964,7 +14932,7 @@
         <v>17</v>
       </c>
       <c r="I363" s="31" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="30">
@@ -14975,7 +14943,7 @@
         <v>596</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D364" s="29"/>
       <c r="E364" s="29" t="s">
@@ -15000,7 +14968,7 @@
         <v>596</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D365" s="29"/>
       <c r="E365" s="29" t="s">
@@ -15016,7 +14984,7 @@
         <v>17</v>
       </c>
       <c r="I365" s="31" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="45">
@@ -15027,7 +14995,7 @@
         <v>596</v>
       </c>
       <c r="C366" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D366" s="29"/>
       <c r="E366" s="29" t="s">
@@ -15043,18 +15011,18 @@
         <v>17</v>
       </c>
       <c r="I366" s="31" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="45">
       <c r="A367" s="22" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B367" s="30" t="s">
         <v>596</v>
       </c>
       <c r="C367" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29" t="s">
@@ -15070,7 +15038,7 @@
         <v>17</v>
       </c>
       <c r="I367" s="31" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="60">
@@ -15081,7 +15049,7 @@
         <v>597</v>
       </c>
       <c r="C368" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D368" s="29"/>
       <c r="E368" s="29" t="s">
@@ -15097,7 +15065,7 @@
         <v>17</v>
       </c>
       <c r="I368" s="31" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="60">
@@ -15108,7 +15076,7 @@
         <v>597</v>
       </c>
       <c r="C369" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D369" s="29"/>
       <c r="E369" s="29" t="s">
@@ -15124,7 +15092,7 @@
         <v>17</v>
       </c>
       <c r="I369" s="31" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -15135,7 +15103,7 @@
         <v>597</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="29" t="s">
@@ -15160,7 +15128,7 @@
         <v>597</v>
       </c>
       <c r="C371" s="31" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D371" s="29"/>
       <c r="E371" s="29" t="s">
@@ -15185,7 +15153,7 @@
         <v>598</v>
       </c>
       <c r="C372" s="31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D372" s="29"/>
       <c r="E372" s="29" t="s">
@@ -15201,18 +15169,18 @@
         <v>17</v>
       </c>
       <c r="I372" s="31" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="30">
-      <c r="A373" s="29" t="s">
+      <c r="A373" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B373" s="30" t="s">
         <v>598</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="D373" s="29"/>
       <c r="E373" s="29" t="s">
@@ -15237,7 +15205,7 @@
         <v>599</v>
       </c>
       <c r="C374" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D374" s="29"/>
       <c r="E374" s="29" t="s">
@@ -15253,7 +15221,7 @@
         <v>17</v>
       </c>
       <c r="I374" s="31" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="45">
@@ -15264,7 +15232,7 @@
         <v>599</v>
       </c>
       <c r="C375" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D375" s="29"/>
       <c r="E375" s="29" t="s">
@@ -15280,7 +15248,7 @@
         <v>17</v>
       </c>
       <c r="I375" s="31" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="75">
@@ -15291,7 +15259,7 @@
         <v>599</v>
       </c>
       <c r="C376" s="31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D376" s="29"/>
       <c r="E376" s="29" t="s">
@@ -15307,7 +15275,7 @@
         <v>17</v>
       </c>
       <c r="I376" s="31" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="240">
@@ -15318,7 +15286,7 @@
         <v>600</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -15334,7 +15302,7 @@
         <v>17</v>
       </c>
       <c r="I377" s="31" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="30">
@@ -15345,7 +15313,7 @@
         <v>600</v>
       </c>
       <c r="C378" s="31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D378" s="29"/>
       <c r="E378" s="29" t="s">
@@ -15370,7 +15338,7 @@
         <v>601</v>
       </c>
       <c r="C379" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D379" s="29"/>
       <c r="E379" s="29" t="s">
@@ -15395,7 +15363,7 @@
         <v>602</v>
       </c>
       <c r="C380" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D380" s="29"/>
       <c r="E380" s="29" t="s">
@@ -15420,7 +15388,7 @@
         <v>603</v>
       </c>
       <c r="C381" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
@@ -15445,7 +15413,7 @@
         <v>603</v>
       </c>
       <c r="C382" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D382" s="29"/>
       <c r="E382" s="29" t="s">
@@ -15470,7 +15438,7 @@
         <v>604</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
@@ -15495,7 +15463,7 @@
         <v>604</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -15520,7 +15488,7 @@
         <v>604</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
       <c r="D385" s="29"/>
       <c r="E385" s="29" t="s">
@@ -15545,7 +15513,7 @@
         <v>604</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -15570,7 +15538,7 @@
         <v>604</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -15595,7 +15563,7 @@
         <v>604</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -15620,7 +15588,7 @@
         <v>604</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -15645,7 +15613,7 @@
         <v>604</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -15670,7 +15638,7 @@
         <v>604</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="D391" s="29"/>
       <c r="E391" s="29" t="s">
@@ -15695,7 +15663,7 @@
         <v>604</v>
       </c>
       <c r="C392" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D392" s="29"/>
       <c r="E392" s="29" t="s">
@@ -15720,7 +15688,7 @@
         <v>604</v>
       </c>
       <c r="C393" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D393" s="29"/>
       <c r="E393" s="29" t="s">
@@ -15745,7 +15713,7 @@
         <v>604</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -15770,7 +15738,7 @@
         <v>604</v>
       </c>
       <c r="C395" s="20" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="D395" s="29"/>
       <c r="E395" s="29" t="s">
@@ -15795,7 +15763,7 @@
         <v>604</v>
       </c>
       <c r="C396" s="20" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="29" t="s">
@@ -15820,7 +15788,7 @@
         <v>604</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="D397" s="29"/>
       <c r="E397" s="29" t="s">
@@ -15845,7 +15813,7 @@
         <v>604</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="29" t="s">
@@ -15870,7 +15838,7 @@
         <v>604</v>
       </c>
       <c r="C399" s="20" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="D399" s="29"/>
       <c r="E399" s="29" t="s">
@@ -15895,7 +15863,7 @@
         <v>604</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="D400" s="29"/>
       <c r="E400" s="29" t="s">
@@ -15920,7 +15888,7 @@
         <v>604</v>
       </c>
       <c r="C401" s="20" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -15945,7 +15913,7 @@
         <v>604</v>
       </c>
       <c r="C402" s="20" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="D402" s="29"/>
       <c r="E402" s="29" t="s">
@@ -15970,7 +15938,7 @@
         <v>605</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -15995,7 +15963,7 @@
         <v>605</v>
       </c>
       <c r="C404" s="31" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D404" s="29"/>
       <c r="E404" s="29" t="s">
@@ -16020,7 +15988,7 @@
         <v>605</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D405" s="29"/>
       <c r="E405" s="29" t="s">
@@ -16045,7 +16013,7 @@
         <v>606</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -16070,7 +16038,7 @@
         <v>606</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -16095,7 +16063,7 @@
         <v>606</v>
       </c>
       <c r="C408" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D408" s="29"/>
       <c r="E408" s="29" t="s">
@@ -16120,7 +16088,7 @@
         <v>606</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D409" s="29"/>
       <c r="E409" s="29" t="s">
@@ -16145,7 +16113,7 @@
         <v>607</v>
       </c>
       <c r="C410" s="31" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D410" s="29"/>
       <c r="E410" s="29" t="s">
@@ -16170,7 +16138,7 @@
         <v>607</v>
       </c>
       <c r="C411" s="20" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="D411" s="29"/>
       <c r="E411" s="29" t="s">
@@ -16195,7 +16163,7 @@
         <v>607</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D412" s="29"/>
       <c r="E412" s="29" t="s">
@@ -16220,7 +16188,7 @@
         <v>607</v>
       </c>
       <c r="C413" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D413" s="29"/>
       <c r="E413" s="29" t="s">
@@ -16245,7 +16213,7 @@
         <v>607</v>
       </c>
       <c r="C414" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D414" s="29"/>
       <c r="E414" s="29" t="s">
@@ -16270,7 +16238,7 @@
         <v>607</v>
       </c>
       <c r="C415" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D415" s="29"/>
       <c r="E415" s="29" t="s">
@@ -16295,7 +16263,7 @@
         <v>607</v>
       </c>
       <c r="C416" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D416" s="29"/>
       <c r="E416" s="29" t="s">
@@ -16320,7 +16288,7 @@
         <v>607</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -16345,7 +16313,7 @@
         <v>608</v>
       </c>
       <c r="C418" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D418" s="29"/>
       <c r="E418" s="29" t="s">
@@ -16370,7 +16338,7 @@
         <v>609</v>
       </c>
       <c r="C419" s="31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -16395,7 +16363,7 @@
         <v>609</v>
       </c>
       <c r="C420" s="31" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D420" s="29"/>
       <c r="E420" s="29" t="s">
@@ -16420,7 +16388,7 @@
         <v>609</v>
       </c>
       <c r="C421" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -16445,7 +16413,7 @@
         <v>609</v>
       </c>
       <c r="C422" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D422" s="29"/>
       <c r="E422" s="29" t="s">
@@ -16470,7 +16438,7 @@
         <v>609</v>
       </c>
       <c r="C423" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -16495,7 +16463,7 @@
         <v>610</v>
       </c>
       <c r="C424" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D424" s="29"/>
       <c r="E424" s="29" t="s">
@@ -16520,7 +16488,7 @@
         <v>610</v>
       </c>
       <c r="C425" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -16545,7 +16513,7 @@
         <v>610</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D426" s="29"/>
       <c r="E426" s="29" t="s">
@@ -16570,7 +16538,7 @@
         <v>610</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -16595,7 +16563,7 @@
         <v>610</v>
       </c>
       <c r="C428" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D428" s="29"/>
       <c r="E428" s="29" t="s">
@@ -16620,7 +16588,7 @@
         <v>610</v>
       </c>
       <c r="C429" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -16645,7 +16613,7 @@
         <v>611</v>
       </c>
       <c r="C430" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D430" s="29"/>
       <c r="E430" s="29" t="s">
@@ -16670,7 +16638,7 @@
         <v>611</v>
       </c>
       <c r="C431" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D431" s="29"/>
       <c r="E431" s="29" t="s">
@@ -16695,7 +16663,7 @@
         <v>611</v>
       </c>
       <c r="C432" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D432" s="29"/>
       <c r="E432" s="29" t="s">
@@ -16720,7 +16688,7 @@
         <v>611</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D433" s="29"/>
       <c r="E433" s="29" t="s">
@@ -16745,7 +16713,7 @@
         <v>612</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="29" t="s">
@@ -16770,7 +16738,7 @@
         <v>612</v>
       </c>
       <c r="C435" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="29" t="s">
@@ -16795,7 +16763,7 @@
         <v>612</v>
       </c>
       <c r="C436" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="29" t="s">
@@ -16820,7 +16788,7 @@
         <v>612</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D437" s="29"/>
       <c r="E437" s="29" t="s">
@@ -16845,7 +16813,7 @@
         <v>612</v>
       </c>
       <c r="C438" s="20" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="29" t="s">
@@ -16870,7 +16838,7 @@
         <v>612</v>
       </c>
       <c r="C439" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="29" t="s">
@@ -16895,7 +16863,7 @@
         <v>612</v>
       </c>
       <c r="C440" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29" t="s">
@@ -16920,7 +16888,7 @@
         <v>612</v>
       </c>
       <c r="C441" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -16945,7 +16913,7 @@
         <v>612</v>
       </c>
       <c r="C442" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29" t="s">
@@ -16970,7 +16938,7 @@
         <v>613</v>
       </c>
       <c r="C443" s="31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29" t="s">
@@ -16995,7 +16963,7 @@
         <v>614</v>
       </c>
       <c r="C444" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29" t="s">
@@ -17020,7 +16988,7 @@
         <v>614</v>
       </c>
       <c r="C445" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29" t="s">
@@ -17045,7 +17013,7 @@
         <v>614</v>
       </c>
       <c r="C446" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -17070,7 +17038,7 @@
         <v>614</v>
       </c>
       <c r="C447" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29" t="s">
@@ -17095,7 +17063,7 @@
         <v>614</v>
       </c>
       <c r="C448" s="31" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="29" t="s">
@@ -17120,7 +17088,7 @@
         <v>614</v>
       </c>
       <c r="C449" s="31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D449" s="29"/>
       <c r="E449" s="29" t="s">
@@ -17145,7 +17113,7 @@
         <v>615</v>
       </c>
       <c r="C450" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D450" s="29"/>
       <c r="E450" s="29" t="s">
@@ -17170,7 +17138,7 @@
         <v>615</v>
       </c>
       <c r="C451" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D451" s="29"/>
       <c r="E451" s="29" t="s">
@@ -17195,7 +17163,7 @@
         <v>615</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29" t="s">
@@ -17220,7 +17188,7 @@
         <v>616</v>
       </c>
       <c r="C453" s="20" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -17245,7 +17213,7 @@
         <v>616</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29" t="s">
@@ -17270,7 +17238,7 @@
         <v>616</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -17295,7 +17263,7 @@
         <v>616</v>
       </c>
       <c r="C456" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29" t="s">
@@ -17320,7 +17288,7 @@
         <v>616</v>
       </c>
       <c r="C457" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -17345,7 +17313,7 @@
         <v>617</v>
       </c>
       <c r="C458" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="29" t="s">
@@ -17370,7 +17338,7 @@
         <v>617</v>
       </c>
       <c r="C459" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29" t="s">
@@ -17395,7 +17363,7 @@
         <v>617</v>
       </c>
       <c r="C460" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="29" t="s">
@@ -17420,7 +17388,7 @@
         <v>617</v>
       </c>
       <c r="C461" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="29" t="s">
@@ -17445,7 +17413,7 @@
         <v>617</v>
       </c>
       <c r="C462" s="31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -17470,7 +17438,7 @@
         <v>617</v>
       </c>
       <c r="C463" s="31" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -17495,7 +17463,7 @@
         <v>618</v>
       </c>
       <c r="C464" s="31" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29" t="s">
@@ -17520,7 +17488,7 @@
         <v>618</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29" t="s">
@@ -17545,7 +17513,7 @@
         <v>618</v>
       </c>
       <c r="C466" s="31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29" t="s">
@@ -17570,7 +17538,7 @@
         <v>618</v>
       </c>
       <c r="C467" s="31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29" t="s">
@@ -17595,7 +17563,7 @@
         <v>618</v>
       </c>
       <c r="C468" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -17620,7 +17588,7 @@
         <v>618</v>
       </c>
       <c r="C469" s="31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29" t="s">
@@ -17645,7 +17613,7 @@
         <v>618</v>
       </c>
       <c r="C470" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -17670,7 +17638,7 @@
         <v>618</v>
       </c>
       <c r="C471" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29" t="s">
@@ -17695,7 +17663,7 @@
         <v>618</v>
       </c>
       <c r="C472" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29" t="s">
@@ -17720,7 +17688,7 @@
         <v>619</v>
       </c>
       <c r="C473" s="31" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29" t="s">
@@ -17745,7 +17713,7 @@
         <v>619</v>
       </c>
       <c r="C474" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29" t="s">
@@ -17770,10 +17738,10 @@
         <v>619</v>
       </c>
       <c r="C475" s="31" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D475" s="29" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E475" s="29" t="s">
         <v>22</v>
@@ -17788,7 +17756,7 @@
         <v>21</v>
       </c>
       <c r="I475" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -17799,10 +17767,10 @@
         <v>619</v>
       </c>
       <c r="C476" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D476" s="29" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E476" s="29" t="s">
         <v>22</v>
@@ -17826,10 +17794,10 @@
         <v>619</v>
       </c>
       <c r="C477" s="31" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D477" s="29" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E477" s="29" t="s">
         <v>22</v>
@@ -17853,7 +17821,7 @@
         <v>619</v>
       </c>
       <c r="C478" s="31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29" t="s">
@@ -17878,7 +17846,7 @@
         <v>619</v>
       </c>
       <c r="C479" s="31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -17903,7 +17871,7 @@
         <v>619</v>
       </c>
       <c r="C480" s="20" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29" t="s">
@@ -17928,10 +17896,10 @@
         <v>619</v>
       </c>
       <c r="C481" s="20" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="D481" s="29" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E481" s="29" t="s">
         <v>22</v>
@@ -17946,7 +17914,7 @@
         <v>20</v>
       </c>
       <c r="I481" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="45">
@@ -17957,10 +17925,10 @@
         <v>619</v>
       </c>
       <c r="C482" s="31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D482" s="29" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E482" s="29" t="s">
         <v>22</v>
@@ -17984,10 +17952,10 @@
         <v>619</v>
       </c>
       <c r="C483" s="31" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D483" s="29" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E483" s="29" t="s">
         <v>22</v>
@@ -18011,7 +17979,7 @@
         <v>619</v>
       </c>
       <c r="C484" s="31" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
@@ -18036,7 +18004,7 @@
         <v>619</v>
       </c>
       <c r="C485" s="31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D485" s="29"/>
       <c r="E485" s="29" t="s">
@@ -18061,7 +18029,7 @@
         <v>619</v>
       </c>
       <c r="C486" s="31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="29" t="s">
@@ -18086,10 +18054,10 @@
         <v>619</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="D487" s="29" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E487" s="29" t="s">
         <v>22</v>
@@ -18113,10 +18081,10 @@
         <v>619</v>
       </c>
       <c r="C488" s="31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D488" s="29" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E488" s="29" t="s">
         <v>22</v>
@@ -18131,7 +18099,7 @@
         <v>20</v>
       </c>
       <c r="I488" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="45">
@@ -18142,10 +18110,10 @@
         <v>619</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="D489" s="29" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="E489" s="29" t="s">
         <v>22</v>
@@ -18169,10 +18137,10 @@
         <v>619</v>
       </c>
       <c r="C490" s="31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D490" s="29" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="E490" s="29" t="s">
         <v>22</v>
@@ -18187,7 +18155,7 @@
         <v>20</v>
       </c>
       <c r="I490" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="45">
@@ -18198,10 +18166,10 @@
         <v>619</v>
       </c>
       <c r="C491" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D491" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E491" s="29" t="s">
         <v>22</v>
@@ -18216,7 +18184,7 @@
         <v>20</v>
       </c>
       <c r="I491" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="45">
@@ -18227,10 +18195,10 @@
         <v>619</v>
       </c>
       <c r="C492" s="31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D492" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E492" s="29" t="s">
         <v>22</v>
@@ -18254,7 +18222,7 @@
         <v>619</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
@@ -18279,10 +18247,10 @@
         <v>619</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="D494" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E494" s="29" t="s">
         <v>22</v>
@@ -18306,10 +18274,10 @@
         <v>619</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="D495" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E495" s="29" t="s">
         <v>22</v>
@@ -18333,10 +18301,10 @@
         <v>619</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="D496" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E496" s="29" t="s">
         <v>22</v>
@@ -18360,7 +18328,7 @@
         <v>619</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="D497" s="29"/>
       <c r="E497" s="29" t="s">
@@ -18379,16 +18347,16 @@
     </row>
     <row r="498" spans="1:9" ht="60">
       <c r="A498" s="29" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B498" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="D498" s="29" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E498" s="29" t="s">
         <v>22</v>
@@ -18406,16 +18374,16 @@
     </row>
     <row r="499" spans="1:9" ht="45">
       <c r="A499" s="34" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="B499" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C499" s="32" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="D499" s="34" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="E499" s="29" t="s">
         <v>22</v>
@@ -18433,13 +18401,13 @@
     </row>
     <row r="500" spans="1:9" ht="45">
       <c r="A500" s="34" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="B500" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C500" s="32" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="D500" s="34"/>
       <c r="E500" s="29" t="s">
@@ -18458,13 +18426,13 @@
     </row>
     <row r="501" spans="1:9" ht="45">
       <c r="A501" s="34" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B501" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C501" s="32" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="D501" s="34"/>
       <c r="E501" s="29" t="s">
@@ -18483,16 +18451,16 @@
     </row>
     <row r="502" spans="1:9" ht="45">
       <c r="A502" s="34" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="B502" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C502" s="32" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="D502" s="34" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="E502" s="29" t="s">
         <v>22</v>
@@ -18507,21 +18475,21 @@
         <v>21</v>
       </c>
       <c r="I502" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="45">
       <c r="A503" s="22" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="B503" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C503" s="20" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="D503" s="22" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="E503" s="29" t="s">
         <v>22</v>
@@ -18536,7 +18504,7 @@
         <v>21</v>
       </c>
       <c r="I503" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="30">
@@ -18547,10 +18515,10 @@
         <v>619</v>
       </c>
       <c r="C504" s="20" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="D504" s="22" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="E504" s="29" t="s">
         <v>22</v>
@@ -18574,10 +18542,10 @@
         <v>619</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="D505" s="22" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="E505" s="29" t="s">
         <v>22</v>
@@ -18601,7 +18569,7 @@
         <v>619</v>
       </c>
       <c r="C506" s="20" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="D506" s="29"/>
       <c r="E506" s="29" t="s">
@@ -18626,7 +18594,7 @@
         <v>619</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -18651,7 +18619,7 @@
         <v>619</v>
       </c>
       <c r="C508" s="20" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="29" t="s">
@@ -18676,10 +18644,10 @@
         <v>619</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="D509" s="29" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E509" s="29" t="s">
         <v>22</v>
@@ -18694,7 +18662,7 @@
         <v>20</v>
       </c>
       <c r="I509" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="510" spans="1:9" ht="75">
@@ -18705,10 +18673,10 @@
         <v>619</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="D510" s="29" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E510" s="29" t="s">
         <v>22</v>
@@ -18732,10 +18700,10 @@
         <v>619</v>
       </c>
       <c r="C511" s="20" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="D511" s="29" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E511" s="29" t="s">
         <v>22</v>
@@ -18750,21 +18718,21 @@
         <v>20</v>
       </c>
       <c r="I511" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="512" spans="1:9" ht="30">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="60">
       <c r="A512" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="B512" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B512" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="C512" s="31" t="s">
-        <v>848</v>
+      <c r="C512" s="20" t="s">
+        <v>847</v>
       </c>
       <c r="D512" s="29" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E512" s="29" t="s">
         <v>22</v>
@@ -18776,22 +18744,24 @@
         <v>15</v>
       </c>
       <c r="H512" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I512" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I512" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="513" spans="1:9" ht="45">
-      <c r="A513" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="B513" s="30" t="s">
+      <c r="A513" s="34" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B513" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C513" s="31" t="s">
-        <v>849</v>
-      </c>
-      <c r="D513" s="29" t="s">
-        <v>920</v>
+      <c r="C513" s="32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D513" s="34" t="s">
+        <v>1332</v>
       </c>
       <c r="E513" s="29" t="s">
         <v>22</v>
@@ -18799,55 +18769,61 @@
       <c r="F513" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G513" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H513" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I513" s="31"/>
+      <c r="G513" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H513" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I513" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="514" spans="1:9" ht="45">
-      <c r="A514" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="B514" s="30" t="s">
+      <c r="A514" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B514" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C514" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="D514" s="29"/>
+      <c r="C514" s="32" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D514" s="34" t="s">
+        <v>1332</v>
+      </c>
       <c r="E514" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F514" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G514" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H514" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I514" s="31"/>
-    </row>
-    <row r="515" spans="1:9" ht="45">
+        <v>6</v>
+      </c>
+      <c r="G514" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H514" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I514" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="30">
       <c r="A515" s="29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B515" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C515" s="31" t="s">
-        <v>851</v>
+      <c r="C515" s="20" t="s">
+        <v>1368</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F515" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G515" s="29" t="s">
         <v>15</v>
@@ -18857,22 +18833,22 @@
       </c>
       <c r="I515" s="31"/>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" ht="45">
       <c r="A516" s="29" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B516" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C516" s="31" t="s">
-        <v>852</v>
+      <c r="C516" s="20" t="s">
+        <v>1369</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F516" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G516" s="29" t="s">
         <v>15</v>
@@ -18884,230 +18860,232 @@
     </row>
     <row r="517" spans="1:9" ht="45">
       <c r="A517" s="29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B517" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C517" s="31" t="s">
-        <v>853</v>
-      </c>
-      <c r="D517" s="29" t="s">
-        <v>920</v>
-      </c>
+      <c r="C517" s="20" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D517" s="29"/>
       <c r="E517" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F517" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G517" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H517" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I517" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I517" s="31"/>
+    </row>
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="B518" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="B518" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C518" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="D518" s="29" t="s">
-        <v>921</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="D518" s="29"/>
       <c r="E518" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F518" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G518" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H518" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I518" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" ht="45">
-      <c r="A519" s="34" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B519" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I518" s="31"/>
+    </row>
+    <row r="519" spans="1:9" ht="30">
+      <c r="A519" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="B519" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C519" s="32" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D519" s="34" t="s">
-        <v>1339</v>
-      </c>
+      <c r="C519" s="20" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D519" s="29"/>
       <c r="E519" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F519" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G519" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H519" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I519" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G519" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H519" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I519" s="31"/>
     </row>
     <row r="520" spans="1:9" ht="45">
-      <c r="A520" s="34" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B520" s="35" t="s">
+      <c r="A520" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="B520" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C520" s="32" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D520" s="34" t="s">
-        <v>1339</v>
-      </c>
+      <c r="C520" s="20" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F520" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G520" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H520" s="34" t="s">
-        <v>21</v>
+      <c r="G520" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H520" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="I520" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" ht="45">
-      <c r="A521" s="34" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B521" s="35" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="75">
+      <c r="A521" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B521" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C521" s="20" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D521" s="34" t="s">
-        <v>1349</v>
+        <v>1337</v>
+      </c>
+      <c r="D521" s="29" t="s">
+        <v>915</v>
       </c>
       <c r="E521" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F521" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G521" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H521" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I521" s="32"/>
-    </row>
-    <row r="522" spans="1:9" ht="45">
-      <c r="A522" s="22" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B522" s="24" t="s">
+      <c r="F521" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G521" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H521" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I521" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="75">
+      <c r="A522" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="B522" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D522" s="22"/>
+        <v>1334</v>
+      </c>
+      <c r="D522" s="29" t="s">
+        <v>915</v>
+      </c>
       <c r="E522" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F522" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G522" s="22"/>
-      <c r="H522" s="22"/>
-      <c r="I522" s="20"/>
-    </row>
-    <row r="523" spans="1:9" ht="30">
-      <c r="A523" s="34" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B523" s="35" t="s">
+      <c r="F522" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G522" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H522" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I522" s="31"/>
+    </row>
+    <row r="523" spans="1:9" ht="75">
+      <c r="A523" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="B523" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C523" s="20" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D523" s="34"/>
+      <c r="C523" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="D523" s="29" t="s">
+        <v>915</v>
+      </c>
       <c r="E523" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F523" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G523" s="34"/>
-      <c r="H523" s="34"/>
-      <c r="I523" s="32"/>
+      <c r="F523" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G523" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H523" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I523" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="524" spans="1:9" ht="45">
-      <c r="A524" s="22" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B524" s="24" t="s">
+      <c r="A524" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B524" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C524" s="20" t="s">
-        <v>1341</v>
+      <c r="C524" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="D524" s="22" t="s">
-        <v>1349</v>
+        <v>916</v>
       </c>
       <c r="E524" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F524" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G524" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H524" s="22" t="s">
+      <c r="F524" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G524" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H524" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I524" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" ht="75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="45">
       <c r="A525" s="29" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B525" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C525" s="20" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D525" s="29" t="s">
-        <v>922</v>
+      <c r="C525" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="D525" s="22" t="s">
+        <v>917</v>
       </c>
       <c r="E525" s="29" t="s">
         <v>22</v>
@@ -19122,21 +19100,21 @@
         <v>20</v>
       </c>
       <c r="I525" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="526" spans="1:9" ht="75">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="45">
       <c r="A526" s="29" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B526" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C526" s="20" t="s">
-        <v>1351</v>
+      <c r="C526" s="31" t="s">
+        <v>851</v>
       </c>
       <c r="D526" s="29" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E526" s="29" t="s">
         <v>22</v>
@@ -19148,22 +19126,24 @@
         <v>15</v>
       </c>
       <c r="H526" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I526" s="31"/>
-    </row>
-    <row r="527" spans="1:9" ht="75">
+        <v>20</v>
+      </c>
+      <c r="I526" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="45">
       <c r="A527" s="29" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B527" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C527" s="31" t="s">
-        <v>855</v>
+      <c r="C527" s="20" t="s">
+        <v>1335</v>
       </c>
       <c r="D527" s="29" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E527" s="29" t="s">
         <v>22</v>
@@ -19178,21 +19158,21 @@
         <v>20</v>
       </c>
       <c r="I527" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="45">
       <c r="A528" s="29" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B528" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C528" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="D528" s="22" t="s">
-        <v>923</v>
+      <c r="C528" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D528" s="29" t="s">
+        <v>919</v>
       </c>
       <c r="E528" s="29" t="s">
         <v>22</v>
@@ -19204,24 +19184,22 @@
         <v>15</v>
       </c>
       <c r="H528" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I528" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I528" s="31"/>
+    </row>
+    <row r="529" spans="1:9" ht="60">
       <c r="A529" s="29" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B529" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C529" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="D529" s="22" t="s">
-        <v>924</v>
+        <v>852</v>
+      </c>
+      <c r="D529" s="29" t="s">
+        <v>919</v>
       </c>
       <c r="E529" s="29" t="s">
         <v>22</v>
@@ -19236,21 +19214,21 @@
         <v>20</v>
       </c>
       <c r="I529" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="60">
       <c r="A530" s="29" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B530" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C530" s="31" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D530" s="29" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E530" s="29" t="s">
         <v>22</v>
@@ -19265,21 +19243,21 @@
         <v>20</v>
       </c>
       <c r="I530" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="60">
       <c r="A531" s="29" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B531" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C531" s="20" t="s">
-        <v>1352</v>
+      <c r="C531" s="31" t="s">
+        <v>854</v>
       </c>
       <c r="D531" s="29" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E531" s="29" t="s">
         <v>22</v>
@@ -19294,21 +19272,21 @@
         <v>20</v>
       </c>
       <c r="I531" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="60">
       <c r="A532" s="29" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B532" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C532" s="20" t="s">
-        <v>1353</v>
+      <c r="C532" s="31" t="s">
+        <v>855</v>
       </c>
       <c r="D532" s="29" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E532" s="29" t="s">
         <v>22</v>
@@ -19320,22 +19298,24 @@
         <v>15</v>
       </c>
       <c r="H532" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I532" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I532" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="533" spans="1:9" ht="60">
       <c r="A533" s="29" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B533" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C533" s="31" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D533" s="29" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E533" s="29" t="s">
         <v>22</v>
@@ -19350,21 +19330,21 @@
         <v>20</v>
       </c>
       <c r="I533" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="60">
       <c r="A534" s="29" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B534" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C534" s="31" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D534" s="29" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E534" s="29" t="s">
         <v>22</v>
@@ -19379,21 +19359,21 @@
         <v>20</v>
       </c>
       <c r="I534" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="60">
       <c r="A535" s="29" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B535" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C535" s="31" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D535" s="29" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E535" s="29" t="s">
         <v>22</v>
@@ -19408,21 +19388,21 @@
         <v>20</v>
       </c>
       <c r="I535" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="60">
       <c r="A536" s="29" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B536" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C536" s="31" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D536" s="29" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E536" s="29" t="s">
         <v>22</v>
@@ -19437,21 +19417,21 @@
         <v>20</v>
       </c>
       <c r="I536" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" ht="60">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="45">
       <c r="A537" s="29" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B537" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C537" s="31" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D537" s="29" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E537" s="29" t="s">
         <v>22</v>
@@ -19466,21 +19446,21 @@
         <v>20</v>
       </c>
       <c r="I537" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="60">
       <c r="A538" s="29" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B538" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C538" s="31" t="s">
-        <v>864</v>
+      <c r="C538" s="20" t="s">
+        <v>1339</v>
       </c>
       <c r="D538" s="29" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E538" s="29" t="s">
         <v>22</v>
@@ -19492,24 +19472,22 @@
         <v>15</v>
       </c>
       <c r="H538" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I538" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I538" s="31"/>
+    </row>
+    <row r="539" spans="1:9" ht="45">
       <c r="A539" s="29" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B539" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C539" s="31" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D539" s="29" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E539" s="29" t="s">
         <v>22</v>
@@ -19524,21 +19502,21 @@
         <v>20</v>
       </c>
       <c r="I539" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="540" spans="1:9" ht="60">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="45">
       <c r="A540" s="29" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B540" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C540" s="31" t="s">
-        <v>866</v>
+      <c r="C540" s="20" t="s">
+        <v>1338</v>
       </c>
       <c r="D540" s="29" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="E540" s="29" t="s">
         <v>22</v>
@@ -19550,24 +19528,22 @@
         <v>15</v>
       </c>
       <c r="H540" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I540" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I540" s="31"/>
     </row>
     <row r="541" spans="1:9" ht="45">
       <c r="A541" s="29" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B541" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C541" s="31" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D541" s="29" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="E541" s="29" t="s">
         <v>22</v>
@@ -19582,21 +19558,21 @@
         <v>20</v>
       </c>
       <c r="I541" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" ht="60">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="45">
       <c r="A542" s="29" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B542" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C542" s="20" t="s">
-        <v>1356</v>
+      <c r="C542" s="31" t="s">
+        <v>863</v>
       </c>
       <c r="D542" s="29" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="E542" s="29" t="s">
         <v>22</v>
@@ -19608,22 +19584,24 @@
         <v>15</v>
       </c>
       <c r="H542" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I542" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I542" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="543" spans="1:9" ht="45">
       <c r="A543" s="29" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B543" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C543" s="31" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D543" s="29" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E543" s="29" t="s">
         <v>22</v>
@@ -19638,21 +19616,21 @@
         <v>20</v>
       </c>
       <c r="I543" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="60">
       <c r="A544" s="29" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B544" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C544" s="20" t="s">
-        <v>1355</v>
+        <v>865</v>
       </c>
       <c r="D544" s="29" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E544" s="29" t="s">
         <v>22</v>
@@ -19664,22 +19642,24 @@
         <v>15</v>
       </c>
       <c r="H544" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I544" s="31"/>
-    </row>
-    <row r="545" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I544" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="60">
       <c r="A545" s="29" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B545" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C545" s="31" t="s">
-        <v>869</v>
+      <c r="C545" s="20" t="s">
+        <v>1340</v>
       </c>
       <c r="D545" s="29" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E545" s="29" t="s">
         <v>22</v>
@@ -19691,24 +19671,22 @@
         <v>15</v>
       </c>
       <c r="H545" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I545" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I545" s="31"/>
+    </row>
+    <row r="546" spans="1:9" ht="60">
       <c r="A546" s="29" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B546" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C546" s="31" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D546" s="29" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E546" s="29" t="s">
         <v>22</v>
@@ -19720,24 +19698,22 @@
         <v>15</v>
       </c>
       <c r="H546" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I546" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I546" s="31"/>
+    </row>
+    <row r="547" spans="1:9" ht="60">
       <c r="A547" s="29" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B547" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C547" s="31" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D547" s="29" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E547" s="29" t="s">
         <v>22</v>
@@ -19749,24 +19725,22 @@
         <v>15</v>
       </c>
       <c r="H547" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I547" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I547" s="31"/>
     </row>
     <row r="548" spans="1:9" ht="60">
       <c r="A548" s="29" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B548" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C548" s="20" t="s">
-        <v>872</v>
+        <v>1341</v>
       </c>
       <c r="D548" s="29" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="E548" s="29" t="s">
         <v>22</v>
@@ -19778,24 +19752,22 @@
         <v>15</v>
       </c>
       <c r="H548" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I548" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I548" s="31"/>
+    </row>
+    <row r="549" spans="1:9" ht="45">
       <c r="A549" s="29" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B549" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C549" s="20" t="s">
-        <v>1357</v>
+      <c r="C549" s="31" t="s">
+        <v>868</v>
       </c>
       <c r="D549" s="29" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="E549" s="29" t="s">
         <v>22</v>
@@ -19811,18 +19783,18 @@
       </c>
       <c r="I549" s="31"/>
     </row>
-    <row r="550" spans="1:9" ht="60">
+    <row r="550" spans="1:9" ht="45">
       <c r="A550" s="29" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B550" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C550" s="31" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D550" s="29" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E550" s="29" t="s">
         <v>22</v>
@@ -19834,22 +19806,24 @@
         <v>15</v>
       </c>
       <c r="H550" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I550" s="31"/>
-    </row>
-    <row r="551" spans="1:9" ht="60">
+        <v>20</v>
+      </c>
+      <c r="I550" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="45">
       <c r="A551" s="29" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B551" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C551" s="31" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D551" s="29" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E551" s="29" t="s">
         <v>22</v>
@@ -19861,22 +19835,24 @@
         <v>15</v>
       </c>
       <c r="H551" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I551" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I551" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="552" spans="1:9" ht="60">
       <c r="A552" s="29" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B552" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C552" s="20" t="s">
-        <v>1358</v>
+      <c r="C552" s="31" t="s">
+        <v>871</v>
       </c>
       <c r="D552" s="29" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E552" s="29" t="s">
         <v>22</v>
@@ -19888,22 +19864,24 @@
         <v>15</v>
       </c>
       <c r="H552" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I552" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I552" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="553" spans="1:9" ht="45">
-      <c r="A553" s="29" t="s">
-        <v>544</v>
+      <c r="A553" s="22" t="s">
+        <v>1033</v>
       </c>
       <c r="B553" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C553" s="31" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D553" s="29" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E553" s="29" t="s">
         <v>22</v>
@@ -19915,22 +19893,24 @@
         <v>15</v>
       </c>
       <c r="H553" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I553" s="31"/>
-    </row>
-    <row r="554" spans="1:9" ht="45">
-      <c r="A554" s="29" t="s">
-        <v>545</v>
+        <v>20</v>
+      </c>
+      <c r="I553" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="60">
+      <c r="A554" s="22" t="s">
+        <v>1032</v>
       </c>
       <c r="B554" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C554" s="31" t="s">
-        <v>876</v>
-      </c>
-      <c r="D554" s="29" t="s">
-        <v>940</v>
+        <v>873</v>
+      </c>
+      <c r="D554" s="22" t="s">
+        <v>1035</v>
       </c>
       <c r="E554" s="29" t="s">
         <v>22</v>
@@ -19945,21 +19925,21 @@
         <v>20</v>
       </c>
       <c r="I554" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="75">
       <c r="A555" s="29" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B555" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C555" s="31" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D555" s="29" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E555" s="29" t="s">
         <v>22</v>
@@ -19974,21 +19954,21 @@
         <v>20</v>
       </c>
       <c r="I555" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" ht="60">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="45">
       <c r="A556" s="29" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B556" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C556" s="31" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D556" s="29" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E556" s="29" t="s">
         <v>22</v>
@@ -20000,24 +19980,24 @@
         <v>15</v>
       </c>
       <c r="H556" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I556" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="557" spans="1:9" ht="45">
-      <c r="A557" s="22" t="s">
-        <v>1040</v>
+      <c r="A557" s="29" t="s">
+        <v>550</v>
       </c>
       <c r="B557" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C557" s="31" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D557" s="29" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E557" s="29" t="s">
         <v>22</v>
@@ -20032,22 +20012,20 @@
         <v>20</v>
       </c>
       <c r="I557" s="31" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="558" spans="1:9" ht="60">
-      <c r="A558" s="22" t="s">
-        <v>1039</v>
+      <c r="A558" s="29" t="s">
+        <v>551</v>
       </c>
       <c r="B558" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C558" s="31" t="s">
-        <v>880</v>
-      </c>
-      <c r="D558" s="22" t="s">
-        <v>1042</v>
-      </c>
+        <v>877</v>
+      </c>
+      <c r="D558" s="29"/>
       <c r="E558" s="29" t="s">
         <v>22</v>
       </c>
@@ -20058,25 +20036,23 @@
         <v>15</v>
       </c>
       <c r="H558" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I558" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" ht="75">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="60">
       <c r="A559" s="29" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B559" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C559" s="31" t="s">
-        <v>881</v>
-      </c>
-      <c r="D559" s="29" t="s">
-        <v>944</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="D559" s="29"/>
       <c r="E559" s="29" t="s">
         <v>22</v>
       </c>
@@ -20087,25 +20063,21 @@
         <v>15</v>
       </c>
       <c r="H559" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I559" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I559" s="31"/>
+    </row>
+    <row r="560" spans="1:9" ht="60">
       <c r="A560" s="29" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B560" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C560" s="31" t="s">
-        <v>882</v>
-      </c>
-      <c r="D560" s="29" t="s">
-        <v>945</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="D560" s="29"/>
       <c r="E560" s="29" t="s">
         <v>22</v>
       </c>
@@ -20116,25 +20088,23 @@
         <v>15</v>
       </c>
       <c r="H560" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I560" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" ht="45">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="60">
       <c r="A561" s="29" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B561" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C561" s="31" t="s">
-        <v>883</v>
-      </c>
-      <c r="D561" s="29" t="s">
-        <v>946</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
         <v>22</v>
       </c>
@@ -20145,21 +20115,19 @@
         <v>15</v>
       </c>
       <c r="H561" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I561" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I561" s="31"/>
     </row>
     <row r="562" spans="1:9" ht="60">
       <c r="A562" s="29" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B562" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C562" s="31" t="s">
-        <v>884</v>
+      <c r="C562" s="20" t="s">
+        <v>1342</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
@@ -20175,18 +20143,18 @@
         <v>17</v>
       </c>
       <c r="I562" s="31" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="60">
       <c r="A563" s="29" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B563" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C563" s="31" t="s">
-        <v>885</v>
+      <c r="C563" s="20" t="s">
+        <v>1343</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="29" t="s">
@@ -20203,49 +20171,47 @@
       </c>
       <c r="I563" s="31"/>
     </row>
-    <row r="564" spans="1:9" ht="60">
+    <row r="564" spans="1:9" ht="45">
       <c r="A564" s="29" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B564" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C564" s="31" t="s">
-        <v>886</v>
+      <c r="C564" s="20" t="s">
+        <v>1344</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F564" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G564" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H564" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I564" s="31" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="565" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I564" s="31"/>
+    </row>
+    <row r="565" spans="1:9" ht="45">
       <c r="A565" s="29" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B565" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C565" s="31" t="s">
-        <v>887</v>
+      <c r="C565" s="20" t="s">
+        <v>1345</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F565" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G565" s="29" t="s">
         <v>15</v>
@@ -20255,44 +20221,44 @@
       </c>
       <c r="I565" s="31"/>
     </row>
-    <row r="566" spans="1:9" ht="60">
+    <row r="566" spans="1:9" ht="45">
       <c r="A566" s="29" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B566" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C566" s="20" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F566" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G566" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H566" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I566" s="31" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="567" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I566" s="31"/>
+    </row>
+    <row r="567" spans="1:9" ht="45">
       <c r="A567" s="29" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B567" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C567" s="20" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D567" s="29"/>
+      <c r="C567" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="D567" s="29" t="s">
+        <v>940</v>
+      </c>
       <c r="E567" s="29" t="s">
         <v>22</v>
       </c>
@@ -20303,51 +20269,57 @@
         <v>15</v>
       </c>
       <c r="H567" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I567" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I567" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="568" spans="1:9" ht="45">
       <c r="A568" s="29" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B568" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C568" s="20" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D568" s="29"/>
+      <c r="C568" s="31" t="s">
+        <v>882</v>
+      </c>
+      <c r="D568" s="29" t="s">
+        <v>940</v>
+      </c>
       <c r="E568" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F568" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G568" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H568" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I568" s="31"/>
-    </row>
-    <row r="569" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I568" s="31" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" ht="30">
       <c r="A569" s="29" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B569" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F569" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G569" s="29" t="s">
         <v>15</v>
@@ -20359,20 +20331,20 @@
     </row>
     <row r="570" spans="1:9" ht="45">
       <c r="A570" s="29" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B570" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C570" s="20" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F570" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G570" s="29" t="s">
         <v>15</v>
@@ -20384,78 +20356,70 @@
     </row>
     <row r="571" spans="1:9" ht="45">
       <c r="A571" s="29" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B571" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C571" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="D571" s="29" t="s">
-        <v>947</v>
-      </c>
+      <c r="C571" s="20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F571" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G571" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H571" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I571" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I571" s="31"/>
     </row>
     <row r="572" spans="1:9" ht="45">
       <c r="A572" s="29" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B572" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C572" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="D572" s="29" t="s">
-        <v>947</v>
-      </c>
+      <c r="C572" s="20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D572" s="29"/>
       <c r="E572" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F572" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G572" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H572" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I572" s="31" t="s">
-        <v>976</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I572" s="31"/>
     </row>
     <row r="573" spans="1:9" ht="30">
       <c r="A573" s="29" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B573" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C573" s="20" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F573" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G573" s="29" t="s">
         <v>15</v>
@@ -20465,15 +20429,15 @@
       </c>
       <c r="I573" s="31"/>
     </row>
-    <row r="574" spans="1:9" ht="45">
+    <row r="574" spans="1:9" ht="30">
       <c r="A574" s="29" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B574" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -20486,26 +20450,28 @@
         <v>15</v>
       </c>
       <c r="H574" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I574" s="31"/>
-    </row>
-    <row r="575" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I574" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" ht="30">
       <c r="A575" s="29" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B575" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C575" s="20" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F575" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G575" s="29" t="s">
         <v>15</v>
@@ -20517,20 +20483,20 @@
     </row>
     <row r="576" spans="1:9" ht="45">
       <c r="A576" s="29" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B576" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C576" s="20" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F576" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G576" s="29" t="s">
         <v>15</v>
@@ -20542,13 +20508,13 @@
     </row>
     <row r="577" spans="1:10" ht="30">
       <c r="A577" s="29" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B577" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -20565,49 +20531,47 @@
       </c>
       <c r="I577" s="31"/>
     </row>
-    <row r="578" spans="1:10" ht="30">
+    <row r="578" spans="1:10" ht="45">
       <c r="A578" s="29" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B578" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C578" s="20" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F578" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G578" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H578" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I578" s="20" t="s">
-        <v>1324</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I578" s="31"/>
     </row>
     <row r="579" spans="1:10" ht="30">
       <c r="A579" s="29" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B579" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C579" s="20" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F579" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G579" s="29" t="s">
         <v>15</v>
@@ -20617,15 +20581,15 @@
       </c>
       <c r="I579" s="31"/>
     </row>
-    <row r="580" spans="1:10" ht="45">
-      <c r="A580" s="29" t="s">
-        <v>569</v>
+    <row r="580" spans="1:10" ht="30">
+      <c r="A580" s="22" t="s">
+        <v>1026</v>
       </c>
       <c r="B580" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C580" s="20" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -20638,94 +20602,103 @@
         <v>15</v>
       </c>
       <c r="H580" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I580" s="31"/>
-    </row>
-    <row r="581" spans="1:10" ht="30">
-      <c r="A581" s="29" t="s">
-        <v>570</v>
+        <v>17</v>
+      </c>
+      <c r="I580" s="20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" ht="45">
+      <c r="A581" s="22" t="s">
+        <v>1027</v>
       </c>
       <c r="B581" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C581" s="20" t="s">
-        <v>1372</v>
+        <v>1028</v>
       </c>
       <c r="D581" s="29"/>
       <c r="E581" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F581" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G581" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H581" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I581" s="31"/>
-    </row>
-    <row r="582" spans="1:10" ht="45">
-      <c r="A582" s="29" t="s">
-        <v>571</v>
+        <v>21</v>
+      </c>
+      <c r="I581" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J581" s="31"/>
+    </row>
+    <row r="582" spans="1:10" ht="90">
+      <c r="A582" s="22" t="s">
+        <v>1029</v>
       </c>
       <c r="B582" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="C582" s="20" t="s">
-        <v>1373</v>
+      <c r="C582" s="31" t="s">
+        <v>883</v>
       </c>
       <c r="D582" s="29"/>
       <c r="E582" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F582" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G582" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H582" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I582" s="31"/>
-    </row>
-    <row r="583" spans="1:10" ht="30">
+        <v>17</v>
+      </c>
+      <c r="I582" s="31" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" ht="60">
       <c r="A583" s="29" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B583" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C583" s="20" t="s">
-        <v>1374</v>
+        <v>620</v>
+      </c>
+      <c r="C583" s="32" t="s">
+        <v>1036</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F583" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G583" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H583" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I583" s="31"/>
-    </row>
-    <row r="584" spans="1:10" ht="30">
-      <c r="A584" s="22" t="s">
-        <v>1033</v>
+        <v>17</v>
+      </c>
+      <c r="I583" s="31" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" ht="60">
+      <c r="A584" s="29" t="s">
+        <v>574</v>
       </c>
       <c r="B584" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C584" s="20" t="s">
-        <v>1375</v>
+        <v>621</v>
+      </c>
+      <c r="C584" s="32" t="s">
+        <v>777</v>
       </c>
       <c r="D584" s="29"/>
       <c r="E584" s="29" t="s">
@@ -20740,122 +20713,13 @@
       <c r="H584" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I584" s="20" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="585" spans="1:10" ht="45">
-      <c r="A585" s="22" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B585" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C585" s="20" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D585" s="29"/>
-      <c r="E585" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F585" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G585" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H585" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I585" s="30" t="s">
-        <v>976</v>
-      </c>
-      <c r="J585" s="31"/>
-    </row>
-    <row r="586" spans="1:10" ht="90">
-      <c r="A586" s="22" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B586" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C586" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="D586" s="29"/>
-      <c r="E586" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F586" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G586" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H586" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I586" s="31" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="587" spans="1:10" ht="60">
-      <c r="A587" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="B587" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="C587" s="32" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D587" s="29"/>
-      <c r="E587" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F587" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G587" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H587" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I587" s="31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="588" spans="1:10" ht="60">
-      <c r="A588" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="B588" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="C588" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="D588" s="29"/>
-      <c r="E588" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F588" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G588" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H588" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I588" s="31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="589" spans="1:10">
-      <c r="A589" s="3"/>
-      <c r="B589" s="10"/>
+      <c r="I584" s="31" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10">
+      <c r="A585" s="3"/>
+      <c r="B585" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -20873,7 +20737,7 @@
     <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A587:B588 D587:I588 A20:I586">
+  <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
     <cfRule type="expression" dxfId="33" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20884,7 +20748,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A587:B588 D587:I588 A20:I586">
+  <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
     <cfRule type="expression" dxfId="30" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -20895,7 +20759,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F586:F588 G88 F20:F584">
+  <conditionalFormatting sqref="F582:F584 G88 F20:F580">
     <cfRule type="expression" dxfId="27" priority="39">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -20903,7 +20767,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I586:I588">
+  <conditionalFormatting sqref="I582:I584">
     <cfRule type="expression" dxfId="25" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20914,7 +20778,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I586:I588">
+  <conditionalFormatting sqref="I582:I584">
     <cfRule type="expression" dxfId="22" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -20925,15 +20789,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F585">
+  <conditionalFormatting sqref="F581">
     <cfRule type="expression" dxfId="19" priority="22">
-      <formula>NOT(VLOOKUP(F585,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="23">
-      <formula>(VLOOKUP(F585,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I585">
+  <conditionalFormatting sqref="I581">
     <cfRule type="expression" dxfId="17" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20944,7 +20808,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I585">
+  <conditionalFormatting sqref="I581">
     <cfRule type="expression" dxfId="14" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -20955,7 +20819,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C587">
+  <conditionalFormatting sqref="C583">
     <cfRule type="expression" dxfId="11" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20966,7 +20830,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C587">
+  <conditionalFormatting sqref="C583">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -20977,7 +20841,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C588">
+  <conditionalFormatting sqref="C584">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20988,7 +20852,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C588">
+  <conditionalFormatting sqref="C584">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -21000,30 +20864,30 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 G88 F20:F588">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 G88 F20:F511 F512:F584">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E588">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E511 E512:E584">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G87 G89:G588">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G87 G89:G511 G512:G584">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H586:H588 H20:H584">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H582:H584 H20:H511 H512:H580">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H585">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H581">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B49 B51:B69 B73:B77 B80:B87 B89:B103 B105:B120 B296:B412 B503:B517 B413:B498 B570:B589 B525:B569" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B49 B51:B69 B73:B77 B80:B87 B89:B103 B105:B120 B296:B412 B503:B511 B413:B498 B566:B585 B521:B565" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="3510" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1374">
   <si>
     <t>Req ID</t>
   </si>
@@ -4386,7 +4386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -4667,21 +4667,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4706,189 +4691,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5227,6 +5049,184 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5356,34 +5356,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I584" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I584" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
   <autoFilter ref="A19:I584"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="50" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="49" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="48" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="47" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="46" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="45" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="44" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="43" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="42">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5392,12 +5392,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="36"/>
-    <tableColumn id="2" name="Test" dataDxfId="35"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5446,7 +5446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5479,9 +5479,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5514,6 +5531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5693,16 +5727,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -5749,127 +5781,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5882,12 +5914,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5900,12 +5932,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5918,12 +5950,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5936,60 +5968,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6735,7 +6767,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I47" s="31"/>
     </row>
@@ -6760,7 +6792,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I48" s="31"/>
     </row>
@@ -6785,7 +6817,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I49" s="31"/>
     </row>
@@ -7516,13 +7548,13 @@
         <v>19</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I78" s="32"/>
     </row>
@@ -7541,13 +7573,13 @@
         <v>19</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I79" s="32"/>
     </row>
@@ -7780,8 +7812,8 @@
       <c r="F88" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="34" t="s">
-        <v>6</v>
+      <c r="G88" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="H88" s="34" t="s">
         <v>17</v>
@@ -8181,12 +8213,16 @@
       <c r="A104" s="22" t="s">
         <v>1069</v>
       </c>
-      <c r="B104" s="35"/>
+      <c r="B104" s="24" t="s">
+        <v>586</v>
+      </c>
       <c r="C104" s="32" t="s">
         <v>1067</v>
       </c>
       <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+      <c r="E104" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="F104" s="34" t="s">
         <v>6</v>
       </c>
@@ -12896,7 +12932,7 @@
         <v>15</v>
       </c>
       <c r="H284" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I284" s="31"/>
     </row>
@@ -13077,7 +13113,7 @@
         <v>15</v>
       </c>
       <c r="H291" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I291" s="31"/>
     </row>
@@ -20723,6 +20759,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20730,154 +20771,149 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
-    <cfRule type="expression" dxfId="33" priority="79">
+    <cfRule type="expression" dxfId="52" priority="79">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="80">
+    <cfRule type="expression" dxfId="51" priority="80">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="87">
+    <cfRule type="expression" dxfId="50" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="49" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="48" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="47" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F582:F584 G88 F20:F580">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="46" priority="39">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="45" priority="40">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582:I584">
-    <cfRule type="expression" dxfId="25" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582:I584">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F581">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>NOT(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="37" priority="23">
       <formula>(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I581">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I581">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C583">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C583">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 G88 F20:F511 F512:F584">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F584">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E511 E512:E584">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E584">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G87 G89:G511 G512:G584">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G584">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H582:H584 H20:H511 H512:H580">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H582:H584 H20:H580">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H581">
@@ -20887,7 +20923,7 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B49 B51:B69 B73:B77 B80:B87 B89:B103 B105:B120 B296:B412 B503:B511 B413:B498 B566:B585 B521:B565" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B295 B296:B412 B502:B520 B413:B501 B566:B585 B521:B565 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="1375">
   <si>
     <t>Req ID</t>
   </si>
@@ -4381,6 +4381,9 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does support the session context cookie. (&lt;11&gt; Section 3.1.1:  The session context cookie was introduced in Exchange 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXCRPC_R1343.</t>
   </si>
 </sst>
 </file>
@@ -4667,6 +4670,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4690,21 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5781,127 +5784,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5914,12 +5917,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5932,12 +5935,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5950,12 +5953,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5968,60 +5971,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -14736,9 +14739,11 @@
         <v>15</v>
       </c>
       <c r="H354" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I354" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I354" s="20" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="355" spans="1:9" ht="45">
       <c r="A355" s="29" t="s">
@@ -20759,11 +20764,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20771,6 +20771,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -3368,9 +3368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In EcDoRpcExt2 Method (opnum 11)] [pcbOut] If the value in the pcbOut parameter on input is less than 0x00000008, the server SHOULD&lt;22&gt; fail with error code ecRpcFailed (0x80040115).</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -4384,6 +4381,9 @@
   </si>
   <si>
     <t>Verified by requirement: MS-OXCRPC_R1343.</t>
+  </si>
+  <si>
+    <t>[In EcDoRpcExt2 Method (opnum 11)] [pcbOut] If the value in the pcbOut parameter on input is less than 0x00000008, the server SHOULD&lt;21&gt; fail with error code ecRpcFailed (0x80040115).</t>
   </si>
 </sst>
 </file>
@@ -4670,21 +4670,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4708,6 +4693,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5773,7 +5773,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -5784,127 +5784,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5917,12 +5917,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5935,12 +5935,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5953,12 +5953,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5971,60 +5971,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -6826,13 +6826,13 @@
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="22" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B50" s="30" t="s">
         <v>578</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D50" s="34"/>
       <c r="E50" s="29" t="s">
@@ -7131,7 +7131,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7142,7 +7142,7 @@
         <v>581</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="29" t="s">
@@ -7167,7 +7167,7 @@
         <v>581</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29" t="s">
@@ -7183,7 +7183,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45">
@@ -7194,7 +7194,7 @@
         <v>581</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="29" t="s">
@@ -7219,7 +7219,7 @@
         <v>581</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29" t="s">
@@ -7244,7 +7244,7 @@
         <v>581</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29" t="s">
@@ -7269,7 +7269,7 @@
         <v>581</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="29" t="s">
@@ -7294,7 +7294,7 @@
         <v>581</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
@@ -7319,7 +7319,7 @@
         <v>581</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="29" t="s">
@@ -7344,7 +7344,7 @@
         <v>581</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -7363,13 +7363,13 @@
     </row>
     <row r="71" spans="1:9" ht="45">
       <c r="A71" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B71" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D71" s="34"/>
       <c r="E71" s="29" t="s">
@@ -7388,13 +7388,13 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B72" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D72" s="34"/>
       <c r="E72" s="29" t="s">
@@ -7538,13 +7538,13 @@
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B78" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D78" s="34"/>
       <c r="E78" s="29" t="s">
@@ -7563,13 +7563,13 @@
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B79" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D79" s="34"/>
       <c r="E79" s="29" t="s">
@@ -7594,7 +7594,7 @@
         <v>581</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
@@ -7644,7 +7644,7 @@
         <v>581</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29" t="s">
@@ -7671,7 +7671,7 @@
         <v>582</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="29" t="s">
@@ -7687,7 +7687,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45">
@@ -7800,13 +7800,13 @@
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B88" s="30" t="s">
         <v>582</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
@@ -7833,7 +7833,7 @@
         <v>583</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
@@ -7935,7 +7935,7 @@
         <v>584</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D93" s="29"/>
       <c r="E93" s="29" t="s">
@@ -8037,7 +8037,7 @@
         <v>585</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D97" s="29"/>
       <c r="E97" s="29" t="s">
@@ -8166,7 +8166,7 @@
         <v>586</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="29" t="s">
@@ -8214,13 +8214,13 @@
     </row>
     <row r="104" spans="1:9" ht="60">
       <c r="A104" s="22" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>586</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
@@ -8236,7 +8236,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -8405,7 +8405,7 @@
         <v>588</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -8655,13 +8655,13 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="22" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B121" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D121" s="34"/>
       <c r="E121" s="29" t="s">
@@ -8680,13 +8680,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B122" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D122" s="34"/>
       <c r="E122" s="29" t="s">
@@ -8705,13 +8705,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B123" s="30" t="s">
         <v>589</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D123" s="34"/>
       <c r="E123" s="29" t="s">
@@ -8730,13 +8730,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="22" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D124" s="34"/>
       <c r="E124" s="29" t="s">
@@ -8758,10 +8758,10 @@
         <v>137</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="29" t="s">
@@ -8785,10 +8785,10 @@
         <v>138</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="29" t="s">
@@ -8812,10 +8812,10 @@
         <v>139</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -8837,10 +8837,10 @@
         <v>140</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D128" s="29"/>
       <c r="E128" s="29" t="s">
@@ -8864,10 +8864,10 @@
         <v>141</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D129" s="29"/>
       <c r="E129" s="29" t="s">
@@ -8889,10 +8889,10 @@
         <v>142</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="29" t="s">
@@ -8916,10 +8916,10 @@
         <v>143</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -8941,10 +8941,10 @@
         <v>144</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="29" t="s">
@@ -8966,10 +8966,10 @@
         <v>145</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="29" t="s">
@@ -8991,10 +8991,10 @@
         <v>146</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D134" s="29"/>
       <c r="E134" s="29" t="s">
@@ -9016,10 +9016,10 @@
         <v>147</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -9041,10 +9041,10 @@
         <v>148</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="29" t="s">
@@ -9066,10 +9066,10 @@
         <v>149</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="29" t="s">
@@ -9091,10 +9091,10 @@
         <v>150</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="29" t="s">
@@ -9116,10 +9116,10 @@
         <v>151</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="29" t="s">
@@ -9138,13 +9138,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="22" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D140" s="34"/>
       <c r="E140" s="29" t="s">
@@ -9163,13 +9163,13 @@
     </row>
     <row r="141" spans="1:9" ht="30">
       <c r="A141" s="22" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D141" s="34"/>
       <c r="E141" s="29" t="s">
@@ -9188,13 +9188,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B142" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>1099</v>
-      </c>
-      <c r="B142" s="35" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C142" s="32" t="s">
-        <v>1100</v>
       </c>
       <c r="D142" s="34"/>
       <c r="E142" s="29" t="s">
@@ -9216,10 +9216,10 @@
         <v>152</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D143" s="29"/>
       <c r="E143" s="29" t="s">
@@ -9241,10 +9241,10 @@
         <v>153</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D144" s="29"/>
       <c r="E144" s="29" t="s">
@@ -9266,10 +9266,10 @@
         <v>154</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D145" s="29"/>
       <c r="E145" s="29" t="s">
@@ -9291,10 +9291,10 @@
         <v>155</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D146" s="29"/>
       <c r="E146" s="29" t="s">
@@ -9316,10 +9316,10 @@
         <v>156</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="29" t="s">
@@ -9341,10 +9341,10 @@
         <v>157</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="29" t="s">
@@ -9366,10 +9366,10 @@
         <v>158</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="29" t="s">
@@ -9391,10 +9391,10 @@
         <v>159</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="29" t="s">
@@ -9418,10 +9418,10 @@
         <v>160</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="29" t="s">
@@ -9443,10 +9443,10 @@
         <v>161</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="29" t="s">
@@ -9468,10 +9468,10 @@
         <v>162</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="29" t="s">
@@ -9495,10 +9495,10 @@
         <v>163</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="29" t="s">
@@ -9522,10 +9522,10 @@
         <v>164</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="29" t="s">
@@ -9547,10 +9547,10 @@
         <v>165</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="29" t="s">
@@ -9574,10 +9574,10 @@
         <v>166</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D157" s="29" t="s">
         <v>886</v>
@@ -9601,10 +9601,10 @@
         <v>167</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D158" s="29" t="s">
         <v>886</v>
@@ -9628,10 +9628,10 @@
         <v>168</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="29" t="s">
@@ -9655,10 +9655,10 @@
         <v>169</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="29" t="s">
@@ -9680,10 +9680,10 @@
         <v>170</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="29" t="s">
@@ -9707,10 +9707,10 @@
         <v>171</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="29" t="s">
@@ -9732,10 +9732,10 @@
         <v>172</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="29" t="s">
@@ -9757,10 +9757,10 @@
         <v>173</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="29" t="s">
@@ -9782,10 +9782,10 @@
         <v>174</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="29" t="s">
@@ -9809,10 +9809,10 @@
         <v>175</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D166" s="29" t="s">
         <v>887</v>
@@ -9838,10 +9838,10 @@
         <v>176</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="29" t="s">
@@ -9863,10 +9863,10 @@
         <v>177</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="29" t="s">
@@ -9888,10 +9888,10 @@
         <v>178</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="29" t="s">
@@ -9915,10 +9915,10 @@
         <v>179</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D170" s="29" t="s">
         <v>888</v>
@@ -9942,10 +9942,10 @@
         <v>180</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D171" s="29" t="s">
         <v>888</v>
@@ -9969,10 +9969,10 @@
         <v>181</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D172" s="29" t="s">
         <v>888</v>
@@ -9996,10 +9996,10 @@
         <v>182</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D173" s="29" t="s">
         <v>888</v>
@@ -10023,10 +10023,10 @@
         <v>183</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="29" t="s">
@@ -10048,10 +10048,10 @@
         <v>184</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -10073,10 +10073,10 @@
         <v>185</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="29" t="s">
@@ -10100,10 +10100,10 @@
         <v>186</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D177" s="29" t="s">
         <v>889</v>
@@ -10127,10 +10127,10 @@
         <v>187</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D178" s="29" t="s">
         <v>889</v>
@@ -10154,10 +10154,10 @@
         <v>188</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D179" s="29" t="s">
         <v>889</v>
@@ -10181,10 +10181,10 @@
         <v>189</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D180" s="29" t="s">
         <v>889</v>
@@ -10208,10 +10208,10 @@
         <v>190</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -10233,10 +10233,10 @@
         <v>191</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -10258,10 +10258,10 @@
         <v>192</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="29" t="s">
@@ -10285,10 +10285,10 @@
         <v>193</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D184" s="29" t="s">
         <v>890</v>
@@ -10312,10 +10312,10 @@
         <v>194</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D185" s="29" t="s">
         <v>890</v>
@@ -10339,10 +10339,10 @@
         <v>195</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D186" s="29" t="s">
         <v>890</v>
@@ -10366,10 +10366,10 @@
         <v>196</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D187" s="29" t="s">
         <v>890</v>
@@ -10393,10 +10393,10 @@
         <v>197</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
@@ -10418,10 +10418,10 @@
         <v>198</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -10443,10 +10443,10 @@
         <v>199</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -10470,10 +10470,10 @@
         <v>200</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D191" s="29" t="s">
         <v>891</v>
@@ -10497,10 +10497,10 @@
         <v>201</v>
       </c>
       <c r="B192" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D192" s="29" t="s">
         <v>891</v>
@@ -10524,10 +10524,10 @@
         <v>202</v>
       </c>
       <c r="B193" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D193" s="29" t="s">
         <v>891</v>
@@ -10551,10 +10551,10 @@
         <v>203</v>
       </c>
       <c r="B194" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="29" t="s">
@@ -10576,10 +10576,10 @@
         <v>204</v>
       </c>
       <c r="B195" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -10601,10 +10601,10 @@
         <v>205</v>
       </c>
       <c r="B196" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="29" t="s">
@@ -10628,10 +10628,10 @@
         <v>206</v>
       </c>
       <c r="B197" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D197" s="29" t="s">
         <v>892</v>
@@ -10655,10 +10655,10 @@
         <v>207</v>
       </c>
       <c r="B198" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D198" s="29" t="s">
         <v>892</v>
@@ -10682,10 +10682,10 @@
         <v>208</v>
       </c>
       <c r="B199" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D199" s="29" t="s">
         <v>892</v>
@@ -10709,10 +10709,10 @@
         <v>209</v>
       </c>
       <c r="B200" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="29" t="s">
@@ -10734,10 +10734,10 @@
         <v>210</v>
       </c>
       <c r="B201" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -10756,16 +10756,16 @@
     </row>
     <row r="202" spans="1:9" ht="75">
       <c r="A202" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B202" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E202" s="29" t="s">
         <v>19</v>
@@ -10780,21 +10780,21 @@
         <v>17</v>
       </c>
       <c r="I202" s="32" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="45">
       <c r="A203" s="34" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B203" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C203" s="32" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>1167</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>1168</v>
       </c>
       <c r="E203" s="29" t="s">
         <v>19</v>
@@ -10812,16 +10812,16 @@
     </row>
     <row r="204" spans="1:9" ht="45">
       <c r="A204" s="34" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B204" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E204" s="29" t="s">
         <v>19</v>
@@ -10839,16 +10839,16 @@
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B205" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E205" s="29" t="s">
         <v>19</v>
@@ -10869,10 +10869,10 @@
         <v>211</v>
       </c>
       <c r="B206" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D206" s="29"/>
       <c r="E206" s="29" t="s">
@@ -10894,10 +10894,10 @@
         <v>212</v>
       </c>
       <c r="B207" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D207" s="29"/>
       <c r="E207" s="29" t="s">
@@ -10919,10 +10919,10 @@
         <v>213</v>
       </c>
       <c r="B208" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -10946,10 +10946,10 @@
         <v>214</v>
       </c>
       <c r="B209" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D209" s="29" t="s">
         <v>893</v>
@@ -10973,10 +10973,10 @@
         <v>215</v>
       </c>
       <c r="B210" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D210" s="29" t="s">
         <v>893</v>
@@ -11000,10 +11000,10 @@
         <v>216</v>
       </c>
       <c r="B211" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D211" s="29" t="s">
         <v>893</v>
@@ -11027,10 +11027,10 @@
         <v>217</v>
       </c>
       <c r="B212" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="29" t="s">
@@ -11049,13 +11049,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="22" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B213" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D213" s="34"/>
       <c r="E213" s="34" t="s">
@@ -11077,10 +11077,10 @@
         <v>218</v>
       </c>
       <c r="B214" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -11104,10 +11104,10 @@
         <v>219</v>
       </c>
       <c r="B215" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D215" s="29" t="s">
         <v>894</v>
@@ -11131,10 +11131,10 @@
         <v>220</v>
       </c>
       <c r="B216" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D216" s="29" t="s">
         <v>894</v>
@@ -11158,10 +11158,10 @@
         <v>221</v>
       </c>
       <c r="B217" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D217" s="29" t="s">
         <v>894</v>
@@ -11185,10 +11185,10 @@
         <v>222</v>
       </c>
       <c r="B218" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -11210,10 +11210,10 @@
         <v>223</v>
       </c>
       <c r="B219" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29" t="s">
@@ -11235,10 +11235,10 @@
         <v>224</v>
       </c>
       <c r="B220" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29" t="s">
@@ -11262,10 +11262,10 @@
         <v>225</v>
       </c>
       <c r="B221" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D221" s="29" t="s">
         <v>895</v>
@@ -11289,10 +11289,10 @@
         <v>226</v>
       </c>
       <c r="B222" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D222" s="29" t="s">
         <v>895</v>
@@ -11316,10 +11316,10 @@
         <v>227</v>
       </c>
       <c r="B223" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D223" s="29" t="s">
         <v>895</v>
@@ -11343,10 +11343,10 @@
         <v>228</v>
       </c>
       <c r="B224" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29" t="s">
@@ -11368,10 +11368,10 @@
         <v>229</v>
       </c>
       <c r="B225" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -11393,10 +11393,10 @@
         <v>230</v>
       </c>
       <c r="B226" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D226" s="29"/>
       <c r="E226" s="29" t="s">
@@ -11420,10 +11420,10 @@
         <v>231</v>
       </c>
       <c r="B227" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D227" s="29" t="s">
         <v>896</v>
@@ -11447,10 +11447,10 @@
         <v>232</v>
       </c>
       <c r="B228" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D228" s="29" t="s">
         <v>896</v>
@@ -11474,10 +11474,10 @@
         <v>233</v>
       </c>
       <c r="B229" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D229" s="29" t="s">
         <v>896</v>
@@ -11501,10 +11501,10 @@
         <v>234</v>
       </c>
       <c r="B230" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D230" s="29"/>
       <c r="E230" s="29" t="s">
@@ -11526,10 +11526,10 @@
         <v>235</v>
       </c>
       <c r="B231" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D231" s="29"/>
       <c r="E231" s="29" t="s">
@@ -11551,10 +11551,10 @@
         <v>236</v>
       </c>
       <c r="B232" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D232" s="29"/>
       <c r="E232" s="29" t="s">
@@ -11578,10 +11578,10 @@
         <v>237</v>
       </c>
       <c r="B233" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D233" s="29" t="s">
         <v>897</v>
@@ -11605,10 +11605,10 @@
         <v>238</v>
       </c>
       <c r="B234" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D234" s="29" t="s">
         <v>897</v>
@@ -11632,10 +11632,10 @@
         <v>239</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D235" s="29" t="s">
         <v>897</v>
@@ -11659,10 +11659,10 @@
         <v>240</v>
       </c>
       <c r="B236" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D236" s="29" t="s">
         <v>897</v>
@@ -11686,10 +11686,10 @@
         <v>241</v>
       </c>
       <c r="B237" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D237" s="29" t="s">
         <v>897</v>
@@ -11713,10 +11713,10 @@
         <v>242</v>
       </c>
       <c r="B238" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D238" s="29"/>
       <c r="E238" s="29" t="s">
@@ -11738,10 +11738,10 @@
         <v>243</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D239" s="29"/>
       <c r="E239" s="29" t="s">
@@ -11763,10 +11763,10 @@
         <v>244</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D240" s="29"/>
       <c r="E240" s="29" t="s">
@@ -11790,10 +11790,10 @@
         <v>245</v>
       </c>
       <c r="B241" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D241" s="29" t="s">
         <v>898</v>
@@ -11817,10 +11817,10 @@
         <v>246</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D242" s="29" t="s">
         <v>898</v>
@@ -11844,10 +11844,10 @@
         <v>247</v>
       </c>
       <c r="B243" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D243" s="29" t="s">
         <v>898</v>
@@ -11871,10 +11871,10 @@
         <v>248</v>
       </c>
       <c r="B244" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D244" s="29"/>
       <c r="E244" s="29" t="s">
@@ -11896,10 +11896,10 @@
         <v>249</v>
       </c>
       <c r="B245" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D245" s="29"/>
       <c r="E245" s="29" t="s">
@@ -11921,10 +11921,10 @@
         <v>250</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D246" s="29"/>
       <c r="E246" s="29" t="s">
@@ -11948,10 +11948,10 @@
         <v>251</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D247" s="29" t="s">
         <v>899</v>
@@ -11975,10 +11975,10 @@
         <v>252</v>
       </c>
       <c r="B248" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D248" s="29" t="s">
         <v>899</v>
@@ -12002,10 +12002,10 @@
         <v>253</v>
       </c>
       <c r="B249" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D249" s="29" t="s">
         <v>899</v>
@@ -12029,10 +12029,10 @@
         <v>254</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29" t="s">
@@ -12054,10 +12054,10 @@
         <v>255</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29" t="s">
@@ -12079,10 +12079,10 @@
         <v>256</v>
       </c>
       <c r="B252" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29" t="s">
@@ -12106,10 +12106,10 @@
         <v>257</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D253" s="29" t="s">
         <v>900</v>
@@ -12133,10 +12133,10 @@
         <v>258</v>
       </c>
       <c r="B254" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D254" s="29" t="s">
         <v>900</v>
@@ -12160,10 +12160,10 @@
         <v>259</v>
       </c>
       <c r="B255" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D255" s="29" t="s">
         <v>900</v>
@@ -12187,10 +12187,10 @@
         <v>260</v>
       </c>
       <c r="B256" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29" t="s">
@@ -12212,10 +12212,10 @@
         <v>261</v>
       </c>
       <c r="B257" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
@@ -12237,10 +12237,10 @@
         <v>262</v>
       </c>
       <c r="B258" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D258" s="29"/>
       <c r="E258" s="29" t="s">
@@ -12264,10 +12264,10 @@
         <v>263</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D259" s="29" t="s">
         <v>901</v>
@@ -12291,10 +12291,10 @@
         <v>264</v>
       </c>
       <c r="B260" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D260" s="29" t="s">
         <v>901</v>
@@ -12318,10 +12318,10 @@
         <v>265</v>
       </c>
       <c r="B261" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D261" s="29" t="s">
         <v>901</v>
@@ -12345,10 +12345,10 @@
         <v>266</v>
       </c>
       <c r="B262" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D262" s="29"/>
       <c r="E262" s="29" t="s">
@@ -12372,10 +12372,10 @@
         <v>267</v>
       </c>
       <c r="B263" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D263" s="29"/>
       <c r="E263" s="29" t="s">
@@ -12397,10 +12397,10 @@
         <v>268</v>
       </c>
       <c r="B264" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D264" s="29"/>
       <c r="E264" s="29" t="s">
@@ -12422,10 +12422,10 @@
         <v>269</v>
       </c>
       <c r="B265" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D265" s="29" t="s">
         <v>902</v>
@@ -12449,10 +12449,10 @@
         <v>270</v>
       </c>
       <c r="B266" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D266" s="29" t="s">
         <v>902</v>
@@ -12476,10 +12476,10 @@
         <v>271</v>
       </c>
       <c r="B267" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D267" s="29" t="s">
         <v>902</v>
@@ -12503,10 +12503,10 @@
         <v>272</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D268" s="29"/>
       <c r="E268" s="29" t="s">
@@ -12528,10 +12528,10 @@
         <v>273</v>
       </c>
       <c r="B269" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D269" s="29"/>
       <c r="E269" s="29" t="s">
@@ -12553,10 +12553,10 @@
         <v>274</v>
       </c>
       <c r="B270" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D270" s="29"/>
       <c r="E270" s="29" t="s">
@@ -12578,10 +12578,10 @@
         <v>275</v>
       </c>
       <c r="B271" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D271" s="29" t="s">
         <v>903</v>
@@ -12605,10 +12605,10 @@
         <v>276</v>
       </c>
       <c r="B272" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D272" s="29" t="s">
         <v>903</v>
@@ -12632,10 +12632,10 @@
         <v>277</v>
       </c>
       <c r="B273" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D273" s="29"/>
       <c r="E273" s="29" t="s">
@@ -12657,10 +12657,10 @@
         <v>278</v>
       </c>
       <c r="B274" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D274" s="29"/>
       <c r="E274" s="29" t="s">
@@ -12682,10 +12682,10 @@
         <v>279</v>
       </c>
       <c r="B275" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D275" s="29"/>
       <c r="E275" s="29" t="s">
@@ -12707,10 +12707,10 @@
         <v>280</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D276" s="29" t="s">
         <v>904</v>
@@ -12734,10 +12734,10 @@
         <v>281</v>
       </c>
       <c r="B277" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D277" s="29" t="s">
         <v>904</v>
@@ -12761,10 +12761,10 @@
         <v>282</v>
       </c>
       <c r="B278" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D278" s="29"/>
       <c r="E278" s="29" t="s">
@@ -12786,10 +12786,10 @@
         <v>283</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D279" s="29"/>
       <c r="E279" s="29" t="s">
@@ -12805,7 +12805,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="60">
@@ -12813,10 +12813,10 @@
         <v>284</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -12840,10 +12840,10 @@
         <v>285</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D281" s="29" t="s">
         <v>905</v>
@@ -12867,10 +12867,10 @@
         <v>286</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D282" s="29" t="s">
         <v>905</v>
@@ -12894,10 +12894,10 @@
         <v>287</v>
       </c>
       <c r="B283" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D283" s="29"/>
       <c r="E283" s="29" t="s">
@@ -12919,10 +12919,10 @@
         <v>288</v>
       </c>
       <c r="B284" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D284" s="29"/>
       <c r="E284" s="29" t="s">
@@ -12944,10 +12944,10 @@
         <v>289</v>
       </c>
       <c r="B285" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D285" s="29"/>
       <c r="E285" s="29" t="s">
@@ -12969,10 +12969,10 @@
         <v>290</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -12994,10 +12994,10 @@
         <v>291</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -13021,10 +13021,10 @@
         <v>292</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D288" s="29" t="s">
         <v>906</v>
@@ -13048,10 +13048,10 @@
         <v>293</v>
       </c>
       <c r="B289" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D289" s="29" t="s">
         <v>906</v>
@@ -13075,10 +13075,10 @@
         <v>294</v>
       </c>
       <c r="B290" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D290" s="29"/>
       <c r="E290" s="29" t="s">
@@ -13100,10 +13100,10 @@
         <v>295</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D291" s="29"/>
       <c r="E291" s="29" t="s">
@@ -13125,10 +13125,10 @@
         <v>296</v>
       </c>
       <c r="B292" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D292" s="29"/>
       <c r="E292" s="29" t="s">
@@ -13150,10 +13150,10 @@
         <v>297</v>
       </c>
       <c r="B293" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D293" s="29"/>
       <c r="E293" s="29" t="s">
@@ -13177,10 +13177,10 @@
         <v>298</v>
       </c>
       <c r="B294" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D294" s="29" t="s">
         <v>907</v>
@@ -13204,10 +13204,10 @@
         <v>299</v>
       </c>
       <c r="B295" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D295" s="29" t="s">
         <v>907</v>
@@ -13334,7 +13334,7 @@
         <v>590</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D300" s="29"/>
       <c r="E300" s="29" t="s">
@@ -13463,7 +13463,7 @@
         <v>32</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D305" s="29"/>
       <c r="E305" s="29" t="s">
@@ -13613,7 +13613,7 @@
         <v>592</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D311" s="29"/>
       <c r="E311" s="29" t="s">
@@ -14200,7 +14200,7 @@
         <v>592</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D334" s="29"/>
       <c r="E334" s="29" t="s">
@@ -14225,7 +14225,7 @@
         <v>592</v>
       </c>
       <c r="C335" s="20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D335" s="29"/>
       <c r="E335" s="29" t="s">
@@ -14250,7 +14250,7 @@
         <v>592</v>
       </c>
       <c r="C336" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D336" s="29"/>
       <c r="E336" s="29" t="s">
@@ -14277,7 +14277,7 @@
         <v>592</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D337" s="29"/>
       <c r="E337" s="29" t="s">
@@ -14304,7 +14304,7 @@
         <v>592</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D338" s="29"/>
       <c r="E338" s="29" t="s">
@@ -14331,7 +14331,7 @@
         <v>592</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D339" s="29"/>
       <c r="E339" s="29" t="s">
@@ -14358,7 +14358,7 @@
         <v>592</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D340" s="29"/>
       <c r="E340" s="29" t="s">
@@ -14385,7 +14385,7 @@
         <v>592</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D341" s="29"/>
       <c r="E341" s="29" t="s">
@@ -14410,7 +14410,7 @@
         <v>592</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D342" s="29"/>
       <c r="E342" s="29" t="s">
@@ -14543,7 +14543,7 @@
         <v>594</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D347" s="29"/>
       <c r="E347" s="29" t="s">
@@ -14620,7 +14620,7 @@
         <v>595</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D350" s="29"/>
       <c r="E350" s="29" t="s">
@@ -14742,7 +14742,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="45">
@@ -14803,7 +14803,7 @@
         <v>596</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="29" t="s">
@@ -15144,7 +15144,7 @@
         <v>597</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="29" t="s">
@@ -15221,7 +15221,7 @@
         <v>598</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D373" s="29"/>
       <c r="E373" s="29" t="s">
@@ -15479,7 +15479,7 @@
         <v>604</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
@@ -15504,7 +15504,7 @@
         <v>604</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -15529,7 +15529,7 @@
         <v>604</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D385" s="29"/>
       <c r="E385" s="29" t="s">
@@ -15554,7 +15554,7 @@
         <v>604</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D386" s="29"/>
       <c r="E386" s="29" t="s">
@@ -15579,7 +15579,7 @@
         <v>604</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D387" s="29"/>
       <c r="E387" s="29" t="s">
@@ -15604,7 +15604,7 @@
         <v>604</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D388" s="29"/>
       <c r="E388" s="29" t="s">
@@ -15629,7 +15629,7 @@
         <v>604</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D389" s="29"/>
       <c r="E389" s="29" t="s">
@@ -15654,7 +15654,7 @@
         <v>604</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -15679,7 +15679,7 @@
         <v>604</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D391" s="29"/>
       <c r="E391" s="29" t="s">
@@ -15754,7 +15754,7 @@
         <v>604</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D394" s="29"/>
       <c r="E394" s="29" t="s">
@@ -15779,7 +15779,7 @@
         <v>604</v>
       </c>
       <c r="C395" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D395" s="29"/>
       <c r="E395" s="29" t="s">
@@ -15804,7 +15804,7 @@
         <v>604</v>
       </c>
       <c r="C396" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D396" s="29"/>
       <c r="E396" s="29" t="s">
@@ -15829,7 +15829,7 @@
         <v>604</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D397" s="29"/>
       <c r="E397" s="29" t="s">
@@ -15854,7 +15854,7 @@
         <v>604</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D398" s="29"/>
       <c r="E398" s="29" t="s">
@@ -15879,7 +15879,7 @@
         <v>604</v>
       </c>
       <c r="C399" s="20" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D399" s="29"/>
       <c r="E399" s="29" t="s">
@@ -15904,7 +15904,7 @@
         <v>604</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D400" s="29"/>
       <c r="E400" s="29" t="s">
@@ -15929,7 +15929,7 @@
         <v>604</v>
       </c>
       <c r="C401" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D401" s="29"/>
       <c r="E401" s="29" t="s">
@@ -15954,7 +15954,7 @@
         <v>604</v>
       </c>
       <c r="C402" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D402" s="29"/>
       <c r="E402" s="29" t="s">
@@ -15979,7 +15979,7 @@
         <v>605</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D403" s="29"/>
       <c r="E403" s="29" t="s">
@@ -16054,7 +16054,7 @@
         <v>606</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D406" s="29"/>
       <c r="E406" s="29" t="s">
@@ -16179,7 +16179,7 @@
         <v>607</v>
       </c>
       <c r="C411" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D411" s="29"/>
       <c r="E411" s="29" t="s">
@@ -16329,7 +16329,7 @@
         <v>607</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D417" s="29"/>
       <c r="E417" s="29" t="s">
@@ -16754,7 +16754,7 @@
         <v>612</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="29" t="s">
@@ -16854,7 +16854,7 @@
         <v>612</v>
       </c>
       <c r="C438" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="29" t="s">
@@ -17229,7 +17229,7 @@
         <v>616</v>
       </c>
       <c r="C453" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -17254,7 +17254,7 @@
         <v>616</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29" t="s">
@@ -17279,7 +17279,7 @@
         <v>616</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29" t="s">
@@ -17529,7 +17529,7 @@
         <v>618</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29" t="s">
@@ -17912,7 +17912,7 @@
         <v>619</v>
       </c>
       <c r="C480" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29" t="s">
@@ -17937,7 +17937,7 @@
         <v>619</v>
       </c>
       <c r="C481" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D481" s="29" t="s">
         <v>909</v>
@@ -18095,7 +18095,7 @@
         <v>619</v>
       </c>
       <c r="C487" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D487" s="29" t="s">
         <v>910</v>
@@ -18151,7 +18151,7 @@
         <v>619</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D489" s="29" t="s">
         <v>911</v>
@@ -18263,7 +18263,7 @@
         <v>619</v>
       </c>
       <c r="C493" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D493" s="29"/>
       <c r="E493" s="29" t="s">
@@ -18288,7 +18288,7 @@
         <v>619</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D494" s="29" t="s">
         <v>912</v>
@@ -18315,7 +18315,7 @@
         <v>619</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D495" s="29" t="s">
         <v>912</v>
@@ -18342,7 +18342,7 @@
         <v>619</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D496" s="29" t="s">
         <v>912</v>
@@ -18369,7 +18369,7 @@
         <v>619</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D497" s="29"/>
       <c r="E497" s="29" t="s">
@@ -18394,7 +18394,7 @@
         <v>619</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D498" s="29" t="s">
         <v>912</v>
@@ -18415,16 +18415,16 @@
     </row>
     <row r="499" spans="1:9" ht="45">
       <c r="A499" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B499" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C499" s="32" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D499" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E499" s="29" t="s">
         <v>22</v>
@@ -18442,13 +18442,13 @@
     </row>
     <row r="500" spans="1:9" ht="45">
       <c r="A500" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B500" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C500" s="32" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D500" s="34"/>
       <c r="E500" s="29" t="s">
@@ -18467,13 +18467,13 @@
     </row>
     <row r="501" spans="1:9" ht="45">
       <c r="A501" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B501" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C501" s="32" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D501" s="34"/>
       <c r="E501" s="29" t="s">
@@ -18492,16 +18492,16 @@
     </row>
     <row r="502" spans="1:9" ht="45">
       <c r="A502" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B502" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C502" s="32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D502" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E502" s="29" t="s">
         <v>22</v>
@@ -18521,13 +18521,13 @@
     </row>
     <row r="503" spans="1:9" ht="45">
       <c r="A503" s="22" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B503" s="30" t="s">
         <v>619</v>
       </c>
       <c r="C503" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D503" s="22" t="s">
         <v>1031</v>
@@ -18556,7 +18556,7 @@
         <v>619</v>
       </c>
       <c r="C504" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D504" s="22" t="s">
         <v>1031</v>
@@ -18583,7 +18583,7 @@
         <v>619</v>
       </c>
       <c r="C505" s="20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D505" s="22" t="s">
         <v>1031</v>
@@ -18610,7 +18610,7 @@
         <v>619</v>
       </c>
       <c r="C506" s="20" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D506" s="29"/>
       <c r="E506" s="29" t="s">
@@ -18635,7 +18635,7 @@
         <v>619</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D507" s="29"/>
       <c r="E507" s="29" t="s">
@@ -18660,7 +18660,7 @@
         <v>619</v>
       </c>
       <c r="C508" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D508" s="29"/>
       <c r="E508" s="29" t="s">
@@ -18685,7 +18685,7 @@
         <v>619</v>
       </c>
       <c r="C509" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D509" s="29" t="s">
         <v>913</v>
@@ -18714,7 +18714,7 @@
         <v>619</v>
       </c>
       <c r="C510" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D510" s="29" t="s">
         <v>913</v>
@@ -18741,7 +18741,7 @@
         <v>619</v>
       </c>
       <c r="C511" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D511" s="29" t="s">
         <v>913</v>
@@ -18793,16 +18793,16 @@
     </row>
     <row r="513" spans="1:9" ht="45">
       <c r="A513" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B513" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C513" s="32" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D513" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E513" s="29" t="s">
         <v>22</v>
@@ -18822,16 +18822,16 @@
     </row>
     <row r="514" spans="1:9" ht="45">
       <c r="A514" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B514" s="35" t="s">
         <v>619</v>
       </c>
       <c r="C514" s="32" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D514" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E514" s="29" t="s">
         <v>22</v>
@@ -18857,7 +18857,7 @@
         <v>619</v>
       </c>
       <c r="C515" s="20" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D515" s="29"/>
       <c r="E515" s="29" t="s">
@@ -18882,7 +18882,7 @@
         <v>619</v>
       </c>
       <c r="C516" s="20" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D516" s="29"/>
       <c r="E516" s="29" t="s">
@@ -18907,7 +18907,7 @@
         <v>619</v>
       </c>
       <c r="C517" s="20" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D517" s="29"/>
       <c r="E517" s="29" t="s">
@@ -18932,7 +18932,7 @@
         <v>619</v>
       </c>
       <c r="C518" s="20" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D518" s="29"/>
       <c r="E518" s="29" t="s">
@@ -18957,7 +18957,7 @@
         <v>619</v>
       </c>
       <c r="C519" s="20" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D519" s="29"/>
       <c r="E519" s="29" t="s">
@@ -18982,7 +18982,7 @@
         <v>619</v>
       </c>
       <c r="C520" s="20" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
@@ -19009,7 +19009,7 @@
         <v>619</v>
       </c>
       <c r="C521" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D521" s="29" t="s">
         <v>915</v>
@@ -19038,7 +19038,7 @@
         <v>619</v>
       </c>
       <c r="C522" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D522" s="29" t="s">
         <v>915</v>
@@ -19181,7 +19181,7 @@
         <v>619</v>
       </c>
       <c r="C527" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D527" s="29" t="s">
         <v>919</v>
@@ -19210,7 +19210,7 @@
         <v>619</v>
       </c>
       <c r="C528" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D528" s="29" t="s">
         <v>919</v>
@@ -19498,7 +19498,7 @@
         <v>619</v>
       </c>
       <c r="C538" s="20" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D538" s="29" t="s">
         <v>928</v>
@@ -19554,7 +19554,7 @@
         <v>619</v>
       </c>
       <c r="C540" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D540" s="29" t="s">
         <v>929</v>
@@ -19697,7 +19697,7 @@
         <v>619</v>
       </c>
       <c r="C545" s="20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D545" s="29" t="s">
         <v>932</v>
@@ -19778,7 +19778,7 @@
         <v>619</v>
       </c>
       <c r="C548" s="20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D548" s="29" t="s">
         <v>932</v>
@@ -20168,7 +20168,7 @@
         <v>619</v>
       </c>
       <c r="C562" s="20" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
@@ -20195,7 +20195,7 @@
         <v>619</v>
       </c>
       <c r="C563" s="20" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D563" s="29"/>
       <c r="E563" s="29" t="s">
@@ -20220,7 +20220,7 @@
         <v>619</v>
       </c>
       <c r="C564" s="20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D564" s="29"/>
       <c r="E564" s="29" t="s">
@@ -20245,7 +20245,7 @@
         <v>619</v>
       </c>
       <c r="C565" s="20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D565" s="29"/>
       <c r="E565" s="29" t="s">
@@ -20270,7 +20270,7 @@
         <v>619</v>
       </c>
       <c r="C566" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D566" s="29"/>
       <c r="E566" s="29" t="s">
@@ -20353,7 +20353,7 @@
         <v>619</v>
       </c>
       <c r="C569" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D569" s="29"/>
       <c r="E569" s="29" t="s">
@@ -20378,7 +20378,7 @@
         <v>619</v>
       </c>
       <c r="C570" s="20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -20403,7 +20403,7 @@
         <v>619</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -20428,7 +20428,7 @@
         <v>619</v>
       </c>
       <c r="C572" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D572" s="29"/>
       <c r="E572" s="29" t="s">
@@ -20453,7 +20453,7 @@
         <v>619</v>
       </c>
       <c r="C573" s="20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D573" s="29"/>
       <c r="E573" s="29" t="s">
@@ -20478,7 +20478,7 @@
         <v>619</v>
       </c>
       <c r="C574" s="20" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D574" s="29"/>
       <c r="E574" s="29" t="s">
@@ -20494,7 +20494,7 @@
         <v>17</v>
       </c>
       <c r="I574" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="575" spans="1:9" ht="30">
@@ -20505,7 +20505,7 @@
         <v>619</v>
       </c>
       <c r="C575" s="20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D575" s="29"/>
       <c r="E575" s="29" t="s">
@@ -20530,7 +20530,7 @@
         <v>619</v>
       </c>
       <c r="C576" s="20" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D576" s="29"/>
       <c r="E576" s="29" t="s">
@@ -20555,7 +20555,7 @@
         <v>619</v>
       </c>
       <c r="C577" s="20" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D577" s="29"/>
       <c r="E577" s="29" t="s">
@@ -20580,7 +20580,7 @@
         <v>619</v>
       </c>
       <c r="C578" s="20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D578" s="29"/>
       <c r="E578" s="29" t="s">
@@ -20605,7 +20605,7 @@
         <v>619</v>
       </c>
       <c r="C579" s="20" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D579" s="29"/>
       <c r="E579" s="29" t="s">
@@ -20630,7 +20630,7 @@
         <v>619</v>
       </c>
       <c r="C580" s="20" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D580" s="29"/>
       <c r="E580" s="29" t="s">
@@ -20646,7 +20646,7 @@
         <v>17</v>
       </c>
       <c r="I580" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="581" spans="1:10" ht="45">
@@ -20711,8 +20711,8 @@
       <c r="B583" s="30" t="s">
         <v>620</v>
       </c>
-      <c r="C583" s="32" t="s">
-        <v>1036</v>
+      <c r="C583" s="20" t="s">
+        <v>1374</v>
       </c>
       <c r="D583" s="29"/>
       <c r="E583" s="29" t="s">
@@ -20764,6 +20764,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20771,96 +20776,91 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
-    <cfRule type="expression" dxfId="52" priority="79">
+    <cfRule type="expression" dxfId="52" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="80">
+    <cfRule type="expression" dxfId="51" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="87">
+    <cfRule type="expression" dxfId="50" priority="93">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">
-    <cfRule type="expression" dxfId="49" priority="33">
+    <cfRule type="expression" dxfId="49" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="34">
+    <cfRule type="expression" dxfId="48" priority="40">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="35">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F582:F584 G88 F20:F580">
-    <cfRule type="expression" dxfId="46" priority="39">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="40">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582:I584">
-    <cfRule type="expression" dxfId="44" priority="30">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="31">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582:I584">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="28">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F581">
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="38" priority="28">
       <formula>NOT(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23">
+    <cfRule type="expression" dxfId="37" priority="29">
       <formula>(VLOOKUP(F581,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I581">
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="34" priority="24">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I581">
-    <cfRule type="expression" dxfId="33" priority="13">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C583">
+  <conditionalFormatting sqref="C584">
     <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20871,7 +20871,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C583">
+  <conditionalFormatting sqref="C584">
     <cfRule type="expression" dxfId="27" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -20882,7 +20882,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C584">
+  <conditionalFormatting sqref="C583">
     <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -20893,7 +20893,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C584">
+  <conditionalFormatting sqref="C583">
     <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="1375">
   <si>
     <t>Req ID</t>
   </si>
@@ -4670,6 +4670,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4693,21 +4708,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5784,127 +5784,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5917,12 +5917,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5935,12 +5935,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5953,12 +5953,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5971,60 +5971,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10750,7 +10750,7 @@
         <v>15</v>
       </c>
       <c r="H201" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I201" s="31"/>
     </row>
@@ -15236,7 +15236,9 @@
       <c r="H373" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I373" s="31"/>
+      <c r="I373" s="31" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="374" spans="1:9" ht="45">
       <c r="A374" s="29" t="s">
@@ -16339,7 +16341,7 @@
         <v>7</v>
       </c>
       <c r="G417" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H417" s="29" t="s">
         <v>18</v>
@@ -16864,7 +16866,7 @@
         <v>7</v>
       </c>
       <c r="G438" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H438" s="29" t="s">
         <v>18</v>
@@ -20764,11 +20766,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20776,6 +20773,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A583:B584 D583:I584 A20:I582">

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1378">
   <si>
     <t>Req ID</t>
   </si>
@@ -2823,9 +2823,6 @@
   </si>
   <si>
     <t>[In EcDoRpcExt] [When the value of pcbOut is 0x190, ]The RopPending ROP ([MS-OXCROPS] section 2.2.14.3) notifies the client that there are pending notifications on the server for the client. (Exchange 2010 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] If the client requests that the implementation perform a RopRestrict ([MS-OXCROPS] section 2.2.5.3) ROP request asynchronously, it does perform the operation synchronously and return "TBLSTAT_COMPLETE" in the TableStatus field of the ROP response buffer. ( &lt;19&gt; Section 3.2.5.1: Exchange 2010 and Exchange 2013 do not support asynchronous operations on tables and ignore the TABL_ASYNC flags, as described in section 2.2.2.1.4.)</t>
   </si>
   <si>
     <t>MS-OXCNOTIF_R82:p</t>
@@ -4410,6 +4407,12 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXCNOTIF_R8201001</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] If the client requests that the implementation perform a RopRestrict ([MS-OXCROPS] section 2.2.5.3) ROP request asynchronously, it does perform the operation synchronously and return "TBLSTAT_COMPLETE" in the TableStatus field of the ROP response buffer. ( &lt;20&gt; Section 3.2.5.1: Exchange 2010, Exchange 2013, and Exchange 2016 do not support asynchronous operations on tables and ignore the TABL_ASYNC flags, as described in section 2.2.2.1.4.)</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does fail with ecRpcFormat (0x000004B6) if the output buffer is less than 0x00008007. (Microsoft Exchange Server 2007 follows this behavior).</t>
   </si>
 </sst>
 </file>
@@ -4686,21 +4689,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4724,6 +4712,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5838,7 +5841,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -5860,7 +5863,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>26</v>
@@ -5870,120 +5873,120 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
@@ -5995,12 +5998,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="26" t="s">
@@ -6012,12 +6015,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
@@ -6029,12 +6032,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
@@ -6046,57 +6049,57 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="B17" s="41" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="30">
@@ -6202,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="30">
@@ -6279,7 +6282,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="22" customFormat="1" ht="30">
@@ -6306,7 +6309,7 @@
         <v>17</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="22" customFormat="1" ht="75">
@@ -6333,7 +6336,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="22" customFormat="1" ht="45">
@@ -6360,7 +6363,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="22" customFormat="1" ht="30">
@@ -6387,7 +6390,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="22" customFormat="1" ht="45">
@@ -6439,7 +6442,7 @@
         <v>17</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="22" customFormat="1">
@@ -6716,7 +6719,7 @@
         <v>17</v>
       </c>
       <c r="I42" s="30" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6896,13 +6899,13 @@
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="21" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>577</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="28" t="s">
@@ -6943,7 +6946,7 @@
         <v>17</v>
       </c>
       <c r="I51" s="30" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
@@ -7020,7 +7023,7 @@
         <v>17</v>
       </c>
       <c r="I54" s="30" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30">
@@ -7072,7 +7075,7 @@
         <v>17</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="30">
@@ -7124,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="30">
@@ -7201,7 +7204,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7212,7 +7215,7 @@
         <v>580</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28" t="s">
@@ -7237,7 +7240,7 @@
         <v>580</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28" t="s">
@@ -7253,7 +7256,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45">
@@ -7264,7 +7267,7 @@
         <v>580</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28" t="s">
@@ -7289,7 +7292,7 @@
         <v>580</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -7314,7 +7317,7 @@
         <v>580</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
@@ -7339,7 +7342,7 @@
         <v>580</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28" t="s">
@@ -7364,7 +7367,7 @@
         <v>580</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -7389,7 +7392,7 @@
         <v>580</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28" t="s">
@@ -7414,7 +7417,7 @@
         <v>580</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
@@ -7433,13 +7436,13 @@
     </row>
     <row r="71" spans="1:9" ht="45">
       <c r="A71" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="28" t="s">
@@ -7458,13 +7461,13 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="33" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="28" t="s">
@@ -7608,13 +7611,13 @@
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="28" t="s">
@@ -7633,13 +7636,13 @@
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="28" t="s">
@@ -7664,7 +7667,7 @@
         <v>580</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28" t="s">
@@ -7714,7 +7717,7 @@
         <v>580</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28" t="s">
@@ -7730,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="90">
@@ -7741,7 +7744,7 @@
         <v>581</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28" t="s">
@@ -7757,7 +7760,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45">
@@ -7784,7 +7787,7 @@
         <v>17</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="45">
@@ -7811,7 +7814,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="45">
@@ -7838,7 +7841,7 @@
         <v>17</v>
       </c>
       <c r="I86" s="30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="45">
@@ -7865,18 +7868,18 @@
         <v>17</v>
       </c>
       <c r="I87" s="30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>581</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="33" t="s">
@@ -7892,7 +7895,7 @@
         <v>17</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="60">
@@ -7903,7 +7906,7 @@
         <v>582</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -7919,7 +7922,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="30">
@@ -8005,7 +8008,7 @@
         <v>583</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="s">
@@ -8021,7 +8024,7 @@
         <v>17</v>
       </c>
       <c r="I93" s="30" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="30">
@@ -8107,7 +8110,7 @@
         <v>584</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28" t="s">
@@ -8123,7 +8126,7 @@
         <v>17</v>
       </c>
       <c r="I97" s="30" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="30">
@@ -8225,7 +8228,7 @@
         <v>17</v>
       </c>
       <c r="I101" s="30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="45">
@@ -8236,7 +8239,7 @@
         <v>585</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="28" t="s">
@@ -8252,7 +8255,7 @@
         <v>17</v>
       </c>
       <c r="I102" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="30">
@@ -8266,7 +8269,7 @@
         <v>682</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E103" s="28" t="s">
         <v>19</v>
@@ -8284,13 +8287,13 @@
     </row>
     <row r="104" spans="1:9" ht="45">
       <c r="A104" s="21" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>585</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33" t="s">
@@ -8306,7 +8309,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -8383,7 +8386,7 @@
         <v>17</v>
       </c>
       <c r="I107" s="30" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="30">
@@ -8410,7 +8413,7 @@
         <v>17</v>
       </c>
       <c r="I108" s="30" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="45">
@@ -8437,7 +8440,7 @@
         <v>17</v>
       </c>
       <c r="I109" s="30" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="30">
@@ -8451,7 +8454,7 @@
         <v>688</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>19</v>
@@ -8475,7 +8478,7 @@
         <v>587</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
@@ -8491,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="I111" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30">
@@ -8518,7 +8521,7 @@
         <v>17</v>
       </c>
       <c r="I112" s="30" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="30">
@@ -8645,7 +8648,7 @@
         <v>17</v>
       </c>
       <c r="I117" s="30" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -8725,13 +8728,13 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D121" s="33"/>
       <c r="E121" s="28" t="s">
@@ -8750,13 +8753,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="21" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="28" t="s">
@@ -8775,13 +8778,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="21" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="28" t="s">
@@ -8800,13 +8803,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="21" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="28" t="s">
@@ -8828,10 +8831,10 @@
         <v>136</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8847,7 +8850,7 @@
         <v>17</v>
       </c>
       <c r="I125" s="30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="195">
@@ -8855,10 +8858,10 @@
         <v>137</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8874,7 +8877,7 @@
         <v>17</v>
       </c>
       <c r="I126" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8882,10 +8885,10 @@
         <v>138</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8907,10 +8910,10 @@
         <v>139</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8926,7 +8929,7 @@
         <v>17</v>
       </c>
       <c r="I128" s="30" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8934,10 +8937,10 @@
         <v>140</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8959,10 +8962,10 @@
         <v>141</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8978,7 +8981,7 @@
         <v>17</v>
       </c>
       <c r="I130" s="30" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="30">
@@ -8986,10 +8989,10 @@
         <v>142</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -9011,10 +9014,10 @@
         <v>143</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -9036,10 +9039,10 @@
         <v>144</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -9061,10 +9064,10 @@
         <v>145</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -9086,10 +9089,10 @@
         <v>146</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -9111,10 +9114,10 @@
         <v>147</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -9136,10 +9139,10 @@
         <v>148</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -9161,10 +9164,10 @@
         <v>149</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -9186,10 +9189,10 @@
         <v>150</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -9208,13 +9211,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="28" t="s">
@@ -9233,13 +9236,13 @@
     </row>
     <row r="141" spans="1:9" ht="30">
       <c r="A141" s="21" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="28" t="s">
@@ -9258,13 +9261,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>1096</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>1097</v>
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="28" t="s">
@@ -9286,10 +9289,10 @@
         <v>151</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -9311,10 +9314,10 @@
         <v>152</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -9336,10 +9339,10 @@
         <v>153</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -9361,10 +9364,10 @@
         <v>154</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -9386,10 +9389,10 @@
         <v>155</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -9411,10 +9414,10 @@
         <v>156</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -9436,10 +9439,10 @@
         <v>157</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -9461,10 +9464,10 @@
         <v>158</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -9480,7 +9483,7 @@
         <v>17</v>
       </c>
       <c r="I150" s="30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -9488,10 +9491,10 @@
         <v>159</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -9513,10 +9516,10 @@
         <v>160</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
@@ -9538,10 +9541,10 @@
         <v>161</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -9557,7 +9560,7 @@
         <v>17</v>
       </c>
       <c r="I153" s="30" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="90">
@@ -9565,10 +9568,10 @@
         <v>162</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -9584,7 +9587,7 @@
         <v>17</v>
       </c>
       <c r="I154" s="30" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -9592,10 +9595,10 @@
         <v>163</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -9617,10 +9620,10 @@
         <v>164</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -9636,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="I156" s="30" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="30">
@@ -9644,13 +9647,13 @@
         <v>165</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D157" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>19</v>
@@ -9671,13 +9674,13 @@
         <v>166</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>19</v>
@@ -9698,10 +9701,10 @@
         <v>167</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9717,7 +9720,7 @@
         <v>17</v>
       </c>
       <c r="I159" s="30" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9725,10 +9728,10 @@
         <v>168</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9750,10 +9753,10 @@
         <v>169</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9769,7 +9772,7 @@
         <v>20</v>
       </c>
       <c r="I161" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="30">
@@ -9777,10 +9780,10 @@
         <v>170</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9802,10 +9805,10 @@
         <v>171</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9827,10 +9830,10 @@
         <v>172</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9852,10 +9855,10 @@
         <v>173</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9871,7 +9874,7 @@
         <v>17</v>
       </c>
       <c r="I165" s="30" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="45">
@@ -9879,13 +9882,13 @@
         <v>174</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E166" s="28" t="s">
         <v>22</v>
@@ -9900,7 +9903,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9908,10 +9911,10 @@
         <v>175</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9933,10 +9936,10 @@
         <v>176</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9958,10 +9961,10 @@
         <v>177</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9977,7 +9980,7 @@
         <v>17</v>
       </c>
       <c r="I169" s="30" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="30">
@@ -9985,13 +9988,13 @@
         <v>178</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E170" s="28" t="s">
         <v>19</v>
@@ -10012,13 +10015,13 @@
         <v>179</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D171" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E171" s="28" t="s">
         <v>19</v>
@@ -10039,13 +10042,13 @@
         <v>180</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>19</v>
@@ -10066,13 +10069,13 @@
         <v>181</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E173" s="28" t="s">
         <v>19</v>
@@ -10093,10 +10096,10 @@
         <v>182</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -10118,10 +10121,10 @@
         <v>183</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -10143,10 +10146,10 @@
         <v>184</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -10162,7 +10165,7 @@
         <v>17</v>
       </c>
       <c r="I176" s="30" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="30">
@@ -10170,13 +10173,13 @@
         <v>185</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E177" s="28" t="s">
         <v>19</v>
@@ -10197,13 +10200,13 @@
         <v>186</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>19</v>
@@ -10224,13 +10227,13 @@
         <v>187</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E179" s="28" t="s">
         <v>19</v>
@@ -10251,13 +10254,13 @@
         <v>188</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E180" s="28" t="s">
         <v>19</v>
@@ -10278,10 +10281,10 @@
         <v>189</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -10303,10 +10306,10 @@
         <v>190</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
@@ -10328,10 +10331,10 @@
         <v>191</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -10347,7 +10350,7 @@
         <v>17</v>
       </c>
       <c r="I183" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="30">
@@ -10355,13 +10358,13 @@
         <v>192</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>19</v>
@@ -10382,13 +10385,13 @@
         <v>193</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E185" s="28" t="s">
         <v>19</v>
@@ -10409,13 +10412,13 @@
         <v>194</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E186" s="28" t="s">
         <v>19</v>
@@ -10436,13 +10439,13 @@
         <v>195</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E187" s="28" t="s">
         <v>19</v>
@@ -10463,10 +10466,10 @@
         <v>196</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -10488,10 +10491,10 @@
         <v>197</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
@@ -10513,10 +10516,10 @@
         <v>198</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -10532,7 +10535,7 @@
         <v>17</v>
       </c>
       <c r="I190" s="30" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="30">
@@ -10540,13 +10543,13 @@
         <v>199</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E191" s="28" t="s">
         <v>19</v>
@@ -10567,13 +10570,13 @@
         <v>200</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E192" s="28" t="s">
         <v>19</v>
@@ -10594,13 +10597,13 @@
         <v>201</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E193" s="28" t="s">
         <v>19</v>
@@ -10621,10 +10624,10 @@
         <v>202</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -10646,10 +10649,10 @@
         <v>203</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -10671,10 +10674,10 @@
         <v>204</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
@@ -10690,7 +10693,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="30">
@@ -10698,13 +10701,13 @@
         <v>205</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E197" s="28" t="s">
         <v>19</v>
@@ -10725,13 +10728,13 @@
         <v>206</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E198" s="28" t="s">
         <v>19</v>
@@ -10752,13 +10755,13 @@
         <v>207</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E199" s="28" t="s">
         <v>19</v>
@@ -10779,10 +10782,10 @@
         <v>208</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10804,10 +10807,10 @@
         <v>209</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10826,13 +10829,13 @@
     </row>
     <row r="202" spans="1:9" ht="75">
       <c r="A202" s="21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="28" t="s">
@@ -10848,21 +10851,21 @@
         <v>17</v>
       </c>
       <c r="I202" s="31" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="45">
       <c r="A203" s="33" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>19</v>
@@ -10880,16 +10883,16 @@
     </row>
     <row r="204" spans="1:9" ht="45">
       <c r="A204" s="33" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>19</v>
@@ -10907,16 +10910,16 @@
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="33" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>19</v>
@@ -10937,10 +10940,10 @@
         <v>210</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10962,10 +10965,10 @@
         <v>211</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10987,10 +10990,10 @@
         <v>212</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D208" s="28"/>
       <c r="E208" s="28" t="s">
@@ -11006,7 +11009,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="30">
@@ -11014,13 +11017,13 @@
         <v>213</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E209" s="28" t="s">
         <v>19</v>
@@ -11041,13 +11044,13 @@
         <v>214</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E210" s="28" t="s">
         <v>19</v>
@@ -11068,13 +11071,13 @@
         <v>215</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E211" s="28" t="s">
         <v>19</v>
@@ -11095,10 +11098,10 @@
         <v>216</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -11117,13 +11120,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
@@ -11145,10 +11148,10 @@
         <v>217</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -11164,7 +11167,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="30" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="30">
@@ -11172,13 +11175,13 @@
         <v>218</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E215" s="28" t="s">
         <v>19</v>
@@ -11199,13 +11202,13 @@
         <v>219</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E216" s="28" t="s">
         <v>19</v>
@@ -11226,13 +11229,13 @@
         <v>220</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E217" s="28" t="s">
         <v>19</v>
@@ -11253,10 +11256,10 @@
         <v>221</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -11278,10 +11281,10 @@
         <v>222</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -11303,10 +11306,10 @@
         <v>223</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -11322,7 +11325,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="30">
@@ -11330,13 +11333,13 @@
         <v>224</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E221" s="28" t="s">
         <v>19</v>
@@ -11357,13 +11360,13 @@
         <v>225</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D222" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E222" s="28" t="s">
         <v>19</v>
@@ -11384,13 +11387,13 @@
         <v>226</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E223" s="28" t="s">
         <v>19</v>
@@ -11411,10 +11414,10 @@
         <v>227</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
@@ -11436,10 +11439,10 @@
         <v>228</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -11461,10 +11464,10 @@
         <v>229</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -11480,7 +11483,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="45">
@@ -11488,13 +11491,13 @@
         <v>230</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E227" s="28" t="s">
         <v>19</v>
@@ -11515,13 +11518,13 @@
         <v>231</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E228" s="28" t="s">
         <v>19</v>
@@ -11542,13 +11545,13 @@
         <v>232</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E229" s="28" t="s">
         <v>19</v>
@@ -11569,10 +11572,10 @@
         <v>233</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -11594,10 +11597,10 @@
         <v>234</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -11619,10 +11622,10 @@
         <v>235</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -11638,7 +11641,7 @@
         <v>17</v>
       </c>
       <c r="I232" s="30" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="45">
@@ -11646,13 +11649,13 @@
         <v>236</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E233" s="28" t="s">
         <v>19</v>
@@ -11673,13 +11676,13 @@
         <v>237</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E234" s="28" t="s">
         <v>19</v>
@@ -11700,13 +11703,13 @@
         <v>238</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E235" s="28" t="s">
         <v>19</v>
@@ -11727,13 +11730,13 @@
         <v>239</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E236" s="28" t="s">
         <v>19</v>
@@ -11754,13 +11757,13 @@
         <v>240</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E237" s="28" t="s">
         <v>19</v>
@@ -11781,10 +11784,10 @@
         <v>241</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -11806,10 +11809,10 @@
         <v>242</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
@@ -11831,10 +11834,10 @@
         <v>243</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
@@ -11850,7 +11853,7 @@
         <v>17</v>
       </c>
       <c r="I240" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="30">
@@ -11858,13 +11861,13 @@
         <v>244</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E241" s="28" t="s">
         <v>19</v>
@@ -11885,13 +11888,13 @@
         <v>245</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E242" s="28" t="s">
         <v>19</v>
@@ -11912,13 +11915,13 @@
         <v>246</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E243" s="28" t="s">
         <v>19</v>
@@ -11939,10 +11942,10 @@
         <v>247</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
@@ -11964,10 +11967,10 @@
         <v>248</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
@@ -11989,10 +11992,10 @@
         <v>249</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -12008,7 +12011,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="30" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="45">
@@ -12016,13 +12019,13 @@
         <v>250</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E247" s="28" t="s">
         <v>19</v>
@@ -12043,13 +12046,13 @@
         <v>251</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E248" s="28" t="s">
         <v>19</v>
@@ -12070,13 +12073,13 @@
         <v>252</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E249" s="28" t="s">
         <v>19</v>
@@ -12097,10 +12100,10 @@
         <v>253</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -12122,10 +12125,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -12147,10 +12150,10 @@
         <v>255</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -12166,7 +12169,7 @@
         <v>17</v>
       </c>
       <c r="I252" s="30" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="45">
@@ -12174,13 +12177,13 @@
         <v>256</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E253" s="28" t="s">
         <v>19</v>
@@ -12201,13 +12204,13 @@
         <v>257</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E254" s="28" t="s">
         <v>19</v>
@@ -12228,13 +12231,13 @@
         <v>258</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D255" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E255" s="28" t="s">
         <v>19</v>
@@ -12255,10 +12258,10 @@
         <v>259</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -12280,10 +12283,10 @@
         <v>260</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -12305,10 +12308,10 @@
         <v>261</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -12324,7 +12327,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="30" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="30">
@@ -12332,13 +12335,13 @@
         <v>262</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D259" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E259" s="28" t="s">
         <v>19</v>
@@ -12359,13 +12362,13 @@
         <v>263</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E260" s="28" t="s">
         <v>19</v>
@@ -12386,13 +12389,13 @@
         <v>264</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E261" s="28" t="s">
         <v>19</v>
@@ -12413,10 +12416,10 @@
         <v>265</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
@@ -12432,7 +12435,7 @@
         <v>17</v>
       </c>
       <c r="I262" s="30" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="30">
@@ -12440,10 +12443,10 @@
         <v>266</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -12465,10 +12468,10 @@
         <v>267</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -12490,13 +12493,13 @@
         <v>268</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D265" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E265" s="28" t="s">
         <v>19</v>
@@ -12517,13 +12520,13 @@
         <v>269</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E266" s="28" t="s">
         <v>19</v>
@@ -12544,13 +12547,13 @@
         <v>270</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D267" s="28" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E267" s="28" t="s">
         <v>19</v>
@@ -12571,10 +12574,10 @@
         <v>271</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12596,10 +12599,10 @@
         <v>272</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -12621,10 +12624,10 @@
         <v>273</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
@@ -12646,13 +12649,13 @@
         <v>274</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D271" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E271" s="28" t="s">
         <v>19</v>
@@ -12673,13 +12676,13 @@
         <v>275</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D272" s="28" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>19</v>
@@ -12700,10 +12703,10 @@
         <v>276</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -12725,10 +12728,10 @@
         <v>277</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -12750,10 +12753,10 @@
         <v>278</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -12775,13 +12778,13 @@
         <v>279</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D276" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E276" s="28" t="s">
         <v>19</v>
@@ -12802,13 +12805,13 @@
         <v>280</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E277" s="28" t="s">
         <v>19</v>
@@ -12829,10 +12832,10 @@
         <v>281</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12854,10 +12857,10 @@
         <v>282</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12873,7 +12876,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="60">
@@ -12881,10 +12884,10 @@
         <v>283</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12900,7 +12903,7 @@
         <v>17</v>
       </c>
       <c r="I280" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="45">
@@ -12908,13 +12911,13 @@
         <v>284</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E281" s="28" t="s">
         <v>19</v>
@@ -12935,13 +12938,13 @@
         <v>285</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E282" s="28" t="s">
         <v>19</v>
@@ -12962,10 +12965,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
@@ -12987,10 +12990,10 @@
         <v>287</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -13012,10 +13015,10 @@
         <v>288</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -13037,10 +13040,10 @@
         <v>289</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -13062,10 +13065,10 @@
         <v>290</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -13081,7 +13084,7 @@
         <v>17</v>
       </c>
       <c r="I287" s="30" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="30">
@@ -13089,13 +13092,13 @@
         <v>291</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D288" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E288" s="28" t="s">
         <v>19</v>
@@ -13116,13 +13119,13 @@
         <v>292</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D289" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E289" s="28" t="s">
         <v>19</v>
@@ -13143,10 +13146,10 @@
         <v>293</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -13168,10 +13171,10 @@
         <v>294</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -13193,10 +13196,10 @@
         <v>295</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -13218,10 +13221,10 @@
         <v>296</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -13237,7 +13240,7 @@
         <v>17</v>
       </c>
       <c r="I293" s="30" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="30">
@@ -13245,13 +13248,13 @@
         <v>297</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D294" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E294" s="28" t="s">
         <v>19</v>
@@ -13272,13 +13275,13 @@
         <v>298</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D295" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E295" s="28" t="s">
         <v>19</v>
@@ -13402,7 +13405,7 @@
         <v>589</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -13468,7 +13471,7 @@
         <v>17</v>
       </c>
       <c r="I302" s="19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="30">
@@ -13520,7 +13523,7 @@
         <v>17</v>
       </c>
       <c r="I304" s="30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="30">
@@ -13531,7 +13534,7 @@
         <v>32</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -13681,7 +13684,7 @@
         <v>591</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -13697,7 +13700,7 @@
         <v>17</v>
       </c>
       <c r="I311" s="30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="60">
@@ -13949,7 +13952,7 @@
         <v>17</v>
       </c>
       <c r="I321" s="30" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="45">
@@ -14001,7 +14004,7 @@
         <v>17</v>
       </c>
       <c r="I323" s="30" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="90">
@@ -14028,7 +14031,7 @@
         <v>17</v>
       </c>
       <c r="I324" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="105">
@@ -14230,7 +14233,7 @@
         <v>17</v>
       </c>
       <c r="I332" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="45">
@@ -14257,7 +14260,7 @@
         <v>17</v>
       </c>
       <c r="I333" s="30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="45">
@@ -14268,7 +14271,7 @@
         <v>591</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -14293,7 +14296,7 @@
         <v>591</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -14318,7 +14321,7 @@
         <v>591</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -14334,7 +14337,7 @@
         <v>17</v>
       </c>
       <c r="I336" s="30" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="45">
@@ -14345,7 +14348,7 @@
         <v>591</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
@@ -14361,7 +14364,7 @@
         <v>17</v>
       </c>
       <c r="I337" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="45">
@@ -14372,7 +14375,7 @@
         <v>591</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -14388,7 +14391,7 @@
         <v>17</v>
       </c>
       <c r="I338" s="30" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="45">
@@ -14399,7 +14402,7 @@
         <v>591</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -14415,7 +14418,7 @@
         <v>17</v>
       </c>
       <c r="I339" s="30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="45">
@@ -14426,7 +14429,7 @@
         <v>591</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
@@ -14442,7 +14445,7 @@
         <v>17</v>
       </c>
       <c r="I340" s="30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="45">
@@ -14453,7 +14456,7 @@
         <v>591</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
@@ -14478,7 +14481,7 @@
         <v>591</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -14494,7 +14497,7 @@
         <v>17</v>
       </c>
       <c r="I342" s="30" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="45">
@@ -14521,7 +14524,7 @@
         <v>17</v>
       </c>
       <c r="I343" s="30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="45">
@@ -14548,7 +14551,7 @@
         <v>17</v>
       </c>
       <c r="I344" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="45">
@@ -14575,7 +14578,7 @@
         <v>17</v>
       </c>
       <c r="I345" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="30">
@@ -14611,7 +14614,7 @@
         <v>593</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -14627,7 +14630,7 @@
         <v>17</v>
       </c>
       <c r="I347" s="30" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="45">
@@ -14688,7 +14691,7 @@
         <v>594</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -14704,7 +14707,7 @@
         <v>17</v>
       </c>
       <c r="I350" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="90">
@@ -14756,7 +14759,7 @@
         <v>17</v>
       </c>
       <c r="I352" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="45">
@@ -14783,7 +14786,7 @@
         <v>17</v>
       </c>
       <c r="I353" s="30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="60">
@@ -14810,7 +14813,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="19" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="45">
@@ -14871,7 +14874,7 @@
         <v>595</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -14887,7 +14890,7 @@
         <v>17</v>
       </c>
       <c r="I357" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="60">
@@ -15014,7 +15017,7 @@
         <v>17</v>
       </c>
       <c r="I362" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="45">
@@ -15041,7 +15044,7 @@
         <v>17</v>
       </c>
       <c r="I363" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="30">
@@ -15093,7 +15096,7 @@
         <v>17</v>
       </c>
       <c r="I365" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="45">
@@ -15120,12 +15123,12 @@
         <v>17</v>
       </c>
       <c r="I366" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="45">
       <c r="A367" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B367" s="29" t="s">
         <v>595</v>
@@ -15147,7 +15150,7 @@
         <v>17</v>
       </c>
       <c r="I367" s="30" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="60">
@@ -15174,7 +15177,7 @@
         <v>17</v>
       </c>
       <c r="I368" s="30" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="60">
@@ -15201,7 +15204,7 @@
         <v>17</v>
       </c>
       <c r="I369" s="30" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -15212,7 +15215,7 @@
         <v>596</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
@@ -15278,7 +15281,7 @@
         <v>17</v>
       </c>
       <c r="I372" s="30" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="45">
@@ -15289,7 +15292,7 @@
         <v>597</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
@@ -15305,7 +15308,7 @@
         <v>20</v>
       </c>
       <c r="I373" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="45">
@@ -15332,7 +15335,7 @@
         <v>17</v>
       </c>
       <c r="I374" s="30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="45">
@@ -15359,7 +15362,7 @@
         <v>17</v>
       </c>
       <c r="I375" s="30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="75">
@@ -15386,7 +15389,7 @@
         <v>17</v>
       </c>
       <c r="I376" s="30" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="240">
@@ -15413,7 +15416,7 @@
         <v>17</v>
       </c>
       <c r="I377" s="30" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="30">
@@ -15549,7 +15552,7 @@
         <v>603</v>
       </c>
       <c r="C383" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
@@ -15574,7 +15577,7 @@
         <v>603</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -15599,7 +15602,7 @@
         <v>603</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -15624,7 +15627,7 @@
         <v>603</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -15649,7 +15652,7 @@
         <v>603</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -15674,7 +15677,7 @@
         <v>603</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -15699,7 +15702,7 @@
         <v>603</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -15724,7 +15727,7 @@
         <v>603</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="28" t="s">
@@ -15749,7 +15752,7 @@
         <v>603</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -15824,7 +15827,7 @@
         <v>603</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -15849,7 +15852,7 @@
         <v>603</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -15874,7 +15877,7 @@
         <v>603</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D396" s="28"/>
       <c r="E396" s="28" t="s">
@@ -15899,7 +15902,7 @@
         <v>603</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -15924,7 +15927,7 @@
         <v>603</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
@@ -15949,7 +15952,7 @@
         <v>603</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15974,7 +15977,7 @@
         <v>603</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -15999,7 +16002,7 @@
         <v>603</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
@@ -16024,7 +16027,7 @@
         <v>603</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="28" t="s">
@@ -16049,7 +16052,7 @@
         <v>604</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28" t="s">
@@ -16124,7 +16127,7 @@
         <v>605</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D406" s="28"/>
       <c r="E406" s="28" t="s">
@@ -16249,7 +16252,7 @@
         <v>606</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
@@ -16399,7 +16402,7 @@
         <v>606</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D417" s="28"/>
       <c r="E417" s="28" t="s">
@@ -16824,7 +16827,7 @@
         <v>611</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D434" s="28"/>
       <c r="E434" s="28" t="s">
@@ -16924,7 +16927,7 @@
         <v>611</v>
       </c>
       <c r="C438" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="28" t="s">
@@ -17299,7 +17302,7 @@
         <v>615</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D453" s="28"/>
       <c r="E453" s="28" t="s">
@@ -17324,7 +17327,7 @@
         <v>615</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D454" s="28"/>
       <c r="E454" s="28" t="s">
@@ -17349,7 +17352,7 @@
         <v>615</v>
       </c>
       <c r="C455" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D455" s="28"/>
       <c r="E455" s="28" t="s">
@@ -17599,7 +17602,7 @@
         <v>617</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D465" s="28"/>
       <c r="E465" s="28" t="s">
@@ -17852,7 +17855,7 @@
         <v>832</v>
       </c>
       <c r="D475" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E475" s="28" t="s">
         <v>22</v>
@@ -17867,7 +17870,7 @@
         <v>21</v>
       </c>
       <c r="I475" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -17881,7 +17884,7 @@
         <v>833</v>
       </c>
       <c r="D476" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E476" s="28" t="s">
         <v>22</v>
@@ -17908,7 +17911,7 @@
         <v>834</v>
       </c>
       <c r="D477" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E477" s="28" t="s">
         <v>22</v>
@@ -17982,7 +17985,7 @@
         <v>618</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D480" s="28"/>
       <c r="E480" s="28" t="s">
@@ -18007,10 +18010,10 @@
         <v>618</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D481" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E481" s="28" t="s">
         <v>22</v>
@@ -18025,7 +18028,7 @@
         <v>20</v>
       </c>
       <c r="I481" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="45">
@@ -18039,7 +18042,7 @@
         <v>837</v>
       </c>
       <c r="D482" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E482" s="28" t="s">
         <v>22</v>
@@ -18066,7 +18069,7 @@
         <v>838</v>
       </c>
       <c r="D483" s="28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E483" s="28" t="s">
         <v>22</v>
@@ -18165,10 +18168,10 @@
         <v>618</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D487" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E487" s="28" t="s">
         <v>22</v>
@@ -18195,7 +18198,7 @@
         <v>842</v>
       </c>
       <c r="D488" s="28" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>22</v>
@@ -18210,7 +18213,7 @@
         <v>20</v>
       </c>
       <c r="I488" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="45">
@@ -18221,10 +18224,10 @@
         <v>618</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D489" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E489" s="28" t="s">
         <v>22</v>
@@ -18251,7 +18254,7 @@
         <v>843</v>
       </c>
       <c r="D490" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E490" s="28" t="s">
         <v>22</v>
@@ -18266,7 +18269,7 @@
         <v>20</v>
       </c>
       <c r="I490" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="45">
@@ -18280,7 +18283,7 @@
         <v>844</v>
       </c>
       <c r="D491" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E491" s="28" t="s">
         <v>22</v>
@@ -18295,7 +18298,7 @@
         <v>20</v>
       </c>
       <c r="I491" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="45">
@@ -18309,7 +18312,7 @@
         <v>845</v>
       </c>
       <c r="D492" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E492" s="28" t="s">
         <v>22</v>
@@ -18333,7 +18336,7 @@
         <v>618</v>
       </c>
       <c r="C493" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D493" s="28"/>
       <c r="E493" s="28" t="s">
@@ -18358,10 +18361,10 @@
         <v>618</v>
       </c>
       <c r="C494" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D494" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E494" s="28" t="s">
         <v>22</v>
@@ -18385,10 +18388,10 @@
         <v>618</v>
       </c>
       <c r="C495" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D495" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E495" s="28" t="s">
         <v>22</v>
@@ -18412,10 +18415,10 @@
         <v>618</v>
       </c>
       <c r="C496" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D496" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E496" s="28" t="s">
         <v>22</v>
@@ -18439,7 +18442,7 @@
         <v>618</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D497" s="28"/>
       <c r="E497" s="28" t="s">
@@ -18458,16 +18461,16 @@
     </row>
     <row r="498" spans="1:9" ht="60">
       <c r="A498" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B498" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D498" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E498" s="28" t="s">
         <v>22</v>
@@ -18485,16 +18488,16 @@
     </row>
     <row r="499" spans="1:9" ht="45">
       <c r="A499" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B499" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C499" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D499" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E499" s="28" t="s">
         <v>22</v>
@@ -18512,13 +18515,13 @@
     </row>
     <row r="500" spans="1:9" ht="45">
       <c r="A500" s="33" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B500" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C500" s="31" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D500" s="33"/>
       <c r="E500" s="28" t="s">
@@ -18537,13 +18540,13 @@
     </row>
     <row r="501" spans="1:9" ht="45">
       <c r="A501" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B501" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C501" s="31" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D501" s="33"/>
       <c r="E501" s="28" t="s">
@@ -18562,16 +18565,16 @@
     </row>
     <row r="502" spans="1:9" ht="45">
       <c r="A502" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B502" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D502" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E502" s="28" t="s">
         <v>22</v>
@@ -18586,21 +18589,21 @@
         <v>20</v>
       </c>
       <c r="I502" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="503" spans="1:9" ht="45">
       <c r="A503" s="21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B503" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C503" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D503" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E503" s="28" t="s">
         <v>22</v>
@@ -18615,7 +18618,7 @@
         <v>21</v>
       </c>
       <c r="I503" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="504" spans="1:9" ht="30">
@@ -18626,10 +18629,10 @@
         <v>618</v>
       </c>
       <c r="C504" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D504" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E504" s="28" t="s">
         <v>22</v>
@@ -18653,10 +18656,10 @@
         <v>618</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D505" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E505" s="28" t="s">
         <v>22</v>
@@ -18680,7 +18683,7 @@
         <v>618</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D506" s="28"/>
       <c r="E506" s="28" t="s">
@@ -18705,7 +18708,7 @@
         <v>618</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D507" s="28"/>
       <c r="E507" s="28" t="s">
@@ -18724,13 +18727,13 @@
     </row>
     <row r="508" spans="1:9" ht="45">
       <c r="A508" s="28" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B508" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="28" t="s">
@@ -18746,7 +18749,7 @@
         <v>20</v>
       </c>
       <c r="I508" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="509" spans="1:9" ht="30">
@@ -18757,7 +18760,7 @@
         <v>618</v>
       </c>
       <c r="C509" s="19" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D509" s="28"/>
       <c r="E509" s="28" t="s">
@@ -18782,10 +18785,10 @@
         <v>618</v>
       </c>
       <c r="C510" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D510" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E510" s="28" t="s">
         <v>22</v>
@@ -18800,7 +18803,7 @@
         <v>20</v>
       </c>
       <c r="I510" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="511" spans="1:9" ht="75">
@@ -18811,10 +18814,10 @@
         <v>618</v>
       </c>
       <c r="C511" s="19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D511" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E511" s="28" t="s">
         <v>22</v>
@@ -18838,10 +18841,10 @@
         <v>618</v>
       </c>
       <c r="C512" s="19" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D512" s="28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E512" s="28" t="s">
         <v>22</v>
@@ -18856,7 +18859,7 @@
         <v>20</v>
       </c>
       <c r="I512" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="513" spans="1:9" ht="60">
@@ -18870,7 +18873,7 @@
         <v>846</v>
       </c>
       <c r="D513" s="28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E513" s="28" t="s">
         <v>22</v>
@@ -18885,21 +18888,21 @@
         <v>20</v>
       </c>
       <c r="I513" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="514" spans="1:9" ht="45">
       <c r="A514" s="33" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B514" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D514" s="33" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>22</v>
@@ -18914,21 +18917,21 @@
         <v>20</v>
       </c>
       <c r="I514" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="515" spans="1:9" ht="45">
       <c r="A515" s="33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B515" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C515" s="31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D515" s="33" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E515" s="28" t="s">
         <v>22</v>
@@ -18943,7 +18946,7 @@
         <v>20</v>
       </c>
       <c r="I515" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="30">
@@ -18954,7 +18957,7 @@
         <v>618</v>
       </c>
       <c r="C516" s="19" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="28" t="s">
@@ -18979,7 +18982,7 @@
         <v>618</v>
       </c>
       <c r="C517" s="19" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="28" t="s">
@@ -19004,7 +19007,7 @@
         <v>618</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="28" t="s">
@@ -19029,7 +19032,7 @@
         <v>618</v>
       </c>
       <c r="C519" s="19" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D519" s="28"/>
       <c r="E519" s="28" t="s">
@@ -19054,7 +19057,7 @@
         <v>618</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D520" s="28"/>
       <c r="E520" s="28" t="s">
@@ -19079,7 +19082,7 @@
         <v>618</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D521" s="28"/>
       <c r="E521" s="28" t="s">
@@ -19095,7 +19098,7 @@
         <v>21</v>
       </c>
       <c r="I521" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="75">
@@ -19106,10 +19109,10 @@
         <v>618</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D522" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E522" s="28" t="s">
         <v>22</v>
@@ -19124,7 +19127,7 @@
         <v>20</v>
       </c>
       <c r="I522" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="523" spans="1:9" ht="75">
@@ -19135,10 +19138,10 @@
         <v>618</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D523" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E523" s="28" t="s">
         <v>22</v>
@@ -19165,7 +19168,7 @@
         <v>847</v>
       </c>
       <c r="D524" s="28" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E524" s="28" t="s">
         <v>22</v>
@@ -19180,7 +19183,7 @@
         <v>20</v>
       </c>
       <c r="I524" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="525" spans="1:9" ht="45">
@@ -19194,7 +19197,7 @@
         <v>848</v>
       </c>
       <c r="D525" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E525" s="28" t="s">
         <v>22</v>
@@ -19209,7 +19212,7 @@
         <v>20</v>
       </c>
       <c r="I525" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="526" spans="1:9" ht="45">
@@ -19223,7 +19226,7 @@
         <v>849</v>
       </c>
       <c r="D526" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E526" s="28" t="s">
         <v>22</v>
@@ -19238,7 +19241,7 @@
         <v>20</v>
       </c>
       <c r="I526" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="527" spans="1:9" ht="45">
@@ -19252,7 +19255,7 @@
         <v>850</v>
       </c>
       <c r="D527" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E527" s="28" t="s">
         <v>22</v>
@@ -19267,7 +19270,7 @@
         <v>20</v>
       </c>
       <c r="I527" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="528" spans="1:9" ht="45">
@@ -19278,10 +19281,10 @@
         <v>618</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D528" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E528" s="28" t="s">
         <v>22</v>
@@ -19296,7 +19299,7 @@
         <v>20</v>
       </c>
       <c r="I528" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="45">
@@ -19307,10 +19310,10 @@
         <v>618</v>
       </c>
       <c r="C529" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D529" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E529" s="28" t="s">
         <v>22</v>
@@ -19337,7 +19340,7 @@
         <v>851</v>
       </c>
       <c r="D530" s="28" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E530" s="28" t="s">
         <v>22</v>
@@ -19352,7 +19355,7 @@
         <v>20</v>
       </c>
       <c r="I530" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="60">
@@ -19366,7 +19369,7 @@
         <v>852</v>
       </c>
       <c r="D531" s="28" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E531" s="28" t="s">
         <v>22</v>
@@ -19381,7 +19384,7 @@
         <v>20</v>
       </c>
       <c r="I531" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="60">
@@ -19395,7 +19398,7 @@
         <v>853</v>
       </c>
       <c r="D532" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E532" s="28" t="s">
         <v>22</v>
@@ -19410,7 +19413,7 @@
         <v>20</v>
       </c>
       <c r="I532" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="533" spans="1:9" ht="60">
@@ -19424,7 +19427,7 @@
         <v>854</v>
       </c>
       <c r="D533" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E533" s="28" t="s">
         <v>22</v>
@@ -19439,7 +19442,7 @@
         <v>20</v>
       </c>
       <c r="I533" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="534" spans="1:9" ht="60">
@@ -19453,7 +19456,7 @@
         <v>855</v>
       </c>
       <c r="D534" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E534" s="28" t="s">
         <v>22</v>
@@ -19468,7 +19471,7 @@
         <v>20</v>
       </c>
       <c r="I534" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="535" spans="1:9" ht="60">
@@ -19482,7 +19485,7 @@
         <v>856</v>
       </c>
       <c r="D535" s="28" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E535" s="28" t="s">
         <v>22</v>
@@ -19497,7 +19500,7 @@
         <v>20</v>
       </c>
       <c r="I535" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="60">
@@ -19511,7 +19514,7 @@
         <v>857</v>
       </c>
       <c r="D536" s="28" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E536" s="28" t="s">
         <v>22</v>
@@ -19526,7 +19529,7 @@
         <v>20</v>
       </c>
       <c r="I536" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="60">
@@ -19540,7 +19543,7 @@
         <v>858</v>
       </c>
       <c r="D537" s="28" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E537" s="28" t="s">
         <v>22</v>
@@ -19555,7 +19558,7 @@
         <v>20</v>
       </c>
       <c r="I537" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="45">
@@ -19569,7 +19572,7 @@
         <v>859</v>
       </c>
       <c r="D538" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E538" s="28" t="s">
         <v>22</v>
@@ -19584,7 +19587,7 @@
         <v>20</v>
       </c>
       <c r="I538" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="539" spans="1:9" ht="60">
@@ -19595,10 +19598,10 @@
         <v>618</v>
       </c>
       <c r="C539" s="19" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D539" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E539" s="28" t="s">
         <v>22</v>
@@ -19625,7 +19628,7 @@
         <v>860</v>
       </c>
       <c r="D540" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E540" s="28" t="s">
         <v>22</v>
@@ -19640,7 +19643,7 @@
         <v>20</v>
       </c>
       <c r="I540" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="45">
@@ -19651,10 +19654,10 @@
         <v>618</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D541" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E541" s="28" t="s">
         <v>22</v>
@@ -19681,7 +19684,7 @@
         <v>861</v>
       </c>
       <c r="D542" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E542" s="28" t="s">
         <v>22</v>
@@ -19696,7 +19699,7 @@
         <v>20</v>
       </c>
       <c r="I542" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="543" spans="1:9" ht="45">
@@ -19710,7 +19713,7 @@
         <v>862</v>
       </c>
       <c r="D543" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E543" s="28" t="s">
         <v>22</v>
@@ -19725,7 +19728,7 @@
         <v>20</v>
       </c>
       <c r="I543" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="544" spans="1:9" ht="45">
@@ -19739,7 +19742,7 @@
         <v>863</v>
       </c>
       <c r="D544" s="28" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E544" s="28" t="s">
         <v>22</v>
@@ -19754,7 +19757,7 @@
         <v>20</v>
       </c>
       <c r="I544" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="545" spans="1:9" ht="60">
@@ -19768,7 +19771,7 @@
         <v>864</v>
       </c>
       <c r="D545" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E545" s="28" t="s">
         <v>22</v>
@@ -19783,7 +19786,7 @@
         <v>20</v>
       </c>
       <c r="I545" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="546" spans="1:9" ht="60">
@@ -19794,10 +19797,10 @@
         <v>618</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D546" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E546" s="28" t="s">
         <v>22</v>
@@ -19824,7 +19827,7 @@
         <v>865</v>
       </c>
       <c r="D547" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E547" s="28" t="s">
         <v>22</v>
@@ -19851,7 +19854,7 @@
         <v>866</v>
       </c>
       <c r="D548" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E548" s="28" t="s">
         <v>22</v>
@@ -19875,10 +19878,10 @@
         <v>618</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D549" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E549" s="28" t="s">
         <v>22</v>
@@ -19905,7 +19908,7 @@
         <v>867</v>
       </c>
       <c r="D550" s="28" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E550" s="28" t="s">
         <v>22</v>
@@ -19932,7 +19935,7 @@
         <v>868</v>
       </c>
       <c r="D551" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E551" s="28" t="s">
         <v>22</v>
@@ -19947,7 +19950,7 @@
         <v>20</v>
       </c>
       <c r="I551" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="552" spans="1:9" ht="45">
@@ -19961,7 +19964,7 @@
         <v>869</v>
       </c>
       <c r="D552" s="28" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E552" s="28" t="s">
         <v>22</v>
@@ -19976,7 +19979,7 @@
         <v>20</v>
       </c>
       <c r="I552" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="60">
@@ -19990,7 +19993,7 @@
         <v>870</v>
       </c>
       <c r="D553" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E553" s="28" t="s">
         <v>22</v>
@@ -20005,12 +20008,12 @@
         <v>20</v>
       </c>
       <c r="I553" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="554" spans="1:9" ht="45">
       <c r="A554" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B554" s="29" t="s">
         <v>618</v>
@@ -20019,7 +20022,7 @@
         <v>871</v>
       </c>
       <c r="D554" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E554" s="28" t="s">
         <v>22</v>
@@ -20034,12 +20037,12 @@
         <v>20</v>
       </c>
       <c r="I554" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="555" spans="1:9" ht="60">
       <c r="A555" s="21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B555" s="29" t="s">
         <v>618</v>
@@ -20048,7 +20051,7 @@
         <v>872</v>
       </c>
       <c r="D555" s="21" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E555" s="28" t="s">
         <v>22</v>
@@ -20063,7 +20066,7 @@
         <v>20</v>
       </c>
       <c r="I555" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="556" spans="1:9" ht="75">
@@ -20077,7 +20080,7 @@
         <v>873</v>
       </c>
       <c r="D556" s="28" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E556" s="28" t="s">
         <v>22</v>
@@ -20092,7 +20095,7 @@
         <v>20</v>
       </c>
       <c r="I556" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="557" spans="1:9" ht="45">
@@ -20106,7 +20109,7 @@
         <v>874</v>
       </c>
       <c r="D557" s="28" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E557" s="28" t="s">
         <v>22</v>
@@ -20121,7 +20124,7 @@
         <v>21</v>
       </c>
       <c r="I557" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="558" spans="1:9" ht="45">
@@ -20135,7 +20138,7 @@
         <v>875</v>
       </c>
       <c r="D558" s="28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E558" s="28" t="s">
         <v>22</v>
@@ -20150,7 +20153,7 @@
         <v>20</v>
       </c>
       <c r="I558" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="559" spans="1:9" ht="60">
@@ -20177,7 +20180,7 @@
         <v>17</v>
       </c>
       <c r="I559" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="560" spans="1:9" ht="60">
@@ -20229,7 +20232,7 @@
         <v>20</v>
       </c>
       <c r="I561" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="562" spans="1:9" ht="60">
@@ -20265,7 +20268,7 @@
         <v>618</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D563" s="28"/>
       <c r="E563" s="28" t="s">
@@ -20281,7 +20284,7 @@
         <v>17</v>
       </c>
       <c r="I563" s="30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="564" spans="1:9" ht="60">
@@ -20292,7 +20295,7 @@
         <v>618</v>
       </c>
       <c r="C564" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D564" s="28"/>
       <c r="E564" s="28" t="s">
@@ -20317,7 +20320,7 @@
         <v>618</v>
       </c>
       <c r="C565" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D565" s="28"/>
       <c r="E565" s="28" t="s">
@@ -20342,7 +20345,7 @@
         <v>618</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D566" s="28"/>
       <c r="E566" s="28" t="s">
@@ -20367,7 +20370,7 @@
         <v>618</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D567" s="28"/>
       <c r="E567" s="28" t="s">
@@ -20395,7 +20398,7 @@
         <v>880</v>
       </c>
       <c r="D568" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E568" s="28" t="s">
         <v>22</v>
@@ -20410,7 +20413,7 @@
         <v>20</v>
       </c>
       <c r="I568" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="569" spans="1:9" ht="45">
@@ -20424,7 +20427,7 @@
         <v>881</v>
       </c>
       <c r="D569" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E569" s="28" t="s">
         <v>22</v>
@@ -20439,7 +20442,7 @@
         <v>20</v>
       </c>
       <c r="I569" s="30" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="570" spans="1:9" ht="30">
@@ -20450,7 +20453,7 @@
         <v>618</v>
       </c>
       <c r="C570" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D570" s="28"/>
       <c r="E570" s="28" t="s">
@@ -20475,7 +20478,7 @@
         <v>618</v>
       </c>
       <c r="C571" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D571" s="28"/>
       <c r="E571" s="28" t="s">
@@ -20500,7 +20503,7 @@
         <v>618</v>
       </c>
       <c r="C572" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D572" s="28"/>
       <c r="E572" s="28" t="s">
@@ -20525,7 +20528,7 @@
         <v>618</v>
       </c>
       <c r="C573" s="19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
@@ -20550,7 +20553,7 @@
         <v>618</v>
       </c>
       <c r="C574" s="19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D574" s="28"/>
       <c r="E574" s="28" t="s">
@@ -20575,7 +20578,7 @@
         <v>618</v>
       </c>
       <c r="C575" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D575" s="28"/>
       <c r="E575" s="28" t="s">
@@ -20591,7 +20594,7 @@
         <v>17</v>
       </c>
       <c r="I575" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="576" spans="1:9" ht="30">
@@ -20602,7 +20605,7 @@
         <v>618</v>
       </c>
       <c r="C576" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D576" s="28"/>
       <c r="E576" s="28" t="s">
@@ -20627,7 +20630,7 @@
         <v>618</v>
       </c>
       <c r="C577" s="19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D577" s="28"/>
       <c r="E577" s="28" t="s">
@@ -20652,7 +20655,7 @@
         <v>618</v>
       </c>
       <c r="C578" s="19" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D578" s="28"/>
       <c r="E578" s="28" t="s">
@@ -20677,7 +20680,7 @@
         <v>618</v>
       </c>
       <c r="C579" s="19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D579" s="28"/>
       <c r="E579" s="28" t="s">
@@ -20702,7 +20705,7 @@
         <v>618</v>
       </c>
       <c r="C580" s="19" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D580" s="28"/>
       <c r="E580" s="28" t="s">
@@ -20721,13 +20724,13 @@
     </row>
     <row r="581" spans="1:9" ht="30">
       <c r="A581" s="21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B581" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D581" s="28"/>
       <c r="E581" s="28" t="s">
@@ -20743,18 +20746,18 @@
         <v>17</v>
       </c>
       <c r="I581" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="582" spans="1:9" ht="45">
       <c r="A582" s="21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B582" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C582" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D582" s="28"/>
       <c r="E582" s="28" t="s">
@@ -20770,18 +20773,18 @@
         <v>21</v>
       </c>
       <c r="I582" s="29" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="90">
       <c r="A583" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B583" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="C583" s="30" t="s">
-        <v>882</v>
+      <c r="C583" s="19" t="s">
+        <v>1376</v>
       </c>
       <c r="D583" s="28"/>
       <c r="E583" s="28" t="s">
@@ -20797,7 +20800,7 @@
         <v>17</v>
       </c>
       <c r="I583" s="30" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="584" spans="1:9" ht="60">
@@ -20808,7 +20811,7 @@
         <v>619</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D584" s="28"/>
       <c r="E584" s="28" t="s">
@@ -20824,7 +20827,7 @@
         <v>17</v>
       </c>
       <c r="I584" s="30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="585" spans="1:9" ht="60">
@@ -20834,8 +20837,8 @@
       <c r="B585" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="C585" s="31" t="s">
-        <v>776</v>
+      <c r="C585" s="19" t="s">
+        <v>1377</v>
       </c>
       <c r="D585" s="28"/>
       <c r="E585" s="28" t="s">
@@ -20851,7 +20854,7 @@
         <v>17</v>
       </c>
       <c r="I585" s="30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -20860,6 +20863,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20867,11 +20875,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A20:I161 A163:I507">

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="3510" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -3291,9 +3291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>MS-OXCNOTIF_R28001</t>
   </si>
   <si>
@@ -4090,12 +4087,6 @@
     <t>[In Appendix A: Product Behavior] Implemetation does support the EcRRegisterPushNotification method. (&lt;6&gt; Section 2.2.1.3.3: Exchange 2010 SP3 does support the EcRRegisterPushNotification method if a registry key is created to support push notifications, as described in [MSFT-ConfigStaticUDPPort].)</t>
   </si>
   <si>
-    <t xml:space="preserve">[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.3.3: Outlook 2013 and Outlook 2016 do not send the EcRRegisterPushNotification RPC method call. </t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the EcRRegisterPushNotification method. (&lt;6&gt; Section 2.2.1.3.3: Exchange 2013 and Exchange 2016 do not support the EcRRegisterPushNotification method, and the returned value is always ecNotSupported (0x80040102).)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not support the Execute response type. (&lt;8&gt; Section 2.2.1.4.1: Exchange 2003 does not support the Execute response type.)</t>
   </si>
   <si>
@@ -4154,9 +4145,6 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] This ROP RopPending does appear only in response buffers of the Execute request type. &lt;7&gt; Section 2.2.1.3.4: The Execute request type was introduced in Outlook 2013 SP1.</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] MessageFlags does specify the message flags of new mail that has been received.(Exchange 2007, Exchange 2010 and Exchange 2016 follow this behavior.)</t>
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return zero for MessageFlags. &lt;10&gt; Section 2.2.1.4.1.2:  In Exchange 2013 the value of MessageFlags is zero. (Exchange 2013 follows this behavior.)</t>
@@ -4413,6 +4401,18 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does fail with ecRpcFormat (0x000004B6) if the output buffer is less than 0x00008007. (Microsoft Exchange Server 2007 follows this behavior).</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.3.3: Outlook 2013, Outlook 2016 andOutlook 2019 Preview do not send the EcRRegisterPushNotification RPC method call. </t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the EcRRegisterPushNotification method. (&lt;6&gt; Section 2.2.1.3.3: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the EcRRegisterPushNotification method, and the returned value is always ecNotSupported (0x80040102).)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] MessageFlags does specify the message flags of new mail that has been received.(Exchange 2007, Exchange 2010, Exchange 2016 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -4689,6 +4689,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4713,26 +4728,263 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5071,258 +5323,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5452,34 +5452,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I585" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I585" tableType="xml" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
   <autoFilter ref="A19:I585"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="64" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="63" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="62" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="61" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="60" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="59" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="58" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="57" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="56">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5488,12 +5488,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="50"/>
+    <tableColumn id="2" name="Test" dataDxfId="49"/>
+    <tableColumn id="3" name="Description" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5575,23 +5575,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5627,23 +5610,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5827,7 +5793,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -5863,130 +5829,130 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1034</v>
+        <v>1374</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="11">
-        <v>42534</v>
+        <v>43305</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
@@ -5998,12 +5964,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="26" t="s">
@@ -6015,12 +5981,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
@@ -6032,12 +5998,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
@@ -6049,57 +6015,57 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="46" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="30">
@@ -6899,13 +6865,13 @@
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B50" s="29" t="s">
         <v>577</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="28" t="s">
@@ -7204,7 +7170,7 @@
         <v>17</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7215,7 +7181,7 @@
         <v>580</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28" t="s">
@@ -7240,7 +7206,7 @@
         <v>580</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28" t="s">
@@ -7256,7 +7222,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="45">
@@ -7267,7 +7233,7 @@
         <v>580</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28" t="s">
@@ -7292,7 +7258,7 @@
         <v>580</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
@@ -7317,7 +7283,7 @@
         <v>580</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
@@ -7342,7 +7308,7 @@
         <v>580</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28" t="s">
@@ -7367,7 +7333,7 @@
         <v>580</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28" t="s">
@@ -7392,7 +7358,7 @@
         <v>580</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28" t="s">
@@ -7417,7 +7383,7 @@
         <v>580</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
@@ -7436,13 +7402,13 @@
     </row>
     <row r="71" spans="1:9" ht="45">
       <c r="A71" s="33" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="28" t="s">
@@ -7461,13 +7427,13 @@
     </row>
     <row r="72" spans="1:9" ht="30">
       <c r="A72" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="28" t="s">
@@ -7611,13 +7577,13 @@
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="21" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="28" t="s">
@@ -7636,13 +7602,13 @@
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="28" t="s">
@@ -7667,7 +7633,7 @@
         <v>580</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28" t="s">
@@ -7717,7 +7683,7 @@
         <v>580</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28" t="s">
@@ -7744,7 +7710,7 @@
         <v>581</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28" t="s">
@@ -7760,7 +7726,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="45">
@@ -7873,13 +7839,13 @@
     </row>
     <row r="88" spans="1:9" ht="45">
       <c r="A88" s="33" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>581</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="33" t="s">
@@ -7906,7 +7872,7 @@
         <v>582</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -8008,7 +7974,7 @@
         <v>583</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="s">
@@ -8110,7 +8076,7 @@
         <v>584</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28" t="s">
@@ -8239,7 +8205,7 @@
         <v>585</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="28" t="s">
@@ -8287,13 +8253,13 @@
     </row>
     <row r="104" spans="1:9" ht="45">
       <c r="A104" s="21" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>585</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33" t="s">
@@ -8309,7 +8275,7 @@
         <v>17</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="30">
@@ -8450,7 +8416,7 @@
       <c r="B110" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="19" t="s">
         <v>688</v>
       </c>
       <c r="D110" s="28" t="s">
@@ -8478,7 +8444,7 @@
         <v>587</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
@@ -8728,13 +8694,13 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D121" s="33"/>
       <c r="E121" s="28" t="s">
@@ -8753,13 +8719,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="28" t="s">
@@ -8778,13 +8744,13 @@
     </row>
     <row r="123" spans="1:9" ht="30">
       <c r="A123" s="21" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>588</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="28" t="s">
@@ -8803,13 +8769,13 @@
     </row>
     <row r="124" spans="1:9" ht="30">
       <c r="A124" s="21" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="28" t="s">
@@ -8831,10 +8797,10 @@
         <v>136</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8858,10 +8824,10 @@
         <v>137</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8885,10 +8851,10 @@
         <v>138</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8910,10 +8876,10 @@
         <v>139</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8937,10 +8903,10 @@
         <v>140</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8962,10 +8928,10 @@
         <v>141</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8989,10 +8955,10 @@
         <v>142</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -9014,10 +8980,10 @@
         <v>143</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -9039,10 +9005,10 @@
         <v>144</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -9064,10 +9030,10 @@
         <v>145</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -9089,10 +9055,10 @@
         <v>146</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -9114,10 +9080,10 @@
         <v>147</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -9139,10 +9105,10 @@
         <v>148</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -9164,10 +9130,10 @@
         <v>149</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -9189,10 +9155,10 @@
         <v>150</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -9211,13 +9177,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="21" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="28" t="s">
@@ -9236,13 +9202,13 @@
     </row>
     <row r="141" spans="1:9" ht="30">
       <c r="A141" s="21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="28" t="s">
@@ -9261,13 +9227,13 @@
     </row>
     <row r="142" spans="1:9" ht="30">
       <c r="A142" s="21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>1095</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>1096</v>
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="28" t="s">
@@ -9289,10 +9255,10 @@
         <v>151</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -9314,10 +9280,10 @@
         <v>152</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -9339,10 +9305,10 @@
         <v>153</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -9364,10 +9330,10 @@
         <v>154</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -9389,10 +9355,10 @@
         <v>155</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -9414,10 +9380,10 @@
         <v>156</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -9439,10 +9405,10 @@
         <v>157</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -9464,10 +9430,10 @@
         <v>158</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -9491,10 +9457,10 @@
         <v>159</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -9516,10 +9482,10 @@
         <v>160</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
@@ -9541,10 +9507,10 @@
         <v>161</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -9568,10 +9534,10 @@
         <v>162</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -9595,10 +9561,10 @@
         <v>163</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -9620,10 +9586,10 @@
         <v>164</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -9647,10 +9613,10 @@
         <v>165</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>884</v>
@@ -9674,10 +9640,10 @@
         <v>166</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>884</v>
@@ -9701,10 +9667,10 @@
         <v>167</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9728,10 +9694,10 @@
         <v>168</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9753,10 +9719,10 @@
         <v>169</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9780,10 +9746,10 @@
         <v>170</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9805,10 +9771,10 @@
         <v>171</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9830,10 +9796,10 @@
         <v>172</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9855,10 +9821,10 @@
         <v>173</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9882,10 +9848,10 @@
         <v>174</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>885</v>
@@ -9911,10 +9877,10 @@
         <v>175</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9936,10 +9902,10 @@
         <v>176</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9961,10 +9927,10 @@
         <v>177</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9988,10 +9954,10 @@
         <v>178</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>886</v>
@@ -10015,10 +9981,10 @@
         <v>179</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>886</v>
@@ -10042,10 +10008,10 @@
         <v>180</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>886</v>
@@ -10069,10 +10035,10 @@
         <v>181</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>886</v>
@@ -10096,10 +10062,10 @@
         <v>182</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -10121,10 +10087,10 @@
         <v>183</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -10146,10 +10112,10 @@
         <v>184</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -10173,10 +10139,10 @@
         <v>185</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D177" s="28" t="s">
         <v>887</v>
@@ -10200,10 +10166,10 @@
         <v>186</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>887</v>
@@ -10227,10 +10193,10 @@
         <v>187</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>887</v>
@@ -10254,10 +10220,10 @@
         <v>188</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>887</v>
@@ -10281,10 +10247,10 @@
         <v>189</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -10306,10 +10272,10 @@
         <v>190</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
@@ -10331,10 +10297,10 @@
         <v>191</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -10358,10 +10324,10 @@
         <v>192</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>888</v>
@@ -10385,10 +10351,10 @@
         <v>193</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>888</v>
@@ -10412,10 +10378,10 @@
         <v>194</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D186" s="28" t="s">
         <v>888</v>
@@ -10439,10 +10405,10 @@
         <v>195</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>888</v>
@@ -10466,10 +10432,10 @@
         <v>196</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -10491,10 +10457,10 @@
         <v>197</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
@@ -10516,10 +10482,10 @@
         <v>198</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -10543,10 +10509,10 @@
         <v>199</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D191" s="28" t="s">
         <v>889</v>
@@ -10570,10 +10536,10 @@
         <v>200</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D192" s="28" t="s">
         <v>889</v>
@@ -10597,10 +10563,10 @@
         <v>201</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D193" s="28" t="s">
         <v>889</v>
@@ -10624,10 +10590,10 @@
         <v>202</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -10649,10 +10615,10 @@
         <v>203</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -10674,10 +10640,10 @@
         <v>204</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
@@ -10701,10 +10667,10 @@
         <v>205</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>890</v>
@@ -10728,10 +10694,10 @@
         <v>206</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>890</v>
@@ -10755,10 +10721,10 @@
         <v>207</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>890</v>
@@ -10782,10 +10748,10 @@
         <v>208</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10807,10 +10773,10 @@
         <v>209</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10829,13 +10795,13 @@
     </row>
     <row r="202" spans="1:9" ht="75">
       <c r="A202" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="28" t="s">
@@ -10851,21 +10817,21 @@
         <v>17</v>
       </c>
       <c r="I202" s="31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="45">
       <c r="A203" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>19</v>
@@ -10883,16 +10849,16 @@
     </row>
     <row r="204" spans="1:9" ht="45">
       <c r="A204" s="33" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>19</v>
@@ -10910,16 +10876,16 @@
     </row>
     <row r="205" spans="1:9" ht="30">
       <c r="A205" s="33" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>19</v>
@@ -10940,10 +10906,10 @@
         <v>210</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10965,10 +10931,10 @@
         <v>211</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10990,10 +10956,10 @@
         <v>212</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D208" s="28"/>
       <c r="E208" s="28" t="s">
@@ -11017,10 +10983,10 @@
         <v>213</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>891</v>
@@ -11044,10 +11010,10 @@
         <v>214</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>891</v>
@@ -11071,10 +11037,10 @@
         <v>215</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D211" s="28" t="s">
         <v>891</v>
@@ -11098,10 +11064,10 @@
         <v>216</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -11120,13 +11086,13 @@
     </row>
     <row r="213" spans="1:9" ht="30">
       <c r="A213" s="21" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
@@ -11148,10 +11114,10 @@
         <v>217</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -11175,10 +11141,10 @@
         <v>218</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D215" s="28" t="s">
         <v>892</v>
@@ -11202,10 +11168,10 @@
         <v>219</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D216" s="28" t="s">
         <v>892</v>
@@ -11229,10 +11195,10 @@
         <v>220</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D217" s="28" t="s">
         <v>892</v>
@@ -11256,10 +11222,10 @@
         <v>221</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -11281,10 +11247,10 @@
         <v>222</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -11306,10 +11272,10 @@
         <v>223</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -11333,10 +11299,10 @@
         <v>224</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D221" s="28" t="s">
         <v>893</v>
@@ -11360,10 +11326,10 @@
         <v>225</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D222" s="28" t="s">
         <v>893</v>
@@ -11387,10 +11353,10 @@
         <v>226</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D223" s="28" t="s">
         <v>893</v>
@@ -11414,10 +11380,10 @@
         <v>227</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
@@ -11439,10 +11405,10 @@
         <v>228</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -11464,10 +11430,10 @@
         <v>229</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -11491,10 +11457,10 @@
         <v>230</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D227" s="28" t="s">
         <v>894</v>
@@ -11518,10 +11484,10 @@
         <v>231</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>894</v>
@@ -11545,10 +11511,10 @@
         <v>232</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>894</v>
@@ -11572,10 +11538,10 @@
         <v>233</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -11597,10 +11563,10 @@
         <v>234</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -11622,10 +11588,10 @@
         <v>235</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -11649,10 +11615,10 @@
         <v>236</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>895</v>
@@ -11676,10 +11642,10 @@
         <v>237</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D234" s="28" t="s">
         <v>895</v>
@@ -11703,10 +11669,10 @@
         <v>238</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>895</v>
@@ -11730,10 +11696,10 @@
         <v>239</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D236" s="28" t="s">
         <v>895</v>
@@ -11757,10 +11723,10 @@
         <v>240</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D237" s="28" t="s">
         <v>895</v>
@@ -11784,10 +11750,10 @@
         <v>241</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -11809,10 +11775,10 @@
         <v>242</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
@@ -11834,10 +11800,10 @@
         <v>243</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
@@ -11861,10 +11827,10 @@
         <v>244</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D241" s="28" t="s">
         <v>896</v>
@@ -11888,10 +11854,10 @@
         <v>245</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D242" s="28" t="s">
         <v>896</v>
@@ -11915,10 +11881,10 @@
         <v>246</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D243" s="28" t="s">
         <v>896</v>
@@ -11942,10 +11908,10 @@
         <v>247</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
@@ -11967,10 +11933,10 @@
         <v>248</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
@@ -11992,10 +11958,10 @@
         <v>249</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -12019,10 +11985,10 @@
         <v>250</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D247" s="28" t="s">
         <v>897</v>
@@ -12046,10 +12012,10 @@
         <v>251</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D248" s="28" t="s">
         <v>897</v>
@@ -12073,10 +12039,10 @@
         <v>252</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D249" s="28" t="s">
         <v>897</v>
@@ -12100,10 +12066,10 @@
         <v>253</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -12125,10 +12091,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -12150,10 +12116,10 @@
         <v>255</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -12177,10 +12143,10 @@
         <v>256</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="28" t="s">
         <v>898</v>
@@ -12204,10 +12170,10 @@
         <v>257</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D254" s="28" t="s">
         <v>898</v>
@@ -12231,10 +12197,10 @@
         <v>258</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="28" t="s">
         <v>898</v>
@@ -12258,10 +12224,10 @@
         <v>259</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -12283,10 +12249,10 @@
         <v>260</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -12308,10 +12274,10 @@
         <v>261</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -12335,10 +12301,10 @@
         <v>262</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D259" s="28" t="s">
         <v>899</v>
@@ -12362,10 +12328,10 @@
         <v>263</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>899</v>
@@ -12389,10 +12355,10 @@
         <v>264</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D261" s="28" t="s">
         <v>899</v>
@@ -12416,10 +12382,10 @@
         <v>265</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
@@ -12443,10 +12409,10 @@
         <v>266</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -12468,10 +12434,10 @@
         <v>267</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -12493,10 +12459,10 @@
         <v>268</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>900</v>
@@ -12520,10 +12486,10 @@
         <v>269</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>900</v>
@@ -12547,10 +12513,10 @@
         <v>270</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>900</v>
@@ -12574,10 +12540,10 @@
         <v>271</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12599,10 +12565,10 @@
         <v>272</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -12624,10 +12590,10 @@
         <v>273</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
@@ -12649,10 +12615,10 @@
         <v>274</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D271" s="28" t="s">
         <v>901</v>
@@ -12676,10 +12642,10 @@
         <v>275</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D272" s="28" t="s">
         <v>901</v>
@@ -12703,10 +12669,10 @@
         <v>276</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -12728,10 +12694,10 @@
         <v>277</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -12753,10 +12719,10 @@
         <v>278</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -12778,10 +12744,10 @@
         <v>279</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D276" s="28" t="s">
         <v>902</v>
@@ -12805,10 +12771,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D277" s="28" t="s">
         <v>902</v>
@@ -12832,10 +12798,10 @@
         <v>281</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12857,10 +12823,10 @@
         <v>282</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12876,7 +12842,7 @@
         <v>17</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="60">
@@ -12884,10 +12850,10 @@
         <v>283</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12911,10 +12877,10 @@
         <v>284</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D281" s="28" t="s">
         <v>903</v>
@@ -12938,10 +12904,10 @@
         <v>285</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D282" s="28" t="s">
         <v>903</v>
@@ -12965,10 +12931,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
@@ -12990,10 +12956,10 @@
         <v>287</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -13015,10 +12981,10 @@
         <v>288</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -13040,10 +13006,10 @@
         <v>289</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -13065,10 +13031,10 @@
         <v>290</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -13092,10 +13058,10 @@
         <v>291</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D288" s="28" t="s">
         <v>904</v>
@@ -13119,10 +13085,10 @@
         <v>292</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>904</v>
@@ -13146,10 +13112,10 @@
         <v>293</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -13171,10 +13137,10 @@
         <v>294</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -13196,10 +13162,10 @@
         <v>295</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -13221,10 +13187,10 @@
         <v>296</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -13248,10 +13214,10 @@
         <v>297</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D294" s="28" t="s">
         <v>905</v>
@@ -13275,10 +13241,10 @@
         <v>298</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D295" s="28" t="s">
         <v>905</v>
@@ -13405,7 +13371,7 @@
         <v>589</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -13534,7 +13500,7 @@
         <v>32</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -13684,7 +13650,7 @@
         <v>591</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -14271,7 +14237,7 @@
         <v>591</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -14296,7 +14262,7 @@
         <v>591</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -14321,7 +14287,7 @@
         <v>591</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -14348,7 +14314,7 @@
         <v>591</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
@@ -14375,7 +14341,7 @@
         <v>591</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -14402,7 +14368,7 @@
         <v>591</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -14429,7 +14395,7 @@
         <v>591</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
@@ -14456,7 +14422,7 @@
         <v>591</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
@@ -14481,7 +14447,7 @@
         <v>591</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -14614,7 +14580,7 @@
         <v>593</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -14691,7 +14657,7 @@
         <v>594</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -14813,7 +14779,7 @@
         <v>17</v>
       </c>
       <c r="I354" s="19" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="45">
@@ -14874,7 +14840,7 @@
         <v>595</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -15215,7 +15181,7 @@
         <v>596</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
@@ -15292,7 +15258,7 @@
         <v>597</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
@@ -15552,7 +15518,7 @@
         <v>603</v>
       </c>
       <c r="C383" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
@@ -15577,7 +15543,7 @@
         <v>603</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -15602,7 +15568,7 @@
         <v>603</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -15627,7 +15593,7 @@
         <v>603</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -15652,7 +15618,7 @@
         <v>603</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -15677,7 +15643,7 @@
         <v>603</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -15702,7 +15668,7 @@
         <v>603</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -15727,7 +15693,7 @@
         <v>603</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="28" t="s">
@@ -15752,7 +15718,7 @@
         <v>603</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -15827,7 +15793,7 @@
         <v>603</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -15852,7 +15818,7 @@
         <v>603</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -15877,7 +15843,7 @@
         <v>603</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D396" s="28"/>
       <c r="E396" s="28" t="s">
@@ -15902,7 +15868,7 @@
         <v>603</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -15927,7 +15893,7 @@
         <v>603</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
@@ -15952,7 +15918,7 @@
         <v>603</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15977,7 +15943,7 @@
         <v>603</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -16002,7 +15968,7 @@
         <v>603</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
@@ -16027,7 +15993,7 @@
         <v>603</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="28" t="s">
@@ -16052,7 +16018,7 @@
         <v>604</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28" t="s">
@@ -16127,7 +16093,7 @@
         <v>605</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D406" s="28"/>
       <c r="E406" s="28" t="s">
@@ -16252,7 +16218,7 @@
         <v>606</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
@@ -16402,7 +16368,7 @@
         <v>606</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D417" s="28"/>
       <c r="E417" s="28" t="s">
@@ -16827,7 +16793,7 @@
         <v>611</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D434" s="28"/>
       <c r="E434" s="28" t="s">
@@ -16927,7 +16893,7 @@
         <v>611</v>
       </c>
       <c r="C438" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="28" t="s">
@@ -17302,7 +17268,7 @@
         <v>615</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D453" s="28"/>
       <c r="E453" s="28" t="s">
@@ -17327,7 +17293,7 @@
         <v>615</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D454" s="28"/>
       <c r="E454" s="28" t="s">
@@ -17352,7 +17318,7 @@
         <v>615</v>
       </c>
       <c r="C455" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D455" s="28"/>
       <c r="E455" s="28" t="s">
@@ -17602,7 +17568,7 @@
         <v>617</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D465" s="28"/>
       <c r="E465" s="28" t="s">
@@ -17985,7 +17951,7 @@
         <v>618</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D480" s="28"/>
       <c r="E480" s="28" t="s">
@@ -18010,7 +17976,7 @@
         <v>618</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D481" s="28" t="s">
         <v>907</v>
@@ -18168,7 +18134,7 @@
         <v>618</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D487" s="28" t="s">
         <v>908</v>
@@ -18224,7 +18190,7 @@
         <v>618</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D489" s="28" t="s">
         <v>909</v>
@@ -18336,7 +18302,7 @@
         <v>618</v>
       </c>
       <c r="C493" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D493" s="28"/>
       <c r="E493" s="28" t="s">
@@ -18361,7 +18327,7 @@
         <v>618</v>
       </c>
       <c r="C494" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D494" s="28" t="s">
         <v>910</v>
@@ -18388,7 +18354,7 @@
         <v>618</v>
       </c>
       <c r="C495" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D495" s="28" t="s">
         <v>910</v>
@@ -18415,7 +18381,7 @@
         <v>618</v>
       </c>
       <c r="C496" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D496" s="28" t="s">
         <v>910</v>
@@ -18442,7 +18408,7 @@
         <v>618</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1300</v>
+        <v>1375</v>
       </c>
       <c r="D497" s="28"/>
       <c r="E497" s="28" t="s">
@@ -18467,7 +18433,7 @@
         <v>618</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1301</v>
+        <v>1376</v>
       </c>
       <c r="D498" s="28" t="s">
         <v>910</v>
@@ -18488,16 +18454,16 @@
     </row>
     <row r="499" spans="1:9" ht="45">
       <c r="A499" s="33" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B499" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C499" s="31" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D499" s="33" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E499" s="28" t="s">
         <v>22</v>
@@ -18515,13 +18481,13 @@
     </row>
     <row r="500" spans="1:9" ht="45">
       <c r="A500" s="33" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B500" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C500" s="31" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D500" s="33"/>
       <c r="E500" s="28" t="s">
@@ -18540,13 +18506,13 @@
     </row>
     <row r="501" spans="1:9" ht="45">
       <c r="A501" s="33" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B501" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C501" s="31" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D501" s="33"/>
       <c r="E501" s="28" t="s">
@@ -18565,16 +18531,16 @@
     </row>
     <row r="502" spans="1:9" ht="45">
       <c r="A502" s="33" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B502" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D502" s="33" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="E502" s="28" t="s">
         <v>22</v>
@@ -18594,13 +18560,13 @@
     </row>
     <row r="503" spans="1:9" ht="45">
       <c r="A503" s="21" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B503" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C503" s="19" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D503" s="21" t="s">
         <v>1029</v>
@@ -18629,7 +18595,7 @@
         <v>618</v>
       </c>
       <c r="C504" s="19" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D504" s="21" t="s">
         <v>1029</v>
@@ -18656,7 +18622,7 @@
         <v>618</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D505" s="21" t="s">
         <v>1029</v>
@@ -18683,7 +18649,7 @@
         <v>618</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D506" s="28"/>
       <c r="E506" s="28" t="s">
@@ -18708,7 +18674,7 @@
         <v>618</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D507" s="28"/>
       <c r="E507" s="28" t="s">
@@ -18727,13 +18693,13 @@
     </row>
     <row r="508" spans="1:9" ht="45">
       <c r="A508" s="28" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B508" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="28" t="s">
@@ -18760,7 +18726,7 @@
         <v>618</v>
       </c>
       <c r="C509" s="19" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D509" s="28"/>
       <c r="E509" s="28" t="s">
@@ -18785,7 +18751,7 @@
         <v>618</v>
       </c>
       <c r="C510" s="19" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D510" s="28" t="s">
         <v>911</v>
@@ -18814,7 +18780,7 @@
         <v>618</v>
       </c>
       <c r="C511" s="19" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D511" s="28" t="s">
         <v>911</v>
@@ -18841,7 +18807,7 @@
         <v>618</v>
       </c>
       <c r="C512" s="19" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D512" s="28" t="s">
         <v>911</v>
@@ -18893,16 +18859,16 @@
     </row>
     <row r="514" spans="1:9" ht="45">
       <c r="A514" s="33" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="B514" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C514" s="31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D514" s="33" t="s">
         <v>1322</v>
-      </c>
-      <c r="D514" s="33" t="s">
-        <v>1326</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>22</v>
@@ -18922,16 +18888,16 @@
     </row>
     <row r="515" spans="1:9" ht="45">
       <c r="A515" s="33" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="B515" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C515" s="31" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D515" s="33" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E515" s="28" t="s">
         <v>22</v>
@@ -18957,7 +18923,7 @@
         <v>618</v>
       </c>
       <c r="C516" s="19" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="28" t="s">
@@ -18982,7 +18948,7 @@
         <v>618</v>
       </c>
       <c r="C517" s="19" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="28" t="s">
@@ -19007,7 +18973,7 @@
         <v>618</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="28" t="s">
@@ -19032,7 +18998,7 @@
         <v>618</v>
       </c>
       <c r="C519" s="19" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D519" s="28"/>
       <c r="E519" s="28" t="s">
@@ -19057,7 +19023,7 @@
         <v>618</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D520" s="28"/>
       <c r="E520" s="28" t="s">
@@ -19082,7 +19048,7 @@
         <v>618</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D521" s="28"/>
       <c r="E521" s="28" t="s">
@@ -19109,7 +19075,7 @@
         <v>618</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D522" s="28" t="s">
         <v>913</v>
@@ -19138,7 +19104,7 @@
         <v>618</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D523" s="28" t="s">
         <v>913</v>
@@ -19281,7 +19247,7 @@
         <v>618</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D528" s="28" t="s">
         <v>917</v>
@@ -19310,7 +19276,7 @@
         <v>618</v>
       </c>
       <c r="C529" s="19" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D529" s="28" t="s">
         <v>917</v>
@@ -19598,7 +19564,7 @@
         <v>618</v>
       </c>
       <c r="C539" s="19" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D539" s="28" t="s">
         <v>926</v>
@@ -19654,7 +19620,7 @@
         <v>618</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D541" s="28" t="s">
         <v>927</v>
@@ -19797,7 +19763,7 @@
         <v>618</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D546" s="28" t="s">
         <v>930</v>
@@ -19878,7 +19844,7 @@
         <v>618</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D549" s="28" t="s">
         <v>930</v>
@@ -20268,7 +20234,7 @@
         <v>618</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D563" s="28"/>
       <c r="E563" s="28" t="s">
@@ -20295,7 +20261,7 @@
         <v>618</v>
       </c>
       <c r="C564" s="19" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="D564" s="28"/>
       <c r="E564" s="28" t="s">
@@ -20320,7 +20286,7 @@
         <v>618</v>
       </c>
       <c r="C565" s="19" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D565" s="28"/>
       <c r="E565" s="28" t="s">
@@ -20345,7 +20311,7 @@
         <v>618</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D566" s="28"/>
       <c r="E566" s="28" t="s">
@@ -20370,7 +20336,7 @@
         <v>618</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D567" s="28"/>
       <c r="E567" s="28" t="s">
@@ -20453,7 +20419,7 @@
         <v>618</v>
       </c>
       <c r="C570" s="19" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D570" s="28"/>
       <c r="E570" s="28" t="s">
@@ -20478,7 +20444,7 @@
         <v>618</v>
       </c>
       <c r="C571" s="19" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D571" s="28"/>
       <c r="E571" s="28" t="s">
@@ -20503,7 +20469,7 @@
         <v>618</v>
       </c>
       <c r="C572" s="19" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D572" s="28"/>
       <c r="E572" s="28" t="s">
@@ -20528,7 +20494,7 @@
         <v>618</v>
       </c>
       <c r="C573" s="19" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
@@ -20553,7 +20519,7 @@
         <v>618</v>
       </c>
       <c r="C574" s="19" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D574" s="28"/>
       <c r="E574" s="28" t="s">
@@ -20578,7 +20544,7 @@
         <v>618</v>
       </c>
       <c r="C575" s="19" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D575" s="28"/>
       <c r="E575" s="28" t="s">
@@ -20594,7 +20560,7 @@
         <v>17</v>
       </c>
       <c r="I575" s="19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="576" spans="1:9" ht="30">
@@ -20605,7 +20571,7 @@
         <v>618</v>
       </c>
       <c r="C576" s="19" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D576" s="28"/>
       <c r="E576" s="28" t="s">
@@ -20630,7 +20596,7 @@
         <v>618</v>
       </c>
       <c r="C577" s="19" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D577" s="28"/>
       <c r="E577" s="28" t="s">
@@ -20655,7 +20621,7 @@
         <v>618</v>
       </c>
       <c r="C578" s="19" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D578" s="28"/>
       <c r="E578" s="28" t="s">
@@ -20680,7 +20646,7 @@
         <v>618</v>
       </c>
       <c r="C579" s="19" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D579" s="28"/>
       <c r="E579" s="28" t="s">
@@ -20705,7 +20671,7 @@
         <v>618</v>
       </c>
       <c r="C580" s="19" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D580" s="28"/>
       <c r="E580" s="28" t="s">
@@ -20730,7 +20696,7 @@
         <v>618</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D581" s="28"/>
       <c r="E581" s="28" t="s">
@@ -20746,7 +20712,7 @@
         <v>17</v>
       </c>
       <c r="I581" s="19" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="582" spans="1:9" ht="45">
@@ -20784,7 +20750,7 @@
         <v>618</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D583" s="28"/>
       <c r="E583" s="28" t="s">
@@ -20811,7 +20777,7 @@
         <v>619</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D584" s="28"/>
       <c r="E584" s="28" t="s">
@@ -20838,7 +20804,7 @@
         <v>620</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D585" s="28"/>
       <c r="E585" s="28" t="s">
@@ -20863,11 +20829,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20875,183 +20836,188 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A20:I161 A163:I507">
-    <cfRule type="expression" dxfId="66" priority="113">
+  <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
+    <cfRule type="expression" dxfId="47" priority="113">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="114">
+    <cfRule type="expression" dxfId="46" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="121">
+    <cfRule type="expression" dxfId="45" priority="121">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A20:I161 A163:I507">
-    <cfRule type="expression" dxfId="63" priority="67">
+  <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
+    <cfRule type="expression" dxfId="44" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="68">
+    <cfRule type="expression" dxfId="43" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="69">
+    <cfRule type="expression" dxfId="42" priority="69">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F583:F585 G88 F20:F507 F509:F581">
-    <cfRule type="expression" dxfId="60" priority="73">
+  <conditionalFormatting sqref="F583:F585 G88 F509:F581 F20:F507">
+    <cfRule type="expression" dxfId="41" priority="73">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="74">
+    <cfRule type="expression" dxfId="40" priority="74">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I583:I585">
-    <cfRule type="expression" dxfId="58" priority="64">
+    <cfRule type="expression" dxfId="39" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="38" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="66">
+    <cfRule type="expression" dxfId="37" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I583:I585">
-    <cfRule type="expression" dxfId="55" priority="61">
+    <cfRule type="expression" dxfId="36" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="35" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="34" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F582">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="33" priority="56">
       <formula>NOT(VLOOKUP(F582,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="32" priority="57">
       <formula>(VLOOKUP(F582,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="31" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="30" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="29" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="28" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="27" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="26" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C585">
-    <cfRule type="expression" dxfId="44" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C585">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="19" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="17" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A508:I508">
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A508:I508">
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F508">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>NOT(VLOOKUP(F508,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>(VLOOKUP(F508,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21079,7 +21045,7 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B508:B586 C3 B19:B507" numberStoredAsText="1"/>
+    <ignoredError sqref="B111:B586 B19:B110" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56DE03F-8474-4355-8767-1369E2EE49FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3510" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="1290" yWindow="3510" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -21,8 +22,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp9D50" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp9D50" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-ruowan\AppData\Local\Temp\tmp9D50.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -4418,7 +4419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -4733,258 +4734,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5323,6 +5072,258 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5452,34 +5453,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I585" tableType="xml" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
-  <autoFilter ref="A19:I585"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I585" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal" connectionId="1">
+  <autoFilter ref="A19:I585" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="64" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="63" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="62" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="61" dataCellStyle="Normal">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="60" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="59" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="58" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="57" dataCellStyle="Normal">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="56">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5488,12 +5489,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="50"/>
-    <tableColumn id="2" name="Test" dataDxfId="49"/>
-    <tableColumn id="3" name="Description" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5575,6 +5576,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5610,6 +5628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5785,7 +5820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K586"/>
   <sheetViews>
@@ -5793,7 +5828,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -20844,208 +20879,208 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
-    <cfRule type="expression" dxfId="47" priority="113">
+    <cfRule type="expression" dxfId="66" priority="113">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="114">
+    <cfRule type="expression" dxfId="65" priority="114">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="121">
+    <cfRule type="expression" dxfId="64" priority="121">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
-    <cfRule type="expression" dxfId="44" priority="67">
+    <cfRule type="expression" dxfId="63" priority="67">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="68">
+    <cfRule type="expression" dxfId="62" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="69">
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F583:F585 G88 F509:F581 F20:F507">
-    <cfRule type="expression" dxfId="41" priority="73">
+    <cfRule type="expression" dxfId="60" priority="73">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="74">
+    <cfRule type="expression" dxfId="59" priority="74">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I583:I585">
-    <cfRule type="expression" dxfId="39" priority="64">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="65">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="66">
+    <cfRule type="expression" dxfId="56" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I583:I585">
-    <cfRule type="expression" dxfId="36" priority="61">
+    <cfRule type="expression" dxfId="55" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="62">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="63">
+    <cfRule type="expression" dxfId="53" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F582">
-    <cfRule type="expression" dxfId="33" priority="56">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>NOT(VLOOKUP(F582,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="57">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>(VLOOKUP(F582,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582">
-    <cfRule type="expression" dxfId="31" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="52">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I582">
-    <cfRule type="expression" dxfId="28" priority="47">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="48">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="49">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C585">
-    <cfRule type="expression" dxfId="25" priority="38">
+    <cfRule type="expression" dxfId="44" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="40">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C585">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="37">
+    <cfRule type="expression" dxfId="39" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C584">
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A508:I508">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="32" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A508:I508">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F508">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F508,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F508,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F585">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F585" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E585">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E585" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G585">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G585" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H583:H585 H20:H581">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H583:H585 H20:H581" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H582">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H582" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B111:B586 B19:B110" numberStoredAsText="1"/>
+    <ignoredError sqref="B111:B586 B19:B110 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56DE03F-8474-4355-8767-1369E2EE49FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37523DF-D5E2-4CD3-B0AC-C2AB6F3E8EA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3510" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4134,9 +4134,6 @@
   </si>
   <si>
     <t>MS-OXCNOTIF_R8201:i</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the Execute request type. &lt;7&gt; Section 2.2.1.3.4:  Exchange 2003, Exchange 2007, Exchange 2010, the initial release of Exchange 2013do not support the Execute request type.</t>
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does not support the Execute request type.&lt;7&gt; Section 2.2.1.3.4:  Office Outlook 2003, Office Outlook 2007, Outlook 2010, and the initial release of Outlook 2013 do not support the Execute request type.</t>
@@ -4404,16 +4401,23 @@
     <t>[In Appendix B: Product Behavior] Implementation does fail with ecRpcFormat (0x000004B6) if the output buffer is less than 0x00008007. (Microsoft Exchange Server 2007 follows this behavior).</t>
   </si>
   <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.3.3: Outlook 2013, Outlook 2016 andOutlook 2019 Preview do not send the EcRRegisterPushNotification RPC method call. </t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not support the EcRRegisterPushNotification method. (&lt;6&gt; Section 2.2.1.3.3: Exchange 2013, Exchange 2016 and Exchange 2019 Preview do not support the EcRRegisterPushNotification method, and the returned value is always ecNotSupported (0x80040102).)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] MessageFlags does specify the message flags of new mail that has been received.(Exchange 2007, Exchange 2010, Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>19.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.3.3: Outlook 2013, Outlook 2016 andOutlook 2019 do not send the EcRRegisterPushNotification RPC method call. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the Execute request type. &lt;7&gt; Section 2.2.1.3.4:  Exchange 2003, Exchange 2007, Exchange 2010, the initial release of Exchange 2013 do not support the Execute request type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not support the EcRRegisterPushNotification method. (&lt;6&gt; Section 2.2.1.3.3: Exchange 2013, Exchange 2016 and Exchange 2019 do not support the EcRRegisterPushNotification method, and the returned value is always ecNotSupported (0x80040102).)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4421,14 +4425,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4474,6 +4478,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4620,13 +4625,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4659,7 +4664,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4690,21 +4695,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4728,6 +4718,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5826,21 +5831,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1019</v>
       </c>
@@ -5849,7 +5854,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1020</v>
       </c>
@@ -5859,7 +5864,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
@@ -5870,126 +5875,126 @@
         <v>26</v>
       </c>
       <c r="F3" s="11">
-        <v>43305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="35" t="s">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -5999,14 +6004,14 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -6016,14 +6021,14 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -6033,14 +6038,14 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -6050,60 +6055,60 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" ht="64.5" customHeight="1">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="B17" s="41" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="30">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="45">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>42</v>
       </c>
@@ -6157,7 +6162,7 @@
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:11" s="22" customFormat="1" ht="30">
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
@@ -6182,7 +6187,7 @@
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="45">
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="30">
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>45</v>
       </c>
@@ -6234,7 +6239,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:11" s="22" customFormat="1">
+    <row r="24" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
@@ -6259,7 +6264,7 @@
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:11" s="22" customFormat="1" ht="135">
+    <row r="25" spans="1:11" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>47</v>
       </c>
@@ -6286,7 +6291,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="22" customFormat="1" ht="30">
+    <row r="26" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>48</v>
       </c>
@@ -6313,7 +6318,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="22" customFormat="1" ht="75">
+    <row r="27" spans="1:11" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>49</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="22" customFormat="1" ht="45">
+    <row r="28" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>50</v>
       </c>
@@ -6367,7 +6372,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="22" customFormat="1" ht="30">
+    <row r="29" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>51</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="22" customFormat="1" ht="45">
+    <row r="30" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
@@ -6419,7 +6424,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:11" s="22" customFormat="1" ht="135">
+    <row r="31" spans="1:11" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>53</v>
       </c>
@@ -6446,7 +6451,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="22" customFormat="1">
+    <row r="32" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>54</v>
       </c>
@@ -6471,7 +6476,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="22" customFormat="1">
+    <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
@@ -6496,7 +6501,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>56</v>
       </c>
@@ -6521,7 +6526,7 @@
       </c>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>57</v>
       </c>
@@ -6546,7 +6551,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>58</v>
       </c>
@@ -6571,7 +6576,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>59</v>
       </c>
@@ -6596,7 +6601,7 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>60</v>
       </c>
@@ -6621,7 +6626,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>61</v>
       </c>
@@ -6646,7 +6651,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>62</v>
       </c>
@@ -6671,7 +6676,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>63</v>
       </c>
@@ -6696,7 +6701,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:9" ht="120">
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>64</v>
       </c>
@@ -6723,7 +6728,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>65</v>
       </c>
@@ -6748,7 +6753,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>66</v>
       </c>
@@ -6773,7 +6778,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>67</v>
       </c>
@@ -6798,7 +6803,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>68</v>
       </c>
@@ -6823,7 +6828,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>69</v>
       </c>
@@ -6848,7 +6853,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>70</v>
       </c>
@@ -6873,7 +6878,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>71</v>
       </c>
@@ -6898,7 +6903,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="30">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>1034</v>
       </c>
@@ -6923,7 +6928,7 @@
       </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" ht="60">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>72</v>
       </c>
@@ -6950,7 +6955,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>73</v>
       </c>
@@ -6975,7 +6980,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="30">
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>74</v>
       </c>
@@ -7000,7 +7005,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>75</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="30">
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>76</v>
       </c>
@@ -7052,7 +7057,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>77</v>
       </c>
@@ -7079,7 +7084,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>78</v>
       </c>
@@ -7104,7 +7109,7 @@
       </c>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="30">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>79</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>80</v>
       </c>
@@ -7156,7 +7161,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="45">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>81</v>
       </c>
@@ -7181,7 +7186,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="135">
+    <row r="61" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="28" t="s">
         <v>82</v>
       </c>
@@ -7205,10 +7210,10 @@
         <v>17</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>83</v>
       </c>
@@ -7233,7 +7238,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="135">
+    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>84</v>
       </c>
@@ -7257,10 +7262,10 @@
         <v>17</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="45">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>85</v>
       </c>
@@ -7285,7 +7290,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="45">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>86</v>
       </c>
@@ -7310,7 +7315,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="45">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>87</v>
       </c>
@@ -7335,7 +7340,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="45">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>88</v>
       </c>
@@ -7360,7 +7365,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>89</v>
       </c>
@@ -7385,7 +7390,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>90</v>
       </c>
@@ -7410,7 +7415,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="45">
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>91</v>
       </c>
@@ -7435,7 +7440,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="45">
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>1046</v>
       </c>
@@ -7460,7 +7465,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="30">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>1047</v>
       </c>
@@ -7485,7 +7490,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" ht="30">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>92</v>
       </c>
@@ -7510,7 +7515,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>93</v>
       </c>
@@ -7535,7 +7540,7 @@
       </c>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>94</v>
       </c>
@@ -7560,7 +7565,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>95</v>
       </c>
@@ -7585,7 +7590,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>96</v>
       </c>
@@ -7610,7 +7615,7 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="30">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>1051</v>
       </c>
@@ -7635,7 +7640,7 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" ht="30">
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>1052</v>
       </c>
@@ -7660,7 +7665,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="30">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>97</v>
       </c>
@@ -7685,7 +7690,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>98</v>
       </c>
@@ -7710,7 +7715,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="45">
+    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>99</v>
       </c>
@@ -7737,7 +7742,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="90">
+    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>100</v>
       </c>
@@ -7764,7 +7769,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="45">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
         <v>101</v>
       </c>
@@ -7791,7 +7796,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>102</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="45">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
         <v>103</v>
       </c>
@@ -7845,7 +7850,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="45">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
         <v>104</v>
       </c>
@@ -7872,7 +7877,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>1056</v>
       </c>
@@ -7899,7 +7904,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>105</v>
       </c>
@@ -7926,7 +7931,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
         <v>106</v>
       </c>
@@ -7951,7 +7956,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="30">
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
         <v>107</v>
       </c>
@@ -7976,7 +7981,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="30">
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>108</v>
       </c>
@@ -8001,7 +8006,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" ht="45">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>109</v>
       </c>
@@ -8028,7 +8033,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>110</v>
       </c>
@@ -8053,7 +8058,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>111</v>
       </c>
@@ -8078,7 +8083,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>112</v>
       </c>
@@ -8103,7 +8108,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="45">
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>113</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>114</v>
       </c>
@@ -8155,7 +8160,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="45">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>115</v>
       </c>
@@ -8180,7 +8185,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
         <v>116</v>
       </c>
@@ -8205,7 +8210,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="60">
+    <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="28" t="s">
         <v>117</v>
       </c>
@@ -8232,7 +8237,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="45">
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="28" t="s">
         <v>118</v>
       </c>
@@ -8259,7 +8264,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="28" t="s">
         <v>119</v>
       </c>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="45">
+    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>1064</v>
       </c>
@@ -8310,10 +8315,10 @@
         <v>17</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="30">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>120</v>
       </c>
@@ -8338,7 +8343,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>121</v>
       </c>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="I106" s="30"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>122</v>
       </c>
@@ -8390,7 +8395,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>123</v>
       </c>
@@ -8417,7 +8422,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="45">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>124</v>
       </c>
@@ -8444,7 +8449,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>125</v>
       </c>
@@ -8471,7 +8476,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="45">
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>126</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30">
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
         <v>127</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="28" t="s">
         <v>128</v>
       </c>
@@ -8550,7 +8555,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>129</v>
       </c>
@@ -8575,7 +8580,7 @@
       </c>
       <c r="I114" s="30"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>130</v>
       </c>
@@ -8600,7 +8605,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>131</v>
       </c>
@@ -8625,7 +8630,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="45">
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="28" t="s">
         <v>132</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>133</v>
       </c>
@@ -8677,7 +8682,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="28" t="s">
         <v>134</v>
       </c>
@@ -8702,7 +8707,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="28" t="s">
         <v>135</v>
       </c>
@@ -8727,7 +8732,7 @@
       </c>
       <c r="I120" s="30"/>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>1070</v>
       </c>
@@ -8752,7 +8757,7 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>1071</v>
       </c>
@@ -8777,7 +8782,7 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>1072</v>
       </c>
@@ -8802,7 +8807,7 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" ht="30">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>1073</v>
       </c>
@@ -8827,7 +8832,7 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="360">
+    <row r="125" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>136</v>
       </c>
@@ -8854,7 +8859,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="195">
+    <row r="126" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="28" t="s">
         <v>137</v>
       </c>
@@ -8881,7 +8886,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
         <v>138</v>
       </c>
@@ -8906,7 +8911,7 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="135">
+    <row r="128" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
         <v>139</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
         <v>140</v>
       </c>
@@ -8958,7 +8963,7 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="135">
+    <row r="130" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
         <v>141</v>
       </c>
@@ -8985,7 +8990,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
         <v>142</v>
       </c>
@@ -9010,7 +9015,7 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
         <v>143</v>
       </c>
@@ -9035,7 +9040,7 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
         <v>144</v>
       </c>
@@ -9060,7 +9065,7 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
         <v>145</v>
       </c>
@@ -9085,7 +9090,7 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="30">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>146</v>
       </c>
@@ -9110,7 +9115,7 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
         <v>147</v>
       </c>
@@ -9135,7 +9140,7 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
         <v>148</v>
       </c>
@@ -9160,7 +9165,7 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="28" t="s">
         <v>149</v>
       </c>
@@ -9185,7 +9190,7 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="28" t="s">
         <v>150</v>
       </c>
@@ -9210,7 +9215,7 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
         <v>1092</v>
       </c>
@@ -9235,7 +9240,7 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" ht="30">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>1093</v>
       </c>
@@ -9260,7 +9265,7 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" ht="30">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>1094</v>
       </c>
@@ -9285,7 +9290,7 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="28" t="s">
         <v>151</v>
       </c>
@@ -9310,7 +9315,7 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="28" t="s">
         <v>152</v>
       </c>
@@ -9335,7 +9340,7 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" ht="30">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>153</v>
       </c>
@@ -9360,7 +9365,7 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
         <v>154</v>
       </c>
@@ -9385,7 +9390,7 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9" ht="30">
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="28" t="s">
         <v>155</v>
       </c>
@@ -9410,7 +9415,7 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
         <v>156</v>
       </c>
@@ -9435,7 +9440,7 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="28" t="s">
         <v>157</v>
       </c>
@@ -9460,7 +9465,7 @@
       </c>
       <c r="I149" s="30"/>
     </row>
-    <row r="150" spans="1:9" ht="45">
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="28" t="s">
         <v>158</v>
       </c>
@@ -9487,7 +9492,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="28" t="s">
         <v>159</v>
       </c>
@@ -9512,7 +9517,7 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="28" t="s">
         <v>160</v>
       </c>
@@ -9537,7 +9542,7 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="105">
+    <row r="153" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A153" s="28" t="s">
         <v>161</v>
       </c>
@@ -9564,7 +9569,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="90">
+    <row r="154" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A154" s="28" t="s">
         <v>162</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>163</v>
       </c>
@@ -9616,7 +9621,7 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="60">
+    <row r="156" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="28" t="s">
         <v>164</v>
       </c>
@@ -9643,7 +9648,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="30">
+    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
         <v>165</v>
       </c>
@@ -9670,7 +9675,7 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="30">
+    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="28" t="s">
         <v>166</v>
       </c>
@@ -9697,7 +9702,7 @@
       </c>
       <c r="I158" s="30"/>
     </row>
-    <row r="159" spans="1:9" ht="90">
+    <row r="159" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
         <v>167</v>
       </c>
@@ -9724,7 +9729,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
         <v>168</v>
       </c>
@@ -9749,7 +9754,7 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="45">
+    <row r="161" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="28" t="s">
         <v>169</v>
       </c>
@@ -9776,7 +9781,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="30">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="28" t="s">
         <v>170</v>
       </c>
@@ -9801,7 +9806,7 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="28" t="s">
         <v>171</v>
       </c>
@@ -9826,7 +9831,7 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" ht="30">
+    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="28" t="s">
         <v>172</v>
       </c>
@@ -9851,7 +9856,7 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="45">
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>173</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="28" t="s">
         <v>174</v>
       </c>
@@ -9907,7 +9912,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="28" t="s">
         <v>175</v>
       </c>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="30">
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="28" t="s">
         <v>176</v>
       </c>
@@ -9957,7 +9962,7 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="90">
+    <row r="169" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="28" t="s">
         <v>177</v>
       </c>
@@ -9984,7 +9989,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="28" t="s">
         <v>178</v>
       </c>
@@ -10011,7 +10016,7 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="28" t="s">
         <v>179</v>
       </c>
@@ -10038,7 +10043,7 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
         <v>180</v>
       </c>
@@ -10065,7 +10070,7 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="28" t="s">
         <v>181</v>
       </c>
@@ -10092,7 +10097,7 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="28" t="s">
         <v>182</v>
       </c>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>183</v>
       </c>
@@ -10142,7 +10147,7 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="90">
+    <row r="176" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="28" t="s">
         <v>184</v>
       </c>
@@ -10169,7 +10174,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="28" t="s">
         <v>185</v>
       </c>
@@ -10196,7 +10201,7 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="30">
+    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="28" t="s">
         <v>186</v>
       </c>
@@ -10223,7 +10228,7 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="28" t="s">
         <v>187</v>
       </c>
@@ -10250,7 +10255,7 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="30">
+    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="28" t="s">
         <v>188</v>
       </c>
@@ -10277,7 +10282,7 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="28" t="s">
         <v>189</v>
       </c>
@@ -10302,7 +10307,7 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="28" t="s">
         <v>190</v>
       </c>
@@ -10327,7 +10332,7 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="90">
+    <row r="183" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="28" t="s">
         <v>191</v>
       </c>
@@ -10354,7 +10359,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
         <v>192</v>
       </c>
@@ -10381,7 +10386,7 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
         <v>193</v>
       </c>
@@ -10408,7 +10413,7 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="28" t="s">
         <v>194</v>
       </c>
@@ -10435,7 +10440,7 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="30">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="28" t="s">
         <v>195</v>
       </c>
@@ -10462,7 +10467,7 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="28" t="s">
         <v>196</v>
       </c>
@@ -10487,7 +10492,7 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="28" t="s">
         <v>197</v>
       </c>
@@ -10512,7 +10517,7 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="75">
+    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="28" t="s">
         <v>198</v>
       </c>
@@ -10539,7 +10544,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="28" t="s">
         <v>199</v>
       </c>
@@ -10566,7 +10571,7 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="30">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="28" t="s">
         <v>200</v>
       </c>
@@ -10593,7 +10598,7 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="28" t="s">
         <v>201</v>
       </c>
@@ -10620,7 +10625,7 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="28" t="s">
         <v>202</v>
       </c>
@@ -10645,7 +10650,7 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="28" t="s">
         <v>203</v>
       </c>
@@ -10670,7 +10675,7 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="75">
+    <row r="196" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
         <v>204</v>
       </c>
@@ -10697,7 +10702,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="30">
+    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="28" t="s">
         <v>205</v>
       </c>
@@ -10724,7 +10729,7 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="30">
+    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>206</v>
       </c>
@@ -10751,7 +10756,7 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="30">
+    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>207</v>
       </c>
@@ -10778,7 +10783,7 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>208</v>
       </c>
@@ -10803,7 +10808,7 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="21" t="s">
         <v>209</v>
       </c>
@@ -10828,7 +10833,7 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="75">
+    <row r="202" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="21" t="s">
         <v>1155</v>
       </c>
@@ -10855,7 +10860,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="45">
+    <row r="203" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
         <v>1156</v>
       </c>
@@ -10866,7 +10871,7 @@
         <v>1162</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>19</v>
@@ -10882,7 +10887,7 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="45">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
         <v>1157</v>
       </c>
@@ -10893,7 +10898,7 @@
         <v>1161</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>19</v>
@@ -10909,7 +10914,7 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
         <v>1158</v>
       </c>
@@ -10920,7 +10925,7 @@
         <v>1160</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>19</v>
@@ -10936,7 +10941,7 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>210</v>
       </c>
@@ -10961,7 +10966,7 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>211</v>
       </c>
@@ -10986,7 +10991,7 @@
       </c>
       <c r="I207" s="30"/>
     </row>
-    <row r="208" spans="1:9" ht="75">
+    <row r="208" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
         <v>212</v>
       </c>
@@ -11013,7 +11018,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="28" t="s">
         <v>213</v>
       </c>
@@ -11040,7 +11045,7 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="30">
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
         <v>214</v>
       </c>
@@ -11067,7 +11072,7 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="28" t="s">
         <v>215</v>
       </c>
@@ -11094,7 +11099,7 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="45">
+    <row r="212" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
         <v>216</v>
       </c>
@@ -11119,7 +11124,7 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="21" t="s">
         <v>1175</v>
       </c>
@@ -11144,7 +11149,7 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="75">
+    <row r="214" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A214" s="28" t="s">
         <v>217</v>
       </c>
@@ -11171,7 +11176,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30">
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="28" t="s">
         <v>218</v>
       </c>
@@ -11198,7 +11203,7 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="30">
+    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="28" t="s">
         <v>219</v>
       </c>
@@ -11225,7 +11230,7 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="30">
+    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="28" t="s">
         <v>220</v>
       </c>
@@ -11252,7 +11257,7 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="28" t="s">
         <v>221</v>
       </c>
@@ -11277,7 +11282,7 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="28" t="s">
         <v>222</v>
       </c>
@@ -11302,7 +11307,7 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="60">
+    <row r="220" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
         <v>223</v>
       </c>
@@ -11329,7 +11334,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="28" t="s">
         <v>224</v>
       </c>
@@ -11356,7 +11361,7 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="30">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="28" t="s">
         <v>225</v>
       </c>
@@ -11383,7 +11388,7 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="28" t="s">
         <v>226</v>
       </c>
@@ -11410,7 +11415,7 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="28" t="s">
         <v>227</v>
       </c>
@@ -11435,7 +11440,7 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="28" t="s">
         <v>228</v>
       </c>
@@ -11460,7 +11465,7 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="60">
+    <row r="226" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="28" t="s">
         <v>229</v>
       </c>
@@ -11487,7 +11492,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="45">
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="28" t="s">
         <v>230</v>
       </c>
@@ -11514,7 +11519,7 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="28" t="s">
         <v>231</v>
       </c>
@@ -11541,7 +11546,7 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="28" t="s">
         <v>232</v>
       </c>
@@ -11568,7 +11573,7 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="28" t="s">
         <v>233</v>
       </c>
@@ -11593,7 +11598,7 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="30">
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="28" t="s">
         <v>234</v>
       </c>
@@ -11618,7 +11623,7 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="75">
+    <row r="232" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
         <v>235</v>
       </c>
@@ -11645,7 +11650,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="28" t="s">
         <v>236</v>
       </c>
@@ -11672,7 +11677,7 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="28" t="s">
         <v>237</v>
       </c>
@@ -11699,7 +11704,7 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="45">
+    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="28" t="s">
         <v>238</v>
       </c>
@@ -11726,7 +11731,7 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="45">
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="28" t="s">
         <v>239</v>
       </c>
@@ -11753,7 +11758,7 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="30">
+    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="28" t="s">
         <v>240</v>
       </c>
@@ -11780,7 +11785,7 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="28" t="s">
         <v>241</v>
       </c>
@@ -11805,7 +11810,7 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="30">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="28" t="s">
         <v>242</v>
       </c>
@@ -11830,7 +11835,7 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="75">
+    <row r="240" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="28" t="s">
         <v>243</v>
       </c>
@@ -11857,7 +11862,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="30">
+    <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="28" t="s">
         <v>244</v>
       </c>
@@ -11884,7 +11889,7 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="30">
+    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="28" t="s">
         <v>245</v>
       </c>
@@ -11911,7 +11916,7 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="30">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
         <v>246</v>
       </c>
@@ -11938,7 +11943,7 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
         <v>247</v>
       </c>
@@ -11963,7 +11968,7 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="30">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
         <v>248</v>
       </c>
@@ -11988,7 +11993,7 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="75">
+    <row r="246" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="28" t="s">
         <v>249</v>
       </c>
@@ -12015,7 +12020,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="45">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="28" t="s">
         <v>250</v>
       </c>
@@ -12042,7 +12047,7 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="45">
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="28" t="s">
         <v>251</v>
       </c>
@@ -12069,7 +12074,7 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="30">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="28" t="s">
         <v>252</v>
       </c>
@@ -12096,7 +12101,7 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="28" t="s">
         <v>253</v>
       </c>
@@ -12121,7 +12126,7 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="30">
+    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="28" t="s">
         <v>254</v>
       </c>
@@ -12146,7 +12151,7 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="60">
+    <row r="252" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="28" t="s">
         <v>255</v>
       </c>
@@ -12173,7 +12178,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="45">
+    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="28" t="s">
         <v>256</v>
       </c>
@@ -12200,7 +12205,7 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="45">
+    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="28" t="s">
         <v>257</v>
       </c>
@@ -12227,7 +12232,7 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="28" t="s">
         <v>258</v>
       </c>
@@ -12254,7 +12259,7 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
         <v>259</v>
       </c>
@@ -12279,7 +12284,7 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="30">
+    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="28" t="s">
         <v>260</v>
       </c>
@@ -12304,7 +12309,7 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="75">
+    <row r="258" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="28" t="s">
         <v>261</v>
       </c>
@@ -12331,7 +12336,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="30">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="28" t="s">
         <v>262</v>
       </c>
@@ -12358,7 +12363,7 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="30">
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="28" t="s">
         <v>263</v>
       </c>
@@ -12385,7 +12390,7 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="30">
+    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="28" t="s">
         <v>264</v>
       </c>
@@ -12412,7 +12417,7 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="60">
+    <row r="262" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="28" t="s">
         <v>265</v>
       </c>
@@ -12439,7 +12444,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="30">
+    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="28" t="s">
         <v>266</v>
       </c>
@@ -12464,7 +12469,7 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9" ht="30">
+    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
         <v>267</v>
       </c>
@@ -12489,7 +12494,7 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="30">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="28" t="s">
         <v>268</v>
       </c>
@@ -12516,7 +12521,7 @@
       </c>
       <c r="I265" s="30"/>
     </row>
-    <row r="266" spans="1:9" ht="30">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="28" t="s">
         <v>269</v>
       </c>
@@ -12543,7 +12548,7 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="28" t="s">
         <v>270</v>
       </c>
@@ -12570,7 +12575,7 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
         <v>271</v>
       </c>
@@ -12595,7 +12600,7 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="28" t="s">
         <v>272</v>
       </c>
@@ -12620,7 +12625,7 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="30">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="28" t="s">
         <v>273</v>
       </c>
@@ -12645,7 +12650,7 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="30">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="28" t="s">
         <v>274</v>
       </c>
@@ -12672,7 +12677,7 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="30">
+    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="28" t="s">
         <v>275</v>
       </c>
@@ -12699,7 +12704,7 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="28" t="s">
         <v>276</v>
       </c>
@@ -12724,7 +12729,7 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="30">
+    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="28" t="s">
         <v>277</v>
       </c>
@@ -12732,7 +12737,7 @@
         <v>1068</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -12749,7 +12754,7 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
         <v>278</v>
       </c>
@@ -12774,7 +12779,7 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="30">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="28" t="s">
         <v>279</v>
       </c>
@@ -12801,7 +12806,7 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="30">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="28" t="s">
         <v>280</v>
       </c>
@@ -12828,7 +12833,7 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="28" t="s">
         <v>281</v>
       </c>
@@ -12853,7 +12858,7 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="60">
+    <row r="279" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="21" t="s">
         <v>282</v>
       </c>
@@ -12877,10 +12882,10 @@
         <v>17</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="60">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
         <v>283</v>
       </c>
@@ -12907,7 +12912,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="45">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="28" t="s">
         <v>284</v>
       </c>
@@ -12934,7 +12939,7 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="45">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="28" t="s">
         <v>285</v>
       </c>
@@ -12961,7 +12966,7 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="28" t="s">
         <v>286</v>
       </c>
@@ -12986,7 +12991,7 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="30">
+    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
         <v>287</v>
       </c>
@@ -13011,7 +13016,7 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="28" t="s">
         <v>288</v>
       </c>
@@ -13036,7 +13041,7 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="30">
+    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="28" t="s">
         <v>289</v>
       </c>
@@ -13061,7 +13066,7 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="60">
+    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="28" t="s">
         <v>290</v>
       </c>
@@ -13088,7 +13093,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="30">
+    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="28" t="s">
         <v>291</v>
       </c>
@@ -13115,7 +13120,7 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="30">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="28" t="s">
         <v>292</v>
       </c>
@@ -13142,7 +13147,7 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="30">
+    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="28" t="s">
         <v>293</v>
       </c>
@@ -13167,7 +13172,7 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="30">
+    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="28" t="s">
         <v>294</v>
       </c>
@@ -13192,7 +13197,7 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
         <v>295</v>
       </c>
@@ -13217,7 +13222,7 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="60">
+    <row r="293" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="28" t="s">
         <v>296</v>
       </c>
@@ -13244,7 +13249,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="28" t="s">
         <v>297</v>
       </c>
@@ -13271,7 +13276,7 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="30">
+    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="28" t="s">
         <v>298</v>
       </c>
@@ -13298,7 +13303,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" ht="45">
+    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="28" t="s">
         <v>299</v>
       </c>
@@ -13323,7 +13328,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="30">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="28" t="s">
         <v>300</v>
       </c>
@@ -13348,7 +13353,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="45">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="28" t="s">
         <v>301</v>
       </c>
@@ -13373,7 +13378,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="60">
+    <row r="299" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="28" t="s">
         <v>302</v>
       </c>
@@ -13398,7 +13403,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="21" t="s">
         <v>303</v>
       </c>
@@ -13423,7 +13428,7 @@
       </c>
       <c r="I300" s="19"/>
     </row>
-    <row r="301" spans="1:9" ht="45">
+    <row r="301" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="28" t="s">
         <v>304</v>
       </c>
@@ -13448,7 +13453,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="45">
+    <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="28" t="s">
         <v>305</v>
       </c>
@@ -13475,7 +13480,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="30">
+    <row r="303" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="21" t="s">
         <v>306</v>
       </c>
@@ -13500,7 +13505,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="60">
+    <row r="304" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
         <v>307</v>
       </c>
@@ -13527,7 +13532,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="30">
+    <row r="305" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="28" t="s">
         <v>308</v>
       </c>
@@ -13552,7 +13557,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="28" t="s">
         <v>309</v>
       </c>
@@ -13577,7 +13582,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="30">
+    <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="28" t="s">
         <v>310</v>
       </c>
@@ -13602,7 +13607,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="30">
+    <row r="308" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>311</v>
       </c>
@@ -13627,7 +13632,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="45">
+    <row r="309" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="28" t="s">
         <v>312</v>
       </c>
@@ -13652,7 +13657,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" ht="30">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="28" t="s">
         <v>313</v>
       </c>
@@ -13677,7 +13682,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="60">
+    <row r="311" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A311" s="28" t="s">
         <v>314</v>
       </c>
@@ -13704,7 +13709,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="60">
+    <row r="312" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="28" t="s">
         <v>315</v>
       </c>
@@ -13729,7 +13734,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="60">
+    <row r="313" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="28" t="s">
         <v>316</v>
       </c>
@@ -13754,7 +13759,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="60">
+    <row r="314" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="28" t="s">
         <v>317</v>
       </c>
@@ -13779,7 +13784,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="60">
+    <row r="315" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="28" t="s">
         <v>318</v>
       </c>
@@ -13804,7 +13809,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="60">
+    <row r="316" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
         <v>319</v>
       </c>
@@ -13829,7 +13834,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="60">
+    <row r="317" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="28" t="s">
         <v>320</v>
       </c>
@@ -13854,7 +13859,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="45">
+    <row r="318" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="28" t="s">
         <v>321</v>
       </c>
@@ -13879,7 +13884,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="60">
+    <row r="319" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="28" t="s">
         <v>322</v>
       </c>
@@ -13904,7 +13909,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="60">
+    <row r="320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="28" t="s">
         <v>323</v>
       </c>
@@ -13929,7 +13934,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="28" t="s">
         <v>324</v>
       </c>
@@ -13956,7 +13961,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="45">
+    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="28" t="s">
         <v>325</v>
       </c>
@@ -13981,7 +13986,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="45">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
         <v>326</v>
       </c>
@@ -14008,7 +14013,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="90">
+    <row r="324" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A324" s="28" t="s">
         <v>327</v>
       </c>
@@ -14035,7 +14040,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="105">
+    <row r="325" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
         <v>328</v>
       </c>
@@ -14060,7 +14065,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="105">
+    <row r="326" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A326" s="28" t="s">
         <v>329</v>
       </c>
@@ -14085,7 +14090,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="105">
+    <row r="327" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A327" s="28" t="s">
         <v>330</v>
       </c>
@@ -14110,7 +14115,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="60">
+    <row r="328" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
         <v>331</v>
       </c>
@@ -14135,7 +14140,7 @@
       </c>
       <c r="I328" s="30"/>
     </row>
-    <row r="329" spans="1:9" ht="60">
+    <row r="329" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A329" s="28" t="s">
         <v>332</v>
       </c>
@@ -14160,7 +14165,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9" ht="60">
+    <row r="330" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="28" t="s">
         <v>333</v>
       </c>
@@ -14185,7 +14190,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="30">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="28" t="s">
         <v>334</v>
       </c>
@@ -14210,7 +14215,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="28" t="s">
         <v>335</v>
       </c>
@@ -14237,7 +14242,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="45">
+    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
         <v>336</v>
       </c>
@@ -14264,7 +14269,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="45">
+    <row r="334" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="21" t="s">
         <v>337</v>
       </c>
@@ -14289,7 +14294,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="45">
+    <row r="335" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
         <v>338</v>
       </c>
@@ -14314,7 +14319,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="60">
+    <row r="336" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="28" t="s">
         <v>339</v>
       </c>
@@ -14341,7 +14346,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="45">
+    <row r="337" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A337" s="28" t="s">
         <v>340</v>
       </c>
@@ -14368,7 +14373,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="28" t="s">
         <v>341</v>
       </c>
@@ -14395,7 +14400,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="28" t="s">
         <v>342</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
         <v>343</v>
       </c>
@@ -14449,7 +14454,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="45">
+    <row r="341" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="28" t="s">
         <v>344</v>
       </c>
@@ -14474,7 +14479,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="45">
+    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="28" t="s">
         <v>345</v>
       </c>
@@ -14501,7 +14506,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="28" t="s">
         <v>346</v>
       </c>
@@ -14528,7 +14533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="28" t="s">
         <v>347</v>
       </c>
@@ -14555,7 +14560,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="45">
+    <row r="345" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="28" t="s">
         <v>348</v>
       </c>
@@ -14582,7 +14587,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="30">
+    <row r="346" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="28" t="s">
         <v>349</v>
       </c>
@@ -14607,7 +14612,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="45">
+    <row r="347" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="28" t="s">
         <v>350</v>
       </c>
@@ -14634,7 +14639,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="45">
+    <row r="348" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="28" t="s">
         <v>351</v>
       </c>
@@ -14659,7 +14664,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="45">
+    <row r="349" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="28" t="s">
         <v>352</v>
       </c>
@@ -14684,7 +14689,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="45">
+    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="28" t="s">
         <v>353</v>
       </c>
@@ -14711,7 +14716,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="90">
+    <row r="351" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="28" t="s">
         <v>354</v>
       </c>
@@ -14736,7 +14741,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="45">
+    <row r="352" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
         <v>355</v>
       </c>
@@ -14763,7 +14768,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="45">
+    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="28" t="s">
         <v>356</v>
       </c>
@@ -14790,7 +14795,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60">
+    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="28" t="s">
         <v>357</v>
       </c>
@@ -14814,10 +14819,10 @@
         <v>17</v>
       </c>
       <c r="I354" s="19" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" ht="45">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="28" t="s">
         <v>358</v>
       </c>
@@ -14842,7 +14847,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="28" t="s">
         <v>359</v>
       </c>
@@ -14867,7 +14872,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="45">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="21" t="s">
         <v>360</v>
       </c>
@@ -14894,7 +14899,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="60">
+    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="28" t="s">
         <v>361</v>
       </c>
@@ -14919,7 +14924,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="45">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="28" t="s">
         <v>362</v>
       </c>
@@ -14944,7 +14949,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="30">
+    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="28" t="s">
         <v>363</v>
       </c>
@@ -14969,7 +14974,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" ht="30">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="28" t="s">
         <v>364</v>
       </c>
@@ -14994,7 +14999,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="45">
+    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="28" t="s">
         <v>365</v>
       </c>
@@ -15021,7 +15026,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="28" t="s">
         <v>366</v>
       </c>
@@ -15048,7 +15053,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="30">
+    <row r="364" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
         <v>367</v>
       </c>
@@ -15073,7 +15078,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="60">
+    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="28" t="s">
         <v>368</v>
       </c>
@@ -15100,7 +15105,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="45">
+    <row r="366" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="28" t="s">
         <v>369</v>
       </c>
@@ -15127,7 +15132,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="21" t="s">
         <v>1032</v>
       </c>
@@ -15154,7 +15159,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60">
+    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="28" t="s">
         <v>370</v>
       </c>
@@ -15181,7 +15186,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="60">
+    <row r="369" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A369" s="28" t="s">
         <v>371</v>
       </c>
@@ -15208,7 +15213,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="28" t="s">
         <v>372</v>
       </c>
@@ -15233,7 +15238,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="30">
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="28" t="s">
         <v>373</v>
       </c>
@@ -15258,7 +15263,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="60">
+    <row r="372" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A372" s="28" t="s">
         <v>374</v>
       </c>
@@ -15285,7 +15290,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="45">
+    <row r="373" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="21" t="s">
         <v>375</v>
       </c>
@@ -15312,7 +15317,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="45">
+    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="28" t="s">
         <v>376</v>
       </c>
@@ -15339,7 +15344,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="45">
+    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="28" t="s">
         <v>377</v>
       </c>
@@ -15366,7 +15371,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="75">
+    <row r="376" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
         <v>378</v>
       </c>
@@ -15393,7 +15398,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="240">
+    <row r="377" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A377" s="28" t="s">
         <v>379</v>
       </c>
@@ -15420,7 +15425,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="28" t="s">
         <v>380</v>
       </c>
@@ -15445,7 +15450,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="30">
+    <row r="379" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="28" t="s">
         <v>381</v>
       </c>
@@ -15470,7 +15475,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="28" t="s">
         <v>382</v>
       </c>
@@ -15495,7 +15500,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="30">
+    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="28" t="s">
         <v>383</v>
       </c>
@@ -15520,7 +15525,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="30">
+    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="28" t="s">
         <v>384</v>
       </c>
@@ -15545,7 +15550,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="60">
+    <row r="383" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="21" t="s">
         <v>385</v>
       </c>
@@ -15570,7 +15575,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="60">
+    <row r="384" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="28" t="s">
         <v>386</v>
       </c>
@@ -15578,7 +15583,7 @@
         <v>603</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -15595,7 +15600,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="60">
+    <row r="385" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="28" t="s">
         <v>387</v>
       </c>
@@ -15603,7 +15608,7 @@
         <v>603</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -15620,7 +15625,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="60">
+    <row r="386" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A386" s="28" t="s">
         <v>388</v>
       </c>
@@ -15628,7 +15633,7 @@
         <v>603</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -15645,7 +15650,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="60">
+    <row r="387" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A387" s="28" t="s">
         <v>389</v>
       </c>
@@ -15653,7 +15658,7 @@
         <v>603</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -15670,7 +15675,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="60">
+    <row r="388" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
         <v>390</v>
       </c>
@@ -15678,7 +15683,7 @@
         <v>603</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -15695,7 +15700,7 @@
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="60">
+    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="28" t="s">
         <v>391</v>
       </c>
@@ -15703,7 +15708,7 @@
         <v>603</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -15720,7 +15725,7 @@
       </c>
       <c r="I389" s="30"/>
     </row>
-    <row r="390" spans="1:9" ht="60">
+    <row r="390" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A390" s="28" t="s">
         <v>392</v>
       </c>
@@ -15728,7 +15733,7 @@
         <v>603</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="28" t="s">
@@ -15745,7 +15750,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="60">
+    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="28" t="s">
         <v>393</v>
       </c>
@@ -15753,7 +15758,7 @@
         <v>603</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -15770,7 +15775,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
+    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="28" t="s">
         <v>394</v>
       </c>
@@ -15795,7 +15800,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="30">
+    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="28" t="s">
         <v>395</v>
       </c>
@@ -15820,7 +15825,7 @@
       </c>
       <c r="I393" s="30"/>
     </row>
-    <row r="394" spans="1:9" ht="45">
+    <row r="394" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="21" t="s">
         <v>396</v>
       </c>
@@ -15845,7 +15850,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="28" t="s">
         <v>397</v>
       </c>
@@ -15870,7 +15875,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A396" s="28" t="s">
         <v>398</v>
       </c>
@@ -15895,7 +15900,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="45">
+    <row r="397" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A397" s="28" t="s">
         <v>399</v>
       </c>
@@ -15920,7 +15925,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="28" t="s">
         <v>400</v>
       </c>
@@ -15945,7 +15950,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="45">
+    <row r="399" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="28" t="s">
         <v>401</v>
       </c>
@@ -15970,7 +15975,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="45">
+    <row r="400" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="28" t="s">
         <v>402</v>
       </c>
@@ -15995,7 +16000,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="28" t="s">
         <v>403</v>
       </c>
@@ -16020,7 +16025,7 @@
       </c>
       <c r="I401" s="30"/>
     </row>
-    <row r="402" spans="1:9" ht="45">
+    <row r="402" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A402" s="28" t="s">
         <v>404</v>
       </c>
@@ -16045,7 +16050,7 @@
       </c>
       <c r="I402" s="30"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="28" t="s">
         <v>405</v>
       </c>
@@ -16070,7 +16075,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="60">
+    <row r="404" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="28" t="s">
         <v>406</v>
       </c>
@@ -16095,7 +16100,7 @@
       </c>
       <c r="I404" s="30"/>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="28" t="s">
         <v>407</v>
       </c>
@@ -16120,7 +16125,7 @@
       </c>
       <c r="I405" s="30"/>
     </row>
-    <row r="406" spans="1:9" ht="30">
+    <row r="406" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="28" t="s">
         <v>408</v>
       </c>
@@ -16145,7 +16150,7 @@
       </c>
       <c r="I406" s="30"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="28" t="s">
         <v>409</v>
       </c>
@@ -16170,7 +16175,7 @@
       </c>
       <c r="I407" s="30"/>
     </row>
-    <row r="408" spans="1:9" ht="45">
+    <row r="408" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="28" t="s">
         <v>410</v>
       </c>
@@ -16195,7 +16200,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="28" t="s">
         <v>411</v>
       </c>
@@ -16220,7 +16225,7 @@
       </c>
       <c r="I409" s="30"/>
     </row>
-    <row r="410" spans="1:9" ht="60">
+    <row r="410" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="28" t="s">
         <v>412</v>
       </c>
@@ -16245,7 +16250,7 @@
       </c>
       <c r="I410" s="30"/>
     </row>
-    <row r="411" spans="1:9" ht="60">
+    <row r="411" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="28" t="s">
         <v>413</v>
       </c>
@@ -16270,7 +16275,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="30">
+    <row r="412" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="28" t="s">
         <v>414</v>
       </c>
@@ -16295,7 +16300,7 @@
       </c>
       <c r="I412" s="30"/>
     </row>
-    <row r="413" spans="1:9" ht="30">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="28" t="s">
         <v>415</v>
       </c>
@@ -16320,7 +16325,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="30">
+    <row r="414" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="28" t="s">
         <v>416</v>
       </c>
@@ -16345,7 +16350,7 @@
       </c>
       <c r="I414" s="30"/>
     </row>
-    <row r="415" spans="1:9" ht="45">
+    <row r="415" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="28" t="s">
         <v>417</v>
       </c>
@@ -16370,7 +16375,7 @@
       </c>
       <c r="I415" s="30"/>
     </row>
-    <row r="416" spans="1:9" ht="45">
+    <row r="416" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="28" t="s">
         <v>418</v>
       </c>
@@ -16395,7 +16400,7 @@
       </c>
       <c r="I416" s="30"/>
     </row>
-    <row r="417" spans="1:9" ht="45">
+    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="28" t="s">
         <v>419</v>
       </c>
@@ -16420,7 +16425,7 @@
       </c>
       <c r="I417" s="30"/>
     </row>
-    <row r="418" spans="1:9" ht="30">
+    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="28" t="s">
         <v>420</v>
       </c>
@@ -16445,7 +16450,7 @@
       </c>
       <c r="I418" s="30"/>
     </row>
-    <row r="419" spans="1:9" ht="45">
+    <row r="419" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="28" t="s">
         <v>421</v>
       </c>
@@ -16470,7 +16475,7 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="45">
+    <row r="420" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="28" t="s">
         <v>422</v>
       </c>
@@ -16495,7 +16500,7 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="45">
+    <row r="421" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="28" t="s">
         <v>423</v>
       </c>
@@ -16520,7 +16525,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="45">
+    <row r="422" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="28" t="s">
         <v>424</v>
       </c>
@@ -16545,7 +16550,7 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9" ht="30">
+    <row r="423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="28" t="s">
         <v>425</v>
       </c>
@@ -16570,7 +16575,7 @@
       </c>
       <c r="I423" s="30"/>
     </row>
-    <row r="424" spans="1:9" ht="45">
+    <row r="424" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="28" t="s">
         <v>426</v>
       </c>
@@ -16595,7 +16600,7 @@
       </c>
       <c r="I424" s="30"/>
     </row>
-    <row r="425" spans="1:9" ht="60">
+    <row r="425" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="28" t="s">
         <v>427</v>
       </c>
@@ -16620,7 +16625,7 @@
       </c>
       <c r="I425" s="30"/>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="28" t="s">
         <v>428</v>
       </c>
@@ -16645,7 +16650,7 @@
       </c>
       <c r="I426" s="30"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="28" t="s">
         <v>429</v>
       </c>
@@ -16670,7 +16675,7 @@
       </c>
       <c r="I427" s="30"/>
     </row>
-    <row r="428" spans="1:9" ht="30">
+    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="28" t="s">
         <v>430</v>
       </c>
@@ -16695,7 +16700,7 @@
       </c>
       <c r="I428" s="30"/>
     </row>
-    <row r="429" spans="1:9" ht="45">
+    <row r="429" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="28" t="s">
         <v>431</v>
       </c>
@@ -16720,7 +16725,7 @@
       </c>
       <c r="I429" s="30"/>
     </row>
-    <row r="430" spans="1:9" ht="60">
+    <row r="430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A430" s="28" t="s">
         <v>432</v>
       </c>
@@ -16745,7 +16750,7 @@
       </c>
       <c r="I430" s="30"/>
     </row>
-    <row r="431" spans="1:9" ht="30">
+    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="28" t="s">
         <v>433</v>
       </c>
@@ -16770,7 +16775,7 @@
       </c>
       <c r="I431" s="30"/>
     </row>
-    <row r="432" spans="1:9" ht="75">
+    <row r="432" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="28" t="s">
         <v>434</v>
       </c>
@@ -16795,7 +16800,7 @@
       </c>
       <c r="I432" s="30"/>
     </row>
-    <row r="433" spans="1:9" ht="30">
+    <row r="433" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="28" t="s">
         <v>435</v>
       </c>
@@ -16820,7 +16825,7 @@
       </c>
       <c r="I433" s="30"/>
     </row>
-    <row r="434" spans="1:9" ht="45">
+    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="28" t="s">
         <v>436</v>
       </c>
@@ -16845,7 +16850,7 @@
       </c>
       <c r="I434" s="30"/>
     </row>
-    <row r="435" spans="1:9" ht="30">
+    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="28" t="s">
         <v>437</v>
       </c>
@@ -16870,7 +16875,7 @@
       </c>
       <c r="I435" s="30"/>
     </row>
-    <row r="436" spans="1:9" ht="30">
+    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="28" t="s">
         <v>438</v>
       </c>
@@ -16895,7 +16900,7 @@
       </c>
       <c r="I436" s="30"/>
     </row>
-    <row r="437" spans="1:9" ht="30">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="28" t="s">
         <v>439</v>
       </c>
@@ -16920,7 +16925,7 @@
       </c>
       <c r="I437" s="30"/>
     </row>
-    <row r="438" spans="1:9" ht="45">
+    <row r="438" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="28" t="s">
         <v>440</v>
       </c>
@@ -16945,7 +16950,7 @@
       </c>
       <c r="I438" s="30"/>
     </row>
-    <row r="439" spans="1:9" ht="60">
+    <row r="439" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="28" t="s">
         <v>441</v>
       </c>
@@ -16970,7 +16975,7 @@
       </c>
       <c r="I439" s="30"/>
     </row>
-    <row r="440" spans="1:9" ht="60">
+    <row r="440" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="28" t="s">
         <v>442</v>
       </c>
@@ -16995,7 +17000,7 @@
       </c>
       <c r="I440" s="30"/>
     </row>
-    <row r="441" spans="1:9" ht="60">
+    <row r="441" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A441" s="28" t="s">
         <v>443</v>
       </c>
@@ -17020,7 +17025,7 @@
       </c>
       <c r="I441" s="30"/>
     </row>
-    <row r="442" spans="1:9" ht="60">
+    <row r="442" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A442" s="28" t="s">
         <v>444</v>
       </c>
@@ -17045,7 +17050,7 @@
       </c>
       <c r="I442" s="30"/>
     </row>
-    <row r="443" spans="1:9" ht="60">
+    <row r="443" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A443" s="28" t="s">
         <v>445</v>
       </c>
@@ -17070,7 +17075,7 @@
       </c>
       <c r="I443" s="30"/>
     </row>
-    <row r="444" spans="1:9" ht="45">
+    <row r="444" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="28" t="s">
         <v>446</v>
       </c>
@@ -17095,7 +17100,7 @@
       </c>
       <c r="I444" s="30"/>
     </row>
-    <row r="445" spans="1:9" ht="60">
+    <row r="445" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="28" t="s">
         <v>447</v>
       </c>
@@ -17120,7 +17125,7 @@
       </c>
       <c r="I445" s="30"/>
     </row>
-    <row r="446" spans="1:9" ht="45">
+    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="28" t="s">
         <v>448</v>
       </c>
@@ -17145,7 +17150,7 @@
       </c>
       <c r="I446" s="30"/>
     </row>
-    <row r="447" spans="1:9" ht="30">
+    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="28" t="s">
         <v>449</v>
       </c>
@@ -17170,7 +17175,7 @@
       </c>
       <c r="I447" s="30"/>
     </row>
-    <row r="448" spans="1:9" ht="60">
+    <row r="448" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="28" t="s">
         <v>450</v>
       </c>
@@ -17195,7 +17200,7 @@
       </c>
       <c r="I448" s="30"/>
     </row>
-    <row r="449" spans="1:9" ht="45">
+    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="28" t="s">
         <v>451</v>
       </c>
@@ -17220,7 +17225,7 @@
       </c>
       <c r="I449" s="30"/>
     </row>
-    <row r="450" spans="1:9" ht="90">
+    <row r="450" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A450" s="28" t="s">
         <v>452</v>
       </c>
@@ -17245,7 +17250,7 @@
       </c>
       <c r="I450" s="30"/>
     </row>
-    <row r="451" spans="1:9" ht="75">
+    <row r="451" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="28" t="s">
         <v>453</v>
       </c>
@@ -17270,7 +17275,7 @@
       </c>
       <c r="I451" s="30"/>
     </row>
-    <row r="452" spans="1:9" ht="30">
+    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="28" t="s">
         <v>454</v>
       </c>
@@ -17295,7 +17300,7 @@
       </c>
       <c r="I452" s="30"/>
     </row>
-    <row r="453" spans="1:9" ht="60">
+    <row r="453" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A453" s="28" t="s">
         <v>455</v>
       </c>
@@ -17320,7 +17325,7 @@
       </c>
       <c r="I453" s="30"/>
     </row>
-    <row r="454" spans="1:9" ht="60">
+    <row r="454" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A454" s="28" t="s">
         <v>456</v>
       </c>
@@ -17345,7 +17350,7 @@
       </c>
       <c r="I454" s="30"/>
     </row>
-    <row r="455" spans="1:9" ht="75">
+    <row r="455" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A455" s="28" t="s">
         <v>457</v>
       </c>
@@ -17370,7 +17375,7 @@
       </c>
       <c r="I455" s="30"/>
     </row>
-    <row r="456" spans="1:9" ht="75">
+    <row r="456" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A456" s="28" t="s">
         <v>458</v>
       </c>
@@ -17395,7 +17400,7 @@
       </c>
       <c r="I456" s="30"/>
     </row>
-    <row r="457" spans="1:9" ht="30">
+    <row r="457" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A457" s="28" t="s">
         <v>459</v>
       </c>
@@ -17420,7 +17425,7 @@
       </c>
       <c r="I457" s="30"/>
     </row>
-    <row r="458" spans="1:9" ht="45">
+    <row r="458" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A458" s="28" t="s">
         <v>460</v>
       </c>
@@ -17445,7 +17450,7 @@
       </c>
       <c r="I458" s="30"/>
     </row>
-    <row r="459" spans="1:9" ht="30">
+    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="28" t="s">
         <v>461</v>
       </c>
@@ -17470,7 +17475,7 @@
       </c>
       <c r="I459" s="30"/>
     </row>
-    <row r="460" spans="1:9" ht="75">
+    <row r="460" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A460" s="28" t="s">
         <v>462</v>
       </c>
@@ -17495,7 +17500,7 @@
       </c>
       <c r="I460" s="30"/>
     </row>
-    <row r="461" spans="1:9" ht="75">
+    <row r="461" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A461" s="28" t="s">
         <v>463</v>
       </c>
@@ -17520,7 +17525,7 @@
       </c>
       <c r="I461" s="30"/>
     </row>
-    <row r="462" spans="1:9" ht="60">
+    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="28" t="s">
         <v>464</v>
       </c>
@@ -17545,7 +17550,7 @@
       </c>
       <c r="I462" s="30"/>
     </row>
-    <row r="463" spans="1:9" ht="60">
+    <row r="463" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A463" s="28" t="s">
         <v>465</v>
       </c>
@@ -17570,7 +17575,7 @@
       </c>
       <c r="I463" s="30"/>
     </row>
-    <row r="464" spans="1:9" ht="75">
+    <row r="464" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="28" t="s">
         <v>466</v>
       </c>
@@ -17595,7 +17600,7 @@
       </c>
       <c r="I464" s="30"/>
     </row>
-    <row r="465" spans="1:9" ht="75">
+    <row r="465" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A465" s="28" t="s">
         <v>467</v>
       </c>
@@ -17620,7 +17625,7 @@
       </c>
       <c r="I465" s="30"/>
     </row>
-    <row r="466" spans="1:9" ht="30">
+    <row r="466" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="28" t="s">
         <v>468</v>
       </c>
@@ -17645,7 +17650,7 @@
       </c>
       <c r="I466" s="30"/>
     </row>
-    <row r="467" spans="1:9" ht="30">
+    <row r="467" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="28" t="s">
         <v>469</v>
       </c>
@@ -17670,7 +17675,7 @@
       </c>
       <c r="I467" s="30"/>
     </row>
-    <row r="468" spans="1:9" ht="60">
+    <row r="468" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="28" t="s">
         <v>470</v>
       </c>
@@ -17695,7 +17700,7 @@
       </c>
       <c r="I468" s="30"/>
     </row>
-    <row r="469" spans="1:9" ht="75">
+    <row r="469" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A469" s="28" t="s">
         <v>471</v>
       </c>
@@ -17720,7 +17725,7 @@
       </c>
       <c r="I469" s="30"/>
     </row>
-    <row r="470" spans="1:9" ht="75">
+    <row r="470" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A470" s="28" t="s">
         <v>472</v>
       </c>
@@ -17745,7 +17750,7 @@
       </c>
       <c r="I470" s="30"/>
     </row>
-    <row r="471" spans="1:9" ht="45">
+    <row r="471" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="28" t="s">
         <v>473</v>
       </c>
@@ -17770,7 +17775,7 @@
       </c>
       <c r="I471" s="30"/>
     </row>
-    <row r="472" spans="1:9" ht="45">
+    <row r="472" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="28" t="s">
         <v>474</v>
       </c>
@@ -17795,7 +17800,7 @@
       </c>
       <c r="I472" s="30"/>
     </row>
-    <row r="473" spans="1:9" ht="45">
+    <row r="473" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A473" s="28" t="s">
         <v>475</v>
       </c>
@@ -17820,7 +17825,7 @@
       </c>
       <c r="I473" s="30"/>
     </row>
-    <row r="474" spans="1:9" ht="30">
+    <row r="474" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="28" t="s">
         <v>476</v>
       </c>
@@ -17845,7 +17850,7 @@
       </c>
       <c r="I474" s="30"/>
     </row>
-    <row r="475" spans="1:9" ht="45">
+    <row r="475" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="28" t="s">
         <v>477</v>
       </c>
@@ -17874,7 +17879,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="30">
+    <row r="476" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="28" t="s">
         <v>478</v>
       </c>
@@ -17901,7 +17906,7 @@
       </c>
       <c r="I476" s="30"/>
     </row>
-    <row r="477" spans="1:9" ht="45">
+    <row r="477" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A477" s="28" t="s">
         <v>479</v>
       </c>
@@ -17928,7 +17933,7 @@
       </c>
       <c r="I477" s="30"/>
     </row>
-    <row r="478" spans="1:9" ht="30">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="28" t="s">
         <v>480</v>
       </c>
@@ -17953,7 +17958,7 @@
       </c>
       <c r="I478" s="30"/>
     </row>
-    <row r="479" spans="1:9" ht="45">
+    <row r="479" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A479" s="28" t="s">
         <v>481</v>
       </c>
@@ -17978,7 +17983,7 @@
       </c>
       <c r="I479" s="30"/>
     </row>
-    <row r="480" spans="1:9" ht="45">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="28" t="s">
         <v>482</v>
       </c>
@@ -18003,7 +18008,7 @@
       </c>
       <c r="I480" s="30"/>
     </row>
-    <row r="481" spans="1:9" ht="45">
+    <row r="481" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="28" t="s">
         <v>483</v>
       </c>
@@ -18032,7 +18037,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45">
+    <row r="482" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="28" t="s">
         <v>484</v>
       </c>
@@ -18059,7 +18064,7 @@
       </c>
       <c r="I482" s="30"/>
     </row>
-    <row r="483" spans="1:9" ht="45">
+    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="28" t="s">
         <v>485</v>
       </c>
@@ -18086,7 +18091,7 @@
       </c>
       <c r="I483" s="30"/>
     </row>
-    <row r="484" spans="1:9" ht="45">
+    <row r="484" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="28" t="s">
         <v>486</v>
       </c>
@@ -18111,7 +18116,7 @@
       </c>
       <c r="I484" s="30"/>
     </row>
-    <row r="485" spans="1:9" ht="45">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="28" t="s">
         <v>487</v>
       </c>
@@ -18136,7 +18141,7 @@
       </c>
       <c r="I485" s="30"/>
     </row>
-    <row r="486" spans="1:9" ht="45">
+    <row r="486" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="28" t="s">
         <v>488</v>
       </c>
@@ -18161,7 +18166,7 @@
       </c>
       <c r="I486" s="30"/>
     </row>
-    <row r="487" spans="1:9" ht="60">
+    <row r="487" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A487" s="28" t="s">
         <v>489</v>
       </c>
@@ -18188,7 +18193,7 @@
       </c>
       <c r="I487" s="30"/>
     </row>
-    <row r="488" spans="1:9" ht="60">
+    <row r="488" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="28" t="s">
         <v>490</v>
       </c>
@@ -18217,7 +18222,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45">
+    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="28" t="s">
         <v>491</v>
       </c>
@@ -18244,7 +18249,7 @@
       </c>
       <c r="I489" s="30"/>
     </row>
-    <row r="490" spans="1:9" ht="45">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="28" t="s">
         <v>492</v>
       </c>
@@ -18273,7 +18278,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="45">
+    <row r="491" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="28" t="s">
         <v>493</v>
       </c>
@@ -18302,7 +18307,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="45">
+    <row r="492" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="28" t="s">
         <v>494</v>
       </c>
@@ -18329,7 +18334,7 @@
       </c>
       <c r="I492" s="30"/>
     </row>
-    <row r="493" spans="1:9" ht="45">
+    <row r="493" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A493" s="28" t="s">
         <v>495</v>
       </c>
@@ -18354,7 +18359,7 @@
       </c>
       <c r="I493" s="30"/>
     </row>
-    <row r="494" spans="1:9" ht="75">
+    <row r="494" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A494" s="28" t="s">
         <v>496</v>
       </c>
@@ -18381,7 +18386,7 @@
       </c>
       <c r="I494" s="30"/>
     </row>
-    <row r="495" spans="1:9" ht="60">
+    <row r="495" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A495" s="28" t="s">
         <v>497</v>
       </c>
@@ -18408,7 +18413,7 @@
       </c>
       <c r="I495" s="30"/>
     </row>
-    <row r="496" spans="1:9" ht="60">
+    <row r="496" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="28" t="s">
         <v>498</v>
       </c>
@@ -18435,7 +18440,7 @@
       </c>
       <c r="I496" s="30"/>
     </row>
-    <row r="497" spans="1:9" ht="30">
+    <row r="497" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="28" t="s">
         <v>499</v>
       </c>
@@ -18460,7 +18465,7 @@
       </c>
       <c r="I497" s="30"/>
     </row>
-    <row r="498" spans="1:9" ht="60">
+    <row r="498" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="28" t="s">
         <v>1028</v>
       </c>
@@ -18468,7 +18473,7 @@
         <v>618</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D498" s="28" t="s">
         <v>910</v>
@@ -18487,15 +18492,15 @@
       </c>
       <c r="I498" s="30"/>
     </row>
-    <row r="499" spans="1:9" ht="45">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="33" t="s">
         <v>1313</v>
       </c>
       <c r="B499" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="C499" s="31" t="s">
-        <v>1315</v>
+      <c r="C499" s="19" t="s">
+        <v>1376</v>
       </c>
       <c r="D499" s="33" t="s">
         <v>1314</v>
@@ -18514,7 +18519,7 @@
       </c>
       <c r="I499" s="31"/>
     </row>
-    <row r="500" spans="1:9" ht="45">
+    <row r="500" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A500" s="33" t="s">
         <v>1312</v>
       </c>
@@ -18522,7 +18527,7 @@
         <v>618</v>
       </c>
       <c r="C500" s="31" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D500" s="33"/>
       <c r="E500" s="28" t="s">
@@ -18539,7 +18544,7 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="45">
+    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="33" t="s">
         <v>1311</v>
       </c>
@@ -18547,7 +18552,7 @@
         <v>618</v>
       </c>
       <c r="C501" s="31" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D501" s="33"/>
       <c r="E501" s="28" t="s">
@@ -18564,7 +18569,7 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="45">
+    <row r="502" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="33" t="s">
         <v>1310</v>
       </c>
@@ -18572,7 +18577,7 @@
         <v>618</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D502" s="33" t="s">
         <v>1314</v>
@@ -18593,7 +18598,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="45">
+    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="21" t="s">
         <v>1308</v>
       </c>
@@ -18622,7 +18627,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30">
+    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="28" t="s">
         <v>500</v>
       </c>
@@ -18649,7 +18654,7 @@
       </c>
       <c r="I504" s="30"/>
     </row>
-    <row r="505" spans="1:9" ht="45">
+    <row r="505" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="28" t="s">
         <v>501</v>
       </c>
@@ -18676,7 +18681,7 @@
       </c>
       <c r="I505" s="30"/>
     </row>
-    <row r="506" spans="1:9" ht="45">
+    <row r="506" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="28" t="s">
         <v>502</v>
       </c>
@@ -18701,7 +18706,7 @@
       </c>
       <c r="I506" s="30"/>
     </row>
-    <row r="507" spans="1:9" ht="45">
+    <row r="507" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="28" t="s">
         <v>503</v>
       </c>
@@ -18726,15 +18731,15 @@
       </c>
       <c r="I507" s="30"/>
     </row>
-    <row r="508" spans="1:9" ht="45">
+    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="28" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B508" s="29" t="s">
         <v>618</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="28" t="s">
@@ -18753,7 +18758,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="30">
+    <row r="509" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="28" t="s">
         <v>504</v>
       </c>
@@ -18778,7 +18783,7 @@
       </c>
       <c r="I509" s="30"/>
     </row>
-    <row r="510" spans="1:9" ht="75">
+    <row r="510" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A510" s="21" t="s">
         <v>505</v>
       </c>
@@ -18807,7 +18812,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="75">
+    <row r="511" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A511" s="28" t="s">
         <v>506</v>
       </c>
@@ -18834,7 +18839,7 @@
       </c>
       <c r="I511" s="30"/>
     </row>
-    <row r="512" spans="1:9" ht="45">
+    <row r="512" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="21" t="s">
         <v>507</v>
       </c>
@@ -18863,7 +18868,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60">
+    <row r="513" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="28" t="s">
         <v>514</v>
       </c>
@@ -18892,18 +18897,18 @@
         <v>967</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="45">
+    <row r="514" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="33" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B514" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D514" s="33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>22</v>
@@ -18921,18 +18926,18 @@
         <v>967</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="45">
+    <row r="515" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="33" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B515" s="34" t="s">
         <v>618</v>
       </c>
       <c r="C515" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D515" s="33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E515" s="28" t="s">
         <v>22</v>
@@ -18950,7 +18955,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="30">
+    <row r="516" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A516" s="28" t="s">
         <v>508</v>
       </c>
@@ -18958,7 +18963,7 @@
         <v>618</v>
       </c>
       <c r="C516" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="28" t="s">
@@ -18975,7 +18980,7 @@
       </c>
       <c r="I516" s="30"/>
     </row>
-    <row r="517" spans="1:9" ht="45">
+    <row r="517" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A517" s="28" t="s">
         <v>509</v>
       </c>
@@ -18983,7 +18988,7 @@
         <v>618</v>
       </c>
       <c r="C517" s="19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="28" t="s">
@@ -19000,7 +19005,7 @@
       </c>
       <c r="I517" s="30"/>
     </row>
-    <row r="518" spans="1:9" ht="45">
+    <row r="518" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="28" t="s">
         <v>510</v>
       </c>
@@ -19008,7 +19013,7 @@
         <v>618</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="28" t="s">
@@ -19025,7 +19030,7 @@
       </c>
       <c r="I518" s="30"/>
     </row>
-    <row r="519" spans="1:9" ht="45">
+    <row r="519" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A519" s="28" t="s">
         <v>511</v>
       </c>
@@ -19033,7 +19038,7 @@
         <v>618</v>
       </c>
       <c r="C519" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D519" s="28"/>
       <c r="E519" s="28" t="s">
@@ -19050,7 +19055,7 @@
       </c>
       <c r="I519" s="30"/>
     </row>
-    <row r="520" spans="1:9" ht="30">
+    <row r="520" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="28" t="s">
         <v>512</v>
       </c>
@@ -19058,7 +19063,7 @@
         <v>618</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D520" s="28"/>
       <c r="E520" s="28" t="s">
@@ -19075,7 +19080,7 @@
       </c>
       <c r="I520" s="30"/>
     </row>
-    <row r="521" spans="1:9" ht="45">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="21" t="s">
         <v>513</v>
       </c>
@@ -19083,7 +19088,7 @@
         <v>618</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D521" s="28"/>
       <c r="E521" s="28" t="s">
@@ -19102,7 +19107,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="75">
+    <row r="522" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A522" s="28" t="s">
         <v>515</v>
       </c>
@@ -19110,7 +19115,7 @@
         <v>618</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D522" s="28" t="s">
         <v>913</v>
@@ -19131,7 +19136,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="75">
+    <row r="523" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A523" s="28" t="s">
         <v>516</v>
       </c>
@@ -19139,7 +19144,7 @@
         <v>618</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D523" s="28" t="s">
         <v>913</v>
@@ -19158,7 +19163,7 @@
       </c>
       <c r="I523" s="30"/>
     </row>
-    <row r="524" spans="1:9" ht="75">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="28" t="s">
         <v>517</v>
       </c>
@@ -19187,7 +19192,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="45">
+    <row r="525" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A525" s="28" t="s">
         <v>518</v>
       </c>
@@ -19216,7 +19221,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="45">
+    <row r="526" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="28" t="s">
         <v>519</v>
       </c>
@@ -19245,7 +19250,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="45">
+    <row r="527" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A527" s="28" t="s">
         <v>520</v>
       </c>
@@ -19274,7 +19279,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="45">
+    <row r="528" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="28" t="s">
         <v>521</v>
       </c>
@@ -19282,7 +19287,7 @@
         <v>618</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D528" s="28" t="s">
         <v>917</v>
@@ -19303,7 +19308,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="45">
+    <row r="529" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A529" s="28" t="s">
         <v>522</v>
       </c>
@@ -19311,7 +19316,7 @@
         <v>618</v>
       </c>
       <c r="C529" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D529" s="28" t="s">
         <v>917</v>
@@ -19330,7 +19335,7 @@
       </c>
       <c r="I529" s="30"/>
     </row>
-    <row r="530" spans="1:9" ht="60">
+    <row r="530" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="28" t="s">
         <v>523</v>
       </c>
@@ -19359,7 +19364,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="60">
+    <row r="531" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A531" s="28" t="s">
         <v>524</v>
       </c>
@@ -19388,7 +19393,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="60">
+    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="28" t="s">
         <v>525</v>
       </c>
@@ -19417,7 +19422,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="60">
+    <row r="533" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A533" s="28" t="s">
         <v>526</v>
       </c>
@@ -19446,7 +19451,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="60">
+    <row r="534" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A534" s="28" t="s">
         <v>527</v>
       </c>
@@ -19475,7 +19480,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="60">
+    <row r="535" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="28" t="s">
         <v>528</v>
       </c>
@@ -19504,7 +19509,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="60">
+    <row r="536" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A536" s="28" t="s">
         <v>529</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="60">
+    <row r="537" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A537" s="28" t="s">
         <v>530</v>
       </c>
@@ -19562,7 +19567,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="45">
+    <row r="538" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="28" t="s">
         <v>531</v>
       </c>
@@ -19591,7 +19596,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="60">
+    <row r="539" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A539" s="28" t="s">
         <v>532</v>
       </c>
@@ -19599,7 +19604,7 @@
         <v>618</v>
       </c>
       <c r="C539" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D539" s="28" t="s">
         <v>926</v>
@@ -19618,7 +19623,7 @@
       </c>
       <c r="I539" s="30"/>
     </row>
-    <row r="540" spans="1:9" ht="45">
+    <row r="540" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A540" s="28" t="s">
         <v>533</v>
       </c>
@@ -19647,7 +19652,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="45">
+    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="28" t="s">
         <v>534</v>
       </c>
@@ -19655,7 +19660,7 @@
         <v>618</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D541" s="28" t="s">
         <v>927</v>
@@ -19674,7 +19679,7 @@
       </c>
       <c r="I541" s="30"/>
     </row>
-    <row r="542" spans="1:9" ht="45">
+    <row r="542" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A542" s="28" t="s">
         <v>535</v>
       </c>
@@ -19703,7 +19708,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="45">
+    <row r="543" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A543" s="28" t="s">
         <v>536</v>
       </c>
@@ -19732,7 +19737,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="45">
+    <row r="544" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A544" s="28" t="s">
         <v>537</v>
       </c>
@@ -19761,7 +19766,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="60">
+    <row r="545" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A545" s="28" t="s">
         <v>538</v>
       </c>
@@ -19790,7 +19795,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="60">
+    <row r="546" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A546" s="28" t="s">
         <v>539</v>
       </c>
@@ -19798,7 +19803,7 @@
         <v>618</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D546" s="28" t="s">
         <v>930</v>
@@ -19817,7 +19822,7 @@
       </c>
       <c r="I546" s="30"/>
     </row>
-    <row r="547" spans="1:9" ht="60">
+    <row r="547" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="28" t="s">
         <v>540</v>
       </c>
@@ -19844,7 +19849,7 @@
       </c>
       <c r="I547" s="30"/>
     </row>
-    <row r="548" spans="1:9" ht="60">
+    <row r="548" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="28" t="s">
         <v>541</v>
       </c>
@@ -19871,7 +19876,7 @@
       </c>
       <c r="I548" s="30"/>
     </row>
-    <row r="549" spans="1:9" ht="60">
+    <row r="549" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="28" t="s">
         <v>542</v>
       </c>
@@ -19879,7 +19884,7 @@
         <v>618</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D549" s="28" t="s">
         <v>930</v>
@@ -19898,7 +19903,7 @@
       </c>
       <c r="I549" s="30"/>
     </row>
-    <row r="550" spans="1:9" ht="45">
+    <row r="550" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="28" t="s">
         <v>543</v>
       </c>
@@ -19925,7 +19930,7 @@
       </c>
       <c r="I550" s="30"/>
     </row>
-    <row r="551" spans="1:9" ht="45">
+    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="28" t="s">
         <v>544</v>
       </c>
@@ -19954,7 +19959,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="45">
+    <row r="552" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A552" s="28" t="s">
         <v>545</v>
       </c>
@@ -19983,7 +19988,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="60">
+    <row r="553" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A553" s="28" t="s">
         <v>546</v>
       </c>
@@ -20012,7 +20017,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="45">
+    <row r="554" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A554" s="21" t="s">
         <v>1031</v>
       </c>
@@ -20041,7 +20046,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="60">
+    <row r="555" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A555" s="21" t="s">
         <v>1030</v>
       </c>
@@ -20070,7 +20075,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="75">
+    <row r="556" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A556" s="28" t="s">
         <v>547</v>
       </c>
@@ -20099,7 +20104,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="45">
+    <row r="557" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A557" s="28" t="s">
         <v>548</v>
       </c>
@@ -20128,7 +20133,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="45">
+    <row r="558" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A558" s="28" t="s">
         <v>549</v>
       </c>
@@ -20157,7 +20162,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60">
+    <row r="559" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A559" s="28" t="s">
         <v>550</v>
       </c>
@@ -20184,7 +20189,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="60">
+    <row r="560" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A560" s="28" t="s">
         <v>551</v>
       </c>
@@ -20209,7 +20214,7 @@
       </c>
       <c r="I560" s="30"/>
     </row>
-    <row r="561" spans="1:9" ht="60">
+    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="28" t="s">
         <v>552</v>
       </c>
@@ -20236,7 +20241,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="60">
+    <row r="562" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A562" s="28" t="s">
         <v>553</v>
       </c>
@@ -20261,7 +20266,7 @@
       </c>
       <c r="I562" s="30"/>
     </row>
-    <row r="563" spans="1:9" ht="60">
+    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="28" t="s">
         <v>554</v>
       </c>
@@ -20269,7 +20274,7 @@
         <v>618</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D563" s="28"/>
       <c r="E563" s="28" t="s">
@@ -20288,7 +20293,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="60">
+    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="28" t="s">
         <v>555</v>
       </c>
@@ -20296,7 +20301,7 @@
         <v>618</v>
       </c>
       <c r="C564" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D564" s="28"/>
       <c r="E564" s="28" t="s">
@@ -20313,7 +20318,7 @@
       </c>
       <c r="I564" s="30"/>
     </row>
-    <row r="565" spans="1:9" ht="45">
+    <row r="565" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A565" s="28" t="s">
         <v>556</v>
       </c>
@@ -20321,7 +20326,7 @@
         <v>618</v>
       </c>
       <c r="C565" s="19" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D565" s="28"/>
       <c r="E565" s="28" t="s">
@@ -20338,7 +20343,7 @@
       </c>
       <c r="I565" s="30"/>
     </row>
-    <row r="566" spans="1:9" ht="45">
+    <row r="566" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="28" t="s">
         <v>557</v>
       </c>
@@ -20346,7 +20351,7 @@
         <v>618</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D566" s="28"/>
       <c r="E566" s="28" t="s">
@@ -20363,7 +20368,7 @@
       </c>
       <c r="I566" s="30"/>
     </row>
-    <row r="567" spans="1:9" ht="45">
+    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="28" t="s">
         <v>558</v>
       </c>
@@ -20371,7 +20376,7 @@
         <v>618</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D567" s="28"/>
       <c r="E567" s="28" t="s">
@@ -20388,7 +20393,7 @@
       </c>
       <c r="I567" s="30"/>
     </row>
-    <row r="568" spans="1:9" ht="45">
+    <row r="568" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A568" s="28" t="s">
         <v>559</v>
       </c>
@@ -20417,7 +20422,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45">
+    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" s="28" t="s">
         <v>560</v>
       </c>
@@ -20446,7 +20451,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="30">
+    <row r="570" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A570" s="28" t="s">
         <v>561</v>
       </c>
@@ -20454,7 +20459,7 @@
         <v>618</v>
       </c>
       <c r="C570" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D570" s="28"/>
       <c r="E570" s="28" t="s">
@@ -20471,7 +20476,7 @@
       </c>
       <c r="I570" s="30"/>
     </row>
-    <row r="571" spans="1:9" ht="45">
+    <row r="571" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="28" t="s">
         <v>562</v>
       </c>
@@ -20479,7 +20484,7 @@
         <v>618</v>
       </c>
       <c r="C571" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D571" s="28"/>
       <c r="E571" s="28" t="s">
@@ -20496,7 +20501,7 @@
       </c>
       <c r="I571" s="30"/>
     </row>
-    <row r="572" spans="1:9" ht="45">
+    <row r="572" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="28" t="s">
         <v>563</v>
       </c>
@@ -20504,7 +20509,7 @@
         <v>618</v>
       </c>
       <c r="C572" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D572" s="28"/>
       <c r="E572" s="28" t="s">
@@ -20521,7 +20526,7 @@
       </c>
       <c r="I572" s="30"/>
     </row>
-    <row r="573" spans="1:9" ht="45">
+    <row r="573" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A573" s="28" t="s">
         <v>564</v>
       </c>
@@ -20529,7 +20534,7 @@
         <v>618</v>
       </c>
       <c r="C573" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
@@ -20546,7 +20551,7 @@
       </c>
       <c r="I573" s="30"/>
     </row>
-    <row r="574" spans="1:9" ht="30">
+    <row r="574" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="28" t="s">
         <v>565</v>
       </c>
@@ -20554,7 +20559,7 @@
         <v>618</v>
       </c>
       <c r="C574" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D574" s="28"/>
       <c r="E574" s="28" t="s">
@@ -20571,7 +20576,7 @@
       </c>
       <c r="I574" s="30"/>
     </row>
-    <row r="575" spans="1:9" ht="30">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="28" t="s">
         <v>566</v>
       </c>
@@ -20579,7 +20584,7 @@
         <v>618</v>
       </c>
       <c r="C575" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D575" s="28"/>
       <c r="E575" s="28" t="s">
@@ -20598,7 +20603,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="28" t="s">
         <v>567</v>
       </c>
@@ -20606,7 +20611,7 @@
         <v>618</v>
       </c>
       <c r="C576" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D576" s="28"/>
       <c r="E576" s="28" t="s">
@@ -20623,7 +20628,7 @@
       </c>
       <c r="I576" s="30"/>
     </row>
-    <row r="577" spans="1:9" ht="45">
+    <row r="577" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="28" t="s">
         <v>568</v>
       </c>
@@ -20631,7 +20636,7 @@
         <v>618</v>
       </c>
       <c r="C577" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D577" s="28"/>
       <c r="E577" s="28" t="s">
@@ -20648,7 +20653,7 @@
       </c>
       <c r="I577" s="30"/>
     </row>
-    <row r="578" spans="1:9" ht="30">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="28" t="s">
         <v>569</v>
       </c>
@@ -20656,7 +20661,7 @@
         <v>618</v>
       </c>
       <c r="C578" s="19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D578" s="28"/>
       <c r="E578" s="28" t="s">
@@ -20673,7 +20678,7 @@
       </c>
       <c r="I578" s="30"/>
     </row>
-    <row r="579" spans="1:9" ht="45">
+    <row r="579" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A579" s="28" t="s">
         <v>570</v>
       </c>
@@ -20681,7 +20686,7 @@
         <v>618</v>
       </c>
       <c r="C579" s="19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D579" s="28"/>
       <c r="E579" s="28" t="s">
@@ -20698,7 +20703,7 @@
       </c>
       <c r="I579" s="30"/>
     </row>
-    <row r="580" spans="1:9" ht="30">
+    <row r="580" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="28" t="s">
         <v>571</v>
       </c>
@@ -20706,7 +20711,7 @@
         <v>618</v>
       </c>
       <c r="C580" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D580" s="28"/>
       <c r="E580" s="28" t="s">
@@ -20723,7 +20728,7 @@
       </c>
       <c r="I580" s="30"/>
     </row>
-    <row r="581" spans="1:9" ht="30">
+    <row r="581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="21" t="s">
         <v>1024</v>
       </c>
@@ -20731,7 +20736,7 @@
         <v>618</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D581" s="28"/>
       <c r="E581" s="28" t="s">
@@ -20750,7 +20755,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="45">
+    <row r="582" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="21" t="s">
         <v>1025</v>
       </c>
@@ -20777,7 +20782,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="90">
+    <row r="583" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A583" s="21" t="s">
         <v>1027</v>
       </c>
@@ -20785,7 +20790,7 @@
         <v>618</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D583" s="28"/>
       <c r="E583" s="28" t="s">
@@ -20804,7 +20809,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="60">
+    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="28" t="s">
         <v>572</v>
       </c>
@@ -20812,7 +20817,7 @@
         <v>619</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D584" s="28"/>
       <c r="E584" s="28" t="s">
@@ -20831,7 +20836,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="60">
+    <row r="585" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A585" s="28" t="s">
         <v>573</v>
       </c>
@@ -20839,7 +20844,7 @@
         <v>620</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D585" s="28"/>
       <c r="E585" s="28" t="s">
@@ -20858,12 +20863,17 @@
         <v>954</v>
       </c>
     </row>
-    <row r="586" spans="1:9">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="3"/>
       <c r="B586" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20871,11 +20881,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
@@ -21080,7 +21085,7 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B111:B586 B19:B110 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B111:B586 B19:B110" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81190CA7-941D-4805-8F29-D2EE007CFE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0E583-E305-4D85-939F-D1D7A29B707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -3326,9 +3326,6 @@
   </si>
   <si>
     <t>MS-OXCNOTIF_R40002</t>
-  </si>
-  <si>
-    <t>[In RopRegisterNotification ROP Request Buffer] [NotificationTypes value] 0x0080: The server sends notifications to the client when SearchComplete events occur within the scope of interest.</t>
   </si>
   <si>
     <t>[In RopRegisterNotification ROP Request Buffer] This field [Reserved] is optional [and is present only if the Extended (0x0400) flag is set in the NotificationTypes field.]</t>
@@ -4421,20 +4418,23 @@
     <t>MS-OXCNOTIF_R17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[In RopRegisterNotification ROP Request Buffer] [NotificationTypes value] 0x0080: The server sends notifications to the client when SearchCompleted events occur within the scope of interest.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4627,13 +4627,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4666,7 +4666,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4697,21 +4697,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4736,9 +4721,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
     <dxf>
@@ -5508,7 +5508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5831,25 +5831,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.21875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>1017</v>
       </c>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1018</v>
       </c>
@@ -5868,12 +5868,12 @@
       <c r="E2" s="8"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>26</v>
@@ -5882,123 +5882,123 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:9" ht="21">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
         <v>8</v>
       </c>
@@ -6008,14 +6008,14 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
@@ -6025,14 +6025,14 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -6042,14 +6042,14 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
         <v>3</v>
       </c>
@@ -6059,60 +6059,60 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="41" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="22" customFormat="1" ht="45">
       <c r="A20" s="21" t="s">
         <v>42</v>
       </c>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="30">
       <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="22" customFormat="1" ht="45">
       <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="30">
       <c r="A23" s="21" t="s">
         <v>45</v>
       </c>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="22" customFormat="1">
       <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:11" s="22" customFormat="1" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="22" customFormat="1" ht="135">
       <c r="A25" s="21" t="s">
         <v>47</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="22" customFormat="1" ht="30">
       <c r="A26" s="21" t="s">
         <v>48</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="22" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="22" customFormat="1" ht="75">
       <c r="A27" s="21" t="s">
         <v>49</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="22" customFormat="1" ht="45">
       <c r="A28" s="21" t="s">
         <v>50</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="22" customFormat="1" ht="30">
       <c r="A29" s="21" t="s">
         <v>51</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="22" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="22" customFormat="1" ht="45">
       <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:11" s="22" customFormat="1" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="22" customFormat="1" ht="135">
       <c r="A31" s="21" t="s">
         <v>53</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="22" customFormat="1">
       <c r="A32" s="21" t="s">
         <v>54</v>
       </c>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="22" customFormat="1">
       <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="28" t="s">
         <v>56</v>
       </c>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="28" t="s">
         <v>57</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="28" t="s">
         <v>58</v>
       </c>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="28" t="s">
         <v>59</v>
       </c>
@@ -6605,15 +6605,15 @@
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="21" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>575</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="I38" s="30"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="28" t="s">
         <v>60</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="28" t="s">
         <v>61</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="28" t="s">
         <v>62</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="120">
       <c r="A42" s="28" t="s">
         <v>63</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="28" t="s">
         <v>64</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="28" t="s">
         <v>65</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="28" t="s">
         <v>66</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="30">
       <c r="A46" s="28" t="s">
         <v>67</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="28" t="s">
         <v>68</v>
       </c>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="28" t="s">
         <v>69</v>
       </c>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="I48" s="30"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="28" t="s">
         <v>70</v>
       </c>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="21" t="s">
         <v>1032</v>
       </c>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="60">
       <c r="A51" s="28" t="s">
         <v>71</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="28" t="s">
         <v>72</v>
       </c>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="28" t="s">
         <v>73</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="28" t="s">
         <v>74</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="28" t="s">
         <v>75</v>
       </c>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="28" t="s">
         <v>76</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="28" t="s">
         <v>77</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="28" t="s">
         <v>78</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="28" t="s">
         <v>79</v>
       </c>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="I59" s="30"/>
     </row>
-    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="28" t="s">
         <v>80</v>
       </c>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="28" t="s">
         <v>81</v>
       </c>
@@ -7214,10 +7214,10 @@
         <v>17</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="28" t="s">
         <v>82</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="135">
       <c r="A63" s="21" t="s">
         <v>83</v>
       </c>
@@ -7266,10 +7266,10 @@
         <v>17</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="28" t="s">
         <v>84</v>
       </c>
@@ -7294,7 +7294,7 @@
       </c>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="45">
       <c r="A65" s="28" t="s">
         <v>85</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="45">
       <c r="A66" s="28" t="s">
         <v>86</v>
       </c>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="28" t="s">
         <v>87</v>
       </c>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I67" s="30"/>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="45">
       <c r="A68" s="28" t="s">
         <v>88</v>
       </c>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="28" t="s">
         <v>89</v>
       </c>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="28" t="s">
         <v>90</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>579</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1046</v>
+        <v>1377</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="I70" s="30"/>
     </row>
-    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="45">
       <c r="A71" s="33" t="s">
         <v>1044</v>
       </c>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="33" t="s">
         <v>1045</v>
       </c>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="28" t="s">
         <v>91</v>
       </c>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="I73" s="30"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="28" t="s">
         <v>92</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="I74" s="30"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="28" t="s">
         <v>93</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="I75" s="30"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="28" t="s">
         <v>94</v>
       </c>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="I76" s="30"/>
     </row>
-    <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="28" t="s">
         <v>95</v>
       </c>
@@ -7619,15 +7619,15 @@
       </c>
       <c r="I77" s="30"/>
     </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>579</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D78" s="33"/>
       <c r="E78" s="28" t="s">
@@ -7644,15 +7644,15 @@
       </c>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="21" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>579</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="28" t="s">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="28" t="s">
         <v>96</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>579</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28" t="s">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="I80" s="30"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="28" t="s">
         <v>97</v>
       </c>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="I81" s="30"/>
     </row>
-    <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="45">
       <c r="A82" s="28" t="s">
         <v>98</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>579</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="28" t="s">
@@ -7746,7 +7746,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="90">
       <c r="A83" s="21" t="s">
         <v>99</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>580</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28" t="s">
@@ -7770,10 +7770,10 @@
         <v>17</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="45">
       <c r="A84" s="28" t="s">
         <v>100</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="28" t="s">
         <v>101</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="28" t="s">
         <v>102</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="45">
       <c r="A87" s="28" t="s">
         <v>103</v>
       </c>
@@ -7881,15 +7881,15 @@
         <v>949</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="45">
       <c r="A88" s="33" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>580</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="33" t="s">
@@ -7908,7 +7908,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="60">
       <c r="A89" s="28" t="s">
         <v>104</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>581</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="s">
@@ -7935,7 +7935,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="28" t="s">
         <v>105</v>
       </c>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="I90" s="30"/>
     </row>
-    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="28" t="s">
         <v>106</v>
       </c>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I91" s="30"/>
     </row>
-    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="28" t="s">
         <v>107</v>
       </c>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="I92" s="30"/>
     </row>
-    <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="45">
       <c r="A93" s="28" t="s">
         <v>108</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>582</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="s">
@@ -8037,7 +8037,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="28" t="s">
         <v>109</v>
       </c>
@@ -8062,7 +8062,7 @@
       </c>
       <c r="I94" s="30"/>
     </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="28" t="s">
         <v>110</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="I95" s="30"/>
     </row>
-    <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="28" t="s">
         <v>111</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="I96" s="30"/>
     </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="28" t="s">
         <v>112</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>583</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28" t="s">
@@ -8139,7 +8139,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="28" t="s">
         <v>113</v>
       </c>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="I98" s="30"/>
     </row>
-    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" s="28" t="s">
         <v>114</v>
       </c>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="I99" s="30"/>
     </row>
-    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="28" t="s">
         <v>115</v>
       </c>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="I100" s="30"/>
     </row>
-    <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="60">
       <c r="A101" s="28" t="s">
         <v>116</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="45">
       <c r="A102" s="28" t="s">
         <v>117</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>584</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="28" t="s">
@@ -8268,7 +8268,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="28" t="s">
         <v>118</v>
       </c>
@@ -8295,15 +8295,15 @@
       </c>
       <c r="I103" s="30"/>
     </row>
-    <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="45">
       <c r="A104" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>584</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33" t="s">
@@ -8319,10 +8319,10 @@
         <v>17</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="28" t="s">
         <v>119</v>
       </c>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="I105" s="30"/>
     </row>
-    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="28" t="s">
         <v>120</v>
       </c>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="I106" s="30"/>
     </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="28" t="s">
         <v>121</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="28" t="s">
         <v>122</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="45">
       <c r="A109" s="28" t="s">
         <v>123</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="28" t="s">
         <v>124</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="I110" s="30"/>
     </row>
-    <row r="111" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="45">
       <c r="A111" s="28" t="s">
         <v>125</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>586</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="28" t="s">
@@ -8507,7 +8507,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="28" t="s">
         <v>126</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="28" t="s">
         <v>127</v>
       </c>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="28" t="s">
         <v>128</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="I114" s="30"/>
     </row>
-    <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="28" t="s">
         <v>129</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="28" t="s">
         <v>130</v>
       </c>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="28" t="s">
         <v>131</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="28" t="s">
         <v>132</v>
       </c>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="28" t="s">
         <v>133</v>
       </c>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="28" t="s">
         <v>134</v>
       </c>
@@ -8736,15 +8736,15 @@
       </c>
       <c r="I120" s="30"/>
     </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="21" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B121" s="29" t="s">
         <v>587</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D121" s="33"/>
       <c r="E121" s="28" t="s">
@@ -8761,15 +8761,15 @@
       </c>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="21" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B122" s="29" t="s">
         <v>587</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D122" s="33"/>
       <c r="E122" s="28" t="s">
@@ -8786,15 +8786,15 @@
       </c>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="21" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B123" s="29" t="s">
         <v>587</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D123" s="33"/>
       <c r="E123" s="28" t="s">
@@ -8811,15 +8811,15 @@
       </c>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="21" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D124" s="33"/>
       <c r="E124" s="28" t="s">
@@ -8836,15 +8836,15 @@
       </c>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="360">
       <c r="A125" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="28" t="s">
@@ -8863,15 +8863,15 @@
         <v>957</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="195">
       <c r="A126" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="28" t="s">
@@ -8890,15 +8890,15 @@
         <v>958</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="28" t="s">
@@ -8915,15 +8915,15 @@
       </c>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="135">
       <c r="A128" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="28" t="s">
@@ -8942,15 +8942,15 @@
         <v>959</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28" t="s">
@@ -8967,15 +8967,15 @@
       </c>
       <c r="I129" s="30"/>
     </row>
-    <row r="130" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="135">
       <c r="A130" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="28" t="s">
@@ -8994,15 +8994,15 @@
         <v>959</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="28" t="s">
@@ -9019,15 +9019,15 @@
       </c>
       <c r="I131" s="30"/>
     </row>
-    <row r="132" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="28" t="s">
@@ -9044,15 +9044,15 @@
       </c>
       <c r="I132" s="30"/>
     </row>
-    <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28" t="s">
@@ -9069,15 +9069,15 @@
       </c>
       <c r="I133" s="30"/>
     </row>
-    <row r="134" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="28" t="s">
@@ -9094,15 +9094,15 @@
       </c>
       <c r="I134" s="30"/>
     </row>
-    <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="28" t="s">
@@ -9119,15 +9119,15 @@
       </c>
       <c r="I135" s="30"/>
     </row>
-    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="28" t="s">
@@ -9144,15 +9144,15 @@
       </c>
       <c r="I136" s="30"/>
     </row>
-    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="28" t="s">
@@ -9169,15 +9169,15 @@
       </c>
       <c r="I137" s="30"/>
     </row>
-    <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="28" t="s">
@@ -9194,15 +9194,15 @@
       </c>
       <c r="I138" s="30"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="28" t="s">
@@ -9219,15 +9219,15 @@
       </c>
       <c r="I139" s="30"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="21" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D140" s="33"/>
       <c r="E140" s="28" t="s">
@@ -9244,15 +9244,15 @@
       </c>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="28" t="s">
@@ -9269,15 +9269,15 @@
       </c>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B142" s="34" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>1092</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>1093</v>
       </c>
       <c r="D142" s="33"/>
       <c r="E142" s="28" t="s">
@@ -9294,15 +9294,15 @@
       </c>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="28" t="s">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="I143" s="30"/>
     </row>
-    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="28" t="s">
@@ -9344,15 +9344,15 @@
       </c>
       <c r="I144" s="30"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="28" t="s">
@@ -9369,15 +9369,15 @@
       </c>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="28" t="s">
@@ -9394,15 +9394,15 @@
       </c>
       <c r="I146" s="30"/>
     </row>
-    <row r="147" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="28" t="s">
@@ -9419,15 +9419,15 @@
       </c>
       <c r="I147" s="30"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="28" t="s">
@@ -9444,15 +9444,15 @@
       </c>
       <c r="I148" s="30"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="28" t="s">
@@ -9469,15 +9469,15 @@
       </c>
       <c r="I149" s="30"/>
     </row>
-    <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="28" t="s">
@@ -9496,15 +9496,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="28" t="s">
@@ -9521,15 +9521,15 @@
       </c>
       <c r="I151" s="30"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="28" t="s">
@@ -9546,15 +9546,15 @@
       </c>
       <c r="I152" s="30"/>
     </row>
-    <row r="153" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="105">
       <c r="A153" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="28" t="s">
@@ -9573,15 +9573,15 @@
         <v>961</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="90">
       <c r="A154" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="28" t="s">
@@ -9600,15 +9600,15 @@
         <v>962</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="28" t="s">
@@ -9625,15 +9625,15 @@
       </c>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="60">
       <c r="A156" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="28" t="s">
@@ -9652,15 +9652,15 @@
         <v>963</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D157" s="28" t="s">
         <v>882</v>
@@ -9679,15 +9679,15 @@
       </c>
       <c r="I157" s="30"/>
     </row>
-    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D158" s="28" t="s">
         <v>882</v>
@@ -9706,15 +9706,15 @@
       </c>
       <c r="I158" s="30"/>
     </row>
-    <row r="159" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="90">
       <c r="A159" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="28" t="s">
@@ -9733,15 +9733,15 @@
         <v>962</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="28" t="s">
@@ -9758,15 +9758,15 @@
       </c>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="45">
       <c r="A161" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="28" t="s">
@@ -9785,15 +9785,15 @@
         <v>965</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="28" t="s">
@@ -9810,15 +9810,15 @@
       </c>
       <c r="I162" s="30"/>
     </row>
-    <row r="163" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="28" t="s">
@@ -9835,15 +9835,15 @@
       </c>
       <c r="I163" s="30"/>
     </row>
-    <row r="164" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="28" t="s">
@@ -9860,15 +9860,15 @@
       </c>
       <c r="I164" s="30"/>
     </row>
-    <row r="165" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="28" t="s">
         <v>172</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="28" t="s">
@@ -9887,15 +9887,15 @@
         <v>964</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="45">
       <c r="A166" s="28" t="s">
         <v>173</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>883</v>
@@ -9916,15 +9916,15 @@
         <v>965</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="28" t="s">
         <v>174</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28" t="s">
@@ -9941,15 +9941,15 @@
       </c>
       <c r="I167" s="30"/>
     </row>
-    <row r="168" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="30">
       <c r="A168" s="28" t="s">
         <v>175</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D168" s="28"/>
       <c r="E168" s="28" t="s">
@@ -9966,15 +9966,15 @@
       </c>
       <c r="I168" s="30"/>
     </row>
-    <row r="169" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="90">
       <c r="A169" s="28" t="s">
         <v>176</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="28" t="s">
@@ -9993,15 +9993,15 @@
         <v>966</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="28" t="s">
         <v>177</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>884</v>
@@ -10020,15 +10020,15 @@
       </c>
       <c r="I170" s="30"/>
     </row>
-    <row r="171" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="28" t="s">
         <v>178</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>884</v>
@@ -10047,15 +10047,15 @@
       </c>
       <c r="I171" s="30"/>
     </row>
-    <row r="172" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="28" t="s">
         <v>179</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>884</v>
@@ -10074,15 +10074,15 @@
       </c>
       <c r="I172" s="30"/>
     </row>
-    <row r="173" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="28" t="s">
         <v>180</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>884</v>
@@ -10101,15 +10101,15 @@
       </c>
       <c r="I173" s="30"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="28" t="s">
         <v>181</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="28" t="s">
@@ -10126,15 +10126,15 @@
       </c>
       <c r="I174" s="30"/>
     </row>
-    <row r="175" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="28" t="s">
         <v>182</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="28" t="s">
@@ -10151,15 +10151,15 @@
       </c>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="90">
       <c r="A176" s="28" t="s">
         <v>183</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="28" t="s">
@@ -10178,15 +10178,15 @@
         <v>967</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="28" t="s">
         <v>184</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D177" s="28" t="s">
         <v>885</v>
@@ -10205,15 +10205,15 @@
       </c>
       <c r="I177" s="30"/>
     </row>
-    <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="30">
       <c r="A178" s="28" t="s">
         <v>185</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>885</v>
@@ -10232,15 +10232,15 @@
       </c>
       <c r="I178" s="30"/>
     </row>
-    <row r="179" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="28" t="s">
         <v>186</v>
       </c>
       <c r="B179" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>885</v>
@@ -10259,15 +10259,15 @@
       </c>
       <c r="I179" s="30"/>
     </row>
-    <row r="180" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="30">
       <c r="A180" s="28" t="s">
         <v>187</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>885</v>
@@ -10286,15 +10286,15 @@
       </c>
       <c r="I180" s="30"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" s="28" t="s">
         <v>188</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="28" t="s">
@@ -10311,15 +10311,15 @@
       </c>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D182" s="28"/>
       <c r="E182" s="28" t="s">
@@ -10336,15 +10336,15 @@
       </c>
       <c r="I182" s="30"/>
     </row>
-    <row r="183" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="90">
       <c r="A183" s="28" t="s">
         <v>190</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D183" s="28"/>
       <c r="E183" s="28" t="s">
@@ -10363,15 +10363,15 @@
         <v>968</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="28" t="s">
         <v>191</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D184" s="28" t="s">
         <v>886</v>
@@ -10390,15 +10390,15 @@
       </c>
       <c r="I184" s="30"/>
     </row>
-    <row r="185" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>886</v>
@@ -10417,15 +10417,15 @@
       </c>
       <c r="I185" s="30"/>
     </row>
-    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="28" t="s">
         <v>193</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D186" s="28" t="s">
         <v>886</v>
@@ -10444,15 +10444,15 @@
       </c>
       <c r="I186" s="30"/>
     </row>
-    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="30">
       <c r="A187" s="28" t="s">
         <v>194</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>886</v>
@@ -10471,15 +10471,15 @@
       </c>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="28" t="s">
@@ -10496,15 +10496,15 @@
       </c>
       <c r="I188" s="30"/>
     </row>
-    <row r="189" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="28" t="s">
         <v>196</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="28" t="s">
@@ -10521,15 +10521,15 @@
       </c>
       <c r="I189" s="30"/>
     </row>
-    <row r="190" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="75">
       <c r="A190" s="28" t="s">
         <v>197</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="28" t="s">
@@ -10548,15 +10548,15 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="28" t="s">
         <v>198</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D191" s="28" t="s">
         <v>887</v>
@@ -10575,15 +10575,15 @@
       </c>
       <c r="I191" s="30"/>
     </row>
-    <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="30">
       <c r="A192" s="28" t="s">
         <v>199</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D192" s="28" t="s">
         <v>887</v>
@@ -10602,15 +10602,15 @@
       </c>
       <c r="I192" s="30"/>
     </row>
-    <row r="193" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="28" t="s">
         <v>200</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D193" s="28" t="s">
         <v>887</v>
@@ -10629,15 +10629,15 @@
       </c>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" s="28" t="s">
         <v>201</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D194" s="28"/>
       <c r="E194" s="28" t="s">
@@ -10654,15 +10654,15 @@
       </c>
       <c r="I194" s="30"/>
     </row>
-    <row r="195" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="28" t="s">
         <v>202</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D195" s="28"/>
       <c r="E195" s="28" t="s">
@@ -10679,15 +10679,15 @@
       </c>
       <c r="I195" s="30"/>
     </row>
-    <row r="196" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="75">
       <c r="A196" s="28" t="s">
         <v>203</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D196" s="28"/>
       <c r="E196" s="28" t="s">
@@ -10706,15 +10706,15 @@
         <v>970</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="28" t="s">
         <v>204</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>888</v>
@@ -10733,15 +10733,15 @@
       </c>
       <c r="I197" s="30"/>
     </row>
-    <row r="198" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="28" t="s">
         <v>205</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>888</v>
@@ -10760,15 +10760,15 @@
       </c>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="28" t="s">
         <v>206</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D199" s="28" t="s">
         <v>888</v>
@@ -10787,15 +10787,15 @@
       </c>
       <c r="I199" s="30"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="28" t="s">
         <v>207</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D200" s="28"/>
       <c r="E200" s="28" t="s">
@@ -10812,15 +10812,15 @@
       </c>
       <c r="I200" s="30"/>
     </row>
-    <row r="201" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="21" t="s">
         <v>208</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D201" s="28"/>
       <c r="E201" s="28" t="s">
@@ -10837,15 +10837,15 @@
       </c>
       <c r="I201" s="30"/>
     </row>
-    <row r="202" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="75">
       <c r="A202" s="21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D202" s="21"/>
       <c r="E202" s="28" t="s">
@@ -10861,21 +10861,21 @@
         <v>17</v>
       </c>
       <c r="I202" s="31" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="45">
       <c r="A203" s="33" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E203" s="28" t="s">
         <v>19</v>
@@ -10891,18 +10891,18 @@
       </c>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="45">
       <c r="A204" s="33" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E204" s="28" t="s">
         <v>19</v>
@@ -10918,18 +10918,18 @@
       </c>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>19</v>
@@ -10945,15 +10945,15 @@
       </c>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" s="28" t="s">
         <v>209</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D206" s="28"/>
       <c r="E206" s="28" t="s">
@@ -10970,15 +10970,15 @@
       </c>
       <c r="I206" s="30"/>
     </row>
-    <row r="207" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D207" s="28"/>
       <c r="E207" s="28" t="s">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="I207" s="30"/>
     </row>
-    <row r="208" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="75">
       <c r="A208" s="28" t="s">
         <v>211</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D208" s="28"/>
       <c r="E208" s="28" t="s">
@@ -11022,15 +11022,15 @@
         <v>971</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="28" t="s">
         <v>212</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>889</v>
@@ -11049,15 +11049,15 @@
       </c>
       <c r="I209" s="30"/>
     </row>
-    <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="28" t="s">
         <v>213</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D210" s="28" t="s">
         <v>889</v>
@@ -11076,15 +11076,15 @@
       </c>
       <c r="I210" s="30"/>
     </row>
-    <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="28" t="s">
         <v>214</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D211" s="28" t="s">
         <v>889</v>
@@ -11103,15 +11103,15 @@
       </c>
       <c r="I211" s="30"/>
     </row>
-    <row r="212" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="45">
       <c r="A212" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
@@ -11128,15 +11128,15 @@
       </c>
       <c r="I212" s="30"/>
     </row>
-    <row r="213" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
@@ -11153,15 +11153,15 @@
       </c>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="75">
       <c r="A214" s="28" t="s">
         <v>216</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D214" s="28"/>
       <c r="E214" s="28" t="s">
@@ -11180,15 +11180,15 @@
         <v>972</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="28" t="s">
         <v>217</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D215" s="28" t="s">
         <v>890</v>
@@ -11207,15 +11207,15 @@
       </c>
       <c r="I215" s="30"/>
     </row>
-    <row r="216" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="28" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D216" s="28" t="s">
         <v>890</v>
@@ -11234,15 +11234,15 @@
       </c>
       <c r="I216" s="30"/>
     </row>
-    <row r="217" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D217" s="28" t="s">
         <v>890</v>
@@ -11261,15 +11261,15 @@
       </c>
       <c r="I217" s="30"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" s="28" t="s">
         <v>220</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D218" s="28"/>
       <c r="E218" s="28" t="s">
@@ -11286,15 +11286,15 @@
       </c>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="28" t="s">
         <v>221</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D219" s="28"/>
       <c r="E219" s="28" t="s">
@@ -11311,15 +11311,15 @@
       </c>
       <c r="I219" s="30"/>
     </row>
-    <row r="220" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="60">
       <c r="A220" s="28" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D220" s="28"/>
       <c r="E220" s="28" t="s">
@@ -11338,15 +11338,15 @@
         <v>973</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="28" t="s">
         <v>223</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D221" s="28" t="s">
         <v>891</v>
@@ -11365,15 +11365,15 @@
       </c>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="28" t="s">
         <v>224</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D222" s="28" t="s">
         <v>891</v>
@@ -11392,15 +11392,15 @@
       </c>
       <c r="I222" s="30"/>
     </row>
-    <row r="223" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="28" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D223" s="28" t="s">
         <v>891</v>
@@ -11419,15 +11419,15 @@
       </c>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D224" s="28"/>
       <c r="E224" s="28" t="s">
@@ -11444,15 +11444,15 @@
       </c>
       <c r="I224" s="30"/>
     </row>
-    <row r="225" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="28" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D225" s="28"/>
       <c r="E225" s="28" t="s">
@@ -11469,15 +11469,15 @@
       </c>
       <c r="I225" s="30"/>
     </row>
-    <row r="226" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="60">
       <c r="A226" s="28" t="s">
         <v>228</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D226" s="28"/>
       <c r="E226" s="28" t="s">
@@ -11496,15 +11496,15 @@
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="45">
       <c r="A227" s="28" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D227" s="28" t="s">
         <v>892</v>
@@ -11523,15 +11523,15 @@
       </c>
       <c r="I227" s="30"/>
     </row>
-    <row r="228" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="28" t="s">
         <v>230</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>892</v>
@@ -11550,15 +11550,15 @@
       </c>
       <c r="I228" s="30"/>
     </row>
-    <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="28" t="s">
         <v>231</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>892</v>
@@ -11577,15 +11577,15 @@
       </c>
       <c r="I229" s="30"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" s="28" t="s">
         <v>232</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D230" s="28"/>
       <c r="E230" s="28" t="s">
@@ -11602,15 +11602,15 @@
       </c>
       <c r="I230" s="30"/>
     </row>
-    <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="28" t="s">
         <v>233</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D231" s="28"/>
       <c r="E231" s="28" t="s">
@@ -11627,15 +11627,15 @@
       </c>
       <c r="I231" s="30"/>
     </row>
-    <row r="232" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="75">
       <c r="A232" s="28" t="s">
         <v>234</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D232" s="28"/>
       <c r="E232" s="28" t="s">
@@ -11654,15 +11654,15 @@
         <v>975</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="45">
       <c r="A233" s="28" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>893</v>
@@ -11681,15 +11681,15 @@
       </c>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="45">
       <c r="A234" s="28" t="s">
         <v>236</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D234" s="28" t="s">
         <v>893</v>
@@ -11708,15 +11708,15 @@
       </c>
       <c r="I234" s="30"/>
     </row>
-    <row r="235" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="45">
       <c r="A235" s="28" t="s">
         <v>237</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D235" s="28" t="s">
         <v>893</v>
@@ -11735,15 +11735,15 @@
       </c>
       <c r="I235" s="30"/>
     </row>
-    <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="45">
       <c r="A236" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D236" s="28" t="s">
         <v>893</v>
@@ -11762,15 +11762,15 @@
       </c>
       <c r="I236" s="30"/>
     </row>
-    <row r="237" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="28" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D237" s="28" t="s">
         <v>893</v>
@@ -11789,15 +11789,15 @@
       </c>
       <c r="I237" s="30"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" s="28" t="s">
         <v>240</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D238" s="28"/>
       <c r="E238" s="28" t="s">
@@ -11814,15 +11814,15 @@
       </c>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="30">
       <c r="A239" s="28" t="s">
         <v>241</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D239" s="28"/>
       <c r="E239" s="28" t="s">
@@ -11839,15 +11839,15 @@
       </c>
       <c r="I239" s="30"/>
     </row>
-    <row r="240" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="75">
       <c r="A240" s="28" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D240" s="28"/>
       <c r="E240" s="28" t="s">
@@ -11866,15 +11866,15 @@
         <v>976</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="28" t="s">
         <v>243</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D241" s="28" t="s">
         <v>894</v>
@@ -11893,15 +11893,15 @@
       </c>
       <c r="I241" s="30"/>
     </row>
-    <row r="242" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="28" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D242" s="28" t="s">
         <v>894</v>
@@ -11920,15 +11920,15 @@
       </c>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="28" t="s">
         <v>245</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D243" s="28" t="s">
         <v>894</v>
@@ -11947,15 +11947,15 @@
       </c>
       <c r="I243" s="30"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" s="28" t="s">
         <v>246</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D244" s="28"/>
       <c r="E244" s="28" t="s">
@@ -11972,15 +11972,15 @@
       </c>
       <c r="I244" s="30"/>
     </row>
-    <row r="245" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="28" t="s">
         <v>247</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D245" s="28"/>
       <c r="E245" s="28" t="s">
@@ -11997,15 +11997,15 @@
       </c>
       <c r="I245" s="30"/>
     </row>
-    <row r="246" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="75">
       <c r="A246" s="28" t="s">
         <v>248</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D246" s="28"/>
       <c r="E246" s="28" t="s">
@@ -12024,15 +12024,15 @@
         <v>977</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="45">
       <c r="A247" s="28" t="s">
         <v>249</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D247" s="28" t="s">
         <v>895</v>
@@ -12051,15 +12051,15 @@
       </c>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="45">
       <c r="A248" s="28" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D248" s="28" t="s">
         <v>895</v>
@@ -12078,15 +12078,15 @@
       </c>
       <c r="I248" s="30"/>
     </row>
-    <row r="249" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="28" t="s">
         <v>251</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D249" s="28" t="s">
         <v>895</v>
@@ -12105,15 +12105,15 @@
       </c>
       <c r="I249" s="30"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9">
       <c r="A250" s="28" t="s">
         <v>252</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D250" s="28"/>
       <c r="E250" s="28" t="s">
@@ -12130,15 +12130,15 @@
       </c>
       <c r="I250" s="30"/>
     </row>
-    <row r="251" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="28" t="s">
         <v>253</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D251" s="28"/>
       <c r="E251" s="28" t="s">
@@ -12155,15 +12155,15 @@
       </c>
       <c r="I251" s="30"/>
     </row>
-    <row r="252" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="60">
       <c r="A252" s="28" t="s">
         <v>254</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D252" s="28"/>
       <c r="E252" s="28" t="s">
@@ -12182,15 +12182,15 @@
         <v>978</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="45">
       <c r="A253" s="28" t="s">
         <v>255</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D253" s="28" t="s">
         <v>896</v>
@@ -12209,15 +12209,15 @@
       </c>
       <c r="I253" s="30"/>
     </row>
-    <row r="254" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="45">
       <c r="A254" s="28" t="s">
         <v>256</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D254" s="28" t="s">
         <v>896</v>
@@ -12236,15 +12236,15 @@
       </c>
       <c r="I254" s="30"/>
     </row>
-    <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="28" t="s">
         <v>257</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D255" s="28" t="s">
         <v>896</v>
@@ -12263,15 +12263,15 @@
       </c>
       <c r="I255" s="30"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" s="28" t="s">
         <v>258</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D256" s="28"/>
       <c r="E256" s="28" t="s">
@@ -12288,15 +12288,15 @@
       </c>
       <c r="I256" s="30"/>
     </row>
-    <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="28" t="s">
         <v>259</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D257" s="28"/>
       <c r="E257" s="28" t="s">
@@ -12313,15 +12313,15 @@
       </c>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="75">
       <c r="A258" s="28" t="s">
         <v>260</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D258" s="28"/>
       <c r="E258" s="28" t="s">
@@ -12340,15 +12340,15 @@
         <v>979</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="28" t="s">
         <v>261</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D259" s="28" t="s">
         <v>897</v>
@@ -12367,15 +12367,15 @@
       </c>
       <c r="I259" s="30"/>
     </row>
-    <row r="260" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="28" t="s">
         <v>262</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>897</v>
@@ -12394,15 +12394,15 @@
       </c>
       <c r="I260" s="30"/>
     </row>
-    <row r="261" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="28" t="s">
         <v>263</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D261" s="28" t="s">
         <v>897</v>
@@ -12421,15 +12421,15 @@
       </c>
       <c r="I261" s="30"/>
     </row>
-    <row r="262" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="60">
       <c r="A262" s="28" t="s">
         <v>264</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D262" s="28"/>
       <c r="E262" s="28" t="s">
@@ -12448,15 +12448,15 @@
         <v>980</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="28" t="s">
         <v>265</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D263" s="28"/>
       <c r="E263" s="28" t="s">
@@ -12473,15 +12473,15 @@
       </c>
       <c r="I263" s="30"/>
     </row>
-    <row r="264" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="30">
       <c r="A264" s="28" t="s">
         <v>266</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D264" s="28"/>
       <c r="E264" s="28" t="s">
@@ -12498,15 +12498,15 @@
       </c>
       <c r="I264" s="30"/>
     </row>
-    <row r="265" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="28" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D265" s="28" t="s">
         <v>898</v>
@@ -12525,15 +12525,15 @@
       </c>
       <c r="I265" s="30"/>
     </row>
-    <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="28" t="s">
         <v>268</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D266" s="28" t="s">
         <v>898</v>
@@ -12552,15 +12552,15 @@
       </c>
       <c r="I266" s="30"/>
     </row>
-    <row r="267" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="28" t="s">
         <v>269</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D267" s="28" t="s">
         <v>898</v>
@@ -12579,15 +12579,15 @@
       </c>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="28" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D268" s="28"/>
       <c r="E268" s="28" t="s">
@@ -12604,15 +12604,15 @@
       </c>
       <c r="I268" s="30"/>
     </row>
-    <row r="269" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="28" t="s">
         <v>271</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D269" s="28"/>
       <c r="E269" s="28" t="s">
@@ -12629,15 +12629,15 @@
       </c>
       <c r="I269" s="30"/>
     </row>
-    <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="28" t="s">
         <v>272</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D270" s="28"/>
       <c r="E270" s="28" t="s">
@@ -12654,15 +12654,15 @@
       </c>
       <c r="I270" s="30"/>
     </row>
-    <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="28" t="s">
         <v>273</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D271" s="28" t="s">
         <v>899</v>
@@ -12681,15 +12681,15 @@
       </c>
       <c r="I271" s="30"/>
     </row>
-    <row r="272" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="28" t="s">
         <v>274</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D272" s="28" t="s">
         <v>899</v>
@@ -12708,15 +12708,15 @@
       </c>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="28" t="s">
         <v>275</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D273" s="28"/>
       <c r="E273" s="28" t="s">
@@ -12733,15 +12733,15 @@
       </c>
       <c r="I273" s="30"/>
     </row>
-    <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="28" t="s">
         <v>276</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D274" s="28"/>
       <c r="E274" s="28" t="s">
@@ -12758,15 +12758,15 @@
       </c>
       <c r="I274" s="30"/>
     </row>
-    <row r="275" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="28" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D275" s="28"/>
       <c r="E275" s="28" t="s">
@@ -12783,15 +12783,15 @@
       </c>
       <c r="I275" s="30"/>
     </row>
-    <row r="276" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="28" t="s">
         <v>278</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D276" s="28" t="s">
         <v>900</v>
@@ -12810,15 +12810,15 @@
       </c>
       <c r="I276" s="30"/>
     </row>
-    <row r="277" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="28" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D277" s="28" t="s">
         <v>900</v>
@@ -12837,15 +12837,15 @@
       </c>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="28" t="s">
         <v>280</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D278" s="28"/>
       <c r="E278" s="28" t="s">
@@ -12862,15 +12862,15 @@
       </c>
       <c r="I278" s="30"/>
     </row>
-    <row r="279" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="60">
       <c r="A279" s="21" t="s">
         <v>281</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D279" s="28"/>
       <c r="E279" s="28" t="s">
@@ -12886,18 +12886,18 @@
         <v>17</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="60">
       <c r="A280" s="28" t="s">
         <v>282</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D280" s="28"/>
       <c r="E280" s="28" t="s">
@@ -12916,15 +12916,15 @@
         <v>981</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="45">
       <c r="A281" s="28" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D281" s="28" t="s">
         <v>901</v>
@@ -12943,15 +12943,15 @@
       </c>
       <c r="I281" s="30"/>
     </row>
-    <row r="282" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="45">
       <c r="A282" s="28" t="s">
         <v>284</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D282" s="28" t="s">
         <v>901</v>
@@ -12970,15 +12970,15 @@
       </c>
       <c r="I282" s="30"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="28" t="s">
         <v>285</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D283" s="28"/>
       <c r="E283" s="28" t="s">
@@ -12995,15 +12995,15 @@
       </c>
       <c r="I283" s="30"/>
     </row>
-    <row r="284" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="30">
       <c r="A284" s="28" t="s">
         <v>286</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D284" s="28"/>
       <c r="E284" s="28" t="s">
@@ -13020,15 +13020,15 @@
       </c>
       <c r="I284" s="30"/>
     </row>
-    <row r="285" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="28" t="s">
         <v>287</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D285" s="28"/>
       <c r="E285" s="28" t="s">
@@ -13045,15 +13045,15 @@
       </c>
       <c r="I285" s="30"/>
     </row>
-    <row r="286" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="28" t="s">
         <v>288</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D286" s="28"/>
       <c r="E286" s="28" t="s">
@@ -13070,15 +13070,15 @@
       </c>
       <c r="I286" s="30"/>
     </row>
-    <row r="287" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="60">
       <c r="A287" s="28" t="s">
         <v>289</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D287" s="28"/>
       <c r="E287" s="28" t="s">
@@ -13097,15 +13097,15 @@
         <v>982</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="28" t="s">
         <v>290</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D288" s="28" t="s">
         <v>902</v>
@@ -13124,15 +13124,15 @@
       </c>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="28" t="s">
         <v>291</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>902</v>
@@ -13151,15 +13151,15 @@
       </c>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="28" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D290" s="28"/>
       <c r="E290" s="28" t="s">
@@ -13176,15 +13176,15 @@
       </c>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="28" t="s">
         <v>293</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D291" s="28"/>
       <c r="E291" s="28" t="s">
@@ -13201,15 +13201,15 @@
       </c>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="28" t="s">
         <v>294</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D292" s="28"/>
       <c r="E292" s="28" t="s">
@@ -13226,15 +13226,15 @@
       </c>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="60">
       <c r="A293" s="28" t="s">
         <v>295</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D293" s="28"/>
       <c r="E293" s="28" t="s">
@@ -13253,15 +13253,15 @@
         <v>983</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="28" t="s">
         <v>296</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D294" s="28" t="s">
         <v>903</v>
@@ -13280,15 +13280,15 @@
       </c>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="28" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D295" s="28" t="s">
         <v>903</v>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="45">
       <c r="A296" s="28" t="s">
         <v>298</v>
       </c>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="28" t="s">
         <v>299</v>
       </c>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="45">
       <c r="A298" s="28" t="s">
         <v>300</v>
       </c>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="60">
       <c r="A299" s="28" t="s">
         <v>301</v>
       </c>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="21" t="s">
         <v>302</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>588</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="I300" s="19"/>
     </row>
-    <row r="301" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="45">
       <c r="A301" s="28" t="s">
         <v>303</v>
       </c>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="28" t="s">
         <v>304</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="21" t="s">
         <v>305</v>
       </c>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="60">
       <c r="A304" s="28" t="s">
         <v>306</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="28" t="s">
         <v>307</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>32</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D305" s="28"/>
       <c r="E305" s="28" t="s">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="28" t="s">
         <v>308</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="28" t="s">
         <v>309</v>
       </c>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="28" t="s">
         <v>310</v>
       </c>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="28" t="s">
         <v>311</v>
       </c>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="30">
       <c r="A310" s="28" t="s">
         <v>312</v>
       </c>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="60">
       <c r="A311" s="28" t="s">
         <v>313</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>590</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D311" s="28"/>
       <c r="E311" s="28" t="s">
@@ -13713,7 +13713,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="60">
       <c r="A312" s="28" t="s">
         <v>314</v>
       </c>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="60">
       <c r="A313" s="28" t="s">
         <v>315</v>
       </c>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="60">
       <c r="A314" s="28" t="s">
         <v>316</v>
       </c>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="60">
       <c r="A315" s="28" t="s">
         <v>317</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="60">
       <c r="A316" s="28" t="s">
         <v>318</v>
       </c>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="60">
       <c r="A317" s="28" t="s">
         <v>319</v>
       </c>
@@ -13863,7 +13863,7 @@
       </c>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="45">
       <c r="A318" s="28" t="s">
         <v>320</v>
       </c>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="60">
       <c r="A319" s="28" t="s">
         <v>321</v>
       </c>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="60">
       <c r="A320" s="28" t="s">
         <v>322</v>
       </c>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="28" t="s">
         <v>323</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="45">
       <c r="A322" s="28" t="s">
         <v>324</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="45">
       <c r="A323" s="28" t="s">
         <v>325</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="90">
       <c r="A324" s="28" t="s">
         <v>326</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="105">
       <c r="A325" s="28" t="s">
         <v>327</v>
       </c>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="105">
       <c r="A326" s="28" t="s">
         <v>328</v>
       </c>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="105">
       <c r="A327" s="28" t="s">
         <v>329</v>
       </c>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="60">
       <c r="A328" s="28" t="s">
         <v>330</v>
       </c>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="I328" s="30"/>
     </row>
-    <row r="329" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="60">
       <c r="A329" s="28" t="s">
         <v>331</v>
       </c>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="60">
       <c r="A330" s="28" t="s">
         <v>332</v>
       </c>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="28" t="s">
         <v>333</v>
       </c>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="28" t="s">
         <v>334</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="45">
       <c r="A333" s="28" t="s">
         <v>335</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="45">
       <c r="A334" s="21" t="s">
         <v>336</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>590</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D334" s="28"/>
       <c r="E334" s="28" t="s">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="45">
       <c r="A335" s="28" t="s">
         <v>337</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>590</v>
       </c>
       <c r="C335" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D335" s="28"/>
       <c r="E335" s="28" t="s">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="60">
       <c r="A336" s="28" t="s">
         <v>338</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>590</v>
       </c>
       <c r="C336" s="19" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D336" s="28"/>
       <c r="E336" s="28" t="s">
@@ -14350,7 +14350,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="45">
       <c r="A337" s="28" t="s">
         <v>339</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>590</v>
       </c>
       <c r="C337" s="19" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D337" s="28"/>
       <c r="E337" s="28" t="s">
@@ -14377,7 +14377,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="45">
       <c r="A338" s="28" t="s">
         <v>340</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>590</v>
       </c>
       <c r="C338" s="19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D338" s="28"/>
       <c r="E338" s="28" t="s">
@@ -14404,7 +14404,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="28" t="s">
         <v>341</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>590</v>
       </c>
       <c r="C339" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D339" s="28"/>
       <c r="E339" s="28" t="s">
@@ -14431,7 +14431,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="45">
       <c r="A340" s="28" t="s">
         <v>342</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>590</v>
       </c>
       <c r="C340" s="19" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="28" t="s">
@@ -14458,7 +14458,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="45">
       <c r="A341" s="28" t="s">
         <v>343</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>590</v>
       </c>
       <c r="C341" s="19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D341" s="28"/>
       <c r="E341" s="28" t="s">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="45">
       <c r="A342" s="28" t="s">
         <v>344</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>590</v>
       </c>
       <c r="C342" s="19" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D342" s="28"/>
       <c r="E342" s="28" t="s">
@@ -14510,7 +14510,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="45">
       <c r="A343" s="28" t="s">
         <v>345</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="45">
       <c r="A344" s="28" t="s">
         <v>346</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="45">
       <c r="A345" s="28" t="s">
         <v>347</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="28" t="s">
         <v>348</v>
       </c>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="45">
       <c r="A347" s="28" t="s">
         <v>349</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>592</v>
       </c>
       <c r="C347" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
@@ -14643,7 +14643,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="45">
       <c r="A348" s="28" t="s">
         <v>350</v>
       </c>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="28" t="s">
         <v>351</v>
       </c>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="45">
       <c r="A350" s="28" t="s">
         <v>352</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>593</v>
       </c>
       <c r="C350" s="19" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D350" s="28"/>
       <c r="E350" s="28" t="s">
@@ -14720,7 +14720,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="90">
       <c r="A351" s="28" t="s">
         <v>353</v>
       </c>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="45">
       <c r="A352" s="28" t="s">
         <v>354</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="28" t="s">
         <v>355</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="60">
       <c r="A354" s="28" t="s">
         <v>356</v>
       </c>
@@ -14823,10 +14823,10 @@
         <v>17</v>
       </c>
       <c r="I354" s="19" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="45">
       <c r="A355" s="28" t="s">
         <v>357</v>
       </c>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="28" t="s">
         <v>358</v>
       </c>
@@ -14876,7 +14876,7 @@
       </c>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="21" t="s">
         <v>359</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>594</v>
       </c>
       <c r="C357" s="19" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D357" s="28"/>
       <c r="E357" s="28" t="s">
@@ -14903,7 +14903,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="60">
       <c r="A358" s="28" t="s">
         <v>360</v>
       </c>
@@ -14928,7 +14928,7 @@
       </c>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="45">
       <c r="A359" s="28" t="s">
         <v>361</v>
       </c>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="30">
       <c r="A360" s="28" t="s">
         <v>362</v>
       </c>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="30">
       <c r="A361" s="28" t="s">
         <v>363</v>
       </c>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="45">
       <c r="A362" s="28" t="s">
         <v>364</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="28" t="s">
         <v>365</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="30">
       <c r="A364" s="28" t="s">
         <v>366</v>
       </c>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="60">
       <c r="A365" s="28" t="s">
         <v>367</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="28" t="s">
         <v>368</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="45">
       <c r="A367" s="21" t="s">
         <v>1030</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="60">
       <c r="A368" s="28" t="s">
         <v>369</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="60">
       <c r="A369" s="28" t="s">
         <v>370</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9">
       <c r="A370" s="28" t="s">
         <v>371</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>595</v>
       </c>
       <c r="C370" s="19" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D370" s="28"/>
       <c r="E370" s="28" t="s">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="28" t="s">
         <v>372</v>
       </c>
@@ -15267,7 +15267,7 @@
       </c>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="60">
       <c r="A372" s="28" t="s">
         <v>373</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="45">
       <c r="A373" s="21" t="s">
         <v>374</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>596</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D373" s="28"/>
       <c r="E373" s="28" t="s">
@@ -15321,7 +15321,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="45">
       <c r="A374" s="28" t="s">
         <v>375</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="45">
       <c r="A375" s="28" t="s">
         <v>376</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="75">
       <c r="A376" s="28" t="s">
         <v>377</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="240">
       <c r="A377" s="28" t="s">
         <v>378</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="28" t="s">
         <v>379</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="I378" s="30"/>
     </row>
-    <row r="379" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="28" t="s">
         <v>380</v>
       </c>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="I379" s="30"/>
     </row>
-    <row r="380" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="28" t="s">
         <v>381</v>
       </c>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="I380" s="30"/>
     </row>
-    <row r="381" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="30">
       <c r="A381" s="28" t="s">
         <v>382</v>
       </c>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="I381" s="30"/>
     </row>
-    <row r="382" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="28" t="s">
         <v>383</v>
       </c>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="I382" s="30"/>
     </row>
-    <row r="383" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="60">
       <c r="A383" s="21" t="s">
         <v>384</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>602</v>
       </c>
       <c r="C383" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D383" s="28"/>
       <c r="E383" s="28" t="s">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="I383" s="30"/>
     </row>
-    <row r="384" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="60">
       <c r="A384" s="28" t="s">
         <v>385</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>602</v>
       </c>
       <c r="C384" s="19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D384" s="28"/>
       <c r="E384" s="28" t="s">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="I384" s="30"/>
     </row>
-    <row r="385" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="60">
       <c r="A385" s="28" t="s">
         <v>386</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>602</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D385" s="28"/>
       <c r="E385" s="28" t="s">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="I385" s="30"/>
     </row>
-    <row r="386" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="60">
       <c r="A386" s="28" t="s">
         <v>387</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>602</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D386" s="28"/>
       <c r="E386" s="28" t="s">
@@ -15654,7 +15654,7 @@
       </c>
       <c r="I386" s="30"/>
     </row>
-    <row r="387" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="60">
       <c r="A387" s="28" t="s">
         <v>388</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>602</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D387" s="28"/>
       <c r="E387" s="28" t="s">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="I387" s="30"/>
     </row>
-    <row r="388" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="60">
       <c r="A388" s="28" t="s">
         <v>389</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>602</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D388" s="28"/>
       <c r="E388" s="28" t="s">
@@ -15704,7 +15704,7 @@
       </c>
       <c r="I388" s="30"/>
     </row>
-    <row r="389" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="60">
       <c r="A389" s="28" t="s">
         <v>390</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>602</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D389" s="28"/>
       <c r="E389" s="28" t="s">
@@ -15729,7 +15729,7 @@
       </c>
       <c r="I389" s="30"/>
     </row>
-    <row r="390" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="60">
       <c r="A390" s="28" t="s">
         <v>391</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>602</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D390" s="28"/>
       <c r="E390" s="28" t="s">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="I390" s="30"/>
     </row>
-    <row r="391" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="60">
       <c r="A391" s="28" t="s">
         <v>392</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>602</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D391" s="28"/>
       <c r="E391" s="28" t="s">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="I391" s="30"/>
     </row>
-    <row r="392" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="45">
       <c r="A392" s="28" t="s">
         <v>393</v>
       </c>
@@ -15804,7 +15804,7 @@
       </c>
       <c r="I392" s="30"/>
     </row>
-    <row r="393" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="28" t="s">
         <v>394</v>
       </c>
@@ -15829,7 +15829,7 @@
       </c>
       <c r="I393" s="30"/>
     </row>
-    <row r="394" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="45">
       <c r="A394" s="21" t="s">
         <v>395</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>602</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D394" s="28"/>
       <c r="E394" s="28" t="s">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="I394" s="30"/>
     </row>
-    <row r="395" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="45">
       <c r="A395" s="28" t="s">
         <v>396</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>602</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D395" s="28"/>
       <c r="E395" s="28" t="s">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="I395" s="30"/>
     </row>
-    <row r="396" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="45">
       <c r="A396" s="28" t="s">
         <v>397</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>602</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D396" s="28"/>
       <c r="E396" s="28" t="s">
@@ -15904,7 +15904,7 @@
       </c>
       <c r="I396" s="30"/>
     </row>
-    <row r="397" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="45">
       <c r="A397" s="28" t="s">
         <v>398</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>602</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D397" s="28"/>
       <c r="E397" s="28" t="s">
@@ -15929,7 +15929,7 @@
       </c>
       <c r="I397" s="30"/>
     </row>
-    <row r="398" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="45">
       <c r="A398" s="28" t="s">
         <v>399</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>602</v>
       </c>
       <c r="C398" s="19" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D398" s="28"/>
       <c r="E398" s="28" t="s">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="I398" s="30"/>
     </row>
-    <row r="399" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="45">
       <c r="A399" s="28" t="s">
         <v>400</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>602</v>
       </c>
       <c r="C399" s="19" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="I399" s="30"/>
     </row>
-    <row r="400" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="45">
       <c r="A400" s="28" t="s">
         <v>401</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>602</v>
       </c>
       <c r="C400" s="19" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="I400" s="30"/>
     </row>
-    <row r="401" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="28" t="s">
         <v>402</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>602</v>
       </c>
       <c r="C401" s="19" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
@@ -16029,7 +16029,7 @@
       </c>
       <c r="I401" s="30"/>
     </row>
-    <row r="402" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="45">
       <c r="A402" s="28" t="s">
         <v>403</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>602</v>
       </c>
       <c r="C402" s="19" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="28" t="s">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="I402" s="30"/>
     </row>
-    <row r="403" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="30">
       <c r="A403" s="28" t="s">
         <v>404</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>603</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28" t="s">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="I403" s="30"/>
     </row>
-    <row r="404" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="60">
       <c r="A404" s="28" t="s">
         <v>405</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="I404" s="30"/>
     </row>
-    <row r="405" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="28" t="s">
         <v>406</v>
       </c>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="I405" s="30"/>
     </row>
-    <row r="406" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="28" t="s">
         <v>407</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>604</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D406" s="28"/>
       <c r="E406" s="28" t="s">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="I406" s="30"/>
     </row>
-    <row r="407" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="28" t="s">
         <v>408</v>
       </c>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="I407" s="30"/>
     </row>
-    <row r="408" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="45">
       <c r="A408" s="28" t="s">
         <v>409</v>
       </c>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="I408" s="30"/>
     </row>
-    <row r="409" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="28" t="s">
         <v>410</v>
       </c>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="I409" s="30"/>
     </row>
-    <row r="410" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="60">
       <c r="A410" s="28" t="s">
         <v>411</v>
       </c>
@@ -16254,7 +16254,7 @@
       </c>
       <c r="I410" s="30"/>
     </row>
-    <row r="411" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="60">
       <c r="A411" s="28" t="s">
         <v>412</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>605</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="I411" s="30"/>
     </row>
-    <row r="412" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="30">
       <c r="A412" s="28" t="s">
         <v>413</v>
       </c>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="I412" s="30"/>
     </row>
-    <row r="413" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="30">
       <c r="A413" s="28" t="s">
         <v>414</v>
       </c>
@@ -16329,7 +16329,7 @@
       </c>
       <c r="I413" s="30"/>
     </row>
-    <row r="414" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="28" t="s">
         <v>415</v>
       </c>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="I414" s="30"/>
     </row>
-    <row r="415" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="45">
       <c r="A415" s="28" t="s">
         <v>416</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="I415" s="30"/>
     </row>
-    <row r="416" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="45">
       <c r="A416" s="28" t="s">
         <v>417</v>
       </c>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="I416" s="30"/>
     </row>
-    <row r="417" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="45">
       <c r="A417" s="28" t="s">
         <v>418</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>605</v>
       </c>
       <c r="C417" s="19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D417" s="28"/>
       <c r="E417" s="28" t="s">
@@ -16429,7 +16429,7 @@
       </c>
       <c r="I417" s="30"/>
     </row>
-    <row r="418" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="28" t="s">
         <v>419</v>
       </c>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="I418" s="30"/>
     </row>
-    <row r="419" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="45">
       <c r="A419" s="28" t="s">
         <v>420</v>
       </c>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="I419" s="30"/>
     </row>
-    <row r="420" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="45">
       <c r="A420" s="28" t="s">
         <v>421</v>
       </c>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I420" s="30"/>
     </row>
-    <row r="421" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="45">
       <c r="A421" s="28" t="s">
         <v>422</v>
       </c>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="I421" s="30"/>
     </row>
-    <row r="422" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="45">
       <c r="A422" s="28" t="s">
         <v>423</v>
       </c>
@@ -16554,7 +16554,7 @@
       </c>
       <c r="I422" s="30"/>
     </row>
-    <row r="423" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="30">
       <c r="A423" s="28" t="s">
         <v>424</v>
       </c>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="I423" s="30"/>
     </row>
-    <row r="424" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="45">
       <c r="A424" s="28" t="s">
         <v>425</v>
       </c>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I424" s="30"/>
     </row>
-    <row r="425" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="60">
       <c r="A425" s="28" t="s">
         <v>426</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="I425" s="30"/>
     </row>
-    <row r="426" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="28" t="s">
         <v>427</v>
       </c>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="I426" s="30"/>
     </row>
-    <row r="427" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="28" t="s">
         <v>428</v>
       </c>
@@ -16679,7 +16679,7 @@
       </c>
       <c r="I427" s="30"/>
     </row>
-    <row r="428" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="28" t="s">
         <v>429</v>
       </c>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="I428" s="30"/>
     </row>
-    <row r="429" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="28" t="s">
         <v>430</v>
       </c>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I429" s="30"/>
     </row>
-    <row r="430" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="60">
       <c r="A430" s="28" t="s">
         <v>431</v>
       </c>
@@ -16754,7 +16754,7 @@
       </c>
       <c r="I430" s="30"/>
     </row>
-    <row r="431" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="28" t="s">
         <v>432</v>
       </c>
@@ -16779,7 +16779,7 @@
       </c>
       <c r="I431" s="30"/>
     </row>
-    <row r="432" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="75">
       <c r="A432" s="28" t="s">
         <v>433</v>
       </c>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="I432" s="30"/>
     </row>
-    <row r="433" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="28" t="s">
         <v>434</v>
       </c>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="I433" s="30"/>
     </row>
-    <row r="434" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="28" t="s">
         <v>435</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>610</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D434" s="28"/>
       <c r="E434" s="28" t="s">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="I434" s="30"/>
     </row>
-    <row r="435" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="28" t="s">
         <v>436</v>
       </c>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="I435" s="30"/>
     </row>
-    <row r="436" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="28" t="s">
         <v>437</v>
       </c>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="I436" s="30"/>
     </row>
-    <row r="437" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="30">
       <c r="A437" s="28" t="s">
         <v>438</v>
       </c>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="I437" s="30"/>
     </row>
-    <row r="438" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="45">
       <c r="A438" s="28" t="s">
         <v>439</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>610</v>
       </c>
       <c r="C438" s="19" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D438" s="28"/>
       <c r="E438" s="28" t="s">
@@ -16954,7 +16954,7 @@
       </c>
       <c r="I438" s="30"/>
     </row>
-    <row r="439" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="60">
       <c r="A439" s="28" t="s">
         <v>440</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I439" s="30"/>
     </row>
-    <row r="440" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="60">
       <c r="A440" s="28" t="s">
         <v>441</v>
       </c>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="I440" s="30"/>
     </row>
-    <row r="441" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="60">
       <c r="A441" s="28" t="s">
         <v>442</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="I441" s="30"/>
     </row>
-    <row r="442" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="60">
       <c r="A442" s="28" t="s">
         <v>443</v>
       </c>
@@ -17054,7 +17054,7 @@
       </c>
       <c r="I442" s="30"/>
     </row>
-    <row r="443" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="60">
       <c r="A443" s="28" t="s">
         <v>444</v>
       </c>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="I443" s="30"/>
     </row>
-    <row r="444" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="45">
       <c r="A444" s="28" t="s">
         <v>445</v>
       </c>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="I444" s="30"/>
     </row>
-    <row r="445" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="60">
       <c r="A445" s="28" t="s">
         <v>446</v>
       </c>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="I445" s="30"/>
     </row>
-    <row r="446" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="45">
       <c r="A446" s="28" t="s">
         <v>447</v>
       </c>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="I446" s="30"/>
     </row>
-    <row r="447" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="28" t="s">
         <v>448</v>
       </c>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="I447" s="30"/>
     </row>
-    <row r="448" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" ht="60">
       <c r="A448" s="28" t="s">
         <v>449</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="I448" s="30"/>
     </row>
-    <row r="449" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="28" t="s">
         <v>450</v>
       </c>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="I449" s="30"/>
     </row>
-    <row r="450" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="90">
       <c r="A450" s="28" t="s">
         <v>451</v>
       </c>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="I450" s="30"/>
     </row>
-    <row r="451" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="75">
       <c r="A451" s="28" t="s">
         <v>452</v>
       </c>
@@ -17279,7 +17279,7 @@
       </c>
       <c r="I451" s="30"/>
     </row>
-    <row r="452" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="28" t="s">
         <v>453</v>
       </c>
@@ -17304,7 +17304,7 @@
       </c>
       <c r="I452" s="30"/>
     </row>
-    <row r="453" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="60">
       <c r="A453" s="28" t="s">
         <v>454</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>614</v>
       </c>
       <c r="C453" s="19" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D453" s="28"/>
       <c r="E453" s="28" t="s">
@@ -17329,7 +17329,7 @@
       </c>
       <c r="I453" s="30"/>
     </row>
-    <row r="454" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="60">
       <c r="A454" s="28" t="s">
         <v>455</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>614</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D454" s="28"/>
       <c r="E454" s="28" t="s">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="I454" s="30"/>
     </row>
-    <row r="455" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="75">
       <c r="A455" s="28" t="s">
         <v>456</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>614</v>
       </c>
       <c r="C455" s="19" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D455" s="28"/>
       <c r="E455" s="28" t="s">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="I455" s="30"/>
     </row>
-    <row r="456" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="75">
       <c r="A456" s="28" t="s">
         <v>457</v>
       </c>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="I456" s="30"/>
     </row>
-    <row r="457" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="30">
       <c r="A457" s="28" t="s">
         <v>458</v>
       </c>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="I457" s="30"/>
     </row>
-    <row r="458" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="45">
       <c r="A458" s="28" t="s">
         <v>459</v>
       </c>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="I458" s="30"/>
     </row>
-    <row r="459" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="28" t="s">
         <v>460</v>
       </c>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="I459" s="30"/>
     </row>
-    <row r="460" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="75">
       <c r="A460" s="28" t="s">
         <v>461</v>
       </c>
@@ -17504,7 +17504,7 @@
       </c>
       <c r="I460" s="30"/>
     </row>
-    <row r="461" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="75">
       <c r="A461" s="28" t="s">
         <v>462</v>
       </c>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="I461" s="30"/>
     </row>
-    <row r="462" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="60">
       <c r="A462" s="28" t="s">
         <v>463</v>
       </c>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="I462" s="30"/>
     </row>
-    <row r="463" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="60">
       <c r="A463" s="28" t="s">
         <v>464</v>
       </c>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="I463" s="30"/>
     </row>
-    <row r="464" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="75">
       <c r="A464" s="28" t="s">
         <v>465</v>
       </c>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="I464" s="30"/>
     </row>
-    <row r="465" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="75">
       <c r="A465" s="28" t="s">
         <v>466</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>616</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D465" s="28"/>
       <c r="E465" s="28" t="s">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="I465" s="30"/>
     </row>
-    <row r="466" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="30">
       <c r="A466" s="28" t="s">
         <v>467</v>
       </c>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="I466" s="30"/>
     </row>
-    <row r="467" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="28" t="s">
         <v>468</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="I467" s="30"/>
     </row>
-    <row r="468" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="60">
       <c r="A468" s="28" t="s">
         <v>469</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="I468" s="30"/>
     </row>
-    <row r="469" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="75">
       <c r="A469" s="28" t="s">
         <v>470</v>
       </c>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="I469" s="30"/>
     </row>
-    <row r="470" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="75">
       <c r="A470" s="28" t="s">
         <v>471</v>
       </c>
@@ -17754,7 +17754,7 @@
       </c>
       <c r="I470" s="30"/>
     </row>
-    <row r="471" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="45">
       <c r="A471" s="28" t="s">
         <v>472</v>
       </c>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="I471" s="30"/>
     </row>
-    <row r="472" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="45">
       <c r="A472" s="28" t="s">
         <v>473</v>
       </c>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="I472" s="30"/>
     </row>
-    <row r="473" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="45">
       <c r="A473" s="28" t="s">
         <v>474</v>
       </c>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="I473" s="30"/>
     </row>
-    <row r="474" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="28" t="s">
         <v>475</v>
       </c>
@@ -17854,7 +17854,7 @@
       </c>
       <c r="I474" s="30"/>
     </row>
-    <row r="475" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="45">
       <c r="A475" s="28" t="s">
         <v>476</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="28" t="s">
         <v>477</v>
       </c>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="I476" s="30"/>
     </row>
-    <row r="477" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="28" t="s">
         <v>478</v>
       </c>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="I477" s="30"/>
     </row>
-    <row r="478" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="30">
       <c r="A478" s="28" t="s">
         <v>479</v>
       </c>
@@ -17962,7 +17962,7 @@
       </c>
       <c r="I478" s="30"/>
     </row>
-    <row r="479" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="45">
       <c r="A479" s="28" t="s">
         <v>480</v>
       </c>
@@ -17987,7 +17987,7 @@
       </c>
       <c r="I479" s="30"/>
     </row>
-    <row r="480" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="45">
       <c r="A480" s="28" t="s">
         <v>481</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>617</v>
       </c>
       <c r="C480" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D480" s="28"/>
       <c r="E480" s="28" t="s">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="I480" s="30"/>
     </row>
-    <row r="481" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="45">
       <c r="A481" s="28" t="s">
         <v>482</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>617</v>
       </c>
       <c r="C481" s="19" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D481" s="28" t="s">
         <v>905</v>
@@ -18041,7 +18041,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="45">
       <c r="A482" s="28" t="s">
         <v>483</v>
       </c>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="I482" s="30"/>
     </row>
-    <row r="483" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="45">
       <c r="A483" s="28" t="s">
         <v>484</v>
       </c>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="I483" s="30"/>
     </row>
-    <row r="484" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="45">
       <c r="A484" s="28" t="s">
         <v>485</v>
       </c>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="I484" s="30"/>
     </row>
-    <row r="485" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="45">
       <c r="A485" s="28" t="s">
         <v>486</v>
       </c>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="I485" s="30"/>
     </row>
-    <row r="486" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="45">
       <c r="A486" s="28" t="s">
         <v>487</v>
       </c>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="I486" s="30"/>
     </row>
-    <row r="487" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="60">
       <c r="A487" s="28" t="s">
         <v>488</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>617</v>
       </c>
       <c r="C487" s="19" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D487" s="28" t="s">
         <v>906</v>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="I487" s="30"/>
     </row>
-    <row r="488" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="60">
       <c r="A488" s="28" t="s">
         <v>489</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="45">
       <c r="A489" s="28" t="s">
         <v>490</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>617</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D489" s="28" t="s">
         <v>907</v>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="I489" s="30"/>
     </row>
-    <row r="490" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="45">
       <c r="A490" s="28" t="s">
         <v>491</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="45">
       <c r="A491" s="28" t="s">
         <v>492</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="45">
       <c r="A492" s="28" t="s">
         <v>493</v>
       </c>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="I492" s="30"/>
     </row>
-    <row r="493" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="45">
       <c r="A493" s="28" t="s">
         <v>494</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>617</v>
       </c>
       <c r="C493" s="19" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D493" s="28"/>
       <c r="E493" s="28" t="s">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="I493" s="30"/>
     </row>
-    <row r="494" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="75">
       <c r="A494" s="28" t="s">
         <v>495</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>617</v>
       </c>
       <c r="C494" s="19" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D494" s="28" t="s">
         <v>908</v>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="I494" s="30"/>
     </row>
-    <row r="495" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" ht="60">
       <c r="A495" s="28" t="s">
         <v>496</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>617</v>
       </c>
       <c r="C495" s="19" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D495" s="28" t="s">
         <v>908</v>
@@ -18417,7 +18417,7 @@
       </c>
       <c r="I495" s="30"/>
     </row>
-    <row r="496" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="60">
       <c r="A496" s="28" t="s">
         <v>497</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>617</v>
       </c>
       <c r="C496" s="19" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D496" s="28" t="s">
         <v>908</v>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="I496" s="30"/>
     </row>
-    <row r="497" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="28" t="s">
         <v>498</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>617</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D497" s="28"/>
       <c r="E497" s="28" t="s">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="I497" s="30"/>
     </row>
-    <row r="498" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="60">
       <c r="A498" s="28" t="s">
         <v>1026</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>617</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D498" s="28" t="s">
         <v>908</v>
@@ -18496,18 +18496,18 @@
       </c>
       <c r="I498" s="30"/>
     </row>
-    <row r="499" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="45">
       <c r="A499" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B499" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C499" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D499" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E499" s="28" t="s">
         <v>22</v>
@@ -18523,15 +18523,15 @@
       </c>
       <c r="I499" s="31"/>
     </row>
-    <row r="500" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="45">
       <c r="A500" s="33" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B500" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C500" s="31" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D500" s="33"/>
       <c r="E500" s="28" t="s">
@@ -18548,15 +18548,15 @@
       </c>
       <c r="I500" s="31"/>
     </row>
-    <row r="501" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="45">
       <c r="A501" s="33" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B501" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C501" s="31" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D501" s="33"/>
       <c r="E501" s="28" t="s">
@@ -18573,18 +18573,18 @@
       </c>
       <c r="I501" s="31"/>
     </row>
-    <row r="502" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="45">
       <c r="A502" s="33" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B502" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D502" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E502" s="28" t="s">
         <v>22</v>
@@ -18602,15 +18602,15 @@
         <v>965</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="45">
       <c r="A503" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B503" s="29" t="s">
         <v>617</v>
       </c>
       <c r="C503" s="19" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D503" s="21" t="s">
         <v>1027</v>
@@ -18631,7 +18631,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="30">
       <c r="A504" s="28" t="s">
         <v>499</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>617</v>
       </c>
       <c r="C504" s="19" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D504" s="21" t="s">
         <v>1027</v>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="I504" s="30"/>
     </row>
-    <row r="505" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="45">
       <c r="A505" s="28" t="s">
         <v>500</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>617</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D505" s="21" t="s">
         <v>1027</v>
@@ -18685,7 +18685,7 @@
       </c>
       <c r="I505" s="30"/>
     </row>
-    <row r="506" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="45">
       <c r="A506" s="28" t="s">
         <v>501</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>617</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D506" s="28"/>
       <c r="E506" s="28" t="s">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="I506" s="30"/>
     </row>
-    <row r="507" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="45">
       <c r="A507" s="28" t="s">
         <v>502</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>617</v>
       </c>
       <c r="C507" s="19" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D507" s="28"/>
       <c r="E507" s="28" t="s">
@@ -18735,15 +18735,15 @@
       </c>
       <c r="I507" s="30"/>
     </row>
-    <row r="508" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="45">
       <c r="A508" s="28" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B508" s="29" t="s">
         <v>617</v>
       </c>
       <c r="C508" s="19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D508" s="28"/>
       <c r="E508" s="28" t="s">
@@ -18762,7 +18762,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="30">
       <c r="A509" s="28" t="s">
         <v>503</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>617</v>
       </c>
       <c r="C509" s="19" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D509" s="28"/>
       <c r="E509" s="28" t="s">
@@ -18787,7 +18787,7 @@
       </c>
       <c r="I509" s="30"/>
     </row>
-    <row r="510" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="75">
       <c r="A510" s="21" t="s">
         <v>504</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>617</v>
       </c>
       <c r="C510" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D510" s="28" t="s">
         <v>909</v>
@@ -18816,7 +18816,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="75">
       <c r="A511" s="28" t="s">
         <v>505</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>617</v>
       </c>
       <c r="C511" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D511" s="28" t="s">
         <v>909</v>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="I511" s="30"/>
     </row>
-    <row r="512" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" ht="45">
       <c r="A512" s="21" t="s">
         <v>506</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>617</v>
       </c>
       <c r="C512" s="19" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D512" s="28" t="s">
         <v>909</v>
@@ -18872,7 +18872,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="60">
       <c r="A513" s="28" t="s">
         <v>513</v>
       </c>
@@ -18901,18 +18901,18 @@
         <v>965</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="45">
       <c r="A514" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B514" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C514" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D514" s="33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E514" s="28" t="s">
         <v>22</v>
@@ -18930,18 +18930,18 @@
         <v>965</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="45">
       <c r="A515" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B515" s="34" t="s">
         <v>617</v>
       </c>
       <c r="C515" s="31" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D515" s="33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E515" s="28" t="s">
         <v>22</v>
@@ -18959,7 +18959,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="30">
       <c r="A516" s="28" t="s">
         <v>507</v>
       </c>
@@ -18967,7 +18967,7 @@
         <v>617</v>
       </c>
       <c r="C516" s="19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D516" s="28"/>
       <c r="E516" s="28" t="s">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="I516" s="30"/>
     </row>
-    <row r="517" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="45">
       <c r="A517" s="28" t="s">
         <v>508</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>617</v>
       </c>
       <c r="C517" s="19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D517" s="28"/>
       <c r="E517" s="28" t="s">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I517" s="30"/>
     </row>
-    <row r="518" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="45">
       <c r="A518" s="28" t="s">
         <v>509</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>617</v>
       </c>
       <c r="C518" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D518" s="28"/>
       <c r="E518" s="28" t="s">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="I518" s="30"/>
     </row>
-    <row r="519" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="45">
       <c r="A519" s="28" t="s">
         <v>510</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>617</v>
       </c>
       <c r="C519" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D519" s="28"/>
       <c r="E519" s="28" t="s">
@@ -19059,7 +19059,7 @@
       </c>
       <c r="I519" s="30"/>
     </row>
-    <row r="520" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="30">
       <c r="A520" s="28" t="s">
         <v>511</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>617</v>
       </c>
       <c r="C520" s="19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D520" s="28"/>
       <c r="E520" s="28" t="s">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="I520" s="30"/>
     </row>
-    <row r="521" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="45">
       <c r="A521" s="21" t="s">
         <v>512</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>617</v>
       </c>
       <c r="C521" s="19" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D521" s="28"/>
       <c r="E521" s="28" t="s">
@@ -19111,7 +19111,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="75">
       <c r="A522" s="28" t="s">
         <v>514</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>617</v>
       </c>
       <c r="C522" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D522" s="28" t="s">
         <v>911</v>
@@ -19140,7 +19140,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="75">
       <c r="A523" s="28" t="s">
         <v>515</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>617</v>
       </c>
       <c r="C523" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D523" s="28" t="s">
         <v>911</v>
@@ -19167,7 +19167,7 @@
       </c>
       <c r="I523" s="30"/>
     </row>
-    <row r="524" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="75">
       <c r="A524" s="28" t="s">
         <v>516</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="45">
       <c r="A525" s="28" t="s">
         <v>517</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" ht="45">
       <c r="A526" s="28" t="s">
         <v>518</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="45">
       <c r="A527" s="28" t="s">
         <v>519</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="45">
       <c r="A528" s="28" t="s">
         <v>520</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>617</v>
       </c>
       <c r="C528" s="19" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D528" s="28" t="s">
         <v>915</v>
@@ -19312,7 +19312,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="45">
       <c r="A529" s="28" t="s">
         <v>521</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>617</v>
       </c>
       <c r="C529" s="19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D529" s="28" t="s">
         <v>915</v>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="I529" s="30"/>
     </row>
-    <row r="530" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="60">
       <c r="A530" s="28" t="s">
         <v>522</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="60">
       <c r="A531" s="28" t="s">
         <v>523</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="60">
       <c r="A532" s="28" t="s">
         <v>524</v>
       </c>
@@ -19426,7 +19426,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="60">
       <c r="A533" s="28" t="s">
         <v>525</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="60">
       <c r="A534" s="28" t="s">
         <v>526</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="60">
       <c r="A535" s="28" t="s">
         <v>527</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="60">
       <c r="A536" s="28" t="s">
         <v>528</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="60">
       <c r="A537" s="28" t="s">
         <v>529</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="45">
       <c r="A538" s="28" t="s">
         <v>530</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="60">
       <c r="A539" s="28" t="s">
         <v>531</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>617</v>
       </c>
       <c r="C539" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D539" s="28" t="s">
         <v>924</v>
@@ -19627,7 +19627,7 @@
       </c>
       <c r="I539" s="30"/>
     </row>
-    <row r="540" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="45">
       <c r="A540" s="28" t="s">
         <v>532</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="45">
       <c r="A541" s="28" t="s">
         <v>533</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>617</v>
       </c>
       <c r="C541" s="19" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D541" s="28" t="s">
         <v>925</v>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="I541" s="30"/>
     </row>
-    <row r="542" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="45">
       <c r="A542" s="28" t="s">
         <v>534</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="45">
       <c r="A543" s="28" t="s">
         <v>535</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="45">
       <c r="A544" s="28" t="s">
         <v>536</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="60">
       <c r="A545" s="28" t="s">
         <v>537</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="60">
       <c r="A546" s="28" t="s">
         <v>538</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>617</v>
       </c>
       <c r="C546" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D546" s="28" t="s">
         <v>928</v>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="I546" s="30"/>
     </row>
-    <row r="547" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" ht="60">
       <c r="A547" s="28" t="s">
         <v>539</v>
       </c>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="I547" s="30"/>
     </row>
-    <row r="548" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="60">
       <c r="A548" s="28" t="s">
         <v>540</v>
       </c>
@@ -19880,7 +19880,7 @@
       </c>
       <c r="I548" s="30"/>
     </row>
-    <row r="549" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="60">
       <c r="A549" s="28" t="s">
         <v>541</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>617</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D549" s="28" t="s">
         <v>928</v>
@@ -19907,7 +19907,7 @@
       </c>
       <c r="I549" s="30"/>
     </row>
-    <row r="550" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="45">
       <c r="A550" s="28" t="s">
         <v>542</v>
       </c>
@@ -19934,7 +19934,7 @@
       </c>
       <c r="I550" s="30"/>
     </row>
-    <row r="551" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="45">
       <c r="A551" s="28" t="s">
         <v>543</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="45">
       <c r="A552" s="28" t="s">
         <v>544</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="60">
       <c r="A553" s="28" t="s">
         <v>545</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="45">
       <c r="A554" s="21" t="s">
         <v>1029</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="60">
       <c r="A555" s="21" t="s">
         <v>1028</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="75">
       <c r="A556" s="28" t="s">
         <v>546</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="45">
       <c r="A557" s="28" t="s">
         <v>547</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="45">
       <c r="A558" s="28" t="s">
         <v>548</v>
       </c>
@@ -20166,7 +20166,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="60">
       <c r="A559" s="28" t="s">
         <v>549</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="60">
       <c r="A560" s="28" t="s">
         <v>550</v>
       </c>
@@ -20218,7 +20218,7 @@
       </c>
       <c r="I560" s="30"/>
     </row>
-    <row r="561" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="60">
       <c r="A561" s="28" t="s">
         <v>551</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="60">
       <c r="A562" s="28" t="s">
         <v>552</v>
       </c>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="I562" s="30"/>
     </row>
-    <row r="563" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="60">
       <c r="A563" s="28" t="s">
         <v>553</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>617</v>
       </c>
       <c r="C563" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D563" s="28"/>
       <c r="E563" s="28" t="s">
@@ -20297,7 +20297,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="60">
       <c r="A564" s="28" t="s">
         <v>554</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>617</v>
       </c>
       <c r="C564" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D564" s="28"/>
       <c r="E564" s="28" t="s">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="I564" s="30"/>
     </row>
-    <row r="565" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="45">
       <c r="A565" s="28" t="s">
         <v>555</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>617</v>
       </c>
       <c r="C565" s="19" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D565" s="28"/>
       <c r="E565" s="28" t="s">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="I565" s="30"/>
     </row>
-    <row r="566" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="45">
       <c r="A566" s="28" t="s">
         <v>556</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>617</v>
       </c>
       <c r="C566" s="19" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D566" s="28"/>
       <c r="E566" s="28" t="s">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="I566" s="30"/>
     </row>
-    <row r="567" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="45">
       <c r="A567" s="28" t="s">
         <v>557</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>617</v>
       </c>
       <c r="C567" s="19" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D567" s="28"/>
       <c r="E567" s="28" t="s">
@@ -20397,7 +20397,7 @@
       </c>
       <c r="I567" s="30"/>
     </row>
-    <row r="568" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="45">
       <c r="A568" s="28" t="s">
         <v>558</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="45">
       <c r="A569" s="28" t="s">
         <v>559</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="30">
       <c r="A570" s="28" t="s">
         <v>560</v>
       </c>
@@ -20463,7 +20463,7 @@
         <v>617</v>
       </c>
       <c r="C570" s="19" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D570" s="28"/>
       <c r="E570" s="28" t="s">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="I570" s="30"/>
     </row>
-    <row r="571" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="45">
       <c r="A571" s="28" t="s">
         <v>561</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>617</v>
       </c>
       <c r="C571" s="19" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D571" s="28"/>
       <c r="E571" s="28" t="s">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="I571" s="30"/>
     </row>
-    <row r="572" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="45">
       <c r="A572" s="28" t="s">
         <v>562</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>617</v>
       </c>
       <c r="C572" s="19" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D572" s="28"/>
       <c r="E572" s="28" t="s">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="I572" s="30"/>
     </row>
-    <row r="573" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="45">
       <c r="A573" s="28" t="s">
         <v>563</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>617</v>
       </c>
       <c r="C573" s="19" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="I573" s="30"/>
     </row>
-    <row r="574" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="30">
       <c r="A574" s="28" t="s">
         <v>564</v>
       </c>
@@ -20563,7 +20563,7 @@
         <v>617</v>
       </c>
       <c r="C574" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D574" s="28"/>
       <c r="E574" s="28" t="s">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="I574" s="30"/>
     </row>
-    <row r="575" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="30">
       <c r="A575" s="28" t="s">
         <v>565</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>617</v>
       </c>
       <c r="C575" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D575" s="28"/>
       <c r="E575" s="28" t="s">
@@ -20604,10 +20604,10 @@
         <v>17</v>
       </c>
       <c r="I575" s="19" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="576" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" ht="30">
       <c r="A576" s="28" t="s">
         <v>566</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>617</v>
       </c>
       <c r="C576" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D576" s="28"/>
       <c r="E576" s="28" t="s">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="I576" s="30"/>
     </row>
-    <row r="577" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" ht="45">
       <c r="A577" s="28" t="s">
         <v>567</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>617</v>
       </c>
       <c r="C577" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D577" s="28"/>
       <c r="E577" s="28" t="s">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="I577" s="30"/>
     </row>
-    <row r="578" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" ht="30">
       <c r="A578" s="28" t="s">
         <v>568</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>617</v>
       </c>
       <c r="C578" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D578" s="28"/>
       <c r="E578" s="28" t="s">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="I578" s="30"/>
     </row>
-    <row r="579" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" ht="45">
       <c r="A579" s="28" t="s">
         <v>569</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>617</v>
       </c>
       <c r="C579" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D579" s="28"/>
       <c r="E579" s="28" t="s">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="I579" s="30"/>
     </row>
-    <row r="580" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" ht="30">
       <c r="A580" s="28" t="s">
         <v>570</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>617</v>
       </c>
       <c r="C580" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D580" s="28"/>
       <c r="E580" s="28" t="s">
@@ -20732,7 +20732,7 @@
       </c>
       <c r="I580" s="30"/>
     </row>
-    <row r="581" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" ht="30">
       <c r="A581" s="21" t="s">
         <v>1022</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>617</v>
       </c>
       <c r="C581" s="19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D581" s="28"/>
       <c r="E581" s="28" t="s">
@@ -20756,10 +20756,10 @@
         <v>17</v>
       </c>
       <c r="I581" s="19" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="582" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" ht="45">
       <c r="A582" s="21" t="s">
         <v>1023</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" ht="90">
       <c r="A583" s="21" t="s">
         <v>1025</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>617</v>
       </c>
       <c r="C583" s="19" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D583" s="28"/>
       <c r="E583" s="28" t="s">
@@ -20813,7 +20813,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" ht="60">
       <c r="A584" s="28" t="s">
         <v>571</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>618</v>
       </c>
       <c r="C584" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D584" s="28"/>
       <c r="E584" s="28" t="s">
@@ -20840,7 +20840,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" ht="60">
       <c r="A585" s="28" t="s">
         <v>572</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>619</v>
       </c>
       <c r="C585" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D585" s="28"/>
       <c r="E585" s="28" t="s">
@@ -20867,12 +20867,17 @@
         <v>952</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9">
       <c r="A586" s="3"/>
       <c r="B586" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20880,11 +20885,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">

--- a/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXCNOTIF/MS-OXCNOTIF_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0E583-E305-4D85-939F-D1D7A29B707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249FFE90-F668-44EE-9B36-55BFFA4683C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4395,10 +4395,6 @@
     <t>[In Appendix A: Product Behavior] MessageFlags does specify the message flags of new mail that has been received.(Exchange 2007, Exchange 2010, Exchange 2016 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>19.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[In Appendix A: Product Behavior] &lt;6&gt; Section 2.2.1.3.3: Outlook 2013, Outlook 2016 andOutlook 2019 do not send the EcRRegisterPushNotification RPC method call. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4420,6 +4416,9 @@
   </si>
   <si>
     <t>[In RopRegisterNotification ROP Request Buffer] [NotificationTypes value] 0x0080: The server sends notifications to the client when SearchCompleted events occur within the scope of interest.</t>
+  </si>
+  <si>
+    <t>21.0</t>
   </si>
 </sst>
 </file>
@@ -4697,6 +4696,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4720,21 +4734,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5831,8 +5830,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5873,130 +5872,130 @@
         <v>25</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="11">
-        <v>43374</v>
+        <v>44516</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="25" t="s">
@@ -6008,12 +6007,12 @@
       <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="26" t="s">
@@ -6025,12 +6024,12 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
@@ -6042,12 +6041,12 @@
       <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
@@ -6059,57 +6058,57 @@
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="64.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>1366</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="30">
@@ -6607,13 +6606,13 @@
     </row>
     <row r="38" spans="1:9" ht="30">
       <c r="A38" s="21" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>575</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
@@ -7427,7 +7426,7 @@
         <v>579</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28" t="s">
@@ -18452,7 +18451,7 @@
         <v>617</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D497" s="28"/>
       <c r="E497" s="28" t="s">
@@ -18477,7 +18476,7 @@
         <v>617</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D498" s="28" t="s">
         <v>908</v>
@@ -18504,7 +18503,7 @@
         <v>617</v>
       </c>
       <c r="C499" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D499" s="33" t="s">
         <v>1311</v>
@@ -20873,11 +20872,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -20885,6 +20879,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A584:B585 D584:I585 A509:I583 A162:B162 D162:I162 A163:I507 A20:I161">
